--- a/FON Macroeconomic Data.xlsx
+++ b/FON Macroeconomic Data.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr date1904="false"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Population" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="CPI (2020=100)" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="CPI (2021=100)" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Nominal GDP ($M)" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Real GDP (2020 $M)" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Real GDP (2021 $M)" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="Nominal GDP per Capita ($)" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Real GDP per Capita (2020 $)" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Real GDP per Capita (2021 $)" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
 </workbook>
 </file>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
   <fonts count="3">
     <font>
@@ -409,14 +409,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1">
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
     <col min="1" max="1" width="13.71" hidden="0" customWidth="1"/>
     <col min="2" max="2" width="13.71" hidden="0" customWidth="1"/>
@@ -6533,7 +6533,7 @@
         <v>2017</v>
       </c>
       <c r="B152" s="1" t="n">
-        <v>36494669</v>
+        <v>36494642.75</v>
       </c>
       <c r="C152" s="1" t="n">
         <v>528249</v>
@@ -6566,7 +6566,7 @@
         <v>4929384</v>
       </c>
       <c r="M152" s="1" t="n">
-        <v>39669</v>
+        <v>39610</v>
       </c>
       <c r="N152" s="1" t="n">
         <v>44891</v>
@@ -6580,7 +6580,7 @@
         <v>2018</v>
       </c>
       <c r="B153" s="1" t="n">
-        <v>37002837.5</v>
+        <v>37003077</v>
       </c>
       <c r="C153" s="1" t="n">
         <v>525560</v>
@@ -6613,7 +6613,7 @@
         <v>5010476</v>
       </c>
       <c r="M153" s="1" t="n">
-        <v>40613</v>
+        <v>40519</v>
       </c>
       <c r="N153" s="1" t="n">
         <v>44981</v>
@@ -6627,46 +6627,46 @@
         <v>2019</v>
       </c>
       <c r="B154" s="1" t="n">
-        <v>37534205.25</v>
+        <v>37540202.5</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>523476</v>
+        <v>523427</v>
       </c>
       <c r="D154" s="1" t="n">
-        <v>157262</v>
+        <v>157419</v>
       </c>
       <c r="E154" s="1" t="n">
-        <v>969747</v>
+        <v>970243</v>
       </c>
       <c r="F154" s="1" t="n">
-        <v>776868</v>
+        <v>777128</v>
       </c>
       <c r="G154" s="1" t="n">
-        <v>8501703</v>
+        <v>8503483</v>
       </c>
       <c r="H154" s="1" t="n">
-        <v>14544718</v>
+        <v>14544701</v>
       </c>
       <c r="I154" s="1" t="n">
-        <v>1369540</v>
+        <v>1369954</v>
       </c>
       <c r="J154" s="1" t="n">
-        <v>1172302</v>
+        <v>1172479</v>
       </c>
       <c r="K154" s="1" t="n">
-        <v>4361694</v>
+        <v>4362576</v>
       </c>
       <c r="L154" s="1" t="n">
-        <v>5090955</v>
+        <v>5094796</v>
       </c>
       <c r="M154" s="1" t="n">
-        <v>41477</v>
+        <v>41362</v>
       </c>
       <c r="N154" s="1" t="n">
-        <v>45028</v>
+        <v>45070</v>
       </c>
       <c r="O154" s="1" t="n">
-        <v>38614</v>
+        <v>38592</v>
       </c>
     </row>
     <row r="155">
@@ -6674,46 +6674,91 @@
         <v>2020</v>
       </c>
       <c r="B155" s="1" t="n">
-        <v>37973093.5</v>
+        <v>37994718.25</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>522103</v>
+        <v>521364</v>
       </c>
       <c r="D155" s="1" t="n">
-        <v>159625</v>
+        <v>161329</v>
       </c>
       <c r="E155" s="1" t="n">
-        <v>979351</v>
+        <v>981889</v>
       </c>
       <c r="F155" s="1" t="n">
-        <v>781476</v>
+        <v>783204</v>
       </c>
       <c r="G155" s="1" t="n">
-        <v>8574571</v>
+        <v>8578300</v>
       </c>
       <c r="H155" s="1" t="n">
-        <v>14734014</v>
+        <v>14745712</v>
       </c>
       <c r="I155" s="1" t="n">
-        <v>1379263</v>
+        <v>1380648</v>
       </c>
       <c r="J155" s="1" t="n">
-        <v>1178681</v>
+        <v>1179300</v>
       </c>
       <c r="K155" s="1" t="n">
-        <v>4421876</v>
+        <v>4420029</v>
       </c>
       <c r="L155" s="1" t="n">
-        <v>5147712</v>
+        <v>5158728</v>
       </c>
       <c r="M155" s="1" t="n">
-        <v>42052</v>
+        <v>42174</v>
       </c>
       <c r="N155" s="1" t="n">
-        <v>45161</v>
+        <v>45372</v>
       </c>
       <c r="O155" s="1" t="n">
-        <v>39353</v>
+        <v>39155</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B156" s="1"/>
+      <c r="C156" s="1" t="n">
+        <v>520553</v>
+      </c>
+      <c r="D156" s="1" t="n">
+        <v>164318</v>
+      </c>
+      <c r="E156" s="1" t="n">
+        <v>992055</v>
+      </c>
+      <c r="F156" s="1" t="n">
+        <v>789225</v>
+      </c>
+      <c r="G156" s="1" t="n">
+        <v>8604495</v>
+      </c>
+      <c r="H156" s="1" t="n">
+        <v>14826276</v>
+      </c>
+      <c r="I156" s="1" t="n">
+        <v>1383765</v>
+      </c>
+      <c r="J156" s="1" t="n">
+        <v>1179844</v>
+      </c>
+      <c r="K156" s="1" t="n">
+        <v>4442879</v>
+      </c>
+      <c r="L156" s="1" t="n">
+        <v>5214805</v>
+      </c>
+      <c r="M156" s="1" t="n">
+        <v>42986</v>
+      </c>
+      <c r="N156" s="1" t="n">
+        <v>45504</v>
+      </c>
+      <c r="O156" s="1" t="n">
+        <v>39403</v>
       </c>
     </row>
   </sheetData>
@@ -6723,14 +6768,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0">
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
     <col min="1" max="1" width="13.71" hidden="0" customWidth="1"/>
     <col min="2" max="2" width="13.71" hidden="0" customWidth="1"/>
@@ -11884,6 +11929,25 @@
       <c r="N155" s="4"/>
       <c r="O155" s="4"/>
     </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B156" s="4"/>
+      <c r="C156" s="4"/>
+      <c r="D156" s="4"/>
+      <c r="E156" s="4"/>
+      <c r="F156" s="4"/>
+      <c r="G156" s="4"/>
+      <c r="H156" s="4"/>
+      <c r="I156" s="4"/>
+      <c r="J156" s="4"/>
+      <c r="K156" s="4"/>
+      <c r="L156" s="4"/>
+      <c r="M156" s="4"/>
+      <c r="N156" s="4"/>
+      <c r="O156" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -11891,14 +11955,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0">
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
     <col min="1" max="1" width="13.71" hidden="0" customWidth="1"/>
     <col min="2" max="2" width="13.71" hidden="0" customWidth="1"/>
@@ -16653,43 +16717,43 @@
         <v>2231168</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>33961</v>
+        <v>34589</v>
       </c>
       <c r="D153" s="1" t="n">
-        <v>7033</v>
+        <v>6983</v>
       </c>
       <c r="E153" s="1" t="n">
-        <v>44877</v>
+        <v>44875</v>
       </c>
       <c r="F153" s="1" t="n">
-        <v>37105</v>
+        <v>37158</v>
       </c>
       <c r="G153" s="1" t="n">
-        <v>441388</v>
+        <v>439685</v>
       </c>
       <c r="H153" s="1" t="n">
-        <v>859079</v>
+        <v>860104</v>
       </c>
       <c r="I153" s="1" t="n">
-        <v>73086</v>
+        <v>73372</v>
       </c>
       <c r="J153" s="1" t="n">
-        <v>82847</v>
+        <v>83672</v>
       </c>
       <c r="K153" s="1" t="n">
-        <v>343705</v>
+        <v>346160</v>
       </c>
       <c r="L153" s="1" t="n">
-        <v>296135</v>
+        <v>297392</v>
       </c>
       <c r="M153" s="1" t="n">
-        <v>3056</v>
+        <v>2993</v>
       </c>
       <c r="N153" s="1" t="n">
-        <v>4738</v>
+        <v>4708</v>
       </c>
       <c r="O153" s="1" t="n">
-        <v>3353</v>
+        <v>3168</v>
       </c>
     </row>
     <row r="154">
@@ -16700,43 +16764,43 @@
         <v>2310712</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>35349</v>
+        <v>35383</v>
       </c>
       <c r="D154" s="1" t="n">
-        <v>7523</v>
+        <v>7444</v>
       </c>
       <c r="E154" s="1" t="n">
-        <v>46586</v>
+        <v>46524</v>
       </c>
       <c r="F154" s="1" t="n">
-        <v>38236</v>
+        <v>38033</v>
       </c>
       <c r="G154" s="1" t="n">
-        <v>460357</v>
+        <v>460252</v>
       </c>
       <c r="H154" s="1" t="n">
-        <v>891811</v>
+        <v>892226</v>
       </c>
       <c r="I154" s="1" t="n">
-        <v>73814</v>
+        <v>73900</v>
       </c>
       <c r="J154" s="1" t="n">
-        <v>82917</v>
+        <v>83324</v>
       </c>
       <c r="K154" s="1" t="n">
-        <v>352884</v>
+        <v>351389</v>
       </c>
       <c r="L154" s="1" t="n">
-        <v>309059</v>
+        <v>310978</v>
       </c>
       <c r="M154" s="1" t="n">
-        <v>3157</v>
+        <v>3002</v>
       </c>
       <c r="N154" s="1" t="n">
-        <v>4542</v>
+        <v>4570</v>
       </c>
       <c r="O154" s="1" t="n">
-        <v>3689</v>
+        <v>3461</v>
       </c>
     </row>
     <row r="155">
@@ -16746,19 +16810,64 @@
       <c r="B155" s="1" t="n">
         <v>2204905</v>
       </c>
-      <c r="C155" s="1"/>
-      <c r="D155" s="1"/>
-      <c r="E155" s="1"/>
-      <c r="F155" s="1"/>
-      <c r="G155" s="1"/>
-      <c r="H155" s="1"/>
-      <c r="I155" s="1"/>
-      <c r="J155" s="1"/>
-      <c r="K155" s="1"/>
-      <c r="L155" s="1"/>
-      <c r="M155" s="1"/>
-      <c r="N155" s="1"/>
-      <c r="O155" s="1"/>
+      <c r="C155" s="1" t="n">
+        <v>31580</v>
+      </c>
+      <c r="D155" s="1" t="n">
+        <v>7508</v>
+      </c>
+      <c r="E155" s="1" t="n">
+        <v>46849</v>
+      </c>
+      <c r="F155" s="1" t="n">
+        <v>37555</v>
+      </c>
+      <c r="G155" s="1" t="n">
+        <v>449051</v>
+      </c>
+      <c r="H155" s="1" t="n">
+        <v>866940</v>
+      </c>
+      <c r="I155" s="1" t="n">
+        <v>72849</v>
+      </c>
+      <c r="J155" s="1" t="n">
+        <v>77833</v>
+      </c>
+      <c r="K155" s="1" t="n">
+        <v>294818</v>
+      </c>
+      <c r="L155" s="1" t="n">
+        <v>309327</v>
+      </c>
+      <c r="M155" s="1" t="n">
+        <v>3182</v>
+      </c>
+      <c r="N155" s="1" t="n">
+        <v>4322</v>
+      </c>
+      <c r="O155" s="1" t="n">
+        <v>4160</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B156" s="1"/>
+      <c r="C156" s="1"/>
+      <c r="D156" s="1"/>
+      <c r="E156" s="1"/>
+      <c r="F156" s="1"/>
+      <c r="G156" s="1"/>
+      <c r="H156" s="1"/>
+      <c r="I156" s="1"/>
+      <c r="J156" s="1"/>
+      <c r="K156" s="1"/>
+      <c r="L156" s="1"/>
+      <c r="M156" s="1"/>
+      <c r="N156" s="1"/>
+      <c r="O156" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16767,14 +16876,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0">
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
     <col min="1" max="1" width="13.71" hidden="0" customWidth="1"/>
     <col min="2" max="2" width="13.71" hidden="0" customWidth="1"/>
@@ -21529,43 +21638,43 @@
         <v>2291379.43028486</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>34877.4887556222</v>
+        <v>35522.4362818591</v>
       </c>
       <c r="D153" s="1" t="n">
-        <v>7222.79610194903</v>
+        <v>7171.44677661169</v>
       </c>
       <c r="E153" s="1" t="n">
-        <v>46088.0734632684</v>
+        <v>46086.0194902549</v>
       </c>
       <c r="F153" s="1" t="n">
-        <v>38106.3343328336</v>
+        <v>38160.7646176912</v>
       </c>
       <c r="G153" s="1" t="n">
-        <v>453299.52023988</v>
+        <v>451550.562218891</v>
       </c>
       <c r="H153" s="1" t="n">
-        <v>882262.541229385</v>
+        <v>883315.202398801</v>
       </c>
       <c r="I153" s="1" t="n">
-        <v>75058.335832084</v>
+        <v>75352.0539730135</v>
       </c>
       <c r="J153" s="1" t="n">
-        <v>85082.7511244378</v>
+        <v>85930.0149925037</v>
       </c>
       <c r="K153" s="1" t="n">
-        <v>352980.397301349</v>
+        <v>355501.649175412</v>
       </c>
       <c r="L153" s="1" t="n">
-        <v>304126.649175412</v>
+        <v>305417.571214393</v>
       </c>
       <c r="M153" s="1" t="n">
-        <v>3138.47076461769</v>
+        <v>3073.77061469265</v>
       </c>
       <c r="N153" s="1" t="n">
-        <v>4865.86206896552</v>
+        <v>4835.05247376312</v>
       </c>
       <c r="O153" s="1" t="n">
-        <v>3443.48575712144</v>
+        <v>3253.49325337331</v>
       </c>
     </row>
     <row r="154">
@@ -21576,43 +21685,43 @@
         <v>2327702.52941176</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>35608.9191176471</v>
+        <v>35643.1691176471</v>
       </c>
       <c r="D154" s="1" t="n">
-        <v>7578.31617647059</v>
+        <v>7498.73529411765</v>
       </c>
       <c r="E154" s="1" t="n">
-        <v>46928.5441176471</v>
+        <v>46866.0882352941</v>
       </c>
       <c r="F154" s="1" t="n">
-        <v>38517.1470588235</v>
+        <v>38312.6544117647</v>
       </c>
       <c r="G154" s="1" t="n">
-        <v>463741.977941176</v>
+        <v>463636.205882353</v>
       </c>
       <c r="H154" s="1" t="n">
-        <v>898368.433823529</v>
+        <v>898786.485294118</v>
       </c>
       <c r="I154" s="1" t="n">
-        <v>74356.75</v>
+        <v>74443.3823529412</v>
       </c>
       <c r="J154" s="1" t="n">
-        <v>83526.6838235294</v>
+        <v>83936.6764705882</v>
       </c>
       <c r="K154" s="1" t="n">
-        <v>355478.735294118</v>
+        <v>353972.742647059</v>
       </c>
       <c r="L154" s="1" t="n">
-        <v>311331.492647059</v>
+        <v>313264.602941176</v>
       </c>
       <c r="M154" s="1" t="n">
-        <v>3180.21323529412</v>
+        <v>3024.07352941176</v>
       </c>
       <c r="N154" s="1" t="n">
-        <v>4575.39705882353</v>
+        <v>4603.60294117647</v>
       </c>
       <c r="O154" s="1" t="n">
-        <v>3716.125</v>
+        <v>3486.44852941176</v>
       </c>
     </row>
     <row r="155">
@@ -21622,19 +21731,64 @@
       <c r="B155" s="1" t="n">
         <v>2204905</v>
       </c>
-      <c r="C155" s="1"/>
-      <c r="D155" s="1"/>
-      <c r="E155" s="1"/>
-      <c r="F155" s="1"/>
-      <c r="G155" s="1"/>
-      <c r="H155" s="1"/>
-      <c r="I155" s="1"/>
-      <c r="J155" s="1"/>
-      <c r="K155" s="1"/>
-      <c r="L155" s="1"/>
-      <c r="M155" s="1"/>
-      <c r="N155" s="1"/>
-      <c r="O155" s="1"/>
+      <c r="C155" s="1" t="n">
+        <v>31580</v>
+      </c>
+      <c r="D155" s="1" t="n">
+        <v>7508</v>
+      </c>
+      <c r="E155" s="1" t="n">
+        <v>46849</v>
+      </c>
+      <c r="F155" s="1" t="n">
+        <v>37555</v>
+      </c>
+      <c r="G155" s="1" t="n">
+        <v>449051</v>
+      </c>
+      <c r="H155" s="1" t="n">
+        <v>866940</v>
+      </c>
+      <c r="I155" s="1" t="n">
+        <v>72849</v>
+      </c>
+      <c r="J155" s="1" t="n">
+        <v>77833</v>
+      </c>
+      <c r="K155" s="1" t="n">
+        <v>294818</v>
+      </c>
+      <c r="L155" s="1" t="n">
+        <v>309327</v>
+      </c>
+      <c r="M155" s="1" t="n">
+        <v>3182</v>
+      </c>
+      <c r="N155" s="1" t="n">
+        <v>4322</v>
+      </c>
+      <c r="O155" s="1" t="n">
+        <v>4160</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B156" s="1"/>
+      <c r="C156" s="1"/>
+      <c r="D156" s="1"/>
+      <c r="E156" s="1"/>
+      <c r="F156" s="1"/>
+      <c r="G156" s="1"/>
+      <c r="H156" s="1"/>
+      <c r="I156" s="1"/>
+      <c r="J156" s="1"/>
+      <c r="K156" s="1"/>
+      <c r="L156" s="1"/>
+      <c r="M156" s="1"/>
+      <c r="N156" s="1"/>
+      <c r="O156" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21643,14 +21797,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0">
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
     <col min="1" max="1" width="13.71" hidden="0" customWidth="1"/>
     <col min="2" max="2" width="13.71" hidden="0" customWidth="1"/>
@@ -26355,7 +26509,7 @@
         <v>2017</v>
       </c>
       <c r="B152" s="1" t="n">
-        <v>58656.2656589652</v>
+        <v>58656.3078494583</v>
       </c>
       <c r="C152" s="1" t="n">
         <v>63776.7416502445</v>
@@ -26388,7 +26542,7 @@
         <v>57265.3702775032</v>
       </c>
       <c r="M152" s="1" t="n">
-        <v>72676.3971867201</v>
+        <v>72784.650340823</v>
       </c>
       <c r="N152" s="1" t="n">
         <v>103071.88523312</v>
@@ -26402,46 +26556,46 @@
         <v>2018</v>
       </c>
       <c r="B153" s="1" t="n">
-        <v>60297.2136934093</v>
+        <v>60296.8234236304</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>64618.6924423472</v>
+        <v>65813.6083415785</v>
       </c>
       <c r="D153" s="1" t="n">
-        <v>45848.6531591437</v>
+        <v>45522.6994184985</v>
       </c>
       <c r="E153" s="1" t="n">
-        <v>46824.623385079</v>
+        <v>46822.536586791</v>
       </c>
       <c r="F153" s="1" t="n">
-        <v>48169.4817999717</v>
+        <v>48238.2860725872</v>
       </c>
       <c r="G153" s="1" t="n">
-        <v>52535.320668176</v>
+        <v>52332.6245117379</v>
       </c>
       <c r="H153" s="1" t="n">
-        <v>60038.9399537917</v>
+        <v>60110.5747085147</v>
       </c>
       <c r="I153" s="1" t="n">
-        <v>54024.7260362575</v>
+        <v>54236.1354942435</v>
       </c>
       <c r="J153" s="1" t="n">
-        <v>71311.2009550969</v>
+        <v>72021.3261351028</v>
       </c>
       <c r="K153" s="1" t="n">
-        <v>79963.4737191083</v>
+        <v>80534.6330795494</v>
       </c>
       <c r="L153" s="1" t="n">
-        <v>59103.1670444086</v>
+        <v>59354.0414124327</v>
       </c>
       <c r="M153" s="1" t="n">
-        <v>75246.842144141</v>
+        <v>73866.5811100965</v>
       </c>
       <c r="N153" s="1" t="n">
-        <v>105333.362975479</v>
+        <v>104666.414708432</v>
       </c>
       <c r="O153" s="1" t="n">
-        <v>87906.0378051018</v>
+        <v>83055.8687046116</v>
       </c>
     </row>
     <row r="154">
@@ -26449,46 +26603,46 @@
         <v>2019</v>
       </c>
       <c r="B154" s="1" t="n">
-        <v>61562.8327444072</v>
+        <v>61552.997749546</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>67527.4511152374</v>
+        <v>67598.7291446563</v>
       </c>
       <c r="D154" s="1" t="n">
-        <v>47837.3669417914</v>
+        <v>47287.8115094112</v>
       </c>
       <c r="E154" s="1" t="n">
-        <v>48039.333970613</v>
+        <v>47950.8741624521</v>
       </c>
       <c r="F154" s="1" t="n">
-        <v>49218.1425930789</v>
+        <v>48940.4576852205</v>
       </c>
       <c r="G154" s="1" t="n">
-        <v>54148.7981878454</v>
+        <v>54125.1155555906</v>
       </c>
       <c r="H154" s="1" t="n">
-        <v>61315.111093938</v>
+        <v>61343.7154878605</v>
       </c>
       <c r="I154" s="1" t="n">
-        <v>53896.9288958336</v>
+        <v>53943.4170782377</v>
       </c>
       <c r="J154" s="1" t="n">
-        <v>70730.0678494108</v>
+        <v>71066.5180357175</v>
       </c>
       <c r="K154" s="1" t="n">
-        <v>80905.2629551729</v>
+        <v>80546.2185644445</v>
       </c>
       <c r="L154" s="1" t="n">
-        <v>60707.4704058472</v>
+        <v>61038.3614967115</v>
       </c>
       <c r="M154" s="1" t="n">
-        <v>76114.4730814668</v>
+        <v>72578.6954209177</v>
       </c>
       <c r="N154" s="1" t="n">
-        <v>100870.56942347</v>
+        <v>101397.825604615</v>
       </c>
       <c r="O154" s="1" t="n">
-        <v>95535.2980784172</v>
+        <v>89681.7993366501</v>
       </c>
     </row>
     <row r="155">
@@ -26496,21 +26650,66 @@
         <v>2020</v>
       </c>
       <c r="B155" s="1" t="n">
-        <v>58064.9295796772</v>
-      </c>
-      <c r="C155" s="1"/>
-      <c r="D155" s="1"/>
-      <c r="E155" s="1"/>
-      <c r="F155" s="1"/>
-      <c r="G155" s="1"/>
-      <c r="H155" s="1"/>
-      <c r="I155" s="1"/>
-      <c r="J155" s="1"/>
-      <c r="K155" s="1"/>
-      <c r="L155" s="1"/>
-      <c r="M155" s="1"/>
-      <c r="N155" s="1"/>
-      <c r="O155" s="1"/>
+        <v>58031.8818392606</v>
+      </c>
+      <c r="C155" s="1" t="n">
+        <v>60571.884518302</v>
+      </c>
+      <c r="D155" s="1" t="n">
+        <v>46538.4400820683</v>
+      </c>
+      <c r="E155" s="1" t="n">
+        <v>47713.1325434952</v>
+      </c>
+      <c r="F155" s="1" t="n">
+        <v>47950.470120173</v>
+      </c>
+      <c r="G155" s="1" t="n">
+        <v>52347.3182332164</v>
+      </c>
+      <c r="H155" s="1" t="n">
+        <v>58792.6849513947</v>
+      </c>
+      <c r="I155" s="1" t="n">
+        <v>52764.3541293653</v>
+      </c>
+      <c r="J155" s="1" t="n">
+        <v>65999.3216314763</v>
+      </c>
+      <c r="K155" s="1" t="n">
+        <v>66700.4673498749</v>
+      </c>
+      <c r="L155" s="1" t="n">
+        <v>59961.8743225074</v>
+      </c>
+      <c r="M155" s="1" t="n">
+        <v>75449.3289704557</v>
+      </c>
+      <c r="N155" s="1" t="n">
+        <v>95256.9866878251</v>
+      </c>
+      <c r="O155" s="1" t="n">
+        <v>106244.413229473</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B156" s="1"/>
+      <c r="C156" s="1"/>
+      <c r="D156" s="1"/>
+      <c r="E156" s="1"/>
+      <c r="F156" s="1"/>
+      <c r="G156" s="1"/>
+      <c r="H156" s="1"/>
+      <c r="I156" s="1"/>
+      <c r="J156" s="1"/>
+      <c r="K156" s="1"/>
+      <c r="L156" s="1"/>
+      <c r="M156" s="1"/>
+      <c r="N156" s="1"/>
+      <c r="O156" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -26519,14 +26718,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0">
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
     <col min="1" max="1" width="13.71" hidden="0" customWidth="1"/>
     <col min="2" max="2" width="13.71" hidden="0" customWidth="1"/>
@@ -31231,7 +31430,7 @@
         <v>2017</v>
       </c>
       <c r="B152" s="1" t="n">
-        <v>61625.064380968</v>
+        <v>61625.1087068695</v>
       </c>
       <c r="C152" s="1" t="n">
         <v>67004.705568125</v>
@@ -31264,7 +31463,7 @@
         <v>60163.770920383</v>
       </c>
       <c r="M152" s="1" t="n">
-        <v>76354.8037927964</v>
+        <v>76468.5360175825</v>
       </c>
       <c r="N152" s="1" t="n">
         <v>108288.713780195</v>
@@ -31278,46 +31477,46 @@
         <v>2018</v>
       </c>
       <c r="B153" s="1" t="n">
-        <v>61924.4248575493</v>
+        <v>61924.0240557524</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>66362.5252219008</v>
+        <v>67589.6877271084</v>
       </c>
       <c r="D153" s="1" t="n">
-        <v>47085.9481469466</v>
+        <v>46751.1980534805</v>
       </c>
       <c r="E153" s="1" t="n">
-        <v>48088.2563999687</v>
+        <v>48086.1132862846</v>
       </c>
       <c r="F153" s="1" t="n">
-        <v>49469.4078455481</v>
+        <v>49540.0689051308</v>
       </c>
       <c r="G153" s="1" t="n">
-        <v>53953.065453824</v>
+        <v>53744.8992361926</v>
       </c>
       <c r="H153" s="1" t="n">
-        <v>61659.1812119151</v>
+        <v>61732.7491384296</v>
       </c>
       <c r="I153" s="1" t="n">
-        <v>55482.6646699196</v>
+        <v>55699.7793306699</v>
       </c>
       <c r="J153" s="1" t="n">
-        <v>73235.6411607816</v>
+        <v>73964.9301387488</v>
       </c>
       <c r="K153" s="1" t="n">
-        <v>82121.4085421127</v>
+        <v>82707.9814984877</v>
       </c>
       <c r="L153" s="1" t="n">
-        <v>60698.1550605995</v>
+        <v>60955.7996514488</v>
       </c>
       <c r="M153" s="1" t="n">
-        <v>77277.4915573262</v>
+        <v>75859.9820995744</v>
       </c>
       <c r="N153" s="1" t="n">
-        <v>108175.942486061</v>
+        <v>107490.995615107</v>
       </c>
       <c r="O153" s="1" t="n">
-        <v>90278.3146873985</v>
+        <v>85297.2564657555</v>
       </c>
     </row>
     <row r="154">
@@ -31325,46 +31524,46 @@
         <v>2019</v>
       </c>
       <c r="B154" s="1" t="n">
-        <v>62015.5006322337</v>
+        <v>62005.5933212338</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>68023.9764910847</v>
+        <v>68095.7786236611</v>
       </c>
       <c r="D154" s="1" t="n">
-        <v>48189.1122869516</v>
+        <v>47635.5160058039</v>
       </c>
       <c r="E154" s="1" t="n">
-        <v>48392.5643674557</v>
+        <v>48303.4541195289</v>
       </c>
       <c r="F154" s="1" t="n">
-        <v>49580.0407003809</v>
+        <v>49300.3139917294</v>
       </c>
       <c r="G154" s="1" t="n">
-        <v>54546.9511156972</v>
+        <v>54523.0943464405</v>
       </c>
       <c r="H154" s="1" t="n">
-        <v>61765.9574990405</v>
+        <v>61794.7722193889</v>
       </c>
       <c r="I154" s="1" t="n">
-        <v>54293.2298435971</v>
+        <v>54340.0598508718</v>
       </c>
       <c r="J154" s="1" t="n">
-        <v>71250.1418777153</v>
+        <v>71589.0659624507</v>
       </c>
       <c r="K154" s="1" t="n">
-        <v>81500.1545945492</v>
+        <v>81138.470171536</v>
       </c>
       <c r="L154" s="1" t="n">
-        <v>61153.8488647138</v>
+        <v>61487.172978305</v>
       </c>
       <c r="M154" s="1" t="n">
-        <v>76674.1383247129</v>
+        <v>73112.3622990127</v>
       </c>
       <c r="N154" s="1" t="n">
-        <v>101612.264786878</v>
+        <v>102143.397851708</v>
       </c>
       <c r="O154" s="1" t="n">
-        <v>96237.7635054643</v>
+        <v>90341.2243317725</v>
       </c>
     </row>
     <row r="155">
@@ -31372,21 +31571,66 @@
         <v>2020</v>
       </c>
       <c r="B155" s="1" t="n">
-        <v>58064.9295796772</v>
-      </c>
-      <c r="C155" s="1"/>
-      <c r="D155" s="1"/>
-      <c r="E155" s="1"/>
-      <c r="F155" s="1"/>
-      <c r="G155" s="1"/>
-      <c r="H155" s="1"/>
-      <c r="I155" s="1"/>
-      <c r="J155" s="1"/>
-      <c r="K155" s="1"/>
-      <c r="L155" s="1"/>
-      <c r="M155" s="1"/>
-      <c r="N155" s="1"/>
-      <c r="O155" s="1"/>
+        <v>58031.8818392606</v>
+      </c>
+      <c r="C155" s="1" t="n">
+        <v>60571.884518302</v>
+      </c>
+      <c r="D155" s="1" t="n">
+        <v>46538.4400820683</v>
+      </c>
+      <c r="E155" s="1" t="n">
+        <v>47713.1325434952</v>
+      </c>
+      <c r="F155" s="1" t="n">
+        <v>47950.470120173</v>
+      </c>
+      <c r="G155" s="1" t="n">
+        <v>52347.3182332164</v>
+      </c>
+      <c r="H155" s="1" t="n">
+        <v>58792.6849513947</v>
+      </c>
+      <c r="I155" s="1" t="n">
+        <v>52764.3541293653</v>
+      </c>
+      <c r="J155" s="1" t="n">
+        <v>65999.3216314763</v>
+      </c>
+      <c r="K155" s="1" t="n">
+        <v>66700.4673498749</v>
+      </c>
+      <c r="L155" s="1" t="n">
+        <v>59961.8743225074</v>
+      </c>
+      <c r="M155" s="1" t="n">
+        <v>75449.3289704557</v>
+      </c>
+      <c r="N155" s="1" t="n">
+        <v>95256.9866878251</v>
+      </c>
+      <c r="O155" s="1" t="n">
+        <v>106244.413229473</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B156" s="1"/>
+      <c r="C156" s="1"/>
+      <c r="D156" s="1"/>
+      <c r="E156" s="1"/>
+      <c r="F156" s="1"/>
+      <c r="G156" s="1"/>
+      <c r="H156" s="1"/>
+      <c r="I156" s="1"/>
+      <c r="J156" s="1"/>
+      <c r="K156" s="1"/>
+      <c r="L156" s="1"/>
+      <c r="M156" s="1"/>
+      <c r="N156" s="1"/>
+      <c r="O156" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/FON Macroeconomic Data.xlsx
+++ b/FON Macroeconomic Data.xlsx
@@ -13,6 +13,7 @@
     <sheet name="Nominal GDP per Capita ($)" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="Real GDP per Capita (2020 $)" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="Real GDP per Worker (2020 $)" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Employment" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
 </workbook>
 </file>
@@ -32775,7 +32776,9 @@
       <c r="A56" s="2" t="n">
         <v>1921</v>
       </c>
-      <c r="B56" s="1"/>
+      <c r="B56" s="1" t="n">
+        <v>18253.0192326697</v>
+      </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -32794,7 +32797,9 @@
       <c r="A57" s="2" t="n">
         <v>1922</v>
       </c>
-      <c r="B57" s="1"/>
+      <c r="B57" s="1" t="n">
+        <v>19924.2037145043</v>
+      </c>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
@@ -32813,7 +32818,9 @@
       <c r="A58" s="2" t="n">
         <v>1923</v>
       </c>
-      <c r="B58" s="1"/>
+      <c r="B58" s="1" t="n">
+        <v>20836.3519551195</v>
+      </c>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
@@ -32832,7 +32839,9 @@
       <c r="A59" s="2" t="n">
         <v>1924</v>
       </c>
-      <c r="B59" s="1"/>
+      <c r="B59" s="1" t="n">
+        <v>20915.9213110118</v>
+      </c>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
@@ -32851,7 +32860,9 @@
       <c r="A60" s="2" t="n">
         <v>1925</v>
       </c>
-      <c r="B60" s="1"/>
+      <c r="B60" s="1" t="n">
+        <v>22427.3697323904</v>
+      </c>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
@@ -32870,7 +32881,9 @@
       <c r="A61" s="2" t="n">
         <v>1926</v>
       </c>
-      <c r="B61" s="1"/>
+      <c r="B61" s="1" t="n">
+        <v>22886.7030083984</v>
+      </c>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
@@ -32889,7 +32902,9 @@
       <c r="A62" s="2" t="n">
         <v>1927</v>
       </c>
-      <c r="B62" s="1"/>
+      <c r="B62" s="1" t="n">
+        <v>23158.543800666</v>
+      </c>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
@@ -32908,7 +32923,9 @@
       <c r="A63" s="2" t="n">
         <v>1928</v>
       </c>
-      <c r="B63" s="1"/>
+      <c r="B63" s="1" t="n">
+        <v>24491.4156923987</v>
+      </c>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
@@ -32927,7 +32944,9 @@
       <c r="A64" s="2" t="n">
         <v>1929</v>
       </c>
-      <c r="B64" s="1"/>
+      <c r="B64" s="1" t="n">
+        <v>24249.3919796697</v>
+      </c>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
@@ -32946,7 +32965,9 @@
       <c r="A65" s="2" t="n">
         <v>1930</v>
       </c>
-      <c r="B65" s="1"/>
+      <c r="B65" s="1" t="n">
+        <v>23827.1496407203</v>
+      </c>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
@@ -32965,7 +32986,9 @@
       <c r="A66" s="2" t="n">
         <v>1931</v>
       </c>
-      <c r="B66" s="1"/>
+      <c r="B66" s="1" t="n">
+        <v>21807.0414286275</v>
+      </c>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
@@ -32984,7 +33007,9 @@
       <c r="A67" s="2" t="n">
         <v>1932</v>
       </c>
-      <c r="B67" s="1"/>
+      <c r="B67" s="1" t="n">
+        <v>20493.4964845623</v>
+      </c>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
@@ -33003,7 +33028,9 @@
       <c r="A68" s="2" t="n">
         <v>1933</v>
       </c>
-      <c r="B68" s="1"/>
+      <c r="B68" s="1" t="n">
+        <v>19941.0858407413</v>
+      </c>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
@@ -33022,7 +33049,9 @@
       <c r="A69" s="2" t="n">
         <v>1934</v>
       </c>
-      <c r="B69" s="1"/>
+      <c r="B69" s="1" t="n">
+        <v>20794.6745378058</v>
+      </c>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
@@ -33041,7 +33070,9 @@
       <c r="A70" s="2" t="n">
         <v>1935</v>
       </c>
-      <c r="B70" s="1"/>
+      <c r="B70" s="1" t="n">
+        <v>21813.5178044452</v>
+      </c>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
@@ -33060,7 +33091,9 @@
       <c r="A71" s="2" t="n">
         <v>1936</v>
       </c>
-      <c r="B71" s="1"/>
+      <c r="B71" s="1" t="n">
+        <v>22482.4149297479</v>
+      </c>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
@@ -33079,7 +33112,9 @@
       <c r="A72" s="2" t="n">
         <v>1937</v>
       </c>
-      <c r="B72" s="1"/>
+      <c r="B72" s="1" t="n">
+        <v>23130.2169388359</v>
+      </c>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
@@ -33098,7 +33133,9 @@
       <c r="A73" s="2" t="n">
         <v>1938</v>
       </c>
-      <c r="B73" s="1"/>
+      <c r="B73" s="1" t="n">
+        <v>23547.4245044464</v>
+      </c>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
@@ -33117,7 +33154,9 @@
       <c r="A74" s="2" t="n">
         <v>1939</v>
       </c>
-      <c r="B74" s="1"/>
+      <c r="B74" s="1" t="n">
+        <v>24777.1731120805</v>
+      </c>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
@@ -33136,7 +33175,9 @@
       <c r="A75" s="2" t="n">
         <v>1940</v>
       </c>
-      <c r="B75" s="1"/>
+      <c r="B75" s="1" t="n">
+        <v>28045.364924834</v>
+      </c>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
@@ -33155,7 +33196,9 @@
       <c r="A76" s="2" t="n">
         <v>1941</v>
       </c>
-      <c r="B76" s="1"/>
+      <c r="B76" s="1" t="n">
+        <v>31901.6275302605</v>
+      </c>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
@@ -33174,7 +33217,9 @@
       <c r="A77" s="2" t="n">
         <v>1942</v>
       </c>
-      <c r="B77" s="1"/>
+      <c r="B77" s="1" t="n">
+        <v>36788.0445587969</v>
+      </c>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
@@ -33193,7 +33238,9 @@
       <c r="A78" s="2" t="n">
         <v>1943</v>
       </c>
-      <c r="B78" s="1"/>
+      <c r="B78" s="1" t="n">
+        <v>38240.2494473215</v>
+      </c>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
@@ -33212,7 +33259,9 @@
       <c r="A79" s="2" t="n">
         <v>1944</v>
       </c>
-      <c r="B79" s="1"/>
+      <c r="B79" s="1" t="n">
+        <v>40594.5112430583</v>
+      </c>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
@@ -33231,7 +33280,9 @@
       <c r="A80" s="2" t="n">
         <v>1945</v>
       </c>
-      <c r="B80" s="1"/>
+      <c r="B80" s="1" t="n">
+        <v>40547.6495878959</v>
+      </c>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
@@ -35878,4 +35929,4289 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="13.71" hidden="0" customWidth="1"/>
+    <col min="2" max="2" width="13.71" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="13.71" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="13.71" hidden="0" customWidth="1"/>
+    <col min="5" max="5" width="13.71" hidden="0" customWidth="1"/>
+    <col min="6" max="6" width="13.71" hidden="0" customWidth="1"/>
+    <col min="7" max="7" width="13.71" hidden="0" customWidth="1"/>
+    <col min="8" max="8" width="13.71" hidden="0" customWidth="1"/>
+    <col min="9" max="9" width="13.71" hidden="0" customWidth="1"/>
+    <col min="10" max="10" width="13.71" hidden="0" customWidth="1"/>
+    <col min="11" max="11" width="13.71" hidden="0" customWidth="1"/>
+    <col min="12" max="12" width="13.71" hidden="0" customWidth="1"/>
+    <col min="13" max="13" width="13.71" hidden="0" customWidth="1"/>
+    <col min="14" max="14" width="13.71" hidden="0" customWidth="1"/>
+    <col min="15" max="15" width="13.71" hidden="0" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>1867</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1868</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>1869</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>1870</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>1871</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>1872</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>1873</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>1874</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>1875</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>1876</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>1877</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>1878</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>1879</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>1880</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>1881</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>1882</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>1883</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>1884</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>1885</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>1886</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>1887</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>1888</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>1889</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>1890</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>1891</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>1892</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>1893</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>1894</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>1895</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>1896</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>1897</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>1898</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>1899</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>1900</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>1901</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>1902</v>
+      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>1903</v>
+      </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>1904</v>
+      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>1905</v>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>1906</v>
+      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>1907</v>
+      </c>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>1908</v>
+      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>1909</v>
+      </c>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>1910</v>
+      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>1911</v>
+      </c>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>1912</v>
+      </c>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>1913</v>
+      </c>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>1914</v>
+      </c>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>1915</v>
+      </c>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>1916</v>
+      </c>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>1917</v>
+      </c>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>1918</v>
+      </c>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>1919</v>
+      </c>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>1920</v>
+      </c>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>1921</v>
+      </c>
+      <c r="B56" s="1" t="n">
+        <v>3121000</v>
+      </c>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+      <c r="O56" s="1"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>1922</v>
+      </c>
+      <c r="B57" s="1" t="n">
+        <v>3230000</v>
+      </c>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>1923</v>
+      </c>
+      <c r="B58" s="1" t="n">
+        <v>3323000</v>
+      </c>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+      <c r="O58" s="1"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>1924</v>
+      </c>
+      <c r="B59" s="1" t="n">
+        <v>3344000</v>
+      </c>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="1"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>1925</v>
+      </c>
+      <c r="B60" s="1" t="n">
+        <v>3423000</v>
+      </c>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>1926</v>
+      </c>
+      <c r="B61" s="1" t="n">
+        <v>3550000</v>
+      </c>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+      <c r="O61" s="1"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>1927</v>
+      </c>
+      <c r="B62" s="1" t="n">
+        <v>3690000</v>
+      </c>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
+      <c r="O62" s="1"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>1928</v>
+      </c>
+      <c r="B63" s="1" t="n">
+        <v>3796000</v>
+      </c>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+      <c r="O63" s="1"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>1929</v>
+      </c>
+      <c r="B64" s="1" t="n">
+        <v>3848000</v>
+      </c>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+      <c r="O64" s="1"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>1930</v>
+      </c>
+      <c r="B65" s="1" t="n">
+        <v>3689000</v>
+      </c>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+      <c r="O65" s="1"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>1931</v>
+      </c>
+      <c r="B66" s="1" t="n">
+        <v>3670000</v>
+      </c>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
+      <c r="O66" s="1"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>1932</v>
+      </c>
+      <c r="B67" s="1" t="n">
+        <v>3470000</v>
+      </c>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
+      <c r="N67" s="1"/>
+      <c r="O67" s="1"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>1933</v>
+      </c>
+      <c r="B68" s="1" t="n">
+        <v>3449000</v>
+      </c>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+      <c r="O68" s="1"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>1934</v>
+      </c>
+      <c r="B69" s="1" t="n">
+        <v>3707000</v>
+      </c>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
+      <c r="N69" s="1"/>
+      <c r="O69" s="1"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>1935</v>
+      </c>
+      <c r="B70" s="1" t="n">
+        <v>3777000</v>
+      </c>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+      <c r="O70" s="1"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>1936</v>
+      </c>
+      <c r="B71" s="1" t="n">
+        <v>3895000</v>
+      </c>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
+      <c r="M71" s="1"/>
+      <c r="N71" s="1"/>
+      <c r="O71" s="1"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>1937</v>
+      </c>
+      <c r="B72" s="1" t="n">
+        <v>4115000</v>
+      </c>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+      <c r="M72" s="1"/>
+      <c r="N72" s="1"/>
+      <c r="O72" s="1"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>1938</v>
+      </c>
+      <c r="B73" s="1" t="n">
+        <v>4066000</v>
+      </c>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
+      <c r="N73" s="1"/>
+      <c r="O73" s="1"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>1939</v>
+      </c>
+      <c r="B74" s="1" t="n">
+        <v>4120000</v>
+      </c>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
+      <c r="M74" s="1"/>
+      <c r="N74" s="1"/>
+      <c r="O74" s="1"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>1940</v>
+      </c>
+      <c r="B75" s="1" t="n">
+        <v>4184000</v>
+      </c>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+      <c r="L75" s="1"/>
+      <c r="M75" s="1"/>
+      <c r="N75" s="1"/>
+      <c r="O75" s="1"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>1941</v>
+      </c>
+      <c r="B76" s="1" t="n">
+        <v>4271000</v>
+      </c>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1"/>
+      <c r="M76" s="1"/>
+      <c r="N76" s="1"/>
+      <c r="O76" s="1"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>1942</v>
+      </c>
+      <c r="B77" s="1" t="n">
+        <v>4434000</v>
+      </c>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
+      <c r="M77" s="1"/>
+      <c r="N77" s="1"/>
+      <c r="O77" s="1"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>1943</v>
+      </c>
+      <c r="B78" s="1" t="n">
+        <v>4491000</v>
+      </c>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+      <c r="M78" s="1"/>
+      <c r="N78" s="1"/>
+      <c r="O78" s="1"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>1944</v>
+      </c>
+      <c r="B79" s="1" t="n">
+        <v>4485000</v>
+      </c>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+      <c r="M79" s="1"/>
+      <c r="N79" s="1"/>
+      <c r="O79" s="1"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>1945</v>
+      </c>
+      <c r="B80" s="1" t="n">
+        <v>4447000</v>
+      </c>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1"/>
+      <c r="N80" s="1"/>
+      <c r="O80" s="1"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>1946</v>
+      </c>
+      <c r="B81" s="1" t="n">
+        <v>4666000</v>
+      </c>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
+      <c r="L81" s="1"/>
+      <c r="M81" s="1"/>
+      <c r="N81" s="1"/>
+      <c r="O81" s="1"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>1947</v>
+      </c>
+      <c r="B82" s="1" t="n">
+        <v>4832000</v>
+      </c>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
+      <c r="M82" s="1"/>
+      <c r="N82" s="1"/>
+      <c r="O82" s="1"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>1948</v>
+      </c>
+      <c r="B83" s="1" t="n">
+        <v>4875000</v>
+      </c>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
+      <c r="J83" s="1"/>
+      <c r="K83" s="1"/>
+      <c r="L83" s="1"/>
+      <c r="M83" s="1"/>
+      <c r="N83" s="1"/>
+      <c r="O83" s="1"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>1949</v>
+      </c>
+      <c r="B84" s="1" t="n">
+        <v>4913000</v>
+      </c>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
+      <c r="J84" s="1"/>
+      <c r="K84" s="1"/>
+      <c r="L84" s="1"/>
+      <c r="M84" s="1"/>
+      <c r="N84" s="1"/>
+      <c r="O84" s="1"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>1950</v>
+      </c>
+      <c r="B85" s="1" t="n">
+        <v>4976000</v>
+      </c>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
+      <c r="J85" s="1"/>
+      <c r="K85" s="1"/>
+      <c r="L85" s="1"/>
+      <c r="M85" s="1"/>
+      <c r="N85" s="1"/>
+      <c r="O85" s="1"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>1951</v>
+      </c>
+      <c r="B86" s="1" t="n">
+        <v>5097000</v>
+      </c>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
+      <c r="J86" s="1"/>
+      <c r="K86" s="1"/>
+      <c r="L86" s="1"/>
+      <c r="M86" s="1"/>
+      <c r="N86" s="1"/>
+      <c r="O86" s="1"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>1952</v>
+      </c>
+      <c r="B87" s="1" t="n">
+        <v>5169000</v>
+      </c>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
+      <c r="J87" s="1"/>
+      <c r="K87" s="1"/>
+      <c r="L87" s="1"/>
+      <c r="M87" s="1"/>
+      <c r="N87" s="1"/>
+      <c r="O87" s="1"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>1953</v>
+      </c>
+      <c r="B88" s="1" t="n">
+        <v>5235000</v>
+      </c>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
+      <c r="L88" s="1"/>
+      <c r="M88" s="1"/>
+      <c r="N88" s="1"/>
+      <c r="O88" s="1"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>1954</v>
+      </c>
+      <c r="B89" s="1" t="n">
+        <v>5243000</v>
+      </c>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+      <c r="H89" s="1"/>
+      <c r="I89" s="1"/>
+      <c r="J89" s="1"/>
+      <c r="K89" s="1"/>
+      <c r="L89" s="1"/>
+      <c r="M89" s="1"/>
+      <c r="N89" s="1"/>
+      <c r="O89" s="1"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>1955</v>
+      </c>
+      <c r="B90" s="1" t="n">
+        <v>5364000</v>
+      </c>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+      <c r="L90" s="1"/>
+      <c r="M90" s="1"/>
+      <c r="N90" s="1"/>
+      <c r="O90" s="1"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>1956</v>
+      </c>
+      <c r="B91" s="1" t="n">
+        <v>5585000</v>
+      </c>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+      <c r="H91" s="1"/>
+      <c r="I91" s="1"/>
+      <c r="J91" s="1"/>
+      <c r="K91" s="1"/>
+      <c r="L91" s="1"/>
+      <c r="M91" s="1"/>
+      <c r="N91" s="1"/>
+      <c r="O91" s="1"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>1957</v>
+      </c>
+      <c r="B92" s="1" t="n">
+        <v>5731000</v>
+      </c>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
+      <c r="H92" s="1"/>
+      <c r="I92" s="1"/>
+      <c r="J92" s="1"/>
+      <c r="K92" s="1"/>
+      <c r="L92" s="1"/>
+      <c r="M92" s="1"/>
+      <c r="N92" s="1"/>
+      <c r="O92" s="1"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>1958</v>
+      </c>
+      <c r="B93" s="1" t="n">
+        <v>5706000</v>
+      </c>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
+      <c r="H93" s="1"/>
+      <c r="I93" s="1"/>
+      <c r="J93" s="1"/>
+      <c r="K93" s="1"/>
+      <c r="L93" s="1"/>
+      <c r="M93" s="1"/>
+      <c r="N93" s="1"/>
+      <c r="O93" s="1"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>1959</v>
+      </c>
+      <c r="B94" s="1" t="n">
+        <v>5870000</v>
+      </c>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1"/>
+      <c r="H94" s="1"/>
+      <c r="I94" s="1"/>
+      <c r="J94" s="1"/>
+      <c r="K94" s="1"/>
+      <c r="L94" s="1"/>
+      <c r="M94" s="1"/>
+      <c r="N94" s="1"/>
+      <c r="O94" s="1"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>1960</v>
+      </c>
+      <c r="B95" s="1" t="n">
+        <v>5965000</v>
+      </c>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
+      <c r="G95" s="1"/>
+      <c r="H95" s="1"/>
+      <c r="I95" s="1"/>
+      <c r="J95" s="1"/>
+      <c r="K95" s="1"/>
+      <c r="L95" s="1"/>
+      <c r="M95" s="1"/>
+      <c r="N95" s="1"/>
+      <c r="O95" s="1"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>1961</v>
+      </c>
+      <c r="B96" s="1" t="n">
+        <v>6055000</v>
+      </c>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+      <c r="G96" s="1"/>
+      <c r="H96" s="1"/>
+      <c r="I96" s="1"/>
+      <c r="J96" s="1"/>
+      <c r="K96" s="1"/>
+      <c r="L96" s="1"/>
+      <c r="M96" s="1"/>
+      <c r="N96" s="1"/>
+      <c r="O96" s="1"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>1962</v>
+      </c>
+      <c r="B97" s="1" t="n">
+        <v>6225000</v>
+      </c>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1"/>
+      <c r="H97" s="1"/>
+      <c r="I97" s="1"/>
+      <c r="J97" s="1"/>
+      <c r="K97" s="1"/>
+      <c r="L97" s="1"/>
+      <c r="M97" s="1"/>
+      <c r="N97" s="1"/>
+      <c r="O97" s="1"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>1963</v>
+      </c>
+      <c r="B98" s="1" t="n">
+        <v>6375000</v>
+      </c>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+      <c r="G98" s="1"/>
+      <c r="H98" s="1"/>
+      <c r="I98" s="1"/>
+      <c r="J98" s="1"/>
+      <c r="K98" s="1"/>
+      <c r="L98" s="1"/>
+      <c r="M98" s="1"/>
+      <c r="N98" s="1"/>
+      <c r="O98" s="1"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>1964</v>
+      </c>
+      <c r="B99" s="1" t="n">
+        <v>6609000</v>
+      </c>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1"/>
+      <c r="H99" s="1"/>
+      <c r="I99" s="1"/>
+      <c r="J99" s="1"/>
+      <c r="K99" s="1"/>
+      <c r="L99" s="1"/>
+      <c r="M99" s="1"/>
+      <c r="N99" s="1"/>
+      <c r="O99" s="1"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>1965</v>
+      </c>
+      <c r="B100" s="1" t="n">
+        <v>6862000</v>
+      </c>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1"/>
+      <c r="H100" s="1"/>
+      <c r="I100" s="1"/>
+      <c r="J100" s="1"/>
+      <c r="K100" s="1"/>
+      <c r="L100" s="1"/>
+      <c r="M100" s="1"/>
+      <c r="N100" s="1"/>
+      <c r="O100" s="1"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>1966</v>
+      </c>
+      <c r="B101" s="1" t="n">
+        <v>7152000</v>
+      </c>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
+      <c r="G101" s="1"/>
+      <c r="H101" s="1"/>
+      <c r="I101" s="1"/>
+      <c r="J101" s="1"/>
+      <c r="K101" s="1"/>
+      <c r="L101" s="1"/>
+      <c r="M101" s="1"/>
+      <c r="N101" s="1"/>
+      <c r="O101" s="1"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>1967</v>
+      </c>
+      <c r="B102" s="1" t="n">
+        <v>7379000</v>
+      </c>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+      <c r="G102" s="1"/>
+      <c r="H102" s="1"/>
+      <c r="I102" s="1"/>
+      <c r="J102" s="1"/>
+      <c r="K102" s="1"/>
+      <c r="L102" s="1"/>
+      <c r="M102" s="1"/>
+      <c r="N102" s="1"/>
+      <c r="O102" s="1"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>1968</v>
+      </c>
+      <c r="B103" s="1" t="n">
+        <v>7537000</v>
+      </c>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+      <c r="F103" s="1"/>
+      <c r="G103" s="1"/>
+      <c r="H103" s="1"/>
+      <c r="I103" s="1"/>
+      <c r="J103" s="1"/>
+      <c r="K103" s="1"/>
+      <c r="L103" s="1"/>
+      <c r="M103" s="1"/>
+      <c r="N103" s="1"/>
+      <c r="O103" s="1"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>1969</v>
+      </c>
+      <c r="B104" s="1" t="n">
+        <v>7780000</v>
+      </c>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1"/>
+      <c r="G104" s="1"/>
+      <c r="H104" s="1"/>
+      <c r="I104" s="1"/>
+      <c r="J104" s="1"/>
+      <c r="K104" s="1"/>
+      <c r="L104" s="1"/>
+      <c r="M104" s="1"/>
+      <c r="N104" s="1"/>
+      <c r="O104" s="1"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>1970</v>
+      </c>
+      <c r="B105" s="1" t="n">
+        <v>7879000</v>
+      </c>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="1"/>
+      <c r="F105" s="1"/>
+      <c r="G105" s="1"/>
+      <c r="H105" s="1"/>
+      <c r="I105" s="1"/>
+      <c r="J105" s="1"/>
+      <c r="K105" s="1"/>
+      <c r="L105" s="1"/>
+      <c r="M105" s="1"/>
+      <c r="N105" s="1"/>
+      <c r="O105" s="1"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>1971</v>
+      </c>
+      <c r="B106" s="1" t="n">
+        <v>8079000</v>
+      </c>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1"/>
+      <c r="F106" s="1"/>
+      <c r="G106" s="1"/>
+      <c r="H106" s="1"/>
+      <c r="I106" s="1"/>
+      <c r="J106" s="1"/>
+      <c r="K106" s="1"/>
+      <c r="L106" s="1"/>
+      <c r="M106" s="1"/>
+      <c r="N106" s="1"/>
+      <c r="O106" s="1"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>1972</v>
+      </c>
+      <c r="B107" s="1" t="n">
+        <v>8329000</v>
+      </c>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+      <c r="E107" s="1"/>
+      <c r="F107" s="1"/>
+      <c r="G107" s="1"/>
+      <c r="H107" s="1"/>
+      <c r="I107" s="1"/>
+      <c r="J107" s="1"/>
+      <c r="K107" s="1"/>
+      <c r="L107" s="1"/>
+      <c r="M107" s="1"/>
+      <c r="N107" s="1"/>
+      <c r="O107" s="1"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>1973</v>
+      </c>
+      <c r="B108" s="1" t="n">
+        <v>8759000</v>
+      </c>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+      <c r="E108" s="1"/>
+      <c r="F108" s="1"/>
+      <c r="G108" s="1"/>
+      <c r="H108" s="1"/>
+      <c r="I108" s="1"/>
+      <c r="J108" s="1"/>
+      <c r="K108" s="1"/>
+      <c r="L108" s="1"/>
+      <c r="M108" s="1"/>
+      <c r="N108" s="1"/>
+      <c r="O108" s="1"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>1974</v>
+      </c>
+      <c r="B109" s="1" t="n">
+        <v>9137000</v>
+      </c>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+      <c r="E109" s="1"/>
+      <c r="F109" s="1"/>
+      <c r="G109" s="1"/>
+      <c r="H109" s="1"/>
+      <c r="I109" s="1"/>
+      <c r="J109" s="1"/>
+      <c r="K109" s="1"/>
+      <c r="L109" s="1"/>
+      <c r="M109" s="1"/>
+      <c r="N109" s="1"/>
+      <c r="O109" s="1"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>1975</v>
+      </c>
+      <c r="B110" s="1" t="n">
+        <v>9308000</v>
+      </c>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+      <c r="E110" s="1"/>
+      <c r="F110" s="1"/>
+      <c r="G110" s="1"/>
+      <c r="H110" s="1"/>
+      <c r="I110" s="1"/>
+      <c r="J110" s="1"/>
+      <c r="K110" s="1"/>
+      <c r="L110" s="1"/>
+      <c r="M110" s="1"/>
+      <c r="N110" s="1"/>
+      <c r="O110" s="1"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>1976</v>
+      </c>
+      <c r="B111" s="1" t="n">
+        <v>9747500</v>
+      </c>
+      <c r="C111" s="1" t="n">
+        <v>158800</v>
+      </c>
+      <c r="D111" s="1" t="n">
+        <v>43000</v>
+      </c>
+      <c r="E111" s="1" t="n">
+        <v>297900</v>
+      </c>
+      <c r="F111" s="1" t="n">
+        <v>231100</v>
+      </c>
+      <c r="G111" s="1" t="n">
+        <v>2543400</v>
+      </c>
+      <c r="H111" s="1" t="n">
+        <v>3740700</v>
+      </c>
+      <c r="I111" s="1" t="n">
+        <v>434400</v>
+      </c>
+      <c r="J111" s="1" t="n">
+        <v>382300</v>
+      </c>
+      <c r="K111" s="1" t="n">
+        <v>854900</v>
+      </c>
+      <c r="L111" s="1" t="n">
+        <v>1060900</v>
+      </c>
+      <c r="M111" s="1"/>
+      <c r="N111" s="1"/>
+      <c r="O111" s="1"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>1977</v>
+      </c>
+      <c r="B112" s="1" t="n">
+        <v>9917100</v>
+      </c>
+      <c r="C112" s="1" t="n">
+        <v>160900</v>
+      </c>
+      <c r="D112" s="1" t="n">
+        <v>43600</v>
+      </c>
+      <c r="E112" s="1" t="n">
+        <v>298300</v>
+      </c>
+      <c r="F112" s="1" t="n">
+        <v>228300</v>
+      </c>
+      <c r="G112" s="1" t="n">
+        <v>2556000</v>
+      </c>
+      <c r="H112" s="1" t="n">
+        <v>3803900</v>
+      </c>
+      <c r="I112" s="1" t="n">
+        <v>438200</v>
+      </c>
+      <c r="J112" s="1" t="n">
+        <v>395400</v>
+      </c>
+      <c r="K112" s="1" t="n">
+        <v>903700</v>
+      </c>
+      <c r="L112" s="1" t="n">
+        <v>1089100</v>
+      </c>
+      <c r="M112" s="1"/>
+      <c r="N112" s="1"/>
+      <c r="O112" s="1"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>1978</v>
+      </c>
+      <c r="B113" s="1" t="n">
+        <v>10220300</v>
+      </c>
+      <c r="C113" s="1" t="n">
+        <v>166100</v>
+      </c>
+      <c r="D113" s="1" t="n">
+        <v>44900</v>
+      </c>
+      <c r="E113" s="1" t="n">
+        <v>306000</v>
+      </c>
+      <c r="F113" s="1" t="n">
+        <v>239300</v>
+      </c>
+      <c r="G113" s="1" t="n">
+        <v>2596100</v>
+      </c>
+      <c r="H113" s="1" t="n">
+        <v>3923600</v>
+      </c>
+      <c r="I113" s="1" t="n">
+        <v>444400</v>
+      </c>
+      <c r="J113" s="1" t="n">
+        <v>403200</v>
+      </c>
+      <c r="K113" s="1" t="n">
+        <v>959200</v>
+      </c>
+      <c r="L113" s="1" t="n">
+        <v>1137500</v>
+      </c>
+      <c r="M113" s="1"/>
+      <c r="N113" s="1"/>
+      <c r="O113" s="1"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>1979</v>
+      </c>
+      <c r="B114" s="1" t="n">
+        <v>10668600</v>
+      </c>
+      <c r="C114" s="1" t="n">
+        <v>176700</v>
+      </c>
+      <c r="D114" s="1" t="n">
+        <v>46400</v>
+      </c>
+      <c r="E114" s="1" t="n">
+        <v>317300</v>
+      </c>
+      <c r="F114" s="1" t="n">
+        <v>250100</v>
+      </c>
+      <c r="G114" s="1" t="n">
+        <v>2692000</v>
+      </c>
+      <c r="H114" s="1" t="n">
+        <v>4092800</v>
+      </c>
+      <c r="I114" s="1" t="n">
+        <v>454600</v>
+      </c>
+      <c r="J114" s="1" t="n">
+        <v>416100</v>
+      </c>
+      <c r="K114" s="1" t="n">
+        <v>1033900</v>
+      </c>
+      <c r="L114" s="1" t="n">
+        <v>1188500</v>
+      </c>
+      <c r="M114" s="1"/>
+      <c r="N114" s="1"/>
+      <c r="O114" s="1"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>1980</v>
+      </c>
+      <c r="B115" s="1" t="n">
+        <v>10984000</v>
+      </c>
+      <c r="C115" s="1" t="n">
+        <v>182600</v>
+      </c>
+      <c r="D115" s="1" t="n">
+        <v>47800</v>
+      </c>
+      <c r="E115" s="1" t="n">
+        <v>324400</v>
+      </c>
+      <c r="F115" s="1" t="n">
+        <v>253900</v>
+      </c>
+      <c r="G115" s="1" t="n">
+        <v>2756200</v>
+      </c>
+      <c r="H115" s="1" t="n">
+        <v>4165100</v>
+      </c>
+      <c r="I115" s="1" t="n">
+        <v>462000</v>
+      </c>
+      <c r="J115" s="1" t="n">
+        <v>423100</v>
+      </c>
+      <c r="K115" s="1" t="n">
+        <v>1102500</v>
+      </c>
+      <c r="L115" s="1" t="n">
+        <v>1266400</v>
+      </c>
+      <c r="M115" s="1"/>
+      <c r="N115" s="1"/>
+      <c r="O115" s="1"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>1981</v>
+      </c>
+      <c r="B116" s="1" t="n">
+        <v>11305000</v>
+      </c>
+      <c r="C116" s="1" t="n">
+        <v>186100</v>
+      </c>
+      <c r="D116" s="1" t="n">
+        <v>47100</v>
+      </c>
+      <c r="E116" s="1" t="n">
+        <v>328300</v>
+      </c>
+      <c r="F116" s="1" t="n">
+        <v>257700</v>
+      </c>
+      <c r="G116" s="1" t="n">
+        <v>2791200</v>
+      </c>
+      <c r="H116" s="1" t="n">
+        <v>4292500</v>
+      </c>
+      <c r="I116" s="1" t="n">
+        <v>468800</v>
+      </c>
+      <c r="J116" s="1" t="n">
+        <v>430900</v>
+      </c>
+      <c r="K116" s="1" t="n">
+        <v>1182800</v>
+      </c>
+      <c r="L116" s="1" t="n">
+        <v>1319600</v>
+      </c>
+      <c r="M116" s="1"/>
+      <c r="N116" s="1"/>
+      <c r="O116" s="1"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>1982</v>
+      </c>
+      <c r="B117" s="1" t="n">
+        <v>10943700</v>
+      </c>
+      <c r="C117" s="1" t="n">
+        <v>180800</v>
+      </c>
+      <c r="D117" s="1" t="n">
+        <v>46600</v>
+      </c>
+      <c r="E117" s="1" t="n">
+        <v>321100</v>
+      </c>
+      <c r="F117" s="1" t="n">
+        <v>248400</v>
+      </c>
+      <c r="G117" s="1" t="n">
+        <v>2640100</v>
+      </c>
+      <c r="H117" s="1" t="n">
+        <v>4198600</v>
+      </c>
+      <c r="I117" s="1" t="n">
+        <v>460300</v>
+      </c>
+      <c r="J117" s="1" t="n">
+        <v>430000</v>
+      </c>
+      <c r="K117" s="1" t="n">
+        <v>1164300</v>
+      </c>
+      <c r="L117" s="1" t="n">
+        <v>1253400</v>
+      </c>
+      <c r="M117" s="1"/>
+      <c r="N117" s="1"/>
+      <c r="O117" s="1"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>1983</v>
+      </c>
+      <c r="B118" s="1" t="n">
+        <v>11022000</v>
+      </c>
+      <c r="C118" s="1" t="n">
+        <v>180800</v>
+      </c>
+      <c r="D118" s="1" t="n">
+        <v>48800</v>
+      </c>
+      <c r="E118" s="1" t="n">
+        <v>324800</v>
+      </c>
+      <c r="F118" s="1" t="n">
+        <v>251300</v>
+      </c>
+      <c r="G118" s="1" t="n">
+        <v>2683800</v>
+      </c>
+      <c r="H118" s="1" t="n">
+        <v>4249000</v>
+      </c>
+      <c r="I118" s="1" t="n">
+        <v>467900</v>
+      </c>
+      <c r="J118" s="1" t="n">
+        <v>436900</v>
+      </c>
+      <c r="K118" s="1" t="n">
+        <v>1133800</v>
+      </c>
+      <c r="L118" s="1" t="n">
+        <v>1244900</v>
+      </c>
+      <c r="M118" s="1"/>
+      <c r="N118" s="1"/>
+      <c r="O118" s="1"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>1984</v>
+      </c>
+      <c r="B119" s="1" t="n">
+        <v>11301700</v>
+      </c>
+      <c r="C119" s="1" t="n">
+        <v>179000</v>
+      </c>
+      <c r="D119" s="1" t="n">
+        <v>49500</v>
+      </c>
+      <c r="E119" s="1" t="n">
+        <v>339900</v>
+      </c>
+      <c r="F119" s="1" t="n">
+        <v>255200</v>
+      </c>
+      <c r="G119" s="1" t="n">
+        <v>2762500</v>
+      </c>
+      <c r="H119" s="1" t="n">
+        <v>4410200</v>
+      </c>
+      <c r="I119" s="1" t="n">
+        <v>479100</v>
+      </c>
+      <c r="J119" s="1" t="n">
+        <v>443200</v>
+      </c>
+      <c r="K119" s="1" t="n">
+        <v>1138100</v>
+      </c>
+      <c r="L119" s="1" t="n">
+        <v>1245100</v>
+      </c>
+      <c r="M119" s="1"/>
+      <c r="N119" s="1"/>
+      <c r="O119" s="1"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>1985</v>
+      </c>
+      <c r="B120" s="1" t="n">
+        <v>11658000</v>
+      </c>
+      <c r="C120" s="1" t="n">
+        <v>182500</v>
+      </c>
+      <c r="D120" s="1" t="n">
+        <v>50700</v>
+      </c>
+      <c r="E120" s="1" t="n">
+        <v>343700</v>
+      </c>
+      <c r="F120" s="1" t="n">
+        <v>262000</v>
+      </c>
+      <c r="G120" s="1" t="n">
+        <v>2848600</v>
+      </c>
+      <c r="H120" s="1" t="n">
+        <v>4576600</v>
+      </c>
+      <c r="I120" s="1" t="n">
+        <v>486900</v>
+      </c>
+      <c r="J120" s="1" t="n">
+        <v>453600</v>
+      </c>
+      <c r="K120" s="1" t="n">
+        <v>1173800</v>
+      </c>
+      <c r="L120" s="1" t="n">
+        <v>1279700</v>
+      </c>
+      <c r="M120" s="1"/>
+      <c r="N120" s="1"/>
+      <c r="O120" s="1"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>1986</v>
+      </c>
+      <c r="B121" s="1" t="n">
+        <v>12008500</v>
+      </c>
+      <c r="C121" s="1" t="n">
+        <v>187100</v>
+      </c>
+      <c r="D121" s="1" t="n">
+        <v>52300</v>
+      </c>
+      <c r="E121" s="1" t="n">
+        <v>350500</v>
+      </c>
+      <c r="F121" s="1" t="n">
+        <v>271000</v>
+      </c>
+      <c r="G121" s="1" t="n">
+        <v>2933500</v>
+      </c>
+      <c r="H121" s="1" t="n">
+        <v>4733900</v>
+      </c>
+      <c r="I121" s="1" t="n">
+        <v>500700</v>
+      </c>
+      <c r="J121" s="1" t="n">
+        <v>463100</v>
+      </c>
+      <c r="K121" s="1" t="n">
+        <v>1184500</v>
+      </c>
+      <c r="L121" s="1" t="n">
+        <v>1331800</v>
+      </c>
+      <c r="M121" s="1"/>
+      <c r="N121" s="1"/>
+      <c r="O121" s="1"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>1987</v>
+      </c>
+      <c r="B122" s="1" t="n">
+        <v>12333000</v>
+      </c>
+      <c r="C122" s="1" t="n">
+        <v>190300</v>
+      </c>
+      <c r="D122" s="1" t="n">
+        <v>53400</v>
+      </c>
+      <c r="E122" s="1" t="n">
+        <v>359000</v>
+      </c>
+      <c r="F122" s="1" t="n">
+        <v>280300</v>
+      </c>
+      <c r="G122" s="1" t="n">
+        <v>3022100</v>
+      </c>
+      <c r="H122" s="1" t="n">
+        <v>4895600</v>
+      </c>
+      <c r="I122" s="1" t="n">
+        <v>505200</v>
+      </c>
+      <c r="J122" s="1" t="n">
+        <v>461900</v>
+      </c>
+      <c r="K122" s="1" t="n">
+        <v>1187700</v>
+      </c>
+      <c r="L122" s="1" t="n">
+        <v>1377700</v>
+      </c>
+      <c r="M122" s="1"/>
+      <c r="N122" s="1"/>
+      <c r="O122" s="1"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>1988</v>
+      </c>
+      <c r="B123" s="1" t="n">
+        <v>12709600</v>
+      </c>
+      <c r="C123" s="1" t="n">
+        <v>199700</v>
+      </c>
+      <c r="D123" s="1" t="n">
+        <v>54600</v>
+      </c>
+      <c r="E123" s="1" t="n">
+        <v>373700</v>
+      </c>
+      <c r="F123" s="1" t="n">
+        <v>291000</v>
+      </c>
+      <c r="G123" s="1" t="n">
+        <v>3081400</v>
+      </c>
+      <c r="H123" s="1" t="n">
+        <v>5083100</v>
+      </c>
+      <c r="I123" s="1" t="n">
+        <v>506300</v>
+      </c>
+      <c r="J123" s="1" t="n">
+        <v>462800</v>
+      </c>
+      <c r="K123" s="1" t="n">
+        <v>1222300</v>
+      </c>
+      <c r="L123" s="1" t="n">
+        <v>1434600</v>
+      </c>
+      <c r="M123" s="1"/>
+      <c r="N123" s="1"/>
+      <c r="O123" s="1"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>1989</v>
+      </c>
+      <c r="B124" s="1" t="n">
+        <v>12996200</v>
+      </c>
+      <c r="C124" s="1" t="n">
+        <v>206300</v>
+      </c>
+      <c r="D124" s="1" t="n">
+        <v>55000</v>
+      </c>
+      <c r="E124" s="1" t="n">
+        <v>381600</v>
+      </c>
+      <c r="F124" s="1" t="n">
+        <v>296800</v>
+      </c>
+      <c r="G124" s="1" t="n">
+        <v>3128800</v>
+      </c>
+      <c r="H124" s="1" t="n">
+        <v>5199000</v>
+      </c>
+      <c r="I124" s="1" t="n">
+        <v>512700</v>
+      </c>
+      <c r="J124" s="1" t="n">
+        <v>456400</v>
+      </c>
+      <c r="K124" s="1" t="n">
+        <v>1251300</v>
+      </c>
+      <c r="L124" s="1" t="n">
+        <v>1508300</v>
+      </c>
+      <c r="M124" s="1"/>
+      <c r="N124" s="1"/>
+      <c r="O124" s="1"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>1990</v>
+      </c>
+      <c r="B125" s="1" t="n">
+        <v>13086400</v>
+      </c>
+      <c r="C125" s="1" t="n">
+        <v>206900</v>
+      </c>
+      <c r="D125" s="1" t="n">
+        <v>55100</v>
+      </c>
+      <c r="E125" s="1" t="n">
+        <v>385300</v>
+      </c>
+      <c r="F125" s="1" t="n">
+        <v>300300</v>
+      </c>
+      <c r="G125" s="1" t="n">
+        <v>3140300</v>
+      </c>
+      <c r="H125" s="1" t="n">
+        <v>5194100</v>
+      </c>
+      <c r="I125" s="1" t="n">
+        <v>513800</v>
+      </c>
+      <c r="J125" s="1" t="n">
+        <v>454200</v>
+      </c>
+      <c r="K125" s="1" t="n">
+        <v>1276800</v>
+      </c>
+      <c r="L125" s="1" t="n">
+        <v>1559600</v>
+      </c>
+      <c r="M125" s="1"/>
+      <c r="N125" s="1"/>
+      <c r="O125" s="1"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>1991</v>
+      </c>
+      <c r="B126" s="1" t="n">
+        <v>12857400</v>
+      </c>
+      <c r="C126" s="1" t="n">
+        <v>204700</v>
+      </c>
+      <c r="D126" s="1" t="n">
+        <v>53400</v>
+      </c>
+      <c r="E126" s="1" t="n">
+        <v>380600</v>
+      </c>
+      <c r="F126" s="1" t="n">
+        <v>295200</v>
+      </c>
+      <c r="G126" s="1" t="n">
+        <v>3084400</v>
+      </c>
+      <c r="H126" s="1" t="n">
+        <v>5017100</v>
+      </c>
+      <c r="I126" s="1" t="n">
+        <v>506800</v>
+      </c>
+      <c r="J126" s="1" t="n">
+        <v>453300</v>
+      </c>
+      <c r="K126" s="1" t="n">
+        <v>1284400</v>
+      </c>
+      <c r="L126" s="1" t="n">
+        <v>1577500</v>
+      </c>
+      <c r="M126" s="1"/>
+      <c r="N126" s="1"/>
+      <c r="O126" s="1"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>1992</v>
+      </c>
+      <c r="B127" s="1" t="n">
+        <v>12730900</v>
+      </c>
+      <c r="C127" s="1" t="n">
+        <v>194900</v>
+      </c>
+      <c r="D127" s="1" t="n">
+        <v>53700</v>
+      </c>
+      <c r="E127" s="1" t="n">
+        <v>368900</v>
+      </c>
+      <c r="F127" s="1" t="n">
+        <v>296900</v>
+      </c>
+      <c r="G127" s="1" t="n">
+        <v>3038600</v>
+      </c>
+      <c r="H127" s="1" t="n">
+        <v>4932900</v>
+      </c>
+      <c r="I127" s="1" t="n">
+        <v>499900</v>
+      </c>
+      <c r="J127" s="1" t="n">
+        <v>448000</v>
+      </c>
+      <c r="K127" s="1" t="n">
+        <v>1280000</v>
+      </c>
+      <c r="L127" s="1" t="n">
+        <v>1617200</v>
+      </c>
+      <c r="M127" s="1" t="n">
+        <v>13290</v>
+      </c>
+      <c r="N127" s="1"/>
+      <c r="O127" s="1"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>1993</v>
+      </c>
+      <c r="B128" s="1" t="n">
+        <v>12792700</v>
+      </c>
+      <c r="C128" s="1" t="n">
+        <v>193800</v>
+      </c>
+      <c r="D128" s="1" t="n">
+        <v>54600</v>
+      </c>
+      <c r="E128" s="1" t="n">
+        <v>366500</v>
+      </c>
+      <c r="F128" s="1" t="n">
+        <v>299900</v>
+      </c>
+      <c r="G128" s="1" t="n">
+        <v>3030900</v>
+      </c>
+      <c r="H128" s="1" t="n">
+        <v>4938000</v>
+      </c>
+      <c r="I128" s="1" t="n">
+        <v>503800</v>
+      </c>
+      <c r="J128" s="1" t="n">
+        <v>448500</v>
+      </c>
+      <c r="K128" s="1" t="n">
+        <v>1288700</v>
+      </c>
+      <c r="L128" s="1" t="n">
+        <v>1668000</v>
+      </c>
+      <c r="M128" s="1" t="n">
+        <v>12766.6666666667</v>
+      </c>
+      <c r="N128" s="1"/>
+      <c r="O128" s="1"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>1994</v>
+      </c>
+      <c r="B129" s="1" t="n">
+        <v>13058700</v>
+      </c>
+      <c r="C129" s="1" t="n">
+        <v>193500</v>
+      </c>
+      <c r="D129" s="1" t="n">
+        <v>55700</v>
+      </c>
+      <c r="E129" s="1" t="n">
+        <v>372600</v>
+      </c>
+      <c r="F129" s="1" t="n">
+        <v>298600</v>
+      </c>
+      <c r="G129" s="1" t="n">
+        <v>3094800</v>
+      </c>
+      <c r="H129" s="1" t="n">
+        <v>5013600</v>
+      </c>
+      <c r="I129" s="1" t="n">
+        <v>507700</v>
+      </c>
+      <c r="J129" s="1" t="n">
+        <v>454500</v>
+      </c>
+      <c r="K129" s="1" t="n">
+        <v>1324500</v>
+      </c>
+      <c r="L129" s="1" t="n">
+        <v>1743200</v>
+      </c>
+      <c r="M129" s="1" t="n">
+        <v>12725</v>
+      </c>
+      <c r="N129" s="1"/>
+      <c r="O129" s="1"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>1995</v>
+      </c>
+      <c r="B130" s="1" t="n">
+        <v>13295400</v>
+      </c>
+      <c r="C130" s="1" t="n">
+        <v>194400</v>
+      </c>
+      <c r="D130" s="1" t="n">
+        <v>57200</v>
+      </c>
+      <c r="E130" s="1" t="n">
+        <v>375900</v>
+      </c>
+      <c r="F130" s="1" t="n">
+        <v>307500</v>
+      </c>
+      <c r="G130" s="1" t="n">
+        <v>3135300</v>
+      </c>
+      <c r="H130" s="1" t="n">
+        <v>5100000</v>
+      </c>
+      <c r="I130" s="1" t="n">
+        <v>516500</v>
+      </c>
+      <c r="J130" s="1" t="n">
+        <v>458000</v>
+      </c>
+      <c r="K130" s="1" t="n">
+        <v>1364900</v>
+      </c>
+      <c r="L130" s="1" t="n">
+        <v>1785600</v>
+      </c>
+      <c r="M130" s="1" t="n">
+        <v>14591.6666666667</v>
+      </c>
+      <c r="N130" s="1"/>
+      <c r="O130" s="1"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>1996</v>
+      </c>
+      <c r="B131" s="1" t="n">
+        <v>13420100</v>
+      </c>
+      <c r="C131" s="1" t="n">
+        <v>188800</v>
+      </c>
+      <c r="D131" s="1" t="n">
+        <v>58800</v>
+      </c>
+      <c r="E131" s="1" t="n">
+        <v>376800</v>
+      </c>
+      <c r="F131" s="1" t="n">
+        <v>305800</v>
+      </c>
+      <c r="G131" s="1" t="n">
+        <v>3132700</v>
+      </c>
+      <c r="H131" s="1" t="n">
+        <v>5165900</v>
+      </c>
+      <c r="I131" s="1" t="n">
+        <v>517700</v>
+      </c>
+      <c r="J131" s="1" t="n">
+        <v>454600</v>
+      </c>
+      <c r="K131" s="1" t="n">
+        <v>1405600</v>
+      </c>
+      <c r="L131" s="1" t="n">
+        <v>1813400</v>
+      </c>
+      <c r="M131" s="1" t="n">
+        <v>15758.3333333333</v>
+      </c>
+      <c r="N131" s="1"/>
+      <c r="O131" s="1"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>1997</v>
+      </c>
+      <c r="B132" s="1" t="n">
+        <v>13708200</v>
+      </c>
+      <c r="C132" s="1" t="n">
+        <v>189600</v>
+      </c>
+      <c r="D132" s="1" t="n">
+        <v>58600</v>
+      </c>
+      <c r="E132" s="1" t="n">
+        <v>382300</v>
+      </c>
+      <c r="F132" s="1" t="n">
+        <v>310100</v>
+      </c>
+      <c r="G132" s="1" t="n">
+        <v>3174500</v>
+      </c>
+      <c r="H132" s="1" t="n">
+        <v>5290700</v>
+      </c>
+      <c r="I132" s="1" t="n">
+        <v>524900</v>
+      </c>
+      <c r="J132" s="1" t="n">
+        <v>464400</v>
+      </c>
+      <c r="K132" s="1" t="n">
+        <v>1453200</v>
+      </c>
+      <c r="L132" s="1" t="n">
+        <v>1859900</v>
+      </c>
+      <c r="M132" s="1" t="n">
+        <v>15316.6666666667</v>
+      </c>
+      <c r="N132" s="1"/>
+      <c r="O132" s="1"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>1998</v>
+      </c>
+      <c r="B133" s="1" t="n">
+        <v>14047000</v>
+      </c>
+      <c r="C133" s="1" t="n">
+        <v>193700</v>
+      </c>
+      <c r="D133" s="1" t="n">
+        <v>59600</v>
+      </c>
+      <c r="E133" s="1" t="n">
+        <v>395900</v>
+      </c>
+      <c r="F133" s="1" t="n">
+        <v>316100</v>
+      </c>
+      <c r="G133" s="1" t="n">
+        <v>3257700</v>
+      </c>
+      <c r="H133" s="1" t="n">
+        <v>5453900</v>
+      </c>
+      <c r="I133" s="1" t="n">
+        <v>534800</v>
+      </c>
+      <c r="J133" s="1" t="n">
+        <v>468700</v>
+      </c>
+      <c r="K133" s="1" t="n">
+        <v>1508900</v>
+      </c>
+      <c r="L133" s="1" t="n">
+        <v>1857700</v>
+      </c>
+      <c r="M133" s="1" t="n">
+        <v>15025</v>
+      </c>
+      <c r="N133" s="1"/>
+      <c r="O133" s="1"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>1999</v>
+      </c>
+      <c r="B134" s="1" t="n">
+        <v>14402000</v>
+      </c>
+      <c r="C134" s="1" t="n">
+        <v>201900</v>
+      </c>
+      <c r="D134" s="1" t="n">
+        <v>60300</v>
+      </c>
+      <c r="E134" s="1" t="n">
+        <v>403700</v>
+      </c>
+      <c r="F134" s="1" t="n">
+        <v>325700</v>
+      </c>
+      <c r="G134" s="1" t="n">
+        <v>3326600</v>
+      </c>
+      <c r="H134" s="1" t="n">
+        <v>5635300</v>
+      </c>
+      <c r="I134" s="1" t="n">
+        <v>541800</v>
+      </c>
+      <c r="J134" s="1" t="n">
+        <v>469600</v>
+      </c>
+      <c r="K134" s="1" t="n">
+        <v>1543200</v>
+      </c>
+      <c r="L134" s="1" t="n">
+        <v>1893700</v>
+      </c>
+      <c r="M134" s="1" t="n">
+        <v>15008.3333333333</v>
+      </c>
+      <c r="N134" s="1"/>
+      <c r="O134" s="1"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B135" s="1" t="n">
+        <v>14760100</v>
+      </c>
+      <c r="C135" s="1" t="n">
+        <v>198800</v>
+      </c>
+      <c r="D135" s="1" t="n">
+        <v>62800</v>
+      </c>
+      <c r="E135" s="1" t="n">
+        <v>411700</v>
+      </c>
+      <c r="F135" s="1" t="n">
+        <v>331600</v>
+      </c>
+      <c r="G135" s="1" t="n">
+        <v>3401500</v>
+      </c>
+      <c r="H135" s="1" t="n">
+        <v>5814900</v>
+      </c>
+      <c r="I135" s="1" t="n">
+        <v>552200</v>
+      </c>
+      <c r="J135" s="1" t="n">
+        <v>472900</v>
+      </c>
+      <c r="K135" s="1" t="n">
+        <v>1583100</v>
+      </c>
+      <c r="L135" s="1" t="n">
+        <v>1930800</v>
+      </c>
+      <c r="M135" s="1" t="n">
+        <v>15000</v>
+      </c>
+      <c r="N135" s="1"/>
+      <c r="O135" s="1"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>2001</v>
+      </c>
+      <c r="B136" s="1" t="n">
+        <v>14932300</v>
+      </c>
+      <c r="C136" s="1" t="n">
+        <v>203700</v>
+      </c>
+      <c r="D136" s="1" t="n">
+        <v>63800</v>
+      </c>
+      <c r="E136" s="1" t="n">
+        <v>415400</v>
+      </c>
+      <c r="F136" s="1" t="n">
+        <v>330000</v>
+      </c>
+      <c r="G136" s="1" t="n">
+        <v>3441300</v>
+      </c>
+      <c r="H136" s="1" t="n">
+        <v>5921300</v>
+      </c>
+      <c r="I136" s="1" t="n">
+        <v>549900</v>
+      </c>
+      <c r="J136" s="1" t="n">
+        <v>458600</v>
+      </c>
+      <c r="K136" s="1" t="n">
+        <v>1627400</v>
+      </c>
+      <c r="L136" s="1" t="n">
+        <v>1920900</v>
+      </c>
+      <c r="M136" s="1" t="n">
+        <v>14825</v>
+      </c>
+      <c r="N136" s="1" t="n">
+        <v>19791.6666666667</v>
+      </c>
+      <c r="O136" s="1"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>2002</v>
+      </c>
+      <c r="B137" s="1" t="n">
+        <v>15291300</v>
+      </c>
+      <c r="C137" s="1" t="n">
+        <v>206500</v>
+      </c>
+      <c r="D137" s="1" t="n">
+        <v>64700</v>
+      </c>
+      <c r="E137" s="1" t="n">
+        <v>422500</v>
+      </c>
+      <c r="F137" s="1" t="n">
+        <v>341900</v>
+      </c>
+      <c r="G137" s="1" t="n">
+        <v>3564300</v>
+      </c>
+      <c r="H137" s="1" t="n">
+        <v>6034200</v>
+      </c>
+      <c r="I137" s="1" t="n">
+        <v>563300</v>
+      </c>
+      <c r="J137" s="1" t="n">
+        <v>467700</v>
+      </c>
+      <c r="K137" s="1" t="n">
+        <v>1673800</v>
+      </c>
+      <c r="L137" s="1" t="n">
+        <v>1952400</v>
+      </c>
+      <c r="M137" s="1" t="n">
+        <v>15158.3333333333</v>
+      </c>
+      <c r="N137" s="1" t="n">
+        <v>20883.3333333333</v>
+      </c>
+      <c r="O137" s="1"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>2003</v>
+      </c>
+      <c r="B138" s="1" t="n">
+        <v>15660800</v>
+      </c>
+      <c r="C138" s="1" t="n">
+        <v>210700</v>
+      </c>
+      <c r="D138" s="1" t="n">
+        <v>66100</v>
+      </c>
+      <c r="E138" s="1" t="n">
+        <v>431300</v>
+      </c>
+      <c r="F138" s="1" t="n">
+        <v>341700</v>
+      </c>
+      <c r="G138" s="1" t="n">
+        <v>3628800</v>
+      </c>
+      <c r="H138" s="1" t="n">
+        <v>6212900</v>
+      </c>
+      <c r="I138" s="1" t="n">
+        <v>566500</v>
+      </c>
+      <c r="J138" s="1" t="n">
+        <v>475900</v>
+      </c>
+      <c r="K138" s="1" t="n">
+        <v>1729000</v>
+      </c>
+      <c r="L138" s="1" t="n">
+        <v>1998100</v>
+      </c>
+      <c r="M138" s="1" t="n">
+        <v>15075</v>
+      </c>
+      <c r="N138" s="1" t="n">
+        <v>21275</v>
+      </c>
+      <c r="O138" s="1"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>2004</v>
+      </c>
+      <c r="B139" s="1" t="n">
+        <v>15915000</v>
+      </c>
+      <c r="C139" s="1" t="n">
+        <v>213200</v>
+      </c>
+      <c r="D139" s="1" t="n">
+        <v>66600</v>
+      </c>
+      <c r="E139" s="1" t="n">
+        <v>441700</v>
+      </c>
+      <c r="F139" s="1" t="n">
+        <v>348100</v>
+      </c>
+      <c r="G139" s="1" t="n">
+        <v>3675800</v>
+      </c>
+      <c r="H139" s="1" t="n">
+        <v>6314300</v>
+      </c>
+      <c r="I139" s="1" t="n">
+        <v>572600</v>
+      </c>
+      <c r="J139" s="1" t="n">
+        <v>479800</v>
+      </c>
+      <c r="K139" s="1" t="n">
+        <v>1774800</v>
+      </c>
+      <c r="L139" s="1" t="n">
+        <v>2028300</v>
+      </c>
+      <c r="M139" s="1" t="n">
+        <v>16508.3333333333</v>
+      </c>
+      <c r="N139" s="1" t="n">
+        <v>22050</v>
+      </c>
+      <c r="O139" s="1" t="n">
+        <v>7575</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>2005</v>
+      </c>
+      <c r="B140" s="1" t="n">
+        <v>16123500</v>
+      </c>
+      <c r="C140" s="1" t="n">
+        <v>212300</v>
+      </c>
+      <c r="D140" s="1" t="n">
+        <v>67700</v>
+      </c>
+      <c r="E140" s="1" t="n">
+        <v>442100</v>
+      </c>
+      <c r="F140" s="1" t="n">
+        <v>346500</v>
+      </c>
+      <c r="G140" s="1" t="n">
+        <v>3705500</v>
+      </c>
+      <c r="H140" s="1" t="n">
+        <v>6381000</v>
+      </c>
+      <c r="I140" s="1" t="n">
+        <v>576500</v>
+      </c>
+      <c r="J140" s="1" t="n">
+        <v>481800</v>
+      </c>
+      <c r="K140" s="1" t="n">
+        <v>1820400</v>
+      </c>
+      <c r="L140" s="1" t="n">
+        <v>2089700</v>
+      </c>
+      <c r="M140" s="1" t="n">
+        <v>17066.6666666667</v>
+      </c>
+      <c r="N140" s="1" t="n">
+        <v>22566.6666666667</v>
+      </c>
+      <c r="O140" s="1" t="n">
+        <v>7658.33333333333</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>2006</v>
+      </c>
+      <c r="B141" s="1" t="n">
+        <v>16375000</v>
+      </c>
+      <c r="C141" s="1" t="n">
+        <v>214300</v>
+      </c>
+      <c r="D141" s="1" t="n">
+        <v>67900</v>
+      </c>
+      <c r="E141" s="1" t="n">
+        <v>439400</v>
+      </c>
+      <c r="F141" s="1" t="n">
+        <v>349600</v>
+      </c>
+      <c r="G141" s="1" t="n">
+        <v>3736000</v>
+      </c>
+      <c r="H141" s="1" t="n">
+        <v>6449000</v>
+      </c>
+      <c r="I141" s="1" t="n">
+        <v>582500</v>
+      </c>
+      <c r="J141" s="1" t="n">
+        <v>489900</v>
+      </c>
+      <c r="K141" s="1" t="n">
+        <v>1908700</v>
+      </c>
+      <c r="L141" s="1" t="n">
+        <v>2137900</v>
+      </c>
+      <c r="M141" s="1" t="n">
+        <v>17225</v>
+      </c>
+      <c r="N141" s="1" t="n">
+        <v>22833.3333333333</v>
+      </c>
+      <c r="O141" s="1" t="n">
+        <v>8566.66666666667</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>2007</v>
+      </c>
+      <c r="B142" s="1" t="n">
+        <v>16719100</v>
+      </c>
+      <c r="C142" s="1" t="n">
+        <v>217400</v>
+      </c>
+      <c r="D142" s="1" t="n">
+        <v>68200</v>
+      </c>
+      <c r="E142" s="1" t="n">
+        <v>444400</v>
+      </c>
+      <c r="F142" s="1" t="n">
+        <v>356000</v>
+      </c>
+      <c r="G142" s="1" t="n">
+        <v>3824500</v>
+      </c>
+      <c r="H142" s="1" t="n">
+        <v>6526500</v>
+      </c>
+      <c r="I142" s="1" t="n">
+        <v>590300</v>
+      </c>
+      <c r="J142" s="1" t="n">
+        <v>504300</v>
+      </c>
+      <c r="K142" s="1" t="n">
+        <v>1983100</v>
+      </c>
+      <c r="L142" s="1" t="n">
+        <v>2204300</v>
+      </c>
+      <c r="M142" s="1" t="n">
+        <v>17091.6666666667</v>
+      </c>
+      <c r="N142" s="1" t="n">
+        <v>23158.3333333333</v>
+      </c>
+      <c r="O142" s="1" t="n">
+        <v>9683.33333333333</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>2008</v>
+      </c>
+      <c r="B143" s="1" t="n">
+        <v>16959100</v>
+      </c>
+      <c r="C143" s="1" t="n">
+        <v>220700</v>
+      </c>
+      <c r="D143" s="1" t="n">
+        <v>68800</v>
+      </c>
+      <c r="E143" s="1" t="n">
+        <v>449400</v>
+      </c>
+      <c r="F143" s="1" t="n">
+        <v>359400</v>
+      </c>
+      <c r="G143" s="1" t="n">
+        <v>3870000</v>
+      </c>
+      <c r="H143" s="1" t="n">
+        <v>6587700</v>
+      </c>
+      <c r="I143" s="1" t="n">
+        <v>599200</v>
+      </c>
+      <c r="J143" s="1" t="n">
+        <v>516700</v>
+      </c>
+      <c r="K143" s="1" t="n">
+        <v>2048600</v>
+      </c>
+      <c r="L143" s="1" t="n">
+        <v>2238700</v>
+      </c>
+      <c r="M143" s="1" t="n">
+        <v>17991.6666666667</v>
+      </c>
+      <c r="N143" s="1" t="n">
+        <v>22500</v>
+      </c>
+      <c r="O143" s="1" t="n">
+        <v>10716.6666666667</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>2009</v>
+      </c>
+      <c r="B144" s="1" t="n">
+        <v>16685300</v>
+      </c>
+      <c r="C144" s="1" t="n">
+        <v>214300</v>
+      </c>
+      <c r="D144" s="1" t="n">
+        <v>67900</v>
+      </c>
+      <c r="E144" s="1" t="n">
+        <v>447100</v>
+      </c>
+      <c r="F144" s="1" t="n">
+        <v>359900</v>
+      </c>
+      <c r="G144" s="1" t="n">
+        <v>3842500</v>
+      </c>
+      <c r="H144" s="1" t="n">
+        <v>6415500</v>
+      </c>
+      <c r="I144" s="1" t="n">
+        <v>599300</v>
+      </c>
+      <c r="J144" s="1" t="n">
+        <v>524700</v>
+      </c>
+      <c r="K144" s="1" t="n">
+        <v>2026900</v>
+      </c>
+      <c r="L144" s="1" t="n">
+        <v>2187100</v>
+      </c>
+      <c r="M144" s="1" t="n">
+        <v>17375</v>
+      </c>
+      <c r="N144" s="1" t="n">
+        <v>21275</v>
+      </c>
+      <c r="O144" s="1" t="n">
+        <v>10708.3333333333</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B145" s="1" t="n">
+        <v>16907300</v>
+      </c>
+      <c r="C145" s="1" t="n">
+        <v>222000</v>
+      </c>
+      <c r="D145" s="1" t="n">
+        <v>69300</v>
+      </c>
+      <c r="E145" s="1" t="n">
+        <v>449800</v>
+      </c>
+      <c r="F145" s="1" t="n">
+        <v>357500</v>
+      </c>
+      <c r="G145" s="1" t="n">
+        <v>3920100</v>
+      </c>
+      <c r="H145" s="1" t="n">
+        <v>6514600</v>
+      </c>
+      <c r="I145" s="1" t="n">
+        <v>607400</v>
+      </c>
+      <c r="J145" s="1" t="n">
+        <v>530700</v>
+      </c>
+      <c r="K145" s="1" t="n">
+        <v>2021100</v>
+      </c>
+      <c r="L145" s="1" t="n">
+        <v>2214900</v>
+      </c>
+      <c r="M145" s="1" t="n">
+        <v>17433.3333333333</v>
+      </c>
+      <c r="N145" s="1" t="n">
+        <v>21725</v>
+      </c>
+      <c r="O145" s="1" t="n">
+        <v>11408.3333333333</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B146" s="1" t="n">
+        <v>17171700</v>
+      </c>
+      <c r="C146" s="1" t="n">
+        <v>231000</v>
+      </c>
+      <c r="D146" s="1" t="n">
+        <v>71600</v>
+      </c>
+      <c r="E146" s="1" t="n">
+        <v>450900</v>
+      </c>
+      <c r="F146" s="1" t="n">
+        <v>354500</v>
+      </c>
+      <c r="G146" s="1" t="n">
+        <v>3963500</v>
+      </c>
+      <c r="H146" s="1" t="n">
+        <v>6638200</v>
+      </c>
+      <c r="I146" s="1" t="n">
+        <v>612000</v>
+      </c>
+      <c r="J146" s="1" t="n">
+        <v>535000</v>
+      </c>
+      <c r="K146" s="1" t="n">
+        <v>2094700</v>
+      </c>
+      <c r="L146" s="1" t="n">
+        <v>2220300</v>
+      </c>
+      <c r="M146" s="1" t="n">
+        <v>19233.3333333333</v>
+      </c>
+      <c r="N146" s="1" t="n">
+        <v>22758.3333333333</v>
+      </c>
+      <c r="O146" s="1" t="n">
+        <v>11825</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>2012</v>
+      </c>
+      <c r="B147" s="1" t="n">
+        <v>17362900</v>
+      </c>
+      <c r="C147" s="1" t="n">
+        <v>238700</v>
+      </c>
+      <c r="D147" s="1" t="n">
+        <v>72500</v>
+      </c>
+      <c r="E147" s="1" t="n">
+        <v>454100</v>
+      </c>
+      <c r="F147" s="1" t="n">
+        <v>353100</v>
+      </c>
+      <c r="G147" s="1" t="n">
+        <v>3983900</v>
+      </c>
+      <c r="H147" s="1" t="n">
+        <v>6666700</v>
+      </c>
+      <c r="I147" s="1" t="n">
+        <v>618900</v>
+      </c>
+      <c r="J147" s="1" t="n">
+        <v>546600</v>
+      </c>
+      <c r="K147" s="1" t="n">
+        <v>2153900</v>
+      </c>
+      <c r="L147" s="1" t="n">
+        <v>2274700</v>
+      </c>
+      <c r="M147" s="1" t="n">
+        <v>19591.6666666667</v>
+      </c>
+      <c r="N147" s="1" t="n">
+        <v>23175</v>
+      </c>
+      <c r="O147" s="1" t="n">
+        <v>12041.6666666667</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B148" s="1" t="n">
+        <v>17585100</v>
+      </c>
+      <c r="C148" s="1" t="n">
+        <v>240500</v>
+      </c>
+      <c r="D148" s="1" t="n">
+        <v>73200</v>
+      </c>
+      <c r="E148" s="1" t="n">
+        <v>449000</v>
+      </c>
+      <c r="F148" s="1" t="n">
+        <v>354700</v>
+      </c>
+      <c r="G148" s="1" t="n">
+        <v>4026400</v>
+      </c>
+      <c r="H148" s="1" t="n">
+        <v>6768100</v>
+      </c>
+      <c r="I148" s="1" t="n">
+        <v>622400</v>
+      </c>
+      <c r="J148" s="1" t="n">
+        <v>560600</v>
+      </c>
+      <c r="K148" s="1" t="n">
+        <v>2199200</v>
+      </c>
+      <c r="L148" s="1" t="n">
+        <v>2291000</v>
+      </c>
+      <c r="M148" s="1" t="n">
+        <v>19450</v>
+      </c>
+      <c r="N148" s="1" t="n">
+        <v>23408.3333333333</v>
+      </c>
+      <c r="O148" s="1" t="n">
+        <v>12591.6666666667</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B149" s="1" t="n">
+        <v>17677200</v>
+      </c>
+      <c r="C149" s="1" t="n">
+        <v>238200</v>
+      </c>
+      <c r="D149" s="1" t="n">
+        <v>72900</v>
+      </c>
+      <c r="E149" s="1" t="n">
+        <v>442400</v>
+      </c>
+      <c r="F149" s="1" t="n">
+        <v>354500</v>
+      </c>
+      <c r="G149" s="1" t="n">
+        <v>4005000</v>
+      </c>
+      <c r="H149" s="1" t="n">
+        <v>6809100</v>
+      </c>
+      <c r="I149" s="1" t="n">
+        <v>623100</v>
+      </c>
+      <c r="J149" s="1" t="n">
+        <v>563600</v>
+      </c>
+      <c r="K149" s="1" t="n">
+        <v>2236800</v>
+      </c>
+      <c r="L149" s="1" t="n">
+        <v>2331600</v>
+      </c>
+      <c r="M149" s="1" t="n">
+        <v>20408.3333333333</v>
+      </c>
+      <c r="N149" s="1" t="n">
+        <v>22750</v>
+      </c>
+      <c r="O149" s="1" t="n">
+        <v>12066.6666666667</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B150" s="1" t="n">
+        <v>17794000</v>
+      </c>
+      <c r="C150" s="1" t="n">
+        <v>236600</v>
+      </c>
+      <c r="D150" s="1" t="n">
+        <v>72100</v>
+      </c>
+      <c r="E150" s="1" t="n">
+        <v>439400</v>
+      </c>
+      <c r="F150" s="1" t="n">
+        <v>353100</v>
+      </c>
+      <c r="G150" s="1" t="n">
+        <v>4034600</v>
+      </c>
+      <c r="H150" s="1" t="n">
+        <v>6845400</v>
+      </c>
+      <c r="I150" s="1" t="n">
+        <v>632700</v>
+      </c>
+      <c r="J150" s="1" t="n">
+        <v>562700</v>
+      </c>
+      <c r="K150" s="1" t="n">
+        <v>2246400</v>
+      </c>
+      <c r="L150" s="1" t="n">
+        <v>2371000</v>
+      </c>
+      <c r="M150" s="1" t="n">
+        <v>20233.3333333333</v>
+      </c>
+      <c r="N150" s="1" t="n">
+        <v>22941.6666666667</v>
+      </c>
+      <c r="O150" s="1" t="n">
+        <v>12191.6666666667</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B151" s="1" t="n">
+        <v>17911600</v>
+      </c>
+      <c r="C151" s="1" t="n">
+        <v>231600</v>
+      </c>
+      <c r="D151" s="1" t="n">
+        <v>71100</v>
+      </c>
+      <c r="E151" s="1" t="n">
+        <v>439300</v>
+      </c>
+      <c r="F151" s="1" t="n">
+        <v>353600</v>
+      </c>
+      <c r="G151" s="1" t="n">
+        <v>4056700</v>
+      </c>
+      <c r="H151" s="1" t="n">
+        <v>6921400</v>
+      </c>
+      <c r="I151" s="1" t="n">
+        <v>630900</v>
+      </c>
+      <c r="J151" s="1" t="n">
+        <v>557800</v>
+      </c>
+      <c r="K151" s="1" t="n">
+        <v>2195700</v>
+      </c>
+      <c r="L151" s="1" t="n">
+        <v>2453500</v>
+      </c>
+      <c r="M151" s="1" t="n">
+        <v>21175</v>
+      </c>
+      <c r="N151" s="1" t="n">
+        <v>23675</v>
+      </c>
+      <c r="O151" s="1" t="n">
+        <v>13008.3333333333</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B152" s="1" t="n">
+        <v>18281100</v>
+      </c>
+      <c r="C152" s="1" t="n">
+        <v>223100</v>
+      </c>
+      <c r="D152" s="1" t="n">
+        <v>73600</v>
+      </c>
+      <c r="E152" s="1" t="n">
+        <v>442400</v>
+      </c>
+      <c r="F152" s="1" t="n">
+        <v>356300</v>
+      </c>
+      <c r="G152" s="1" t="n">
+        <v>4158600</v>
+      </c>
+      <c r="H152" s="1" t="n">
+        <v>7052500</v>
+      </c>
+      <c r="I152" s="1" t="n">
+        <v>641800</v>
+      </c>
+      <c r="J152" s="1" t="n">
+        <v>557600</v>
+      </c>
+      <c r="K152" s="1" t="n">
+        <v>2220800</v>
+      </c>
+      <c r="L152" s="1" t="n">
+        <v>2554400</v>
+      </c>
+      <c r="M152" s="1" t="n">
+        <v>22441.6666666667</v>
+      </c>
+      <c r="N152" s="1" t="n">
+        <v>22625</v>
+      </c>
+      <c r="O152" s="1" t="n">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B153" s="1" t="n">
+        <v>18568000</v>
+      </c>
+      <c r="C153" s="1" t="n">
+        <v>224400</v>
+      </c>
+      <c r="D153" s="1" t="n">
+        <v>76600</v>
+      </c>
+      <c r="E153" s="1" t="n">
+        <v>450700</v>
+      </c>
+      <c r="F153" s="1" t="n">
+        <v>358400</v>
+      </c>
+      <c r="G153" s="1" t="n">
+        <v>4221700</v>
+      </c>
+      <c r="H153" s="1" t="n">
+        <v>7173300</v>
+      </c>
+      <c r="I153" s="1" t="n">
+        <v>649000</v>
+      </c>
+      <c r="J153" s="1" t="n">
+        <v>560300</v>
+      </c>
+      <c r="K153" s="1" t="n">
+        <v>2263600</v>
+      </c>
+      <c r="L153" s="1" t="n">
+        <v>2589900</v>
+      </c>
+      <c r="M153" s="1" t="n">
+        <v>22716.6666666667</v>
+      </c>
+      <c r="N153" s="1" t="n">
+        <v>22716.6666666667</v>
+      </c>
+      <c r="O153" s="1" t="n">
+        <v>12908.3333333333</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B154" s="1" t="n">
+        <v>18985600</v>
+      </c>
+      <c r="C154" s="1" t="n">
+        <v>227000</v>
+      </c>
+      <c r="D154" s="1" t="n">
+        <v>79200</v>
+      </c>
+      <c r="E154" s="1" t="n">
+        <v>461200</v>
+      </c>
+      <c r="F154" s="1" t="n">
+        <v>361100</v>
+      </c>
+      <c r="G154" s="1" t="n">
+        <v>4308100</v>
+      </c>
+      <c r="H154" s="1" t="n">
+        <v>7376900</v>
+      </c>
+      <c r="I154" s="1" t="n">
+        <v>655400</v>
+      </c>
+      <c r="J154" s="1" t="n">
+        <v>570900</v>
+      </c>
+      <c r="K154" s="1" t="n">
+        <v>2279300</v>
+      </c>
+      <c r="L154" s="1" t="n">
+        <v>2666400</v>
+      </c>
+      <c r="M154" s="1" t="n">
+        <v>23208.3333333333</v>
+      </c>
+      <c r="N154" s="1" t="n">
+        <v>22716.6666666667</v>
+      </c>
+      <c r="O154" s="1" t="n">
+        <v>13041.6666666667</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B155" s="1" t="n">
+        <v>17999200</v>
+      </c>
+      <c r="C155" s="1" t="n">
+        <v>214000</v>
+      </c>
+      <c r="D155" s="1" t="n">
+        <v>76700</v>
+      </c>
+      <c r="E155" s="1" t="n">
+        <v>439700</v>
+      </c>
+      <c r="F155" s="1" t="n">
+        <v>351600</v>
+      </c>
+      <c r="G155" s="1" t="n">
+        <v>4099600</v>
+      </c>
+      <c r="H155" s="1" t="n">
+        <v>7021600</v>
+      </c>
+      <c r="I155" s="1" t="n">
+        <v>630900</v>
+      </c>
+      <c r="J155" s="1" t="n">
+        <v>544100</v>
+      </c>
+      <c r="K155" s="1" t="n">
+        <v>2129800</v>
+      </c>
+      <c r="L155" s="1" t="n">
+        <v>2491100</v>
+      </c>
+      <c r="M155" s="1" t="n">
+        <v>21858.3333333333</v>
+      </c>
+      <c r="N155" s="1" t="n">
+        <v>21675</v>
+      </c>
+      <c r="O155" s="1" t="n">
+        <v>12083.3333333333</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B156" s="1" t="n">
+        <v>18865400</v>
+      </c>
+      <c r="C156" s="1" t="n">
+        <v>220100</v>
+      </c>
+      <c r="D156" s="1" t="n">
+        <v>79400</v>
+      </c>
+      <c r="E156" s="1" t="n">
+        <v>463500</v>
+      </c>
+      <c r="F156" s="1" t="n">
+        <v>360500</v>
+      </c>
+      <c r="G156" s="1" t="n">
+        <v>4269000</v>
+      </c>
+      <c r="H156" s="1" t="n">
+        <v>7366400</v>
+      </c>
+      <c r="I156" s="1" t="n">
+        <v>653300</v>
+      </c>
+      <c r="J156" s="1" t="n">
+        <v>558200</v>
+      </c>
+      <c r="K156" s="1" t="n">
+        <v>2239200</v>
+      </c>
+      <c r="L156" s="1" t="n">
+        <v>2655700</v>
+      </c>
+      <c r="M156" s="1" t="n">
+        <v>22216.6666666667</v>
+      </c>
+      <c r="N156" s="1" t="n">
+        <v>23425</v>
+      </c>
+      <c r="O156" s="1" t="n">
+        <v>12650</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
 </file>
--- a/FON Macroeconomic Data.xlsx
+++ b/FON Macroeconomic Data.xlsx
@@ -33388,16 +33388,36 @@
       <c r="B85" s="1" t="n">
         <v>42996.902509941</v>
       </c>
-      <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
-      <c r="E85" s="1"/>
-      <c r="F85" s="1"/>
-      <c r="G85" s="1"/>
-      <c r="H85" s="1"/>
-      <c r="I85" s="1"/>
-      <c r="J85" s="1"/>
-      <c r="K85" s="1"/>
-      <c r="L85" s="1"/>
+      <c r="C85" s="1" t="n">
+        <v>26743.7550200828</v>
+      </c>
+      <c r="D85" s="1" t="n">
+        <v>21552.5147923315</v>
+      </c>
+      <c r="E85" s="1" t="n">
+        <v>31266.5137197122</v>
+      </c>
+      <c r="F85" s="1" t="n">
+        <v>31691.9819845591</v>
+      </c>
+      <c r="G85" s="1" t="n">
+        <v>42395.5117746158</v>
+      </c>
+      <c r="H85" s="1" t="n">
+        <v>51524.4864368408</v>
+      </c>
+      <c r="I85" s="1" t="n">
+        <v>42149.4355112145</v>
+      </c>
+      <c r="J85" s="1" t="n">
+        <v>31567.8857602485</v>
+      </c>
+      <c r="K85" s="1" t="n">
+        <v>40155.6897681762</v>
+      </c>
+      <c r="L85" s="1" t="n">
+        <v>54530.8901917213</v>
+      </c>
       <c r="M85" s="1"/>
       <c r="N85" s="1"/>
       <c r="O85" s="1"/>
@@ -33409,16 +33429,36 @@
       <c r="B86" s="1" t="n">
         <v>44294.2729546124</v>
       </c>
-      <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
-      <c r="E86" s="1"/>
-      <c r="F86" s="1"/>
-      <c r="G86" s="1"/>
-      <c r="H86" s="1"/>
-      <c r="I86" s="1"/>
-      <c r="J86" s="1"/>
-      <c r="K86" s="1"/>
-      <c r="L86" s="1"/>
+      <c r="C86" s="1" t="n">
+        <v>28500.280766037</v>
+      </c>
+      <c r="D86" s="1" t="n">
+        <v>21656.318603935</v>
+      </c>
+      <c r="E86" s="1" t="n">
+        <v>31412.0093737692</v>
+      </c>
+      <c r="F86" s="1" t="n">
+        <v>33521.3030400219</v>
+      </c>
+      <c r="G86" s="1" t="n">
+        <v>44246.8227473593</v>
+      </c>
+      <c r="H86" s="1" t="n">
+        <v>52092.9825067664</v>
+      </c>
+      <c r="I86" s="1" t="n">
+        <v>43817.628735217</v>
+      </c>
+      <c r="J86" s="1" t="n">
+        <v>40667.688519789</v>
+      </c>
+      <c r="K86" s="1" t="n">
+        <v>42764.748919801</v>
+      </c>
+      <c r="L86" s="1" t="n">
+        <v>56580.7034956805</v>
+      </c>
       <c r="M86" s="1"/>
       <c r="N86" s="1"/>
       <c r="O86" s="1"/>
@@ -33430,16 +33470,36 @@
       <c r="B87" s="1" t="n">
         <v>47952.8528929214</v>
       </c>
-      <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
-      <c r="E87" s="1"/>
-      <c r="F87" s="1"/>
-      <c r="G87" s="1"/>
-      <c r="H87" s="1"/>
-      <c r="I87" s="1"/>
-      <c r="J87" s="1"/>
-      <c r="K87" s="1"/>
-      <c r="L87" s="1"/>
+      <c r="C87" s="1" t="n">
+        <v>29992.8331617488</v>
+      </c>
+      <c r="D87" s="1" t="n">
+        <v>25437.8015904874</v>
+      </c>
+      <c r="E87" s="1" t="n">
+        <v>34547.6129886041</v>
+      </c>
+      <c r="F87" s="1" t="n">
+        <v>33842.40961078</v>
+      </c>
+      <c r="G87" s="1" t="n">
+        <v>44808.1856257537</v>
+      </c>
+      <c r="H87" s="1" t="n">
+        <v>53437.7810747225</v>
+      </c>
+      <c r="I87" s="1" t="n">
+        <v>44443.0140527453</v>
+      </c>
+      <c r="J87" s="1" t="n">
+        <v>44622.3280136225</v>
+      </c>
+      <c r="K87" s="1" t="n">
+        <v>45006.4782568047</v>
+      </c>
+      <c r="L87" s="1" t="n">
+        <v>56020.2308106374</v>
+      </c>
       <c r="M87" s="1"/>
       <c r="N87" s="1"/>
       <c r="O87" s="1"/>
@@ -33451,16 +33511,36 @@
       <c r="B88" s="1" t="n">
         <v>50362.0100910562</v>
       </c>
-      <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
-      <c r="E88" s="1"/>
-      <c r="F88" s="1"/>
-      <c r="G88" s="1"/>
-      <c r="H88" s="1"/>
-      <c r="I88" s="1"/>
-      <c r="J88" s="1"/>
-      <c r="K88" s="1"/>
-      <c r="L88" s="1"/>
+      <c r="C88" s="1" t="n">
+        <v>33433.7122501336</v>
+      </c>
+      <c r="D88" s="1" t="n">
+        <v>22108.9916047634</v>
+      </c>
+      <c r="E88" s="1" t="n">
+        <v>36178.4303945516</v>
+      </c>
+      <c r="F88" s="1" t="n">
+        <v>35512.1971745943</v>
+      </c>
+      <c r="G88" s="1" t="n">
+        <v>47193.0535824666</v>
+      </c>
+      <c r="H88" s="1" t="n">
+        <v>56868.2320063887</v>
+      </c>
+      <c r="I88" s="1" t="n">
+        <v>47921.1488317631</v>
+      </c>
+      <c r="J88" s="1" t="n">
+        <v>45547.6748125505</v>
+      </c>
+      <c r="K88" s="1" t="n">
+        <v>50135.8705587262</v>
+      </c>
+      <c r="L88" s="1" t="n">
+        <v>59454.1401673728</v>
+      </c>
       <c r="M88" s="1"/>
       <c r="N88" s="1"/>
       <c r="O88" s="1"/>
@@ -33472,16 +33552,36 @@
       <c r="B89" s="1" t="n">
         <v>50185.7894591913</v>
       </c>
-      <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
-      <c r="E89" s="1"/>
-      <c r="F89" s="1"/>
-      <c r="G89" s="1"/>
-      <c r="H89" s="1"/>
-      <c r="I89" s="1"/>
-      <c r="J89" s="1"/>
-      <c r="K89" s="1"/>
-      <c r="L89" s="1"/>
+      <c r="C89" s="1" t="n">
+        <v>33611.7627058493</v>
+      </c>
+      <c r="D89" s="1" t="n">
+        <v>24251.9668634974</v>
+      </c>
+      <c r="E89" s="1" t="n">
+        <v>38049.8943170509</v>
+      </c>
+      <c r="F89" s="1" t="n">
+        <v>37617.8655684037</v>
+      </c>
+      <c r="G89" s="1" t="n">
+        <v>48110.9134542747</v>
+      </c>
+      <c r="H89" s="1" t="n">
+        <v>55736.5826324962</v>
+      </c>
+      <c r="I89" s="1" t="n">
+        <v>48334.5085720677</v>
+      </c>
+      <c r="J89" s="1" t="n">
+        <v>37839.6054015276</v>
+      </c>
+      <c r="K89" s="1" t="n">
+        <v>49744.9149761367</v>
+      </c>
+      <c r="L89" s="1" t="n">
+        <v>60373.6456754077</v>
+      </c>
       <c r="M89" s="1"/>
       <c r="N89" s="1"/>
       <c r="O89" s="1"/>
@@ -33493,16 +33593,36 @@
       <c r="B90" s="1" t="n">
         <v>54080.923565497</v>
       </c>
-      <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
-      <c r="E90" s="1"/>
-      <c r="F90" s="1"/>
-      <c r="G90" s="1"/>
-      <c r="H90" s="1"/>
-      <c r="I90" s="1"/>
-      <c r="J90" s="1"/>
-      <c r="K90" s="1"/>
-      <c r="L90" s="1"/>
+      <c r="C90" s="1" t="n">
+        <v>36454.1352310987</v>
+      </c>
+      <c r="D90" s="1" t="n">
+        <v>25441.7800099958</v>
+      </c>
+      <c r="E90" s="1" t="n">
+        <v>39187.6944295391</v>
+      </c>
+      <c r="F90" s="1" t="n">
+        <v>40071.7964844969</v>
+      </c>
+      <c r="G90" s="1" t="n">
+        <v>51475.6576521474</v>
+      </c>
+      <c r="H90" s="1" t="n">
+        <v>60702.077329156</v>
+      </c>
+      <c r="I90" s="1" t="n">
+        <v>51610.3789862321</v>
+      </c>
+      <c r="J90" s="1" t="n">
+        <v>45319.2488030886</v>
+      </c>
+      <c r="K90" s="1" t="n">
+        <v>53722.814576649</v>
+      </c>
+      <c r="L90" s="1" t="n">
+        <v>65788.2109843517</v>
+      </c>
       <c r="M90" s="1"/>
       <c r="N90" s="1"/>
       <c r="O90" s="1"/>
@@ -33514,16 +33634,36 @@
       <c r="B91" s="1" t="n">
         <v>57608.848453564</v>
       </c>
-      <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
-      <c r="E91" s="1"/>
-      <c r="F91" s="1"/>
-      <c r="G91" s="1"/>
-      <c r="H91" s="1"/>
-      <c r="I91" s="1"/>
-      <c r="J91" s="1"/>
-      <c r="K91" s="1"/>
-      <c r="L91" s="1"/>
+      <c r="C91" s="1" t="n">
+        <v>39325.259010363</v>
+      </c>
+      <c r="D91" s="1" t="n">
+        <v>31509.3197956058</v>
+      </c>
+      <c r="E91" s="1" t="n">
+        <v>41360.4421463025</v>
+      </c>
+      <c r="F91" s="1" t="n">
+        <v>42767.0116395241</v>
+      </c>
+      <c r="G91" s="1" t="n">
+        <v>55321.3136250524</v>
+      </c>
+      <c r="H91" s="1" t="n">
+        <v>63524.4269526286</v>
+      </c>
+      <c r="I91" s="1" t="n">
+        <v>55518.2683988515</v>
+      </c>
+      <c r="J91" s="1" t="n">
+        <v>50635.3231718681</v>
+      </c>
+      <c r="K91" s="1" t="n">
+        <v>59291.2276136161</v>
+      </c>
+      <c r="L91" s="1" t="n">
+        <v>67480.4578022595</v>
+      </c>
       <c r="M91" s="1"/>
       <c r="N91" s="1"/>
       <c r="O91" s="1"/>
@@ -33535,16 +33675,36 @@
       <c r="B92" s="1" t="n">
         <v>56824.741841202</v>
       </c>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
-      <c r="E92" s="1"/>
-      <c r="F92" s="1"/>
-      <c r="G92" s="1"/>
-      <c r="H92" s="1"/>
-      <c r="I92" s="1"/>
-      <c r="J92" s="1"/>
-      <c r="K92" s="1"/>
-      <c r="L92" s="1"/>
+      <c r="C92" s="1" t="n">
+        <v>40235.6605583983</v>
+      </c>
+      <c r="D92" s="1" t="n">
+        <v>27306.5096240127</v>
+      </c>
+      <c r="E92" s="1" t="n">
+        <v>42563.3558457146</v>
+      </c>
+      <c r="F92" s="1" t="n">
+        <v>42947.4371458139</v>
+      </c>
+      <c r="G92" s="1" t="n">
+        <v>53758.8123019154</v>
+      </c>
+      <c r="H92" s="1" t="n">
+        <v>62207.0976672939</v>
+      </c>
+      <c r="I92" s="1" t="n">
+        <v>54440.7443162263</v>
+      </c>
+      <c r="J92" s="1" t="n">
+        <v>49044.6042432127</v>
+      </c>
+      <c r="K92" s="1" t="n">
+        <v>60857.6698672294</v>
+      </c>
+      <c r="L92" s="1" t="n">
+        <v>67262.7715685487</v>
+      </c>
       <c r="M92" s="1"/>
       <c r="N92" s="1"/>
       <c r="O92" s="1"/>
@@ -33556,16 +33716,36 @@
       <c r="B93" s="1" t="n">
         <v>57542.0241644063</v>
       </c>
-      <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
-      <c r="E93" s="1"/>
-      <c r="F93" s="1"/>
-      <c r="G93" s="1"/>
-      <c r="H93" s="1"/>
-      <c r="I93" s="1"/>
-      <c r="J93" s="1"/>
-      <c r="K93" s="1"/>
-      <c r="L93" s="1"/>
+      <c r="C93" s="1" t="n">
+        <v>44126.3526874908</v>
+      </c>
+      <c r="D93" s="1" t="n">
+        <v>28524.0376555423</v>
+      </c>
+      <c r="E93" s="1" t="n">
+        <v>42689.5380551806</v>
+      </c>
+      <c r="F93" s="1" t="n">
+        <v>44173.8748407063</v>
+      </c>
+      <c r="G93" s="1" t="n">
+        <v>52807.1347083774</v>
+      </c>
+      <c r="H93" s="1" t="n">
+        <v>62848.7432468331</v>
+      </c>
+      <c r="I93" s="1" t="n">
+        <v>55595.2512428462</v>
+      </c>
+      <c r="J93" s="1" t="n">
+        <v>49248.0540313515</v>
+      </c>
+      <c r="K93" s="1" t="n">
+        <v>59668.1500763288</v>
+      </c>
+      <c r="L93" s="1" t="n">
+        <v>66077.1621379754</v>
+      </c>
       <c r="M93" s="1"/>
       <c r="N93" s="1"/>
       <c r="O93" s="1"/>
@@ -33577,16 +33757,36 @@
       <c r="B94" s="1" t="n">
         <v>58975.5708018962</v>
       </c>
-      <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
-      <c r="E94" s="1"/>
-      <c r="F94" s="1"/>
-      <c r="G94" s="1"/>
-      <c r="H94" s="1"/>
-      <c r="I94" s="1"/>
-      <c r="J94" s="1"/>
-      <c r="K94" s="1"/>
-      <c r="L94" s="1"/>
+      <c r="C94" s="1" t="n">
+        <v>46351.5328131957</v>
+      </c>
+      <c r="D94" s="1" t="n">
+        <v>32366.9847661604</v>
+      </c>
+      <c r="E94" s="1" t="n">
+        <v>44657.5622518634</v>
+      </c>
+      <c r="F94" s="1" t="n">
+        <v>45465.4808138724</v>
+      </c>
+      <c r="G94" s="1" t="n">
+        <v>55238.8593834419</v>
+      </c>
+      <c r="H94" s="1" t="n">
+        <v>65386.8466847876</v>
+      </c>
+      <c r="I94" s="1" t="n">
+        <v>57527.0747089269</v>
+      </c>
+      <c r="J94" s="1" t="n">
+        <v>51100.8910506627</v>
+      </c>
+      <c r="K94" s="1" t="n">
+        <v>61269.2822907549</v>
+      </c>
+      <c r="L94" s="1" t="n">
+        <v>68651.7393359365</v>
+      </c>
       <c r="M94" s="1"/>
       <c r="N94" s="1"/>
       <c r="O94" s="1"/>
@@ -33598,16 +33798,36 @@
       <c r="B95" s="1" t="n">
         <v>59663.5313106458</v>
       </c>
-      <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
-      <c r="E95" s="1"/>
-      <c r="F95" s="1"/>
-      <c r="G95" s="1"/>
-      <c r="H95" s="1"/>
-      <c r="I95" s="1"/>
-      <c r="J95" s="1"/>
-      <c r="K95" s="1"/>
-      <c r="L95" s="1"/>
+      <c r="C95" s="1" t="n">
+        <v>50384.3632729515</v>
+      </c>
+      <c r="D95" s="1" t="n">
+        <v>31200.0504827562</v>
+      </c>
+      <c r="E95" s="1" t="n">
+        <v>45510.266937003</v>
+      </c>
+      <c r="F95" s="1" t="n">
+        <v>45906.8047066785</v>
+      </c>
+      <c r="G95" s="1" t="n">
+        <v>56163.05271453</v>
+      </c>
+      <c r="H95" s="1" t="n">
+        <v>64409.6697726295</v>
+      </c>
+      <c r="I95" s="1" t="n">
+        <v>58286.5392755501</v>
+      </c>
+      <c r="J95" s="1" t="n">
+        <v>52942.3846600593</v>
+      </c>
+      <c r="K95" s="1" t="n">
+        <v>60682.7943760563</v>
+      </c>
+      <c r="L95" s="1" t="n">
+        <v>69950.6853673258</v>
+      </c>
       <c r="M95" s="1"/>
       <c r="N95" s="1"/>
       <c r="O95" s="1"/>
@@ -33619,16 +33839,36 @@
       <c r="B96" s="1" t="n">
         <v>60565.432579276</v>
       </c>
-      <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
-      <c r="E96" s="1"/>
-      <c r="F96" s="1"/>
-      <c r="G96" s="1"/>
-      <c r="H96" s="1"/>
-      <c r="I96" s="1"/>
-      <c r="J96" s="1"/>
-      <c r="K96" s="1"/>
-      <c r="L96" s="1"/>
+      <c r="C96" s="1" t="n">
+        <v>52614.6352826969</v>
+      </c>
+      <c r="D96" s="1" t="n">
+        <v>34145.3730386647</v>
+      </c>
+      <c r="E96" s="1" t="n">
+        <v>44578.9733581305</v>
+      </c>
+      <c r="F96" s="1" t="n">
+        <v>45451.8978032361</v>
+      </c>
+      <c r="G96" s="1" t="n">
+        <v>58024.1622305114</v>
+      </c>
+      <c r="H96" s="1" t="n">
+        <v>65674.5646700617</v>
+      </c>
+      <c r="I96" s="1" t="n">
+        <v>56359.1262854927</v>
+      </c>
+      <c r="J96" s="1" t="n">
+        <v>46936.7596877655</v>
+      </c>
+      <c r="K96" s="1" t="n">
+        <v>61445.4037562547</v>
+      </c>
+      <c r="L96" s="1" t="n">
+        <v>69656.1966550801</v>
+      </c>
       <c r="M96" s="1"/>
       <c r="N96" s="1"/>
       <c r="O96" s="1"/>
@@ -33640,16 +33880,36 @@
       <c r="B97" s="1" t="n">
         <v>63309.7724230254</v>
       </c>
-      <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
-      <c r="E97" s="1"/>
-      <c r="F97" s="1"/>
-      <c r="G97" s="1"/>
-      <c r="H97" s="1"/>
-      <c r="I97" s="1"/>
-      <c r="J97" s="1"/>
-      <c r="K97" s="1"/>
-      <c r="L97" s="1"/>
+      <c r="C97" s="1" t="n">
+        <v>51784.1231206938</v>
+      </c>
+      <c r="D97" s="1" t="n">
+        <v>35268.321281578</v>
+      </c>
+      <c r="E97" s="1" t="n">
+        <v>46368.2802343374</v>
+      </c>
+      <c r="F97" s="1" t="n">
+        <v>46271.1749256207</v>
+      </c>
+      <c r="G97" s="1" t="n">
+        <v>60287.0832376075</v>
+      </c>
+      <c r="H97" s="1" t="n">
+        <v>68767.0065521437</v>
+      </c>
+      <c r="I97" s="1" t="n">
+        <v>60144.004014596</v>
+      </c>
+      <c r="J97" s="1" t="n">
+        <v>58827.5040030647</v>
+      </c>
+      <c r="K97" s="1" t="n">
+        <v>62947.7095692357</v>
+      </c>
+      <c r="L97" s="1" t="n">
+        <v>71043.0585246453</v>
+      </c>
       <c r="M97" s="1"/>
       <c r="N97" s="1"/>
       <c r="O97" s="1"/>
@@ -33661,16 +33921,36 @@
       <c r="B98" s="1" t="n">
         <v>65689.2558762635</v>
       </c>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
-      <c r="E98" s="1"/>
-      <c r="F98" s="1"/>
-      <c r="G98" s="1"/>
-      <c r="H98" s="1"/>
-      <c r="I98" s="1"/>
-      <c r="J98" s="1"/>
-      <c r="K98" s="1"/>
-      <c r="L98" s="1"/>
+      <c r="C98" s="1" t="n">
+        <v>50745.3410216844</v>
+      </c>
+      <c r="D98" s="1" t="n">
+        <v>37198.9236640031</v>
+      </c>
+      <c r="E98" s="1" t="n">
+        <v>48499.1322634765</v>
+      </c>
+      <c r="F98" s="1" t="n">
+        <v>49504.9672574381</v>
+      </c>
+      <c r="G98" s="1" t="n">
+        <v>61497.1738901236</v>
+      </c>
+      <c r="H98" s="1" t="n">
+        <v>70596.0292770717</v>
+      </c>
+      <c r="I98" s="1" t="n">
+        <v>61438.1391768705</v>
+      </c>
+      <c r="J98" s="1" t="n">
+        <v>68683.6334195388</v>
+      </c>
+      <c r="K98" s="1" t="n">
+        <v>65789.3139279901</v>
+      </c>
+      <c r="L98" s="1" t="n">
+        <v>72854.4057449077</v>
+      </c>
       <c r="M98" s="1"/>
       <c r="N98" s="1"/>
       <c r="O98" s="1"/>
@@ -33682,16 +33962,36 @@
       <c r="B99" s="1" t="n">
         <v>68224.704671014</v>
       </c>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
-      <c r="E99" s="1"/>
-      <c r="F99" s="1"/>
-      <c r="G99" s="1"/>
-      <c r="H99" s="1"/>
-      <c r="I99" s="1"/>
-      <c r="J99" s="1"/>
-      <c r="K99" s="1"/>
-      <c r="L99" s="1"/>
+      <c r="C99" s="1" t="n">
+        <v>53391.3999653476</v>
+      </c>
+      <c r="D99" s="1" t="n">
+        <v>39176.6359054588</v>
+      </c>
+      <c r="E99" s="1" t="n">
+        <v>49403.3423918168</v>
+      </c>
+      <c r="F99" s="1" t="n">
+        <v>52573.5216453992</v>
+      </c>
+      <c r="G99" s="1" t="n">
+        <v>64606.4805407528</v>
+      </c>
+      <c r="H99" s="1" t="n">
+        <v>73472.2980417411</v>
+      </c>
+      <c r="I99" s="1" t="n">
+        <v>64482.8537039786</v>
+      </c>
+      <c r="J99" s="1" t="n">
+        <v>64158.0000962224</v>
+      </c>
+      <c r="K99" s="1" t="n">
+        <v>67720.3893575609</v>
+      </c>
+      <c r="L99" s="1" t="n">
+        <v>74878.9899524963</v>
+      </c>
       <c r="M99" s="1"/>
       <c r="N99" s="1"/>
       <c r="O99" s="1"/>
@@ -33703,16 +34003,36 @@
       <c r="B100" s="1" t="n">
         <v>70771.2592469223</v>
       </c>
-      <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
-      <c r="E100" s="1"/>
-      <c r="F100" s="1"/>
-      <c r="G100" s="1"/>
-      <c r="H100" s="1"/>
-      <c r="I100" s="1"/>
-      <c r="J100" s="1"/>
-      <c r="K100" s="1"/>
-      <c r="L100" s="1"/>
+      <c r="C100" s="1" t="n">
+        <v>53534.6947364306</v>
+      </c>
+      <c r="D100" s="1" t="n">
+        <v>41244.2831279731</v>
+      </c>
+      <c r="E100" s="1" t="n">
+        <v>49874.6151608635</v>
+      </c>
+      <c r="F100" s="1" t="n">
+        <v>53930.3483143527</v>
+      </c>
+      <c r="G100" s="1" t="n">
+        <v>66117.5033708533</v>
+      </c>
+      <c r="H100" s="1" t="n">
+        <v>76568.1921546251</v>
+      </c>
+      <c r="I100" s="1" t="n">
+        <v>65715.2423902568</v>
+      </c>
+      <c r="J100" s="1" t="n">
+        <v>66052.2499748853</v>
+      </c>
+      <c r="K100" s="1" t="n">
+        <v>70520.5361521912</v>
+      </c>
+      <c r="L100" s="1" t="n">
+        <v>77645.9295441573</v>
+      </c>
       <c r="M100" s="1"/>
       <c r="N100" s="1"/>
       <c r="O100" s="1"/>
@@ -33724,16 +34044,36 @@
       <c r="B101" s="1" t="n">
         <v>73014.1259188239</v>
       </c>
-      <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
-      <c r="E101" s="1"/>
-      <c r="F101" s="1"/>
-      <c r="G101" s="1"/>
-      <c r="H101" s="1"/>
-      <c r="I101" s="1"/>
-      <c r="J101" s="1"/>
-      <c r="K101" s="1"/>
-      <c r="L101" s="1"/>
+      <c r="C101" s="1" t="n">
+        <v>54762.5581798719</v>
+      </c>
+      <c r="D101" s="1" t="n">
+        <v>42737.2307464526</v>
+      </c>
+      <c r="E101" s="1" t="n">
+        <v>51480.3217216404</v>
+      </c>
+      <c r="F101" s="1" t="n">
+        <v>56058.9328679692</v>
+      </c>
+      <c r="G101" s="1" t="n">
+        <v>66917.6918261226</v>
+      </c>
+      <c r="H101" s="1" t="n">
+        <v>79184.2460034887</v>
+      </c>
+      <c r="I101" s="1" t="n">
+        <v>66535.659494995</v>
+      </c>
+      <c r="J101" s="1" t="n">
+        <v>72827.3695315138</v>
+      </c>
+      <c r="K101" s="1" t="n">
+        <v>74604.4568494566</v>
+      </c>
+      <c r="L101" s="1" t="n">
+        <v>78608.0975147939</v>
+      </c>
       <c r="M101" s="1"/>
       <c r="N101" s="1"/>
       <c r="O101" s="1"/>
@@ -33745,16 +34085,36 @@
       <c r="B102" s="1" t="n">
         <v>73662.6861805078</v>
       </c>
-      <c r="C102" s="1"/>
-      <c r="D102" s="1"/>
-      <c r="E102" s="1"/>
-      <c r="F102" s="1"/>
-      <c r="G102" s="1"/>
-      <c r="H102" s="1"/>
-      <c r="I102" s="1"/>
-      <c r="J102" s="1"/>
-      <c r="K102" s="1"/>
-      <c r="L102" s="1"/>
+      <c r="C102" s="1" t="n">
+        <v>54177.3357105485</v>
+      </c>
+      <c r="D102" s="1" t="n">
+        <v>41751.896006446</v>
+      </c>
+      <c r="E102" s="1" t="n">
+        <v>53846.3449667913</v>
+      </c>
+      <c r="F102" s="1" t="n">
+        <v>56640.1584146507</v>
+      </c>
+      <c r="G102" s="1" t="n">
+        <v>67893.2979110147</v>
+      </c>
+      <c r="H102" s="1" t="n">
+        <v>80277.7380114543</v>
+      </c>
+      <c r="I102" s="1" t="n">
+        <v>69363.8925986303</v>
+      </c>
+      <c r="J102" s="1" t="n">
+        <v>64254.4240801802</v>
+      </c>
+      <c r="K102" s="1" t="n">
+        <v>75619.0133595431</v>
+      </c>
+      <c r="L102" s="1" t="n">
+        <v>77540.3117836323</v>
+      </c>
       <c r="M102" s="1"/>
       <c r="N102" s="1"/>
       <c r="O102" s="1"/>
@@ -33766,16 +34126,36 @@
       <c r="B103" s="1" t="n">
         <v>75873.4780755366</v>
       </c>
-      <c r="C103" s="1"/>
-      <c r="D103" s="1"/>
-      <c r="E103" s="1"/>
-      <c r="F103" s="1"/>
-      <c r="G103" s="1"/>
-      <c r="H103" s="1"/>
-      <c r="I103" s="1"/>
-      <c r="J103" s="1"/>
-      <c r="K103" s="1"/>
-      <c r="L103" s="1"/>
+      <c r="C103" s="1" t="n">
+        <v>59471.615245948</v>
+      </c>
+      <c r="D103" s="1" t="n">
+        <v>43358.8920001361</v>
+      </c>
+      <c r="E103" s="1" t="n">
+        <v>56600.0249311221</v>
+      </c>
+      <c r="F103" s="1" t="n">
+        <v>58820.6910215593</v>
+      </c>
+      <c r="G103" s="1" t="n">
+        <v>69571.296376199</v>
+      </c>
+      <c r="H103" s="1" t="n">
+        <v>82797.4937623916</v>
+      </c>
+      <c r="I103" s="1" t="n">
+        <v>71979.2337006198</v>
+      </c>
+      <c r="J103" s="1" t="n">
+        <v>64281.1763169375</v>
+      </c>
+      <c r="K103" s="1" t="n">
+        <v>76847.3150423746</v>
+      </c>
+      <c r="L103" s="1" t="n">
+        <v>78804.378809778</v>
+      </c>
       <c r="M103" s="1"/>
       <c r="N103" s="1"/>
       <c r="O103" s="1"/>
@@ -33787,16 +34167,36 @@
       <c r="B104" s="1" t="n">
         <v>77257.2520976603</v>
       </c>
-      <c r="C104" s="1"/>
-      <c r="D104" s="1"/>
-      <c r="E104" s="1"/>
-      <c r="F104" s="1"/>
-      <c r="G104" s="1"/>
-      <c r="H104" s="1"/>
-      <c r="I104" s="1"/>
-      <c r="J104" s="1"/>
-      <c r="K104" s="1"/>
-      <c r="L104" s="1"/>
+      <c r="C104" s="1" t="n">
+        <v>61555.236935283</v>
+      </c>
+      <c r="D104" s="1" t="n">
+        <v>45388.6740767284</v>
+      </c>
+      <c r="E104" s="1" t="n">
+        <v>59654.7607996163</v>
+      </c>
+      <c r="F104" s="1" t="n">
+        <v>61395.8008130033</v>
+      </c>
+      <c r="G104" s="1" t="n">
+        <v>71204.1986104684</v>
+      </c>
+      <c r="H104" s="1" t="n">
+        <v>84220.7246527829</v>
+      </c>
+      <c r="I104" s="1" t="n">
+        <v>72193.3629681195</v>
+      </c>
+      <c r="J104" s="1" t="n">
+        <v>65942.8212899743</v>
+      </c>
+      <c r="K104" s="1" t="n">
+        <v>78076.3530468817</v>
+      </c>
+      <c r="L104" s="1" t="n">
+        <v>80803.2905427038</v>
+      </c>
       <c r="M104" s="1"/>
       <c r="N104" s="1"/>
       <c r="O104" s="1"/>
@@ -33808,16 +34208,36 @@
       <c r="B105" s="1" t="n">
         <v>79791.189024638</v>
       </c>
-      <c r="C105" s="1"/>
-      <c r="D105" s="1"/>
-      <c r="E105" s="1"/>
-      <c r="F105" s="1"/>
-      <c r="G105" s="1"/>
-      <c r="H105" s="1"/>
-      <c r="I105" s="1"/>
-      <c r="J105" s="1"/>
-      <c r="K105" s="1"/>
-      <c r="L105" s="1"/>
+      <c r="C105" s="1" t="n">
+        <v>65470.2811611889</v>
+      </c>
+      <c r="D105" s="1" t="n">
+        <v>48847.2793940925</v>
+      </c>
+      <c r="E105" s="1" t="n">
+        <v>62149.2301381177</v>
+      </c>
+      <c r="F105" s="1" t="n">
+        <v>64180.3325174779</v>
+      </c>
+      <c r="G105" s="1" t="n">
+        <v>73288.1432264294</v>
+      </c>
+      <c r="H105" s="1" t="n">
+        <v>85660.8803740001</v>
+      </c>
+      <c r="I105" s="1" t="n">
+        <v>74714.5151157975</v>
+      </c>
+      <c r="J105" s="1" t="n">
+        <v>63099.7378695583</v>
+      </c>
+      <c r="K105" s="1" t="n">
+        <v>80400.1965143989</v>
+      </c>
+      <c r="L105" s="1" t="n">
+        <v>80831.2858447098</v>
+      </c>
       <c r="M105" s="1"/>
       <c r="N105" s="1"/>
       <c r="O105" s="1"/>
@@ -33829,16 +34249,36 @@
       <c r="B106" s="1" t="n">
         <v>82486.6879753819</v>
       </c>
-      <c r="C106" s="1"/>
-      <c r="D106" s="1"/>
-      <c r="E106" s="1"/>
-      <c r="F106" s="1"/>
-      <c r="G106" s="1"/>
-      <c r="H106" s="1"/>
-      <c r="I106" s="1"/>
-      <c r="J106" s="1"/>
-      <c r="K106" s="1"/>
-      <c r="L106" s="1"/>
+      <c r="C106" s="1" t="n">
+        <v>66006.524310055</v>
+      </c>
+      <c r="D106" s="1" t="n">
+        <v>50106.3135517855</v>
+      </c>
+      <c r="E106" s="1" t="n">
+        <v>65210.8415970264</v>
+      </c>
+      <c r="F106" s="1" t="n">
+        <v>66874.3678368806</v>
+      </c>
+      <c r="G106" s="1" t="n">
+        <v>74987.9567667951</v>
+      </c>
+      <c r="H106" s="1" t="n">
+        <v>88467.3559007016</v>
+      </c>
+      <c r="I106" s="1" t="n">
+        <v>76980.1563630911</v>
+      </c>
+      <c r="J106" s="1" t="n">
+        <v>70024.5146557685</v>
+      </c>
+      <c r="K106" s="1" t="n">
+        <v>83124.5782053002</v>
+      </c>
+      <c r="L106" s="1" t="n">
+        <v>83400.1214099192</v>
+      </c>
       <c r="M106" s="1"/>
       <c r="N106" s="1"/>
       <c r="O106" s="1"/>
@@ -33850,16 +34290,36 @@
       <c r="B107" s="1" t="n">
         <v>85263.5918622889</v>
       </c>
-      <c r="C107" s="1"/>
-      <c r="D107" s="1"/>
-      <c r="E107" s="1"/>
-      <c r="F107" s="1"/>
-      <c r="G107" s="1"/>
-      <c r="H107" s="1"/>
-      <c r="I107" s="1"/>
-      <c r="J107" s="1"/>
-      <c r="K107" s="1"/>
-      <c r="L107" s="1"/>
+      <c r="C107" s="1" t="n">
+        <v>63290.4096636617</v>
+      </c>
+      <c r="D107" s="1" t="n">
+        <v>52025.1119222091</v>
+      </c>
+      <c r="E107" s="1" t="n">
+        <v>69547.6711078208</v>
+      </c>
+      <c r="F107" s="1" t="n">
+        <v>71391.6124666909</v>
+      </c>
+      <c r="G107" s="1" t="n">
+        <v>79241.6743255134</v>
+      </c>
+      <c r="H107" s="1" t="n">
+        <v>91020.8742373863</v>
+      </c>
+      <c r="I107" s="1" t="n">
+        <v>78877.8877585327</v>
+      </c>
+      <c r="J107" s="1" t="n">
+        <v>69019.4251471118</v>
+      </c>
+      <c r="K107" s="1" t="n">
+        <v>86939.1835712069</v>
+      </c>
+      <c r="L107" s="1" t="n">
+        <v>88038.6570436953</v>
+      </c>
       <c r="M107" s="1"/>
       <c r="N107" s="1"/>
       <c r="O107" s="1"/>
@@ -33871,16 +34331,36 @@
       <c r="B108" s="1" t="n">
         <v>88124.0893144291</v>
       </c>
-      <c r="C108" s="1"/>
-      <c r="D108" s="1"/>
-      <c r="E108" s="1"/>
-      <c r="F108" s="1"/>
-      <c r="G108" s="1"/>
-      <c r="H108" s="1"/>
-      <c r="I108" s="1"/>
-      <c r="J108" s="1"/>
-      <c r="K108" s="1"/>
-      <c r="L108" s="1"/>
+      <c r="C108" s="1" t="n">
+        <v>63759.0019595531</v>
+      </c>
+      <c r="D108" s="1" t="n">
+        <v>58767.5307689864</v>
+      </c>
+      <c r="E108" s="1" t="n">
+        <v>69203.0677121152</v>
+      </c>
+      <c r="F108" s="1" t="n">
+        <v>73403.8808167411</v>
+      </c>
+      <c r="G108" s="1" t="n">
+        <v>79013.8162891151</v>
+      </c>
+      <c r="H108" s="1" t="n">
+        <v>93145.7275679421</v>
+      </c>
+      <c r="I108" s="1" t="n">
+        <v>83750.7792976244</v>
+      </c>
+      <c r="J108" s="1" t="n">
+        <v>79260.3314037518</v>
+      </c>
+      <c r="K108" s="1" t="n">
+        <v>97622.3208713134</v>
+      </c>
+      <c r="L108" s="1" t="n">
+        <v>94891.1256671206</v>
+      </c>
       <c r="M108" s="1"/>
       <c r="N108" s="1"/>
       <c r="O108" s="1"/>
@@ -33892,16 +34372,36 @@
       <c r="B109" s="1" t="n">
         <v>90522.4375014098</v>
       </c>
-      <c r="C109" s="1"/>
-      <c r="D109" s="1"/>
-      <c r="E109" s="1"/>
-      <c r="F109" s="1"/>
-      <c r="G109" s="1"/>
-      <c r="H109" s="1"/>
-      <c r="I109" s="1"/>
-      <c r="J109" s="1"/>
-      <c r="K109" s="1"/>
-      <c r="L109" s="1"/>
+      <c r="C109" s="1" t="n">
+        <v>70243.3716676617</v>
+      </c>
+      <c r="D109" s="1" t="n">
+        <v>57814.7579585058</v>
+      </c>
+      <c r="E109" s="1" t="n">
+        <v>66451.5488178655</v>
+      </c>
+      <c r="F109" s="1" t="n">
+        <v>73055.4959112709</v>
+      </c>
+      <c r="G109" s="1" t="n">
+        <v>81082.3095854114</v>
+      </c>
+      <c r="H109" s="1" t="n">
+        <v>93742.9506082583</v>
+      </c>
+      <c r="I109" s="1" t="n">
+        <v>85586.2717140833</v>
+      </c>
+      <c r="J109" s="1" t="n">
+        <v>93465.5572864124</v>
+      </c>
+      <c r="K109" s="1" t="n">
+        <v>116158.343085683</v>
+      </c>
+      <c r="L109" s="1" t="n">
+        <v>95323.5901231602</v>
+      </c>
       <c r="M109" s="1"/>
       <c r="N109" s="1"/>
       <c r="O109" s="1"/>
@@ -33913,16 +34413,36 @@
       <c r="B110" s="1" t="n">
         <v>90304.7285983137</v>
       </c>
-      <c r="C110" s="1"/>
-      <c r="D110" s="1"/>
-      <c r="E110" s="1"/>
-      <c r="F110" s="1"/>
-      <c r="G110" s="1"/>
-      <c r="H110" s="1"/>
-      <c r="I110" s="1"/>
-      <c r="J110" s="1"/>
-      <c r="K110" s="1"/>
-      <c r="L110" s="1"/>
+      <c r="C110" s="1" t="n">
+        <v>71388.2561749162</v>
+      </c>
+      <c r="D110" s="1" t="n">
+        <v>56138.0558153528</v>
+      </c>
+      <c r="E110" s="1" t="n">
+        <v>66041.8099843367</v>
+      </c>
+      <c r="F110" s="1" t="n">
+        <v>72087.6052039632</v>
+      </c>
+      <c r="G110" s="1" t="n">
+        <v>81356.1879559563</v>
+      </c>
+      <c r="H110" s="1" t="n">
+        <v>92095.0954497944</v>
+      </c>
+      <c r="I110" s="1" t="n">
+        <v>86733.5318103808</v>
+      </c>
+      <c r="J110" s="1" t="n">
+        <v>94356.7153862418</v>
+      </c>
+      <c r="K110" s="1" t="n">
+        <v>119850.394635109</v>
+      </c>
+      <c r="L110" s="1" t="n">
+        <v>93335.8308428013</v>
+      </c>
       <c r="M110" s="1"/>
       <c r="N110" s="1"/>
       <c r="O110" s="1"/>
@@ -37647,16 +38167,36 @@
       <c r="B85" s="1" t="n">
         <v>4976000</v>
       </c>
-      <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
-      <c r="E85" s="1"/>
-      <c r="F85" s="1"/>
-      <c r="G85" s="1"/>
-      <c r="H85" s="1"/>
-      <c r="I85" s="1"/>
-      <c r="J85" s="1"/>
-      <c r="K85" s="1"/>
-      <c r="L85" s="1"/>
+      <c r="C85" s="1" t="n">
+        <v>91000</v>
+      </c>
+      <c r="D85" s="1" t="n">
+        <v>31382.4562719811</v>
+      </c>
+      <c r="E85" s="1" t="n">
+        <v>204736.2477895</v>
+      </c>
+      <c r="F85" s="1" t="n">
+        <v>156016.151730507</v>
+      </c>
+      <c r="G85" s="1" t="n">
+        <v>1369999.90616886</v>
+      </c>
+      <c r="H85" s="1" t="n">
+        <v>1781999.95488926</v>
+      </c>
+      <c r="I85" s="1" t="n">
+        <v>274676.437107029</v>
+      </c>
+      <c r="J85" s="1" t="n">
+        <v>291827.963645901</v>
+      </c>
+      <c r="K85" s="1" t="n">
+        <v>352844.701283564</v>
+      </c>
+      <c r="L85" s="1" t="n">
+        <v>410999.929170061</v>
+      </c>
       <c r="M85" s="1"/>
       <c r="N85" s="1"/>
       <c r="O85" s="1"/>
@@ -37668,16 +38208,36 @@
       <c r="B86" s="1" t="n">
         <v>5097000</v>
       </c>
-      <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
-      <c r="E86" s="1"/>
-      <c r="F86" s="1"/>
-      <c r="G86" s="1"/>
-      <c r="H86" s="1"/>
-      <c r="I86" s="1"/>
-      <c r="J86" s="1"/>
-      <c r="K86" s="1"/>
-      <c r="L86" s="1"/>
+      <c r="C86" s="1" t="n">
+        <v>95000</v>
+      </c>
+      <c r="D86" s="1" t="n">
+        <v>32004.503700715</v>
+      </c>
+      <c r="E86" s="1" t="n">
+        <v>206354.376293942</v>
+      </c>
+      <c r="F86" s="1" t="n">
+        <v>157775.371450724</v>
+      </c>
+      <c r="G86" s="1" t="n">
+        <v>1419999.90274436</v>
+      </c>
+      <c r="H86" s="1" t="n">
+        <v>1837999.95347164</v>
+      </c>
+      <c r="I86" s="1" t="n">
+        <v>275026.672157339</v>
+      </c>
+      <c r="J86" s="1" t="n">
+        <v>287639.398831252</v>
+      </c>
+      <c r="K86" s="1" t="n">
+        <v>359233.253382474</v>
+      </c>
+      <c r="L86" s="1" t="n">
+        <v>415999.928308383</v>
+      </c>
       <c r="M86" s="1"/>
       <c r="N86" s="1"/>
       <c r="O86" s="1"/>
@@ -37689,16 +38249,36 @@
       <c r="B87" s="1" t="n">
         <v>5169000</v>
       </c>
-      <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
-      <c r="E87" s="1"/>
-      <c r="F87" s="1"/>
-      <c r="G87" s="1"/>
-      <c r="H87" s="1"/>
-      <c r="I87" s="1"/>
-      <c r="J87" s="1"/>
-      <c r="K87" s="1"/>
-      <c r="L87" s="1"/>
+      <c r="C87" s="1" t="n">
+        <v>95000</v>
+      </c>
+      <c r="D87" s="1" t="n">
+        <v>31091.4953847039</v>
+      </c>
+      <c r="E87" s="1" t="n">
+        <v>199612.698203893</v>
+      </c>
+      <c r="F87" s="1" t="n">
+        <v>153409.102535855</v>
+      </c>
+      <c r="G87" s="1" t="n">
+        <v>1447999.90082665</v>
+      </c>
+      <c r="H87" s="1" t="n">
+        <v>1866999.95273752</v>
+      </c>
+      <c r="I87" s="1" t="n">
+        <v>279027.482402969</v>
+      </c>
+      <c r="J87" s="1" t="n">
+        <v>288448.178559907</v>
+      </c>
+      <c r="K87" s="1" t="n">
+        <v>368672.322718342</v>
+      </c>
+      <c r="L87" s="1" t="n">
+        <v>428999.92606802</v>
+      </c>
       <c r="M87" s="1"/>
       <c r="N87" s="1"/>
       <c r="O87" s="1"/>
@@ -37710,16 +38290,36 @@
       <c r="B88" s="1" t="n">
         <v>5235000</v>
       </c>
-      <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
-      <c r="E88" s="1"/>
-      <c r="F88" s="1"/>
-      <c r="G88" s="1"/>
-      <c r="H88" s="1"/>
-      <c r="I88" s="1"/>
-      <c r="J88" s="1"/>
-      <c r="K88" s="1"/>
-      <c r="L88" s="1"/>
+      <c r="C88" s="1" t="n">
+        <v>94000</v>
+      </c>
+      <c r="D88" s="1" t="n">
+        <v>31004.8873793057</v>
+      </c>
+      <c r="E88" s="1" t="n">
+        <v>200098.055793888</v>
+      </c>
+      <c r="F88" s="1" t="n">
+        <v>153025.385342524</v>
+      </c>
+      <c r="G88" s="1" t="n">
+        <v>1479999.89863497</v>
+      </c>
+      <c r="H88" s="1" t="n">
+        <v>1906999.95172493</v>
+      </c>
+      <c r="I88" s="1" t="n">
+        <v>273095.979484959</v>
+      </c>
+      <c r="J88" s="1" t="n">
+        <v>284414.657329154</v>
+      </c>
+      <c r="K88" s="1" t="n">
+        <v>370143.191860719</v>
+      </c>
+      <c r="L88" s="1" t="n">
+        <v>431999.925551013</v>
+      </c>
       <c r="M88" s="1"/>
       <c r="N88" s="1"/>
       <c r="O88" s="1"/>
@@ -37731,16 +38331,36 @@
       <c r="B89" s="1" t="n">
         <v>5243000</v>
       </c>
-      <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
-      <c r="E89" s="1"/>
-      <c r="F89" s="1"/>
-      <c r="G89" s="1"/>
-      <c r="H89" s="1"/>
-      <c r="I89" s="1"/>
-      <c r="J89" s="1"/>
-      <c r="K89" s="1"/>
-      <c r="L89" s="1"/>
+      <c r="C89" s="1" t="n">
+        <v>98000</v>
+      </c>
+      <c r="D89" s="1" t="n">
+        <v>29520.9120192204</v>
+      </c>
+      <c r="E89" s="1" t="n">
+        <v>193185.938383274</v>
+      </c>
+      <c r="F89" s="1" t="n">
+        <v>147412.152419898</v>
+      </c>
+      <c r="G89" s="1" t="n">
+        <v>1469999.89931987</v>
+      </c>
+      <c r="H89" s="1" t="n">
+        <v>1944999.95076297</v>
+      </c>
+      <c r="I89" s="1" t="n">
+        <v>266873.100471009</v>
+      </c>
+      <c r="J89" s="1" t="n">
+        <v>277233.464789515</v>
+      </c>
+      <c r="K89" s="1" t="n">
+        <v>371253.471565173</v>
+      </c>
+      <c r="L89" s="1" t="n">
+        <v>436999.924689335</v>
+      </c>
       <c r="M89" s="1"/>
       <c r="N89" s="1"/>
       <c r="O89" s="1"/>
@@ -37752,16 +38372,36 @@
       <c r="B90" s="1" t="n">
         <v>5364000</v>
       </c>
-      <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
-      <c r="E90" s="1"/>
-      <c r="F90" s="1"/>
-      <c r="G90" s="1"/>
-      <c r="H90" s="1"/>
-      <c r="I90" s="1"/>
-      <c r="J90" s="1"/>
-      <c r="K90" s="1"/>
-      <c r="L90" s="1"/>
+      <c r="C90" s="1" t="n">
+        <v>100000</v>
+      </c>
+      <c r="D90" s="1" t="n">
+        <v>29473.3932124439</v>
+      </c>
+      <c r="E90" s="1" t="n">
+        <v>197901.430096478</v>
+      </c>
+      <c r="F90" s="1" t="n">
+        <v>150729.288914727</v>
+      </c>
+      <c r="G90" s="1" t="n">
+        <v>1492999.8977446</v>
+      </c>
+      <c r="H90" s="1" t="n">
+        <v>1992999.94954787</v>
+      </c>
+      <c r="I90" s="1" t="n">
+        <v>270406.426973149</v>
+      </c>
+      <c r="J90" s="1" t="n">
+        <v>278309.794239923</v>
+      </c>
+      <c r="K90" s="1" t="n">
+        <v>380897.650318309</v>
+      </c>
+      <c r="L90" s="1" t="n">
+        <v>461999.920380944</v>
+      </c>
       <c r="M90" s="1"/>
       <c r="N90" s="1"/>
       <c r="O90" s="1"/>
@@ -37773,16 +38413,36 @@
       <c r="B91" s="1" t="n">
         <v>5585000</v>
       </c>
-      <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
-      <c r="E91" s="1"/>
-      <c r="F91" s="1"/>
-      <c r="G91" s="1"/>
-      <c r="H91" s="1"/>
-      <c r="I91" s="1"/>
-      <c r="J91" s="1"/>
-      <c r="K91" s="1"/>
-      <c r="L91" s="1"/>
+      <c r="C91" s="1" t="n">
+        <v>101000</v>
+      </c>
+      <c r="D91" s="1" t="n">
+        <v>29566.7991466696</v>
+      </c>
+      <c r="E91" s="1" t="n">
+        <v>203547.11029943</v>
+      </c>
+      <c r="F91" s="1" t="n">
+        <v>154970.164840577</v>
+      </c>
+      <c r="G91" s="1" t="n">
+        <v>1534999.89486803</v>
+      </c>
+      <c r="H91" s="1" t="n">
+        <v>2095999.94694046</v>
+      </c>
+      <c r="I91" s="1" t="n">
+        <v>280592.358340465</v>
+      </c>
+      <c r="J91" s="1" t="n">
+        <v>284581.749028383</v>
+      </c>
+      <c r="K91" s="1" t="n">
+        <v>401648.881666843</v>
+      </c>
+      <c r="L91" s="1" t="n">
+        <v>488999.915727883</v>
+      </c>
       <c r="M91" s="1"/>
       <c r="N91" s="1"/>
       <c r="O91" s="1"/>
@@ -37794,16 +38454,36 @@
       <c r="B92" s="1" t="n">
         <v>5731000</v>
       </c>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
-      <c r="E92" s="1"/>
-      <c r="F92" s="1"/>
-      <c r="G92" s="1"/>
-      <c r="H92" s="1"/>
-      <c r="I92" s="1"/>
-      <c r="J92" s="1"/>
-      <c r="K92" s="1"/>
-      <c r="L92" s="1"/>
+      <c r="C92" s="1" t="n">
+        <v>101000</v>
+      </c>
+      <c r="D92" s="1" t="n">
+        <v>29540.2175493671</v>
+      </c>
+      <c r="E92" s="1" t="n">
+        <v>205112.03954475</v>
+      </c>
+      <c r="F92" s="1" t="n">
+        <v>156417.325785735</v>
+      </c>
+      <c r="G92" s="1" t="n">
+        <v>1575999.89205994</v>
+      </c>
+      <c r="H92" s="1" t="n">
+        <v>2160999.94529501</v>
+      </c>
+      <c r="I92" s="1" t="n">
+        <v>283515.521132139</v>
+      </c>
+      <c r="J92" s="1" t="n">
+        <v>284424.723095821</v>
+      </c>
+      <c r="K92" s="1" t="n">
+        <v>415419.323133861</v>
+      </c>
+      <c r="L92" s="1" t="n">
+        <v>508999.91228117</v>
+      </c>
       <c r="M92" s="1"/>
       <c r="N92" s="1"/>
       <c r="O92" s="1"/>
@@ -37815,16 +38495,36 @@
       <c r="B93" s="1" t="n">
         <v>5706000</v>
       </c>
-      <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
-      <c r="E93" s="1"/>
-      <c r="F93" s="1"/>
-      <c r="G93" s="1"/>
-      <c r="H93" s="1"/>
-      <c r="I93" s="1"/>
-      <c r="J93" s="1"/>
-      <c r="K93" s="1"/>
-      <c r="L93" s="1"/>
+      <c r="C93" s="1" t="n">
+        <v>88000</v>
+      </c>
+      <c r="D93" s="1" t="n">
+        <v>28776.1551814896</v>
+      </c>
+      <c r="E93" s="1" t="n">
+        <v>200115.618886184</v>
+      </c>
+      <c r="F93" s="1" t="n">
+        <v>152185.835099823</v>
+      </c>
+      <c r="G93" s="1" t="n">
+        <v>1581999.891649</v>
+      </c>
+      <c r="H93" s="1" t="n">
+        <v>2141999.94577598</v>
+      </c>
+      <c r="I93" s="1" t="n">
+        <v>286416.924478425</v>
+      </c>
+      <c r="J93" s="1" t="n">
+        <v>289376.360141382</v>
+      </c>
+      <c r="K93" s="1" t="n">
+        <v>428746.482257303</v>
+      </c>
+      <c r="L93" s="1" t="n">
+        <v>500999.913659855</v>
+      </c>
       <c r="M93" s="1"/>
       <c r="N93" s="1"/>
       <c r="O93" s="1"/>
@@ -37836,16 +38536,36 @@
       <c r="B94" s="1" t="n">
         <v>5870000</v>
       </c>
-      <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
-      <c r="E94" s="1"/>
-      <c r="F94" s="1"/>
-      <c r="G94" s="1"/>
-      <c r="H94" s="1"/>
-      <c r="I94" s="1"/>
-      <c r="J94" s="1"/>
-      <c r="K94" s="1"/>
-      <c r="L94" s="1"/>
+      <c r="C94" s="1" t="n">
+        <v>89000</v>
+      </c>
+      <c r="D94" s="1" t="n">
+        <v>29734.0641450751</v>
+      </c>
+      <c r="E94" s="1" t="n">
+        <v>205808.949773327</v>
+      </c>
+      <c r="F94" s="1" t="n">
+        <v>157514.850523165</v>
+      </c>
+      <c r="G94" s="1" t="n">
+        <v>1619999.88904639</v>
+      </c>
+      <c r="H94" s="1" t="n">
+        <v>2197999.94435836</v>
+      </c>
+      <c r="I94" s="1" t="n">
+        <v>295467.920848562</v>
+      </c>
+      <c r="J94" s="1" t="n">
+        <v>296182.05265904</v>
+      </c>
+      <c r="K94" s="1" t="n">
+        <v>449078.351461984</v>
+      </c>
+      <c r="L94" s="1" t="n">
+        <v>520999.910213143</v>
+      </c>
       <c r="M94" s="1"/>
       <c r="N94" s="1"/>
       <c r="O94" s="1"/>
@@ -37857,16 +38577,36 @@
       <c r="B95" s="1" t="n">
         <v>5965000</v>
       </c>
-      <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
-      <c r="E95" s="1"/>
-      <c r="F95" s="1"/>
-      <c r="G95" s="1"/>
-      <c r="H95" s="1"/>
-      <c r="I95" s="1"/>
-      <c r="J95" s="1"/>
-      <c r="K95" s="1"/>
-      <c r="L95" s="1"/>
+      <c r="C95" s="1" t="n">
+        <v>91000</v>
+      </c>
+      <c r="D95" s="1" t="n">
+        <v>30299.152928357</v>
+      </c>
+      <c r="E95" s="1" t="n">
+        <v>209992.273650896</v>
+      </c>
+      <c r="F95" s="1" t="n">
+        <v>160765.034365005</v>
+      </c>
+      <c r="G95" s="1" t="n">
+        <v>1638999.88774508</v>
+      </c>
+      <c r="H95" s="1" t="n">
+        <v>2248999.94306731</v>
+      </c>
+      <c r="I95" s="1" t="n">
+        <v>298895.453890433</v>
+      </c>
+      <c r="J95" s="1" t="n">
+        <v>299176.190881714</v>
+      </c>
+      <c r="K95" s="1" t="n">
+        <v>462976.040379611</v>
+      </c>
+      <c r="L95" s="1" t="n">
+        <v>515999.911074821</v>
+      </c>
       <c r="M95" s="1"/>
       <c r="N95" s="1"/>
       <c r="O95" s="1"/>
@@ -37878,16 +38618,36 @@
       <c r="B96" s="1" t="n">
         <v>6055000</v>
       </c>
-      <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
-      <c r="E96" s="1"/>
-      <c r="F96" s="1"/>
-      <c r="G96" s="1"/>
-      <c r="H96" s="1"/>
-      <c r="I96" s="1"/>
-      <c r="J96" s="1"/>
-      <c r="K96" s="1"/>
-      <c r="L96" s="1"/>
+      <c r="C96" s="1" t="n">
+        <v>91000</v>
+      </c>
+      <c r="D96" s="1" t="n">
+        <v>31583.6475922216</v>
+      </c>
+      <c r="E96" s="1" t="n">
+        <v>217673.202414602</v>
+      </c>
+      <c r="F96" s="1" t="n">
+        <v>166803.278877536</v>
+      </c>
+      <c r="G96" s="1" t="n">
+        <v>1651999.88685471</v>
+      </c>
+      <c r="H96" s="1" t="n">
+        <v>2268999.94256102</v>
+      </c>
+      <c r="I96" s="1" t="n">
+        <v>305939.841549063</v>
+      </c>
+      <c r="J96" s="1" t="n">
+        <v>305529.705774755</v>
+      </c>
+      <c r="K96" s="1" t="n">
+        <v>480741.395569741</v>
+      </c>
+      <c r="L96" s="1" t="n">
+        <v>526999.909179129</v>
+      </c>
       <c r="M96" s="1"/>
       <c r="N96" s="1"/>
       <c r="O96" s="1"/>
@@ -37899,16 +38659,36 @@
       <c r="B97" s="1" t="n">
         <v>6225000</v>
       </c>
-      <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
-      <c r="E97" s="1"/>
-      <c r="F97" s="1"/>
-      <c r="G97" s="1"/>
-      <c r="H97" s="1"/>
-      <c r="I97" s="1"/>
-      <c r="J97" s="1"/>
-      <c r="K97" s="1"/>
-      <c r="L97" s="1"/>
+      <c r="C97" s="1" t="n">
+        <v>97000</v>
+      </c>
+      <c r="D97" s="1" t="n">
+        <v>32031.5260919892</v>
+      </c>
+      <c r="E97" s="1" t="n">
+        <v>218983.480596447</v>
+      </c>
+      <c r="F97" s="1" t="n">
+        <v>168047.582000532</v>
+      </c>
+      <c r="G97" s="1" t="n">
+        <v>1712999.88267683</v>
+      </c>
+      <c r="H97" s="1" t="n">
+        <v>2316999.94134592</v>
+      </c>
+      <c r="I97" s="1" t="n">
+        <v>313735.533307015</v>
+      </c>
+      <c r="J97" s="1" t="n">
+        <v>308941.788136407</v>
+      </c>
+      <c r="K97" s="1" t="n">
+        <v>498885.889799973</v>
+      </c>
+      <c r="L97" s="1" t="n">
+        <v>550999.905043075</v>
+      </c>
       <c r="M97" s="1"/>
       <c r="N97" s="1"/>
       <c r="O97" s="1"/>
@@ -37920,16 +38700,36 @@
       <c r="B98" s="1" t="n">
         <v>6375000</v>
       </c>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
-      <c r="E98" s="1"/>
-      <c r="F98" s="1"/>
-      <c r="G98" s="1"/>
-      <c r="H98" s="1"/>
-      <c r="I98" s="1"/>
-      <c r="J98" s="1"/>
-      <c r="K98" s="1"/>
-      <c r="L98" s="1"/>
+      <c r="C98" s="1" t="n">
+        <v>108000</v>
+      </c>
+      <c r="D98" s="1" t="n">
+        <v>31710.9689637458</v>
+      </c>
+      <c r="E98" s="1" t="n">
+        <v>216228.739450058</v>
+      </c>
+      <c r="F98" s="1" t="n">
+        <v>166119.857057233</v>
+      </c>
+      <c r="G98" s="1" t="n">
+        <v>1761999.87932082</v>
+      </c>
+      <c r="H98" s="1" t="n">
+        <v>2381999.93970046</v>
+      </c>
+      <c r="I98" s="1" t="n">
+        <v>316207.521250024</v>
+      </c>
+      <c r="J98" s="1" t="n">
+        <v>307119.242455918</v>
+      </c>
+      <c r="K98" s="1" t="n">
+        <v>507674.839023981</v>
+      </c>
+      <c r="L98" s="1" t="n">
+        <v>570999.901596362</v>
+      </c>
       <c r="M98" s="1"/>
       <c r="N98" s="1"/>
       <c r="O98" s="1"/>
@@ -37941,16 +38741,36 @@
       <c r="B99" s="1" t="n">
         <v>6609000</v>
       </c>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
-      <c r="E99" s="1"/>
-      <c r="F99" s="1"/>
-      <c r="G99" s="1"/>
-      <c r="H99" s="1"/>
-      <c r="I99" s="1"/>
-      <c r="J99" s="1"/>
-      <c r="K99" s="1"/>
-      <c r="L99" s="1"/>
+      <c r="C99" s="1" t="n">
+        <v>112000</v>
+      </c>
+      <c r="D99" s="1" t="n">
+        <v>32996.9036666985</v>
+      </c>
+      <c r="E99" s="1" t="n">
+        <v>224363.395619805</v>
+      </c>
+      <c r="F99" s="1" t="n">
+        <v>172695.894908433</v>
+      </c>
+      <c r="G99" s="1" t="n">
+        <v>1826999.87486898</v>
+      </c>
+      <c r="H99" s="1" t="n">
+        <v>2472999.93739683</v>
+      </c>
+      <c r="I99" s="1" t="n">
+        <v>322516.871873684</v>
+      </c>
+      <c r="J99" s="1" t="n">
+        <v>311969.042443558</v>
+      </c>
+      <c r="K99" s="1" t="n">
+        <v>520583.977586599</v>
+      </c>
+      <c r="L99" s="1" t="n">
+        <v>604999.895736951</v>
+      </c>
       <c r="M99" s="1"/>
       <c r="N99" s="1"/>
       <c r="O99" s="1"/>
@@ -37962,16 +38782,36 @@
       <c r="B100" s="1" t="n">
         <v>6862000</v>
       </c>
-      <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
-      <c r="E100" s="1"/>
-      <c r="F100" s="1"/>
-      <c r="G100" s="1"/>
-      <c r="H100" s="1"/>
-      <c r="I100" s="1"/>
-      <c r="J100" s="1"/>
-      <c r="K100" s="1"/>
-      <c r="L100" s="1"/>
+      <c r="C100" s="1" t="n">
+        <v>119000</v>
+      </c>
+      <c r="D100" s="1" t="n">
+        <v>34208.4934903677</v>
+      </c>
+      <c r="E100" s="1" t="n">
+        <v>232910.496244604</v>
+      </c>
+      <c r="F100" s="1" t="n">
+        <v>179920.701282314</v>
+      </c>
+      <c r="G100" s="1" t="n">
+        <v>1911999.86904734</v>
+      </c>
+      <c r="H100" s="1" t="n">
+        <v>2547999.93549823</v>
+      </c>
+      <c r="I100" s="1" t="n">
+        <v>330963.115692216</v>
+      </c>
+      <c r="J100" s="1" t="n">
+        <v>319827.768094123</v>
+      </c>
+      <c r="K100" s="1" t="n">
+        <v>538299.507304396</v>
+      </c>
+      <c r="L100" s="1" t="n">
+        <v>638999.88987754</v>
+      </c>
       <c r="M100" s="1"/>
       <c r="N100" s="1"/>
       <c r="O100" s="1"/>
@@ -37983,16 +38823,36 @@
       <c r="B101" s="1" t="n">
         <v>7152000</v>
       </c>
-      <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
-      <c r="E101" s="1"/>
-      <c r="F101" s="1"/>
-      <c r="G101" s="1"/>
-      <c r="H101" s="1"/>
-      <c r="I101" s="1"/>
-      <c r="J101" s="1"/>
-      <c r="K101" s="1"/>
-      <c r="L101" s="1"/>
+      <c r="C101" s="1" t="n">
+        <v>127000</v>
+      </c>
+      <c r="D101" s="1" t="n">
+        <v>35039.3650404101</v>
+      </c>
+      <c r="E101" s="1" t="n">
+        <v>238884.943608892</v>
+      </c>
+      <c r="F101" s="1" t="n">
+        <v>185099.893650567</v>
+      </c>
+      <c r="G101" s="1" t="n">
+        <v>2015999.86192439</v>
+      </c>
+      <c r="H101" s="1" t="n">
+        <v>2650999.93289082</v>
+      </c>
+      <c r="I101" s="1" t="n">
+        <v>335963.527510524</v>
+      </c>
+      <c r="J101" s="1" t="n">
+        <v>326356.342266169</v>
+      </c>
+      <c r="K101" s="1" t="n">
+        <v>552838.848741758</v>
+      </c>
+      <c r="L101" s="1" t="n">
+        <v>677999.883156451</v>
+      </c>
       <c r="M101" s="1"/>
       <c r="N101" s="1"/>
       <c r="O101" s="1"/>
@@ -38004,16 +38864,36 @@
       <c r="B102" s="1" t="n">
         <v>7379000</v>
       </c>
-      <c r="C102" s="1"/>
-      <c r="D102" s="1"/>
-      <c r="E102" s="1"/>
-      <c r="F102" s="1"/>
-      <c r="G102" s="1"/>
-      <c r="H102" s="1"/>
-      <c r="I102" s="1"/>
-      <c r="J102" s="1"/>
-      <c r="K102" s="1"/>
-      <c r="L102" s="1"/>
+      <c r="C102" s="1" t="n">
+        <v>131000</v>
+      </c>
+      <c r="D102" s="1" t="n">
+        <v>35067.5597878997</v>
+      </c>
+      <c r="E102" s="1" t="n">
+        <v>240088.259661499</v>
+      </c>
+      <c r="F102" s="1" t="n">
+        <v>186842.127129187</v>
+      </c>
+      <c r="G102" s="1" t="n">
+        <v>2079999.85754104</v>
+      </c>
+      <c r="H102" s="1" t="n">
+        <v>2744999.93051124</v>
+      </c>
+      <c r="I102" s="1" t="n">
+        <v>337622.09758694</v>
+      </c>
+      <c r="J102" s="1" t="n">
+        <v>328321.615619596</v>
+      </c>
+      <c r="K102" s="1" t="n">
+        <v>565603.894563838</v>
+      </c>
+      <c r="L102" s="1" t="n">
+        <v>722999.875401348</v>
+      </c>
       <c r="M102" s="1"/>
       <c r="N102" s="1"/>
       <c r="O102" s="1"/>
@@ -38025,16 +38905,36 @@
       <c r="B103" s="1" t="n">
         <v>7537000</v>
       </c>
-      <c r="C103" s="1"/>
-      <c r="D103" s="1"/>
-      <c r="E103" s="1"/>
-      <c r="F103" s="1"/>
-      <c r="G103" s="1"/>
-      <c r="H103" s="1"/>
-      <c r="I103" s="1"/>
-      <c r="J103" s="1"/>
-      <c r="K103" s="1"/>
-      <c r="L103" s="1"/>
+      <c r="C103" s="1" t="n">
+        <v>130000</v>
+      </c>
+      <c r="D103" s="1" t="n">
+        <v>35399.5649919791</v>
+      </c>
+      <c r="E103" s="1" t="n">
+        <v>242620.625582727</v>
+      </c>
+      <c r="F103" s="1" t="n">
+        <v>187998.120071039</v>
+      </c>
+      <c r="G103" s="1" t="n">
+        <v>2081999.85740406</v>
+      </c>
+      <c r="H103" s="1" t="n">
+        <v>2829999.92835949</v>
+      </c>
+      <c r="I103" s="1" t="n">
+        <v>346710.11272696</v>
+      </c>
+      <c r="J103" s="1" t="n">
+        <v>336161.84267152</v>
+      </c>
+      <c r="K103" s="1" t="n">
+        <v>591020.82255901</v>
+      </c>
+      <c r="L103" s="1" t="n">
+        <v>749999.870748286</v>
+      </c>
       <c r="M103" s="1"/>
       <c r="N103" s="1"/>
       <c r="O103" s="1"/>
@@ -38046,16 +38946,36 @@
       <c r="B104" s="1" t="n">
         <v>7780000</v>
       </c>
-      <c r="C104" s="1"/>
-      <c r="D104" s="1"/>
-      <c r="E104" s="1"/>
-      <c r="F104" s="1"/>
-      <c r="G104" s="1"/>
-      <c r="H104" s="1"/>
-      <c r="I104" s="1"/>
-      <c r="J104" s="1"/>
-      <c r="K104" s="1"/>
-      <c r="L104" s="1"/>
+      <c r="C104" s="1" t="n">
+        <v>131000</v>
+      </c>
+      <c r="D104" s="1" t="n">
+        <v>36059.7838082914</v>
+      </c>
+      <c r="E104" s="1" t="n">
+        <v>249095.301826599</v>
+      </c>
+      <c r="F104" s="1" t="n">
+        <v>188961.968156085</v>
+      </c>
+      <c r="G104" s="1" t="n">
+        <v>2131999.85397956</v>
+      </c>
+      <c r="H104" s="1" t="n">
+        <v>2935999.92567614</v>
+      </c>
+      <c r="I104" s="1" t="n">
+        <v>356784.409724912</v>
+      </c>
+      <c r="J104" s="1" t="n">
+        <v>337121.957422171</v>
+      </c>
+      <c r="K104" s="1" t="n">
+        <v>612585.699859072</v>
+      </c>
+      <c r="L104" s="1" t="n">
+        <v>794999.862993184</v>
+      </c>
       <c r="M104" s="1"/>
       <c r="N104" s="1"/>
       <c r="O104" s="1"/>
@@ -38067,16 +38987,36 @@
       <c r="B105" s="1" t="n">
         <v>7879000</v>
       </c>
-      <c r="C105" s="1"/>
-      <c r="D105" s="1"/>
-      <c r="E105" s="1"/>
-      <c r="F105" s="1"/>
-      <c r="G105" s="1"/>
-      <c r="H105" s="1"/>
-      <c r="I105" s="1"/>
-      <c r="J105" s="1"/>
-      <c r="K105" s="1"/>
-      <c r="L105" s="1"/>
+      <c r="C105" s="1" t="n">
+        <v>133000</v>
+      </c>
+      <c r="D105" s="1" t="n">
+        <v>35782.0097350405</v>
+      </c>
+      <c r="E105" s="1" t="n">
+        <v>250294.609213873</v>
+      </c>
+      <c r="F105" s="1" t="n">
+        <v>190022.162167138</v>
+      </c>
+      <c r="G105" s="1" t="n">
+        <v>2143999.85315769</v>
+      </c>
+      <c r="H105" s="1" t="n">
+        <v>2995999.92415726</v>
+      </c>
+      <c r="I105" s="1" t="n">
+        <v>356392.843057638</v>
+      </c>
+      <c r="J105" s="1" t="n">
+        <v>333250.102579173</v>
+      </c>
+      <c r="K105" s="1" t="n">
+        <v>625699.0992105</v>
+      </c>
+      <c r="L105" s="1" t="n">
+        <v>809999.860408149</v>
+      </c>
       <c r="M105" s="1"/>
       <c r="N105" s="1"/>
       <c r="O105" s="1"/>
@@ -38088,16 +39028,36 @@
       <c r="B106" s="1" t="n">
         <v>8079000</v>
       </c>
-      <c r="C106" s="1"/>
-      <c r="D106" s="1"/>
-      <c r="E106" s="1"/>
-      <c r="F106" s="1"/>
-      <c r="G106" s="1"/>
-      <c r="H106" s="1"/>
-      <c r="I106" s="1"/>
-      <c r="J106" s="1"/>
-      <c r="K106" s="1"/>
-      <c r="L106" s="1"/>
+      <c r="C106" s="1" t="n">
+        <v>139000</v>
+      </c>
+      <c r="D106" s="1" t="n">
+        <v>36133.8131030172</v>
+      </c>
+      <c r="E106" s="1" t="n">
+        <v>249023.966263181</v>
+      </c>
+      <c r="F106" s="1" t="n">
+        <v>193831.203835842</v>
+      </c>
+      <c r="G106" s="1" t="n">
+        <v>2196999.88814422</v>
+      </c>
+      <c r="H106" s="1" t="n">
+        <v>3078999.92205614</v>
+      </c>
+      <c r="I106" s="1" t="n">
+        <v>358665.232093879</v>
+      </c>
+      <c r="J106" s="1" t="n">
+        <v>330671.795153036</v>
+      </c>
+      <c r="K106" s="1" t="n">
+        <v>644964.609599864</v>
+      </c>
+      <c r="L106" s="1" t="n">
+        <v>846999.854031731</v>
+      </c>
       <c r="M106" s="1"/>
       <c r="N106" s="1"/>
       <c r="O106" s="1"/>
@@ -38109,16 +39069,36 @@
       <c r="B107" s="1" t="n">
         <v>8329000</v>
       </c>
-      <c r="C107" s="1"/>
-      <c r="D107" s="1"/>
-      <c r="E107" s="1"/>
-      <c r="F107" s="1"/>
-      <c r="G107" s="1"/>
-      <c r="H107" s="1"/>
-      <c r="I107" s="1"/>
-      <c r="J107" s="1"/>
-      <c r="K107" s="1"/>
-      <c r="L107" s="1"/>
+      <c r="C107" s="1" t="n">
+        <v>145000</v>
+      </c>
+      <c r="D107" s="1" t="n">
+        <v>36970.1131674922</v>
+      </c>
+      <c r="E107" s="1" t="n">
+        <v>255438.127340522</v>
+      </c>
+      <c r="F107" s="1" t="n">
+        <v>197609.721524345</v>
+      </c>
+      <c r="G107" s="1" t="n">
+        <v>2224999.84761</v>
+      </c>
+      <c r="H107" s="1" t="n">
+        <v>3217999.96103098</v>
+      </c>
+      <c r="I107" s="1" t="n">
+        <v>368260.32384891</v>
+      </c>
+      <c r="J107" s="1" t="n">
+        <v>330675.274457719</v>
+      </c>
+      <c r="K107" s="1" t="n">
+        <v>670206.294814737</v>
+      </c>
+      <c r="L107" s="1" t="n">
+        <v>879000.013809328</v>
+      </c>
       <c r="M107" s="1"/>
       <c r="N107" s="1"/>
       <c r="O107" s="1"/>
@@ -38130,16 +39110,36 @@
       <c r="B108" s="1" t="n">
         <v>8759000</v>
       </c>
-      <c r="C108" s="1"/>
-      <c r="D108" s="1"/>
-      <c r="E108" s="1"/>
-      <c r="F108" s="1"/>
-      <c r="G108" s="1"/>
-      <c r="H108" s="1"/>
-      <c r="I108" s="1"/>
-      <c r="J108" s="1"/>
-      <c r="K108" s="1"/>
-      <c r="L108" s="1"/>
+      <c r="C108" s="1" t="n">
+        <v>157000</v>
+      </c>
+      <c r="D108" s="1" t="n">
+        <v>39057.8615406705</v>
+      </c>
+      <c r="E108" s="1" t="n">
+        <v>272089.290490335</v>
+      </c>
+      <c r="F108" s="1" t="n">
+        <v>207929.400442326</v>
+      </c>
+      <c r="G108" s="1" t="n">
+        <v>2352999.92011281</v>
+      </c>
+      <c r="H108" s="1" t="n">
+        <v>3366000.1325632</v>
+      </c>
+      <c r="I108" s="1" t="n">
+        <v>382952.317927482</v>
+      </c>
+      <c r="J108" s="1" t="n">
+        <v>338584.649188548</v>
+      </c>
+      <c r="K108" s="1" t="n">
+        <v>702067.504549122</v>
+      </c>
+      <c r="L108" s="1" t="n">
+        <v>936999.626858737</v>
+      </c>
       <c r="M108" s="1"/>
       <c r="N108" s="1"/>
       <c r="O108" s="1"/>
@@ -38151,16 +39151,36 @@
       <c r="B109" s="1" t="n">
         <v>9137000</v>
       </c>
-      <c r="C109" s="1"/>
-      <c r="D109" s="1"/>
-      <c r="E109" s="1"/>
-      <c r="F109" s="1"/>
-      <c r="G109" s="1"/>
-      <c r="H109" s="1"/>
-      <c r="I109" s="1"/>
-      <c r="J109" s="1"/>
-      <c r="K109" s="1"/>
-      <c r="L109" s="1"/>
+      <c r="C109" s="1" t="n">
+        <v>155000</v>
+      </c>
+      <c r="D109" s="1" t="n">
+        <v>41224.5001295641</v>
+      </c>
+      <c r="E109" s="1" t="n">
+        <v>285646.033599459</v>
+      </c>
+      <c r="F109" s="1" t="n">
+        <v>220167.088094443</v>
+      </c>
+      <c r="G109" s="1" t="n">
+        <v>2426999.99958566</v>
+      </c>
+      <c r="H109" s="1" t="n">
+        <v>3518999.82118518</v>
+      </c>
+      <c r="I109" s="1" t="n">
+        <v>400219.809409347</v>
+      </c>
+      <c r="J109" s="1" t="n">
+        <v>347678.635455977</v>
+      </c>
+      <c r="K109" s="1" t="n">
+        <v>744483.773867209</v>
+      </c>
+      <c r="L109" s="1" t="n">
+        <v>996000.002054351</v>
+      </c>
       <c r="M109" s="1"/>
       <c r="N109" s="1"/>
       <c r="O109" s="1"/>
@@ -38172,16 +39192,36 @@
       <c r="B110" s="1" t="n">
         <v>9308000</v>
       </c>
-      <c r="C110" s="1"/>
-      <c r="D110" s="1"/>
-      <c r="E110" s="1"/>
-      <c r="F110" s="1"/>
-      <c r="G110" s="1"/>
-      <c r="H110" s="1"/>
-      <c r="I110" s="1"/>
-      <c r="J110" s="1"/>
-      <c r="K110" s="1"/>
-      <c r="L110" s="1"/>
+      <c r="C110" s="1" t="n">
+        <v>158000</v>
+      </c>
+      <c r="D110" s="1" t="n">
+        <v>41681.8172848388</v>
+      </c>
+      <c r="E110" s="1" t="n">
+        <v>289189.211148246</v>
+      </c>
+      <c r="F110" s="1" t="n">
+        <v>221210.097676379</v>
+      </c>
+      <c r="G110" s="1" t="n">
+        <v>2461999.70441716</v>
+      </c>
+      <c r="H110" s="1" t="n">
+        <v>3581000.09289573</v>
+      </c>
+      <c r="I110" s="1" t="n">
+        <v>402953.72392423</v>
+      </c>
+      <c r="J110" s="1" t="n">
+        <v>354082.331394719</v>
+      </c>
+      <c r="K110" s="1" t="n">
+        <v>769976.090172775</v>
+      </c>
+      <c r="L110" s="1" t="n">
+        <v>1026999.91262216</v>
+      </c>
       <c r="M110" s="1"/>
       <c r="N110" s="1"/>
       <c r="O110" s="1"/>

--- a/FON Macroeconomic Data.xlsx
+++ b/FON Macroeconomic Data.xlsx
@@ -13301,15 +13301,33 @@
         <v>5456.05635222112</v>
       </c>
       <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
-      <c r="I61" s="1"/>
-      <c r="J61" s="1"/>
-      <c r="K61" s="1"/>
-      <c r="L61" s="1"/>
+      <c r="D61" s="1" t="n">
+        <v>23.1651894047636</v>
+      </c>
+      <c r="E61" s="1" t="n">
+        <v>176.123577005505</v>
+      </c>
+      <c r="F61" s="1" t="n">
+        <v>131.780515461421</v>
+      </c>
+      <c r="G61" s="1" t="n">
+        <v>1404.17772141034</v>
+      </c>
+      <c r="H61" s="1" t="n">
+        <v>2291.54731196432</v>
+      </c>
+      <c r="I61" s="1" t="n">
+        <v>383.552378154801</v>
+      </c>
+      <c r="J61" s="1" t="n">
+        <v>411.616358769531</v>
+      </c>
+      <c r="K61" s="1" t="n">
+        <v>398.328284321098</v>
+      </c>
+      <c r="L61" s="1" t="n">
+        <v>445.824925688894</v>
+      </c>
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
       <c r="O61" s="1"/>
@@ -13322,15 +13340,33 @@
         <v>5676.20979768295</v>
       </c>
       <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
-      <c r="H62" s="1"/>
-      <c r="I62" s="1"/>
-      <c r="J62" s="1"/>
-      <c r="K62" s="1"/>
-      <c r="L62" s="1"/>
+      <c r="D62" s="1" t="n">
+        <v>24.2608402549889</v>
+      </c>
+      <c r="E62" s="1" t="n">
+        <v>180.799922780124</v>
+      </c>
+      <c r="F62" s="1" t="n">
+        <v>131.747026785587</v>
+      </c>
+      <c r="G62" s="1" t="n">
+        <v>1486.53297364124</v>
+      </c>
+      <c r="H62" s="1" t="n">
+        <v>2429.6955545571</v>
+      </c>
+      <c r="I62" s="1" t="n">
+        <v>352.464931737863</v>
+      </c>
+      <c r="J62" s="1" t="n">
+        <v>432.102610894316</v>
+      </c>
+      <c r="K62" s="1" t="n">
+        <v>474.600600429706</v>
+      </c>
+      <c r="L62" s="1" t="n">
+        <v>470.397524320729</v>
+      </c>
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
       <c r="O62" s="1"/>
@@ -13343,15 +13379,33 @@
         <v>6175.34063585359</v>
       </c>
       <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
-      <c r="I63" s="1"/>
-      <c r="J63" s="1"/>
-      <c r="K63" s="1"/>
-      <c r="L63" s="1"/>
+      <c r="D63" s="1" t="n">
+        <v>24.2725343937844</v>
+      </c>
+      <c r="E63" s="1" t="n">
+        <v>196.124814957186</v>
+      </c>
+      <c r="F63" s="1" t="n">
+        <v>141.379704818941</v>
+      </c>
+      <c r="G63" s="1" t="n">
+        <v>1620.90485046337</v>
+      </c>
+      <c r="H63" s="1" t="n">
+        <v>2612.25279897357</v>
+      </c>
+      <c r="I63" s="1" t="n">
+        <v>417.185925274638</v>
+      </c>
+      <c r="J63" s="1" t="n">
+        <v>463.281774133978</v>
+      </c>
+      <c r="K63" s="1" t="n">
+        <v>441.330722020345</v>
+      </c>
+      <c r="L63" s="1" t="n">
+        <v>516.104427161702</v>
+      </c>
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
       <c r="O63" s="1"/>
@@ -13364,15 +13418,33 @@
         <v>6266.18448983557</v>
       </c>
       <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
-      <c r="H64" s="1"/>
-      <c r="I64" s="1"/>
-      <c r="J64" s="1"/>
-      <c r="K64" s="1"/>
-      <c r="L64" s="1"/>
+      <c r="D64" s="1" t="n">
+        <v>26.4593383485445</v>
+      </c>
+      <c r="E64" s="1" t="n">
+        <v>201.815308008228</v>
+      </c>
+      <c r="F64" s="1" t="n">
+        <v>144.849998125627</v>
+      </c>
+      <c r="G64" s="1" t="n">
+        <v>1742.81915446025</v>
+      </c>
+      <c r="H64" s="1" t="n">
+        <v>2795.77863442177</v>
+      </c>
+      <c r="I64" s="1" t="n">
+        <v>396.17717247952</v>
+      </c>
+      <c r="J64" s="1" t="n">
+        <v>312.754238248975</v>
+      </c>
+      <c r="K64" s="1" t="n">
+        <v>394.05007834233</v>
+      </c>
+      <c r="L64" s="1" t="n">
+        <v>554.088886204603</v>
+      </c>
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
       <c r="O64" s="1"/>
@@ -13385,15 +13457,33 @@
         <v>5838.50387389794</v>
       </c>
       <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
-      <c r="H65" s="1"/>
-      <c r="I65" s="1"/>
-      <c r="J65" s="1"/>
-      <c r="K65" s="1"/>
-      <c r="L65" s="1"/>
+      <c r="D65" s="1" t="n">
+        <v>22.0461502769473</v>
+      </c>
+      <c r="E65" s="1" t="n">
+        <v>191.245420925282</v>
+      </c>
+      <c r="F65" s="1" t="n">
+        <v>136.439422573694</v>
+      </c>
+      <c r="G65" s="1" t="n">
+        <v>1648.70129978697</v>
+      </c>
+      <c r="H65" s="1" t="n">
+        <v>2656.65142250671</v>
+      </c>
+      <c r="I65" s="1" t="n">
+        <v>376.773979647527</v>
+      </c>
+      <c r="J65" s="1" t="n">
+        <v>272.605588051892</v>
+      </c>
+      <c r="K65" s="1" t="n">
+        <v>367.1735547803</v>
+      </c>
+      <c r="L65" s="1" t="n">
+        <v>518.289727886459</v>
+      </c>
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
       <c r="O65" s="1"/>
@@ -13406,15 +13496,33 @@
         <v>4790.22704199354</v>
       </c>
       <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
-      <c r="H66" s="1"/>
-      <c r="I66" s="1"/>
-      <c r="J66" s="1"/>
-      <c r="K66" s="1"/>
-      <c r="L66" s="1"/>
+      <c r="D66" s="1" t="n">
+        <v>17.6329622053501</v>
+      </c>
+      <c r="E66" s="1" t="n">
+        <v>161.857905317151</v>
+      </c>
+      <c r="F66" s="1" t="n">
+        <v>116.090953739605</v>
+      </c>
+      <c r="G66" s="1" t="n">
+        <v>1430.23674477679</v>
+      </c>
+      <c r="H66" s="1" t="n">
+        <v>2290.25625261881</v>
+      </c>
+      <c r="I66" s="1" t="n">
+        <v>290.198830846655</v>
+      </c>
+      <c r="J66" s="1" t="n">
+        <v>168.286425082437</v>
+      </c>
+      <c r="K66" s="1" t="n">
+        <v>270.614493747734</v>
+      </c>
+      <c r="L66" s="1" t="n">
+        <v>446.574083435266</v>
+      </c>
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
       <c r="O66" s="1"/>
@@ -13427,15 +13535,33 @@
         <v>3893.01639423894</v>
       </c>
       <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
-      <c r="H67" s="1"/>
-      <c r="I67" s="1"/>
-      <c r="J67" s="1"/>
-      <c r="K67" s="1"/>
-      <c r="L67" s="1"/>
+      <c r="D67" s="1" t="n">
+        <v>14.3307173193262</v>
+      </c>
+      <c r="E67" s="1" t="n">
+        <v>132.579243704711</v>
+      </c>
+      <c r="F67" s="1" t="n">
+        <v>92.2025211019022</v>
+      </c>
+      <c r="G67" s="1" t="n">
+        <v>1182.02537530816</v>
+      </c>
+      <c r="H67" s="1" t="n">
+        <v>1874.27776175718</v>
+      </c>
+      <c r="I67" s="1" t="n">
+        <v>254.244831486704</v>
+      </c>
+      <c r="J67" s="1" t="n">
+        <v>170.679344963173</v>
+      </c>
+      <c r="K67" s="1" t="n">
+        <v>231.915813089465</v>
+      </c>
+      <c r="L67" s="1" t="n">
+        <v>375.362134591365</v>
+      </c>
       <c r="M67" s="1"/>
       <c r="N67" s="1"/>
       <c r="O67" s="1"/>
@@ -13448,15 +13574,33 @@
         <v>3564.34537196707</v>
       </c>
       <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
-      <c r="H68" s="1"/>
-      <c r="I68" s="1"/>
-      <c r="J68" s="1"/>
-      <c r="K68" s="1"/>
-      <c r="L68" s="1"/>
+      <c r="D68" s="1" t="n">
+        <v>13.2267456395734</v>
+      </c>
+      <c r="E68" s="1" t="n">
+        <v>129.000189967042</v>
+      </c>
+      <c r="F68" s="1" t="n">
+        <v>87.3795663153487</v>
+      </c>
+      <c r="G68" s="1" t="n">
+        <v>1101.16811075907</v>
+      </c>
+      <c r="H68" s="1" t="n">
+        <v>1768.79637478858</v>
+      </c>
+      <c r="I68" s="1" t="n">
+        <v>229.611744253006</v>
+      </c>
+      <c r="J68" s="1" t="n">
+        <v>135.145472334927</v>
+      </c>
+      <c r="K68" s="1" t="n">
+        <v>198.220349800171</v>
+      </c>
+      <c r="L68" s="1" t="n">
+        <v>354.609005436395</v>
+      </c>
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
       <c r="O68" s="1"/>
@@ -13469,15 +13613,33 @@
         <v>4051.22760061205</v>
       </c>
       <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
-      <c r="H69" s="1"/>
-      <c r="I69" s="1"/>
-      <c r="J69" s="1"/>
-      <c r="K69" s="1"/>
-      <c r="L69" s="1"/>
+      <c r="D69" s="1" t="n">
+        <v>14.3253200244975</v>
+      </c>
+      <c r="E69" s="1" t="n">
+        <v>139.594911077145</v>
+      </c>
+      <c r="F69" s="1" t="n">
+        <v>94.553636913386</v>
+      </c>
+      <c r="G69" s="1" t="n">
+        <v>1218.79949809553</v>
+      </c>
+      <c r="H69" s="1" t="n">
+        <v>1958.83295668819</v>
+      </c>
+      <c r="I69" s="1" t="n">
+        <v>255.399094524261</v>
+      </c>
+      <c r="J69" s="1" t="n">
+        <v>169.494711845817</v>
+      </c>
+      <c r="K69" s="1" t="n">
+        <v>249.157456943181</v>
+      </c>
+      <c r="L69" s="1" t="n">
+        <v>386.184643106485</v>
+      </c>
       <c r="M69" s="1"/>
       <c r="N69" s="1"/>
       <c r="O69" s="1"/>
@@ -13490,15 +13652,33 @@
         <v>4390.10579748865</v>
       </c>
       <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
-      <c r="H70" s="1"/>
-      <c r="I70" s="1"/>
-      <c r="J70" s="1"/>
-      <c r="K70" s="1"/>
-      <c r="L70" s="1"/>
+      <c r="D70" s="1" t="n">
+        <v>17.6379097256098</v>
+      </c>
+      <c r="E70" s="1" t="n">
+        <v>152.519873502008</v>
+      </c>
+      <c r="F70" s="1" t="n">
+        <v>102.93810066563</v>
+      </c>
+      <c r="G70" s="1" t="n">
+        <v>1286.96227526762</v>
+      </c>
+      <c r="H70" s="1" t="n">
+        <v>2092.04469124603</v>
+      </c>
+      <c r="I70" s="1" t="n">
+        <v>258.06865813983</v>
+      </c>
+      <c r="J70" s="1" t="n">
+        <v>209.546918568649</v>
+      </c>
+      <c r="K70" s="1" t="n">
+        <v>254.61433874483</v>
+      </c>
+      <c r="L70" s="1" t="n">
+        <v>420.610673026258</v>
+      </c>
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
       <c r="O70" s="1"/>
@@ -13511,15 +13691,33 @@
         <v>4730.00471182571</v>
       </c>
       <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1"/>
-      <c r="H71" s="1"/>
-      <c r="I71" s="1"/>
-      <c r="J71" s="1"/>
-      <c r="K71" s="1"/>
-      <c r="L71" s="1"/>
+      <c r="D71" s="1" t="n">
+        <v>18.7394076452328</v>
+      </c>
+      <c r="E71" s="1" t="n">
+        <v>166.570900427002</v>
+      </c>
+      <c r="F71" s="1" t="n">
+        <v>114.88934258081</v>
+      </c>
+      <c r="G71" s="1" t="n">
+        <v>1392.14145269145</v>
+      </c>
+      <c r="H71" s="1" t="n">
+        <v>2196.26096459551</v>
+      </c>
+      <c r="I71" s="1" t="n">
+        <v>278.667313488471</v>
+      </c>
+      <c r="J71" s="1" t="n">
+        <v>203.869555818898</v>
+      </c>
+      <c r="K71" s="1" t="n">
+        <v>259.951583020819</v>
+      </c>
+      <c r="L71" s="1" t="n">
+        <v>453.5660352757</v>
+      </c>
       <c r="M71" s="1"/>
       <c r="N71" s="1"/>
       <c r="O71" s="1"/>
@@ -13532,15 +13730,33 @@
         <v>5349.58021033201</v>
       </c>
       <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
-      <c r="G72" s="1"/>
-      <c r="H72" s="1"/>
-      <c r="I72" s="1"/>
-      <c r="J72" s="1"/>
-      <c r="K72" s="1"/>
-      <c r="L72" s="1"/>
+      <c r="D72" s="1" t="n">
+        <v>22.0334441453714</v>
+      </c>
+      <c r="E72" s="1" t="n">
+        <v>188.772192502617</v>
+      </c>
+      <c r="F72" s="1" t="n">
+        <v>129.152474061305</v>
+      </c>
+      <c r="G72" s="1" t="n">
+        <v>1552.70421743747</v>
+      </c>
+      <c r="H72" s="1" t="n">
+        <v>2473.43115358482</v>
+      </c>
+      <c r="I72" s="1" t="n">
+        <v>355.817132775079</v>
+      </c>
+      <c r="J72" s="1" t="n">
+        <v>171.658898530983</v>
+      </c>
+      <c r="K72" s="1" t="n">
+        <v>345.434391663847</v>
+      </c>
+      <c r="L72" s="1" t="n">
+        <v>508.213149199358</v>
+      </c>
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
       <c r="O72" s="1"/>
@@ -13553,15 +13769,33 @@
         <v>5381.22245160664</v>
       </c>
       <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
-      <c r="G73" s="1"/>
-      <c r="H73" s="1"/>
-      <c r="I73" s="1"/>
-      <c r="J73" s="1"/>
-      <c r="K73" s="1"/>
-      <c r="L73" s="1"/>
+      <c r="D73" s="1" t="n">
+        <v>20.9280106982691</v>
+      </c>
+      <c r="E73" s="1" t="n">
+        <v>188.770879690609</v>
+      </c>
+      <c r="F73" s="1" t="n">
+        <v>125.609934205703</v>
+      </c>
+      <c r="G73" s="1" t="n">
+        <v>1554.38785653567</v>
+      </c>
+      <c r="H73" s="1" t="n">
+        <v>2494.51168562915</v>
+      </c>
+      <c r="I73" s="1" t="n">
+        <v>314.590548763706</v>
+      </c>
+      <c r="J73" s="1" t="n">
+        <v>228.898527240355</v>
+      </c>
+      <c r="K73" s="1" t="n">
+        <v>368.239113921522</v>
+      </c>
+      <c r="L73" s="1" t="n">
+        <v>522.080707475256</v>
+      </c>
       <c r="M73" s="1"/>
       <c r="N73" s="1"/>
       <c r="O73" s="1"/>
@@ -13574,15 +13808,33 @@
         <v>5737.45284531125</v>
       </c>
       <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
-      <c r="G74" s="1"/>
-      <c r="H74" s="1"/>
-      <c r="I74" s="1"/>
-      <c r="J74" s="1"/>
-      <c r="K74" s="1"/>
-      <c r="L74" s="1"/>
+      <c r="D74" s="1" t="n">
+        <v>23.1476481965704</v>
+      </c>
+      <c r="E74" s="1" t="n">
+        <v>194.800953447801</v>
+      </c>
+      <c r="F74" s="1" t="n">
+        <v>132.893018640111</v>
+      </c>
+      <c r="G74" s="1" t="n">
+        <v>1625.23067042478</v>
+      </c>
+      <c r="H74" s="1" t="n">
+        <v>2614.07493027311</v>
+      </c>
+      <c r="I74" s="1" t="n">
+        <v>330.298121216323</v>
+      </c>
+      <c r="J74" s="1" t="n">
+        <v>306.98213898912</v>
+      </c>
+      <c r="K74" s="1" t="n">
+        <v>357.835440013279</v>
+      </c>
+      <c r="L74" s="1" t="n">
+        <v>538.868128417557</v>
+      </c>
       <c r="M74" s="1"/>
       <c r="N74" s="1"/>
       <c r="O74" s="1"/>
@@ -13595,15 +13847,33 @@
         <v>6852.07631214631</v>
       </c>
       <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
-      <c r="F75" s="1"/>
-      <c r="G75" s="1"/>
-      <c r="H75" s="1"/>
-      <c r="I75" s="1"/>
-      <c r="J75" s="1"/>
-      <c r="K75" s="1"/>
-      <c r="L75" s="1"/>
+      <c r="D75" s="1" t="n">
+        <v>24.1736964322339</v>
+      </c>
+      <c r="E75" s="1" t="n">
+        <v>225.715488223603</v>
+      </c>
+      <c r="F75" s="1" t="n">
+        <v>153.909270405266</v>
+      </c>
+      <c r="G75" s="1" t="n">
+        <v>1816.90621502088</v>
+      </c>
+      <c r="H75" s="1" t="n">
+        <v>3023.22183724376</v>
+      </c>
+      <c r="I75" s="1" t="n">
+        <v>374.323288264629</v>
+      </c>
+      <c r="J75" s="1" t="n">
+        <v>318.556087455376</v>
+      </c>
+      <c r="K75" s="1" t="n">
+        <v>420.843294795279</v>
+      </c>
+      <c r="L75" s="1" t="n">
+        <v>604.314734395037</v>
+      </c>
       <c r="M75" s="1"/>
       <c r="N75" s="1"/>
       <c r="O75" s="1"/>
@@ -13616,15 +13886,33 @@
         <v>8453.58200762636</v>
       </c>
       <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
-      <c r="G76" s="1"/>
-      <c r="H76" s="1"/>
-      <c r="I76" s="1"/>
-      <c r="J76" s="1"/>
-      <c r="K76" s="1"/>
-      <c r="L76" s="1"/>
+      <c r="D76" s="1" t="n">
+        <v>25.1991824496862</v>
+      </c>
+      <c r="E76" s="1" t="n">
+        <v>270.577337775742</v>
+      </c>
+      <c r="F76" s="1" t="n">
+        <v>179.692037999799</v>
+      </c>
+      <c r="G76" s="1" t="n">
+        <v>2194.76126517077</v>
+      </c>
+      <c r="H76" s="1" t="n">
+        <v>3706.65095146379</v>
+      </c>
+      <c r="I76" s="1" t="n">
+        <v>448.957770933055</v>
+      </c>
+      <c r="J76" s="1" t="n">
+        <v>312.005734470934</v>
+      </c>
+      <c r="K76" s="1" t="n">
+        <v>438.234252668784</v>
+      </c>
+      <c r="L76" s="1" t="n">
+        <v>711.999634427133</v>
+      </c>
       <c r="M76" s="1"/>
       <c r="N76" s="1"/>
       <c r="O76" s="1"/>
@@ -13637,15 +13925,33 @@
         <v>10477.6647317417</v>
       </c>
       <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
-      <c r="G77" s="1"/>
-      <c r="H77" s="1"/>
-      <c r="I77" s="1"/>
-      <c r="J77" s="1"/>
-      <c r="K77" s="1"/>
-      <c r="L77" s="1"/>
+      <c r="D77" s="1" t="n">
+        <v>30.6229015343144</v>
+      </c>
+      <c r="E77" s="1" t="n">
+        <v>337.504275157634</v>
+      </c>
+      <c r="F77" s="1" t="n">
+        <v>216.129824986821</v>
+      </c>
+      <c r="G77" s="1" t="n">
+        <v>2619.56356788855</v>
+      </c>
+      <c r="H77" s="1" t="n">
+        <v>4410.98698375324</v>
+      </c>
+      <c r="I77" s="1" t="n">
+        <v>547.802910649895</v>
+      </c>
+      <c r="J77" s="1" t="n">
+        <v>622.737585984876</v>
+      </c>
+      <c r="K77" s="1" t="n">
+        <v>680.645164560962</v>
+      </c>
+      <c r="L77" s="1" t="n">
+        <v>902.8038530733</v>
+      </c>
       <c r="M77" s="1"/>
       <c r="N77" s="1"/>
       <c r="O77" s="1"/>
@@ -13658,15 +13964,33 @@
         <v>11281.9900905934</v>
       </c>
       <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
-      <c r="F78" s="1"/>
-      <c r="G78" s="1"/>
-      <c r="H78" s="1"/>
-      <c r="I78" s="1"/>
-      <c r="J78" s="1"/>
-      <c r="K78" s="1"/>
-      <c r="L78" s="1"/>
+      <c r="D78" s="1" t="n">
+        <v>35.9463208900428</v>
+      </c>
+      <c r="E78" s="1" t="n">
+        <v>391.947901954461</v>
+      </c>
+      <c r="F78" s="1" t="n">
+        <v>248.40939569328</v>
+      </c>
+      <c r="G78" s="1" t="n">
+        <v>2942.88710289243</v>
+      </c>
+      <c r="H78" s="1" t="n">
+        <v>4887.32976382107</v>
+      </c>
+      <c r="I78" s="1" t="n">
+        <v>585.358133185698</v>
+      </c>
+      <c r="J78" s="1" t="n">
+        <v>490.230836367716</v>
+      </c>
+      <c r="K78" s="1" t="n">
+        <v>603.921313274864</v>
+      </c>
+      <c r="L78" s="1" t="n">
+        <v>1055.6977144544</v>
+      </c>
       <c r="M78" s="1"/>
       <c r="N78" s="1"/>
       <c r="O78" s="1"/>
@@ -13679,15 +14003,33 @@
         <v>12093.4604716683</v>
       </c>
       <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
-      <c r="F79" s="1"/>
-      <c r="G79" s="1"/>
-      <c r="H79" s="1"/>
-      <c r="I79" s="1"/>
-      <c r="J79" s="1"/>
-      <c r="K79" s="1"/>
-      <c r="L79" s="1"/>
+      <c r="D79" s="1" t="n">
+        <v>39.1490531526626</v>
+      </c>
+      <c r="E79" s="1" t="n">
+        <v>424.860536606918</v>
+      </c>
+      <c r="F79" s="1" t="n">
+        <v>266.931092388569</v>
+      </c>
+      <c r="G79" s="1" t="n">
+        <v>3088.24900727377</v>
+      </c>
+      <c r="H79" s="1" t="n">
+        <v>5189.91312464043</v>
+      </c>
+      <c r="I79" s="1" t="n">
+        <v>640.322981654063</v>
+      </c>
+      <c r="J79" s="1" t="n">
+        <v>743.682335884801</v>
+      </c>
+      <c r="K79" s="1" t="n">
+        <v>777.423006563701</v>
+      </c>
+      <c r="L79" s="1" t="n">
+        <v>1095.84965049898</v>
+      </c>
       <c r="M79" s="1"/>
       <c r="N79" s="1"/>
       <c r="O79" s="1"/>
@@ -13700,15 +14042,33 @@
         <v>12108.7712335754</v>
       </c>
       <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
-      <c r="E80" s="1"/>
-      <c r="F80" s="1"/>
-      <c r="G80" s="1"/>
-      <c r="H80" s="1"/>
-      <c r="I80" s="1"/>
-      <c r="J80" s="1"/>
-      <c r="K80" s="1"/>
-      <c r="L80" s="1"/>
+      <c r="D80" s="1" t="n">
+        <v>44.4620152496603</v>
+      </c>
+      <c r="E80" s="1" t="n">
+        <v>446.67597135309</v>
+      </c>
+      <c r="F80" s="1" t="n">
+        <v>299.113592772416</v>
+      </c>
+      <c r="G80" s="1" t="n">
+        <v>3228.22733604516</v>
+      </c>
+      <c r="H80" s="1" t="n">
+        <v>5398.49022610075</v>
+      </c>
+      <c r="I80" s="1" t="n">
+        <v>665.151630888841</v>
+      </c>
+      <c r="J80" s="1" t="n">
+        <v>606.237704771161</v>
+      </c>
+      <c r="K80" s="1" t="n">
+        <v>751.401378958111</v>
+      </c>
+      <c r="L80" s="1" t="n">
+        <v>1161.65455541361</v>
+      </c>
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
       <c r="O80" s="1"/>
@@ -13721,15 +14081,33 @@
         <v>12131.2270177058</v>
       </c>
       <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
-      <c r="E81" s="1"/>
-      <c r="F81" s="1"/>
-      <c r="G81" s="1"/>
-      <c r="H81" s="1"/>
-      <c r="I81" s="1"/>
-      <c r="J81" s="1"/>
-      <c r="K81" s="1"/>
-      <c r="L81" s="1"/>
+      <c r="D81" s="1" t="n">
+        <v>48.2401216297475</v>
+      </c>
+      <c r="E81" s="1" t="n">
+        <v>490.088476448049</v>
+      </c>
+      <c r="F81" s="1" t="n">
+        <v>344.051180384749</v>
+      </c>
+      <c r="G81" s="1" t="n">
+        <v>3507.16866804221</v>
+      </c>
+      <c r="H81" s="1" t="n">
+        <v>5579.22697009191</v>
+      </c>
+      <c r="I81" s="1" t="n">
+        <v>772.545391467842</v>
+      </c>
+      <c r="J81" s="1" t="n">
+        <v>733.700984966806</v>
+      </c>
+      <c r="K81" s="1" t="n">
+        <v>927.668974731169</v>
+      </c>
+      <c r="L81" s="1" t="n">
+        <v>1297.57461865361</v>
+      </c>
       <c r="M81" s="1"/>
       <c r="N81" s="1"/>
       <c r="O81" s="1"/>
@@ -13742,15 +14120,33 @@
         <v>13752.1263449348</v>
       </c>
       <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
-      <c r="E82" s="1"/>
-      <c r="F82" s="1"/>
-      <c r="G82" s="1"/>
-      <c r="H82" s="1"/>
-      <c r="I82" s="1"/>
-      <c r="J82" s="1"/>
-      <c r="K82" s="1"/>
-      <c r="L82" s="1"/>
+      <c r="D82" s="1" t="n">
+        <v>49.5824738311012</v>
+      </c>
+      <c r="E82" s="1" t="n">
+        <v>505.486776696577</v>
+      </c>
+      <c r="F82" s="1" t="n">
+        <v>367.305670047036</v>
+      </c>
+      <c r="G82" s="1" t="n">
+        <v>4111.53374626597</v>
+      </c>
+      <c r="H82" s="1" t="n">
+        <v>6291.0730299523</v>
+      </c>
+      <c r="I82" s="1" t="n">
+        <v>852.499621349281</v>
+      </c>
+      <c r="J82" s="1" t="n">
+        <v>747.657611528922</v>
+      </c>
+      <c r="K82" s="1" t="n">
+        <v>1036.74433005001</v>
+      </c>
+      <c r="L82" s="1" t="n">
+        <v>1508.71051259331</v>
+      </c>
       <c r="M82" s="1"/>
       <c r="N82" s="1"/>
       <c r="O82" s="1"/>
@@ -13763,15 +14159,33 @@
         <v>16225.3247516576</v>
       </c>
       <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
-      <c r="E83" s="1"/>
-      <c r="F83" s="1"/>
-      <c r="G83" s="1"/>
-      <c r="H83" s="1"/>
-      <c r="I83" s="1"/>
-      <c r="J83" s="1"/>
-      <c r="K83" s="1"/>
-      <c r="L83" s="1"/>
+      <c r="D83" s="1" t="n">
+        <v>54.0117413435421</v>
+      </c>
+      <c r="E83" s="1" t="n">
+        <v>520.95389017454</v>
+      </c>
+      <c r="F83" s="1" t="n">
+        <v>405.796336281377</v>
+      </c>
+      <c r="G83" s="1" t="n">
+        <v>4717.1958606809</v>
+      </c>
+      <c r="H83" s="1" t="n">
+        <v>7212.83780771966</v>
+      </c>
+      <c r="I83" s="1" t="n">
+        <v>1011.62014107454</v>
+      </c>
+      <c r="J83" s="1" t="n">
+        <v>915.274662814089</v>
+      </c>
+      <c r="K83" s="1" t="n">
+        <v>1243.54730826217</v>
+      </c>
+      <c r="L83" s="1" t="n">
+        <v>1758.30017683553</v>
+      </c>
       <c r="M83" s="1"/>
       <c r="N83" s="1"/>
       <c r="O83" s="1"/>
@@ -13783,16 +14197,36 @@
       <c r="B84" s="1" t="n">
         <v>17706.385786802</v>
       </c>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
-      <c r="E84" s="1"/>
-      <c r="F84" s="1"/>
-      <c r="G84" s="1"/>
-      <c r="H84" s="1"/>
-      <c r="I84" s="1"/>
-      <c r="J84" s="1"/>
-      <c r="K84" s="1"/>
-      <c r="L84" s="1"/>
+      <c r="C84" s="1" t="n">
+        <v>209.10556051842</v>
+      </c>
+      <c r="D84" s="1" t="n">
+        <v>59.5179940615925</v>
+      </c>
+      <c r="E84" s="1" t="n">
+        <v>552.570232369787</v>
+      </c>
+      <c r="F84" s="1" t="n">
+        <v>422.510464134499</v>
+      </c>
+      <c r="G84" s="1" t="n">
+        <v>4918.14167294417</v>
+      </c>
+      <c r="H84" s="1" t="n">
+        <v>7724.79561923684</v>
+      </c>
+      <c r="I84" s="1" t="n">
+        <v>1016.68794805193</v>
+      </c>
+      <c r="J84" s="1" t="n">
+        <v>931.140162995527</v>
+      </c>
+      <c r="K84" s="1" t="n">
+        <v>1256.88868893231</v>
+      </c>
+      <c r="L84" s="1" t="n">
+        <v>1861.16088271742</v>
+      </c>
       <c r="M84" s="1"/>
       <c r="N84" s="1"/>
       <c r="O84" s="1"/>
@@ -18224,15 +18658,33 @@
         <v>81247.7956798144</v>
       </c>
       <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
-      <c r="I61" s="1"/>
-      <c r="J61" s="1"/>
-      <c r="K61" s="1"/>
-      <c r="L61" s="1"/>
+      <c r="D61" s="1" t="n">
+        <v>344.959885701371</v>
+      </c>
+      <c r="E61" s="1" t="n">
+        <v>2622.70978801676</v>
+      </c>
+      <c r="F61" s="1" t="n">
+        <v>1962.38376284943</v>
+      </c>
+      <c r="G61" s="1" t="n">
+        <v>20910.0378079583</v>
+      </c>
+      <c r="H61" s="1" t="n">
+        <v>34124.1284499035</v>
+      </c>
+      <c r="I61" s="1" t="n">
+        <v>5711.59519643563</v>
+      </c>
+      <c r="J61" s="1" t="n">
+        <v>6129.50447298106</v>
+      </c>
+      <c r="K61" s="1" t="n">
+        <v>5931.62771217288</v>
+      </c>
+      <c r="L61" s="1" t="n">
+        <v>6638.91465428027</v>
+      </c>
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
       <c r="O61" s="1"/>
@@ -18245,15 +18697,33 @@
         <v>85455.0266244576</v>
       </c>
       <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
-      <c r="H62" s="1"/>
-      <c r="I62" s="1"/>
-      <c r="J62" s="1"/>
-      <c r="K62" s="1"/>
-      <c r="L62" s="1"/>
+      <c r="D62" s="1" t="n">
+        <v>365.245617025657</v>
+      </c>
+      <c r="E62" s="1" t="n">
+        <v>2721.93290339307</v>
+      </c>
+      <c r="F62" s="1" t="n">
+        <v>1983.44424940938</v>
+      </c>
+      <c r="G62" s="1" t="n">
+        <v>22379.6722405329</v>
+      </c>
+      <c r="H62" s="1" t="n">
+        <v>36578.9330741014</v>
+      </c>
+      <c r="I62" s="1" t="n">
+        <v>5306.34018110848</v>
+      </c>
+      <c r="J62" s="1" t="n">
+        <v>6505.28106511223</v>
+      </c>
+      <c r="K62" s="1" t="n">
+        <v>7145.08596251315</v>
+      </c>
+      <c r="L62" s="1" t="n">
+        <v>7081.80888263076</v>
+      </c>
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
       <c r="O62" s="1"/>
@@ -18266,15 +18736,33 @@
         <v>92969.4139683453</v>
       </c>
       <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
-      <c r="I63" s="1"/>
-      <c r="J63" s="1"/>
-      <c r="K63" s="1"/>
-      <c r="L63" s="1"/>
+      <c r="D63" s="1" t="n">
+        <v>365.421671642689</v>
+      </c>
+      <c r="E63" s="1" t="n">
+        <v>2952.6483130917</v>
+      </c>
+      <c r="F63" s="1" t="n">
+        <v>2128.4636879335</v>
+      </c>
+      <c r="G63" s="1" t="n">
+        <v>24402.6334630199</v>
+      </c>
+      <c r="H63" s="1" t="n">
+        <v>39327.3223581735</v>
+      </c>
+      <c r="I63" s="1" t="n">
+        <v>6280.71118270609</v>
+      </c>
+      <c r="J63" s="1" t="n">
+        <v>6974.6816545445</v>
+      </c>
+      <c r="K63" s="1" t="n">
+        <v>6644.20977107553</v>
+      </c>
+      <c r="L63" s="1" t="n">
+        <v>7769.92379353332</v>
+      </c>
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
       <c r="O63" s="1"/>
@@ -18287,15 +18775,33 @@
         <v>93311.6603377688</v>
       </c>
       <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
-      <c r="H64" s="1"/>
-      <c r="I64" s="1"/>
-      <c r="J64" s="1"/>
-      <c r="K64" s="1"/>
-      <c r="L64" s="1"/>
+      <c r="D64" s="1" t="n">
+        <v>394.014060190282</v>
+      </c>
+      <c r="E64" s="1" t="n">
+        <v>3005.29317360078</v>
+      </c>
+      <c r="F64" s="1" t="n">
+        <v>2157.00540687074</v>
+      </c>
+      <c r="G64" s="1" t="n">
+        <v>25952.8504522886</v>
+      </c>
+      <c r="H64" s="1" t="n">
+        <v>41632.7905343241</v>
+      </c>
+      <c r="I64" s="1" t="n">
+        <v>5899.59485105372</v>
+      </c>
+      <c r="J64" s="1" t="n">
+        <v>4657.318547838</v>
+      </c>
+      <c r="K64" s="1" t="n">
+        <v>5867.91964488034</v>
+      </c>
+      <c r="L64" s="1" t="n">
+        <v>8251.10624022072</v>
+      </c>
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
       <c r="O64" s="1"/>
@@ -18308,15 +18814,33 @@
         <v>87898.3550246174</v>
       </c>
       <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
-      <c r="H65" s="1"/>
-      <c r="I65" s="1"/>
-      <c r="J65" s="1"/>
-      <c r="K65" s="1"/>
-      <c r="L65" s="1"/>
+      <c r="D65" s="1" t="n">
+        <v>331.903581092503</v>
+      </c>
+      <c r="E65" s="1" t="n">
+        <v>2879.18930403996</v>
+      </c>
+      <c r="F65" s="1" t="n">
+        <v>2054.08801017539</v>
+      </c>
+      <c r="G65" s="1" t="n">
+        <v>24821.1074803094</v>
+      </c>
+      <c r="H65" s="1" t="n">
+        <v>39995.7411959801</v>
+      </c>
+      <c r="I65" s="1" t="n">
+        <v>5672.3115617265</v>
+      </c>
+      <c r="J65" s="1" t="n">
+        <v>4104.06214979223</v>
+      </c>
+      <c r="K65" s="1" t="n">
+        <v>5527.77769284628</v>
+      </c>
+      <c r="L65" s="1" t="n">
+        <v>7802.82337587307</v>
+      </c>
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
       <c r="O65" s="1"/>
@@ -18329,15 +18853,33 @@
         <v>80031.8420430628</v>
       </c>
       <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
-      <c r="H66" s="1"/>
-      <c r="I66" s="1"/>
-      <c r="J66" s="1"/>
-      <c r="K66" s="1"/>
-      <c r="L66" s="1"/>
+      <c r="D66" s="1" t="n">
+        <v>294.59949050402</v>
+      </c>
+      <c r="E66" s="1" t="n">
+        <v>2704.2113449329</v>
+      </c>
+      <c r="F66" s="1" t="n">
+        <v>1939.56837345438</v>
+      </c>
+      <c r="G66" s="1" t="n">
+        <v>23895.4187846853</v>
+      </c>
+      <c r="H66" s="1" t="n">
+        <v>38264.0373913142</v>
+      </c>
+      <c r="I66" s="1" t="n">
+        <v>4848.44388121851</v>
+      </c>
+      <c r="J66" s="1" t="n">
+        <v>2811.61466296267</v>
+      </c>
+      <c r="K66" s="1" t="n">
+        <v>4521.24215163896</v>
+      </c>
+      <c r="L66" s="1" t="n">
+        <v>7461.05480861359</v>
+      </c>
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
       <c r="O66" s="1"/>
@@ -18350,15 +18892,33 @@
         <v>71112.4328014314</v>
       </c>
       <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
-      <c r="H67" s="1"/>
-      <c r="I67" s="1"/>
-      <c r="J67" s="1"/>
-      <c r="K67" s="1"/>
-      <c r="L67" s="1"/>
+      <c r="D67" s="1" t="n">
+        <v>261.774436366359</v>
+      </c>
+      <c r="E67" s="1" t="n">
+        <v>2421.78085167271</v>
+      </c>
+      <c r="F67" s="1" t="n">
+        <v>1684.23271879475</v>
+      </c>
+      <c r="G67" s="1" t="n">
+        <v>21591.6635222958</v>
+      </c>
+      <c r="H67" s="1" t="n">
+        <v>34236.8071147645</v>
+      </c>
+      <c r="I67" s="1" t="n">
+        <v>4644.20558849046</v>
+      </c>
+      <c r="J67" s="1" t="n">
+        <v>3117.7427013273</v>
+      </c>
+      <c r="K67" s="1" t="n">
+        <v>4236.32885243423</v>
+      </c>
+      <c r="L67" s="1" t="n">
+        <v>6856.61499186893</v>
+      </c>
       <c r="M67" s="1"/>
       <c r="N67" s="1"/>
       <c r="O67" s="1"/>
@@ -18371,15 +18931,33 @@
         <v>68776.8050647166</v>
       </c>
       <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
-      <c r="H68" s="1"/>
-      <c r="I68" s="1"/>
-      <c r="J68" s="1"/>
-      <c r="K68" s="1"/>
-      <c r="L68" s="1"/>
+      <c r="D68" s="1" t="n">
+        <v>255.220303186134</v>
+      </c>
+      <c r="E68" s="1" t="n">
+        <v>2489.1585951387</v>
+      </c>
+      <c r="F68" s="1" t="n">
+        <v>1686.05642045109</v>
+      </c>
+      <c r="G68" s="1" t="n">
+        <v>21247.8917146469</v>
+      </c>
+      <c r="H68" s="1" t="n">
+        <v>34130.2962459204</v>
+      </c>
+      <c r="I68" s="1" t="n">
+        <v>4430.53647361433</v>
+      </c>
+      <c r="J68" s="1" t="n">
+        <v>2607.73657885704</v>
+      </c>
+      <c r="K68" s="1" t="n">
+        <v>3824.8152003695</v>
+      </c>
+      <c r="L68" s="1" t="n">
+        <v>6842.45545701212</v>
+      </c>
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
       <c r="O68" s="1"/>
@@ -18392,15 +18970,33 @@
         <v>77085.858511646</v>
       </c>
       <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
-      <c r="H69" s="1"/>
-      <c r="I69" s="1"/>
-      <c r="J69" s="1"/>
-      <c r="K69" s="1"/>
-      <c r="L69" s="1"/>
+      <c r="D69" s="1" t="n">
+        <v>272.579006021689</v>
+      </c>
+      <c r="E69" s="1" t="n">
+        <v>2656.18094688457</v>
+      </c>
+      <c r="F69" s="1" t="n">
+        <v>1799.14559126859</v>
+      </c>
+      <c r="G69" s="1" t="n">
+        <v>23191.0460054288</v>
+      </c>
+      <c r="H69" s="1" t="n">
+        <v>37272.2382036503</v>
+      </c>
+      <c r="I69" s="1" t="n">
+        <v>4859.67721525331</v>
+      </c>
+      <c r="J69" s="1" t="n">
+        <v>3225.10771151069</v>
+      </c>
+      <c r="K69" s="1" t="n">
+        <v>4740.91272239109</v>
+      </c>
+      <c r="L69" s="1" t="n">
+        <v>7348.23557022061</v>
+      </c>
       <c r="M69" s="1"/>
       <c r="N69" s="1"/>
       <c r="O69" s="1"/>
@@ -18413,15 +19009,33 @@
         <v>82389.6567473896</v>
       </c>
       <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
-      <c r="H70" s="1"/>
-      <c r="I70" s="1"/>
-      <c r="J70" s="1"/>
-      <c r="K70" s="1"/>
-      <c r="L70" s="1"/>
+      <c r="D70" s="1" t="n">
+        <v>331.012826357334</v>
+      </c>
+      <c r="E70" s="1" t="n">
+        <v>2862.3592698322</v>
+      </c>
+      <c r="F70" s="1" t="n">
+        <v>1931.85202619058</v>
+      </c>
+      <c r="G70" s="1" t="n">
+        <v>24152.5796865293</v>
+      </c>
+      <c r="H70" s="1" t="n">
+        <v>39261.6606439323</v>
+      </c>
+      <c r="I70" s="1" t="n">
+        <v>4843.20632399407</v>
+      </c>
+      <c r="J70" s="1" t="n">
+        <v>3932.59285532943</v>
+      </c>
+      <c r="K70" s="1" t="n">
+        <v>4778.37868603312</v>
+      </c>
+      <c r="L70" s="1" t="n">
+        <v>7893.65235679416</v>
+      </c>
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
       <c r="O70" s="1"/>
@@ -18434,15 +19048,33 @@
         <v>87569.0061513679</v>
       </c>
       <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1"/>
-      <c r="H71" s="1"/>
-      <c r="I71" s="1"/>
-      <c r="J71" s="1"/>
-      <c r="K71" s="1"/>
-      <c r="L71" s="1"/>
+      <c r="D71" s="1" t="n">
+        <v>346.932276675256</v>
+      </c>
+      <c r="E71" s="1" t="n">
+        <v>3083.81261601341</v>
+      </c>
+      <c r="F71" s="1" t="n">
+        <v>2127.00539642851</v>
+      </c>
+      <c r="G71" s="1" t="n">
+        <v>25773.4295971256</v>
+      </c>
+      <c r="H71" s="1" t="n">
+        <v>40660.5070472412</v>
+      </c>
+      <c r="I71" s="1" t="n">
+        <v>5159.11107404332</v>
+      </c>
+      <c r="J71" s="1" t="n">
+        <v>3774.34177664717</v>
+      </c>
+      <c r="K71" s="1" t="n">
+        <v>4812.61714511517</v>
+      </c>
+      <c r="L71" s="1" t="n">
+        <v>8397.10092334743</v>
+      </c>
       <c r="M71" s="1"/>
       <c r="N71" s="1"/>
       <c r="O71" s="1"/>
@@ -18455,15 +19087,33 @@
         <v>95180.8427033098</v>
       </c>
       <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
-      <c r="G72" s="1"/>
-      <c r="H72" s="1"/>
-      <c r="I72" s="1"/>
-      <c r="J72" s="1"/>
-      <c r="K72" s="1"/>
-      <c r="L72" s="1"/>
+      <c r="D72" s="1" t="n">
+        <v>392.023616612452</v>
+      </c>
+      <c r="E72" s="1" t="n">
+        <v>3358.67407439721</v>
+      </c>
+      <c r="F72" s="1" t="n">
+        <v>2297.90765537646</v>
+      </c>
+      <c r="G72" s="1" t="n">
+        <v>27626.0360764849</v>
+      </c>
+      <c r="H72" s="1" t="n">
+        <v>44007.8010443014</v>
+      </c>
+      <c r="I72" s="1" t="n">
+        <v>6330.7723623618</v>
+      </c>
+      <c r="J72" s="1" t="n">
+        <v>3054.19079204476</v>
+      </c>
+      <c r="K72" s="1" t="n">
+        <v>6146.04047505806</v>
+      </c>
+      <c r="L72" s="1" t="n">
+        <v>9042.23395328728</v>
+      </c>
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
       <c r="O72" s="1"/>
@@ -18476,15 +19126,33 @@
         <v>95743.8280350791</v>
       </c>
       <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
-      <c r="G73" s="1"/>
-      <c r="H73" s="1"/>
-      <c r="I73" s="1"/>
-      <c r="J73" s="1"/>
-      <c r="K73" s="1"/>
-      <c r="L73" s="1"/>
+      <c r="D73" s="1" t="n">
+        <v>372.355515021151</v>
+      </c>
+      <c r="E73" s="1" t="n">
+        <v>3358.65071657317</v>
+      </c>
+      <c r="F73" s="1" t="n">
+        <v>2234.87805015341</v>
+      </c>
+      <c r="G73" s="1" t="n">
+        <v>27655.9917331671</v>
+      </c>
+      <c r="H73" s="1" t="n">
+        <v>44382.8702508044</v>
+      </c>
+      <c r="I73" s="1" t="n">
+        <v>5597.26041306854</v>
+      </c>
+      <c r="J73" s="1" t="n">
+        <v>4072.61015999073</v>
+      </c>
+      <c r="K73" s="1" t="n">
+        <v>6551.7868321102</v>
+      </c>
+      <c r="L73" s="1" t="n">
+        <v>9288.9684317026</v>
+      </c>
       <c r="M73" s="1"/>
       <c r="N73" s="1"/>
       <c r="O73" s="1"/>
@@ -18497,15 +19165,33 @@
         <v>102081.953221772</v>
       </c>
       <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
-      <c r="G74" s="1"/>
-      <c r="H74" s="1"/>
-      <c r="I74" s="1"/>
-      <c r="J74" s="1"/>
-      <c r="K74" s="1"/>
-      <c r="L74" s="1"/>
+      <c r="D74" s="1" t="n">
+        <v>411.847766614304</v>
+      </c>
+      <c r="E74" s="1" t="n">
+        <v>3465.93904186348</v>
+      </c>
+      <c r="F74" s="1" t="n">
+        <v>2364.46020177859</v>
+      </c>
+      <c r="G74" s="1" t="n">
+        <v>28916.4417984669</v>
+      </c>
+      <c r="H74" s="1" t="n">
+        <v>46510.1643438202</v>
+      </c>
+      <c r="I74" s="1" t="n">
+        <v>5876.73280605666</v>
+      </c>
+      <c r="J74" s="1" t="n">
+        <v>5461.89000539083</v>
+      </c>
+      <c r="K74" s="1" t="n">
+        <v>6366.68250413237</v>
+      </c>
+      <c r="L74" s="1" t="n">
+        <v>9587.65371340328</v>
+      </c>
       <c r="M74" s="1"/>
       <c r="N74" s="1"/>
       <c r="O74" s="1"/>
@@ -18518,15 +19204,33 @@
         <v>117341.806845506</v>
       </c>
       <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
-      <c r="F75" s="1"/>
-      <c r="G75" s="1"/>
-      <c r="H75" s="1"/>
-      <c r="I75" s="1"/>
-      <c r="J75" s="1"/>
-      <c r="K75" s="1"/>
-      <c r="L75" s="1"/>
+      <c r="D75" s="1" t="n">
+        <v>413.974551402006</v>
+      </c>
+      <c r="E75" s="1" t="n">
+        <v>3865.3777358292</v>
+      </c>
+      <c r="F75" s="1" t="n">
+        <v>2635.69625569018</v>
+      </c>
+      <c r="G75" s="1" t="n">
+        <v>31114.5189322326</v>
+      </c>
+      <c r="H75" s="1" t="n">
+        <v>51772.6739627994</v>
+      </c>
+      <c r="I75" s="1" t="n">
+        <v>6410.28631153177</v>
+      </c>
+      <c r="J75" s="1" t="n">
+        <v>5455.27299767332</v>
+      </c>
+      <c r="K75" s="1" t="n">
+        <v>7206.94142336915</v>
+      </c>
+      <c r="L75" s="1" t="n">
+        <v>10348.889826515</v>
+      </c>
       <c r="M75" s="1"/>
       <c r="N75" s="1"/>
       <c r="O75" s="1"/>
@@ -18539,15 +19243,33 @@
         <v>136251.851181742</v>
       </c>
       <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
-      <c r="G76" s="1"/>
-      <c r="H76" s="1"/>
-      <c r="I76" s="1"/>
-      <c r="J76" s="1"/>
-      <c r="K76" s="1"/>
-      <c r="L76" s="1"/>
+      <c r="D76" s="1" t="n">
+        <v>406.151528894942</v>
+      </c>
+      <c r="E76" s="1" t="n">
+        <v>4361.07003238549</v>
+      </c>
+      <c r="F76" s="1" t="n">
+        <v>2896.21284776147</v>
+      </c>
+      <c r="G76" s="1" t="n">
+        <v>35374.3874503994</v>
+      </c>
+      <c r="H76" s="1" t="n">
+        <v>59742.4918059458</v>
+      </c>
+      <c r="I76" s="1" t="n">
+        <v>7236.14289621511</v>
+      </c>
+      <c r="J76" s="1" t="n">
+        <v>5028.79830853152</v>
+      </c>
+      <c r="K76" s="1" t="n">
+        <v>7063.30501360276</v>
+      </c>
+      <c r="L76" s="1" t="n">
+        <v>11475.7588137079</v>
+      </c>
       <c r="M76" s="1"/>
       <c r="N76" s="1"/>
       <c r="O76" s="1"/>
@@ -18560,15 +19282,33 @@
         <v>163118.189573706</v>
       </c>
       <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
-      <c r="G77" s="1"/>
-      <c r="H77" s="1"/>
-      <c r="I77" s="1"/>
-      <c r="J77" s="1"/>
-      <c r="K77" s="1"/>
-      <c r="L77" s="1"/>
+      <c r="D77" s="1" t="n">
+        <v>476.742898886486</v>
+      </c>
+      <c r="E77" s="1" t="n">
+        <v>5254.32792006771</v>
+      </c>
+      <c r="F77" s="1" t="n">
+        <v>3364.74841172664</v>
+      </c>
+      <c r="G77" s="1" t="n">
+        <v>40781.8419091741</v>
+      </c>
+      <c r="H77" s="1" t="n">
+        <v>68671.0473607038</v>
+      </c>
+      <c r="I77" s="1" t="n">
+        <v>8528.29531352677</v>
+      </c>
+      <c r="J77" s="1" t="n">
+        <v>9694.89196362818</v>
+      </c>
+      <c r="K77" s="1" t="n">
+        <v>10596.4076755513</v>
+      </c>
+      <c r="L77" s="1" t="n">
+        <v>14055.0145308002</v>
+      </c>
       <c r="M77" s="1"/>
       <c r="N77" s="1"/>
       <c r="O77" s="1"/>
@@ -18581,15 +19321,33 @@
         <v>171736.960267921</v>
       </c>
       <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
-      <c r="F78" s="1"/>
-      <c r="G78" s="1"/>
-      <c r="H78" s="1"/>
-      <c r="I78" s="1"/>
-      <c r="J78" s="1"/>
-      <c r="K78" s="1"/>
-      <c r="L78" s="1"/>
+      <c r="D78" s="1" t="n">
+        <v>547.18288465954</v>
+      </c>
+      <c r="E78" s="1" t="n">
+        <v>5966.31806308457</v>
+      </c>
+      <c r="F78" s="1" t="n">
+        <v>3781.34302333104</v>
+      </c>
+      <c r="G78" s="1" t="n">
+        <v>44797.2814551403</v>
+      </c>
+      <c r="H78" s="1" t="n">
+        <v>74396.0197381652</v>
+      </c>
+      <c r="I78" s="1" t="n">
+        <v>8910.45158293785</v>
+      </c>
+      <c r="J78" s="1" t="n">
+        <v>7462.40273137523</v>
+      </c>
+      <c r="K78" s="1" t="n">
+        <v>9193.02443540627</v>
+      </c>
+      <c r="L78" s="1" t="n">
+        <v>16070.065208917</v>
+      </c>
       <c r="M78" s="1"/>
       <c r="N78" s="1"/>
       <c r="O78" s="1"/>
@@ -18602,15 +19360,33 @@
         <v>182066.382925117</v>
       </c>
       <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
-      <c r="F79" s="1"/>
-      <c r="G79" s="1"/>
-      <c r="H79" s="1"/>
-      <c r="I79" s="1"/>
-      <c r="J79" s="1"/>
-      <c r="K79" s="1"/>
-      <c r="L79" s="1"/>
+      <c r="D79" s="1" t="n">
+        <v>589.386844166458</v>
+      </c>
+      <c r="E79" s="1" t="n">
+        <v>6396.25203463163</v>
+      </c>
+      <c r="F79" s="1" t="n">
+        <v>4018.63292936636</v>
+      </c>
+      <c r="G79" s="1" t="n">
+        <v>46493.4191204953</v>
+      </c>
+      <c r="H79" s="1" t="n">
+        <v>78133.8569313998</v>
+      </c>
+      <c r="I79" s="1" t="n">
+        <v>9640.02730622051</v>
+      </c>
+      <c r="J79" s="1" t="n">
+        <v>11196.0967050789</v>
+      </c>
+      <c r="K79" s="1" t="n">
+        <v>11704.0606482667</v>
+      </c>
+      <c r="L79" s="1" t="n">
+        <v>16497.9562767429</v>
+      </c>
       <c r="M79" s="1"/>
       <c r="N79" s="1"/>
       <c r="O79" s="1"/>
@@ -18623,15 +19399,33 @@
         <v>180315.397717373</v>
       </c>
       <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
-      <c r="E80" s="1"/>
-      <c r="F80" s="1"/>
-      <c r="G80" s="1"/>
-      <c r="H80" s="1"/>
-      <c r="I80" s="1"/>
-      <c r="J80" s="1"/>
-      <c r="K80" s="1"/>
-      <c r="L80" s="1"/>
+      <c r="D80" s="1" t="n">
+        <v>662.097401000376</v>
+      </c>
+      <c r="E80" s="1" t="n">
+        <v>6651.58783427971</v>
+      </c>
+      <c r="F80" s="1" t="n">
+        <v>4454.19154454576</v>
+      </c>
+      <c r="G80" s="1" t="n">
+        <v>48072.5157650204</v>
+      </c>
+      <c r="H80" s="1" t="n">
+        <v>80390.5609756308</v>
+      </c>
+      <c r="I80" s="1" t="n">
+        <v>9904.97537301862</v>
+      </c>
+      <c r="J80" s="1" t="n">
+        <v>9027.67016887489</v>
+      </c>
+      <c r="K80" s="1" t="n">
+        <v>11189.3466214414</v>
+      </c>
+      <c r="L80" s="1" t="n">
+        <v>17298.5515317026</v>
+      </c>
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
       <c r="O80" s="1"/>
@@ -18644,15 +19438,33 @@
         <v>176806.181002733</v>
       </c>
       <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
-      <c r="E81" s="1"/>
-      <c r="F81" s="1"/>
-      <c r="G81" s="1"/>
-      <c r="H81" s="1"/>
-      <c r="I81" s="1"/>
-      <c r="J81" s="1"/>
-      <c r="K81" s="1"/>
-      <c r="L81" s="1"/>
+      <c r="D81" s="1" t="n">
+        <v>703.074113114405</v>
+      </c>
+      <c r="E81" s="1" t="n">
+        <v>7142.7788588705</v>
+      </c>
+      <c r="F81" s="1" t="n">
+        <v>5014.3629481607</v>
+      </c>
+      <c r="G81" s="1" t="n">
+        <v>51115.1178214663</v>
+      </c>
+      <c r="H81" s="1" t="n">
+        <v>81314.2654151694</v>
+      </c>
+      <c r="I81" s="1" t="n">
+        <v>11259.4381522441</v>
+      </c>
+      <c r="J81" s="1" t="n">
+        <v>10693.3015894098</v>
+      </c>
+      <c r="K81" s="1" t="n">
+        <v>13520.2818657628</v>
+      </c>
+      <c r="L81" s="1" t="n">
+        <v>18911.4598676111</v>
+      </c>
       <c r="M81" s="1"/>
       <c r="N81" s="1"/>
       <c r="O81" s="1"/>
@@ -18665,15 +19477,33 @@
         <v>182916.631966608</v>
       </c>
       <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
-      <c r="E82" s="1"/>
-      <c r="F82" s="1"/>
-      <c r="G82" s="1"/>
-      <c r="H82" s="1"/>
-      <c r="I82" s="1"/>
-      <c r="J82" s="1"/>
-      <c r="K82" s="1"/>
-      <c r="L82" s="1"/>
+      <c r="D82" s="1" t="n">
+        <v>659.495040277753</v>
+      </c>
+      <c r="E82" s="1" t="n">
+        <v>6723.46489392534</v>
+      </c>
+      <c r="F82" s="1" t="n">
+        <v>4885.52201907222</v>
+      </c>
+      <c r="G82" s="1" t="n">
+        <v>54687.3906056736</v>
+      </c>
+      <c r="H82" s="1" t="n">
+        <v>83677.3791362587</v>
+      </c>
+      <c r="I82" s="1" t="n">
+        <v>11339.0726334807</v>
+      </c>
+      <c r="J82" s="1" t="n">
+        <v>9944.57211451091</v>
+      </c>
+      <c r="K82" s="1" t="n">
+        <v>13789.7061375584</v>
+      </c>
+      <c r="L82" s="1" t="n">
+        <v>20067.3145849789</v>
+      </c>
       <c r="M82" s="1"/>
       <c r="N82" s="1"/>
       <c r="O82" s="1"/>
@@ -18686,15 +19516,33 @@
         <v>188378.770421788</v>
       </c>
       <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
-      <c r="E83" s="1"/>
-      <c r="F83" s="1"/>
-      <c r="G83" s="1"/>
-      <c r="H83" s="1"/>
-      <c r="I83" s="1"/>
-      <c r="J83" s="1"/>
-      <c r="K83" s="1"/>
-      <c r="L83" s="1"/>
+      <c r="D83" s="1" t="n">
+        <v>627.085471530955</v>
+      </c>
+      <c r="E83" s="1" t="n">
+        <v>6048.36296219593</v>
+      </c>
+      <c r="F83" s="1" t="n">
+        <v>4711.36424326684</v>
+      </c>
+      <c r="G83" s="1" t="n">
+        <v>54767.4434672274</v>
+      </c>
+      <c r="H83" s="1" t="n">
+        <v>83742.269462508</v>
+      </c>
+      <c r="I83" s="1" t="n">
+        <v>11745.0812989163</v>
+      </c>
+      <c r="J83" s="1" t="n">
+        <v>10626.4939665704</v>
+      </c>
+      <c r="K83" s="1" t="n">
+        <v>14437.795019654</v>
+      </c>
+      <c r="L83" s="1" t="n">
+        <v>20414.1630700396</v>
+      </c>
       <c r="M83" s="1"/>
       <c r="N83" s="1"/>
       <c r="O83" s="1"/>
@@ -18706,16 +19554,36 @@
       <c r="B84" s="1" t="n">
         <v>198834.004327203</v>
       </c>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
-      <c r="E84" s="1"/>
-      <c r="F84" s="1"/>
-      <c r="G84" s="1"/>
-      <c r="H84" s="1"/>
-      <c r="I84" s="1"/>
-      <c r="J84" s="1"/>
-      <c r="K84" s="1"/>
-      <c r="L84" s="1"/>
+      <c r="C84" s="1" t="n">
+        <v>2348.1526058216</v>
+      </c>
+      <c r="D84" s="1" t="n">
+        <v>668.357802167064</v>
+      </c>
+      <c r="E84" s="1" t="n">
+        <v>6205.09195366072</v>
+      </c>
+      <c r="F84" s="1" t="n">
+        <v>4744.58472019888</v>
+      </c>
+      <c r="G84" s="1" t="n">
+        <v>55228.3122289632</v>
+      </c>
+      <c r="H84" s="1" t="n">
+        <v>86745.655724217</v>
+      </c>
+      <c r="I84" s="1" t="n">
+        <v>11416.9056461569</v>
+      </c>
+      <c r="J84" s="1" t="n">
+        <v>10456.2460926547</v>
+      </c>
+      <c r="K84" s="1" t="n">
+        <v>14114.2418347317</v>
+      </c>
+      <c r="L84" s="1" t="n">
+        <v>20899.9213878924</v>
+      </c>
       <c r="M84" s="1"/>
       <c r="N84" s="1"/>
       <c r="O84" s="1"/>
@@ -23147,15 +24015,33 @@
         <v>577.651826635213</v>
       </c>
       <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
-      <c r="I61" s="1"/>
-      <c r="J61" s="1"/>
-      <c r="K61" s="1"/>
-      <c r="L61" s="1"/>
+      <c r="D61" s="1" t="n">
+        <v>266.26654488234</v>
+      </c>
+      <c r="E61" s="1" t="n">
+        <v>341.98752816603</v>
+      </c>
+      <c r="F61" s="1" t="n">
+        <v>332.779079448033</v>
+      </c>
+      <c r="G61" s="1" t="n">
+        <v>539.383751934214</v>
+      </c>
+      <c r="H61" s="1" t="n">
+        <v>724.187754626401</v>
+      </c>
+      <c r="I61" s="1" t="n">
+        <v>600.144544132063</v>
+      </c>
+      <c r="J61" s="1" t="n">
+        <v>501.543022748301</v>
+      </c>
+      <c r="K61" s="1" t="n">
+        <v>655.576504807601</v>
+      </c>
+      <c r="L61" s="1" t="n">
+        <v>735.684695856261</v>
+      </c>
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
       <c r="O61" s="1"/>
@@ -23168,15 +24054,33 @@
         <v>589.361343600141</v>
       </c>
       <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
-      <c r="H62" s="1"/>
-      <c r="I62" s="1"/>
-      <c r="J62" s="1"/>
-      <c r="K62" s="1"/>
-      <c r="L62" s="1"/>
+      <c r="D62" s="1" t="n">
+        <v>278.860232815965</v>
+      </c>
+      <c r="E62" s="1" t="n">
+        <v>351.067811223541</v>
+      </c>
+      <c r="F62" s="1" t="n">
+        <v>331.022680365795</v>
+      </c>
+      <c r="G62" s="1" t="n">
+        <v>559.477972766744</v>
+      </c>
+      <c r="H62" s="1" t="n">
+        <v>754.798246212208</v>
+      </c>
+      <c r="I62" s="1" t="n">
+        <v>541.420786079666</v>
+      </c>
+      <c r="J62" s="1" t="n">
+        <v>513.796207959948</v>
+      </c>
+      <c r="K62" s="1" t="n">
+        <v>749.763981721494</v>
+      </c>
+      <c r="L62" s="1" t="n">
+        <v>755.052205972278</v>
+      </c>
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
       <c r="O62" s="1"/>
@@ -23189,15 +24093,33 @@
         <v>628.277665330883</v>
       </c>
       <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
-      <c r="I63" s="1"/>
-      <c r="J63" s="1"/>
-      <c r="K63" s="1"/>
-      <c r="L63" s="1"/>
+      <c r="D63" s="1" t="n">
+        <v>275.824254474823</v>
+      </c>
+      <c r="E63" s="1" t="n">
+        <v>380.824883412012</v>
+      </c>
+      <c r="F63" s="1" t="n">
+        <v>352.567842441249</v>
+      </c>
+      <c r="G63" s="1" t="n">
+        <v>597.018361128312</v>
+      </c>
+      <c r="H63" s="1" t="n">
+        <v>796.9044536222</v>
+      </c>
+      <c r="I63" s="1" t="n">
+        <v>628.292056136503</v>
+      </c>
+      <c r="J63" s="1" t="n">
+        <v>537.449853983733</v>
+      </c>
+      <c r="K63" s="1" t="n">
+        <v>670.715383009643</v>
+      </c>
+      <c r="L63" s="1" t="n">
+        <v>805.155112576758</v>
+      </c>
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
       <c r="O63" s="1"/>
@@ -23210,15 +24132,33 @@
         <v>625.187970385567</v>
       </c>
       <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
-      <c r="H64" s="1"/>
-      <c r="I64" s="1"/>
-      <c r="J64" s="1"/>
-      <c r="K64" s="1"/>
-      <c r="L64" s="1"/>
+      <c r="D64" s="1" t="n">
+        <v>300.674299415278</v>
+      </c>
+      <c r="E64" s="1" t="n">
+        <v>391.874384481995</v>
+      </c>
+      <c r="F64" s="1" t="n">
+        <v>358.539599320858</v>
+      </c>
+      <c r="G64" s="1" t="n">
+        <v>628.722638694175</v>
+      </c>
+      <c r="H64" s="1" t="n">
+        <v>838.5658771511</v>
+      </c>
+      <c r="I64" s="1" t="n">
+        <v>585.195232613767</v>
+      </c>
+      <c r="J64" s="1" t="n">
+        <v>354.195060304615</v>
+      </c>
+      <c r="K64" s="1" t="n">
+        <v>576.09660576364</v>
+      </c>
+      <c r="L64" s="1" t="n">
+        <v>840.802558732327</v>
+      </c>
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
       <c r="O64" s="1"/>
@@ -23231,15 +24171,33 @@
         <v>572.302941727558</v>
       </c>
       <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
-      <c r="H65" s="1"/>
-      <c r="I65" s="1"/>
-      <c r="J65" s="1"/>
-      <c r="K65" s="1"/>
-      <c r="L65" s="1"/>
+      <c r="D65" s="1" t="n">
+        <v>250.52443496531</v>
+      </c>
+      <c r="E65" s="1" t="n">
+        <v>372.072803356579</v>
+      </c>
+      <c r="F65" s="1" t="n">
+        <v>336.057691068211</v>
+      </c>
+      <c r="G65" s="1" t="n">
+        <v>583.611079570609</v>
+      </c>
+      <c r="H65" s="1" t="n">
+        <v>784.598766245336</v>
+      </c>
+      <c r="I65" s="1" t="n">
+        <v>546.841770170576</v>
+      </c>
+      <c r="J65" s="1" t="n">
+        <v>301.888801829338</v>
+      </c>
+      <c r="K65" s="1" t="n">
+        <v>518.606715791385</v>
+      </c>
+      <c r="L65" s="1" t="n">
+        <v>766.700780897129</v>
+      </c>
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
       <c r="O65" s="1"/>
@@ -23252,15 +24210,33 @@
         <v>461.901474179112</v>
       </c>
       <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
-      <c r="H66" s="1"/>
-      <c r="I66" s="1"/>
-      <c r="J66" s="1"/>
-      <c r="K66" s="1"/>
-      <c r="L66" s="1"/>
+      <c r="D66" s="1" t="n">
+        <v>200.374570515342</v>
+      </c>
+      <c r="E66" s="1" t="n">
+        <v>315.635540790077</v>
+      </c>
+      <c r="F66" s="1" t="n">
+        <v>284.397240910351</v>
+      </c>
+      <c r="G66" s="1" t="n">
+        <v>497.525566068385</v>
+      </c>
+      <c r="H66" s="1" t="n">
+        <v>667.382420555062</v>
+      </c>
+      <c r="I66" s="1" t="n">
+        <v>414.510542560571</v>
+      </c>
+      <c r="J66" s="1" t="n">
+        <v>182.562839100062</v>
+      </c>
+      <c r="K66" s="1" t="n">
+        <v>369.894059250593</v>
+      </c>
+      <c r="L66" s="1" t="n">
+        <v>643.200465843678</v>
+      </c>
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
       <c r="O66" s="1"/>
@@ -23273,15 +24249,33 @@
         <v>370.636839187401</v>
       </c>
       <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
-      <c r="H67" s="1"/>
-      <c r="I67" s="1"/>
-      <c r="J67" s="1"/>
-      <c r="K67" s="1"/>
-      <c r="L67" s="1"/>
+      <c r="D67" s="1" t="n">
+        <v>161.019295722767</v>
+      </c>
+      <c r="E67" s="1" t="n">
+        <v>255.45133661794</v>
+      </c>
+      <c r="F67" s="1" t="n">
+        <v>222.711403627783</v>
+      </c>
+      <c r="G67" s="1" t="n">
+        <v>404.111239421595</v>
+      </c>
+      <c r="H67" s="1" t="n">
+        <v>539.671109057638</v>
+      </c>
+      <c r="I67" s="1" t="n">
+        <v>360.630966647807</v>
+      </c>
+      <c r="J67" s="1" t="n">
+        <v>184.7179058043</v>
+      </c>
+      <c r="K67" s="1" t="n">
+        <v>313.399747418196</v>
+      </c>
+      <c r="L67" s="1" t="n">
+        <v>530.922396876046</v>
+      </c>
       <c r="M67" s="1"/>
       <c r="N67" s="1"/>
       <c r="O67" s="1"/>
@@ -23294,15 +24288,33 @@
         <v>335.420059772501</v>
       </c>
       <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
-      <c r="H68" s="1"/>
-      <c r="I68" s="1"/>
-      <c r="J68" s="1"/>
-      <c r="K68" s="1"/>
-      <c r="L68" s="1"/>
+      <c r="D68" s="1" t="n">
+        <v>146.963840439704</v>
+      </c>
+      <c r="E68" s="1" t="n">
+        <v>245.714647556271</v>
+      </c>
+      <c r="F68" s="1" t="n">
+        <v>208.54311769773</v>
+      </c>
+      <c r="G68" s="1" t="n">
+        <v>370.514169165233</v>
+      </c>
+      <c r="H68" s="1" t="n">
+        <v>503.64361468923</v>
+      </c>
+      <c r="I68" s="1" t="n">
+        <v>324.310373238708</v>
+      </c>
+      <c r="J68" s="1" t="n">
+        <v>145.945434486962</v>
+      </c>
+      <c r="K68" s="1" t="n">
+        <v>264.293799733562</v>
+      </c>
+      <c r="L68" s="1" t="n">
+        <v>494.573229339463</v>
+      </c>
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
       <c r="O68" s="1"/>
@@ -23315,15 +24327,33 @@
         <v>377.404429587754</v>
       </c>
       <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
-      <c r="H69" s="1"/>
-      <c r="I69" s="1"/>
-      <c r="J69" s="1"/>
-      <c r="K69" s="1"/>
-      <c r="L69" s="1"/>
+      <c r="D69" s="1" t="n">
+        <v>157.421099170303</v>
+      </c>
+      <c r="E69" s="1" t="n">
+        <v>262.890604665057</v>
+      </c>
+      <c r="F69" s="1" t="n">
+        <v>223.531056532827</v>
+      </c>
+      <c r="G69" s="1" t="n">
+        <v>404.111239421595</v>
+      </c>
+      <c r="H69" s="1" t="n">
+        <v>552.718102902988</v>
+      </c>
+      <c r="I69" s="1" t="n">
+        <v>360.224392840989</v>
+      </c>
+      <c r="J69" s="1" t="n">
+        <v>182.645163626958</v>
+      </c>
+      <c r="K69" s="1" t="n">
+        <v>328.703769054329</v>
+      </c>
+      <c r="L69" s="1" t="n">
+        <v>531.203085428452</v>
+      </c>
       <c r="M69" s="1"/>
       <c r="N69" s="1"/>
       <c r="O69" s="1"/>
@@ -23336,15 +24366,33 @@
         <v>405.051735255448</v>
       </c>
       <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
-      <c r="H70" s="1"/>
-      <c r="I70" s="1"/>
-      <c r="J70" s="1"/>
-      <c r="K70" s="1"/>
-      <c r="L70" s="1"/>
+      <c r="D70" s="1" t="n">
+        <v>191.716410060976</v>
+      </c>
+      <c r="E70" s="1" t="n">
+        <v>284.552002802253</v>
+      </c>
+      <c r="F70" s="1" t="n">
+        <v>240.509580994462</v>
+      </c>
+      <c r="G70" s="1" t="n">
+        <v>420.98864091188</v>
+      </c>
+      <c r="H70" s="1" t="n">
+        <v>585.187326222665</v>
+      </c>
+      <c r="I70" s="1" t="n">
+        <v>363.476983295535</v>
+      </c>
+      <c r="J70" s="1" t="n">
+        <v>225.319267278117</v>
+      </c>
+      <c r="K70" s="1" t="n">
+        <v>332.829200973634</v>
+      </c>
+      <c r="L70" s="1" t="n">
+        <v>571.481892698721</v>
+      </c>
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
       <c r="O70" s="1"/>
@@ -23357,15 +24405,33 @@
         <v>432.227625582014</v>
       </c>
       <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1"/>
-      <c r="H71" s="1"/>
-      <c r="I71" s="1"/>
-      <c r="J71" s="1"/>
-      <c r="K71" s="1"/>
-      <c r="L71" s="1"/>
+      <c r="D71" s="1" t="n">
+        <v>201.499006937987</v>
+      </c>
+      <c r="E71" s="1" t="n">
+        <v>306.760405942913</v>
+      </c>
+      <c r="F71" s="1" t="n">
+        <v>265.333354690093</v>
+      </c>
+      <c r="G71" s="1" t="n">
+        <v>449.251791884424</v>
+      </c>
+      <c r="H71" s="1" t="n">
+        <v>609.141856773127</v>
+      </c>
+      <c r="I71" s="1" t="n">
+        <v>391.826931226759</v>
+      </c>
+      <c r="J71" s="1" t="n">
+        <v>218.86157361127</v>
+      </c>
+      <c r="K71" s="1" t="n">
+        <v>336.37627202487</v>
+      </c>
+      <c r="L71" s="1" t="n">
+        <v>608.650074175658</v>
+      </c>
       <c r="M71" s="1"/>
       <c r="N71" s="1"/>
       <c r="O71" s="1"/>
@@ -23378,15 +24444,33 @@
         <v>484.639770506556</v>
       </c>
       <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
-      <c r="G72" s="1"/>
-      <c r="H72" s="1"/>
-      <c r="I72" s="1"/>
-      <c r="J72" s="1"/>
-      <c r="K72" s="1"/>
-      <c r="L72" s="1"/>
+      <c r="D72" s="1" t="n">
+        <v>236.918754251305</v>
+      </c>
+      <c r="E72" s="1" t="n">
+        <v>343.847345177809</v>
+      </c>
+      <c r="F72" s="1" t="n">
+        <v>295.543418904587</v>
+      </c>
+      <c r="G72" s="1" t="n">
+        <v>494.334357668727</v>
+      </c>
+      <c r="H72" s="1" t="n">
+        <v>680.074554188843</v>
+      </c>
+      <c r="I72" s="1" t="n">
+        <v>497.646339545565</v>
+      </c>
+      <c r="J72" s="1" t="n">
+        <v>186.181017929483</v>
+      </c>
+      <c r="K72" s="1" t="n">
+        <v>445.147411937948</v>
+      </c>
+      <c r="L72" s="1" t="n">
+        <v>669.582541764636</v>
+      </c>
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
       <c r="O72" s="1"/>
@@ -23399,15 +24483,33 @@
         <v>482.828893912608</v>
       </c>
       <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
-      <c r="G73" s="1"/>
-      <c r="H73" s="1"/>
-      <c r="I73" s="1"/>
-      <c r="J73" s="1"/>
-      <c r="K73" s="1"/>
-      <c r="L73" s="1"/>
+      <c r="D73" s="1" t="n">
+        <v>222.638411683714</v>
+      </c>
+      <c r="E73" s="1" t="n">
+        <v>340.12771115425</v>
+      </c>
+      <c r="F73" s="1" t="n">
+        <v>284.185371506114</v>
+      </c>
+      <c r="G73" s="1" t="n">
+        <v>488.340514148813</v>
+      </c>
+      <c r="H73" s="1" t="n">
+        <v>679.333247720357</v>
+      </c>
+      <c r="I73" s="1" t="n">
+        <v>436.93131772737</v>
+      </c>
+      <c r="J73" s="1" t="n">
+        <v>250.436025427084</v>
+      </c>
+      <c r="K73" s="1" t="n">
+        <v>471.496944841898</v>
+      </c>
+      <c r="L73" s="1" t="n">
+        <v>673.652525774523</v>
+      </c>
       <c r="M73" s="1"/>
       <c r="N73" s="1"/>
       <c r="O73" s="1"/>
@@ -23420,15 +24522,33 @@
         <v>509.53720656276</v>
       </c>
       <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
-      <c r="G74" s="1"/>
-      <c r="H74" s="1"/>
-      <c r="I74" s="1"/>
-      <c r="J74" s="1"/>
-      <c r="K74" s="1"/>
-      <c r="L74" s="1"/>
+      <c r="D74" s="1" t="n">
+        <v>246.251576559259</v>
+      </c>
+      <c r="E74" s="1" t="n">
+        <v>347.238776199289</v>
+      </c>
+      <c r="F74" s="1" t="n">
+        <v>297.299817986825</v>
+      </c>
+      <c r="G74" s="1" t="n">
+        <v>503.16739022439</v>
+      </c>
+      <c r="H74" s="1" t="n">
+        <v>704.982451529965</v>
+      </c>
+      <c r="I74" s="1" t="n">
+        <v>454.956089829647</v>
+      </c>
+      <c r="J74" s="1" t="n">
+        <v>338.832382990198</v>
+      </c>
+      <c r="K74" s="1" t="n">
+        <v>455.261374062696</v>
+      </c>
+      <c r="L74" s="1" t="n">
+        <v>680.389051032269</v>
+      </c>
       <c r="M74" s="1"/>
       <c r="N74" s="1"/>
       <c r="O74" s="1"/>
@@ -23441,15 +24561,33 @@
         <v>602.430338211166</v>
       </c>
       <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
-      <c r="F75" s="1"/>
-      <c r="G75" s="1"/>
-      <c r="H75" s="1"/>
-      <c r="I75" s="1"/>
-      <c r="J75" s="1"/>
-      <c r="K75" s="1"/>
-      <c r="L75" s="1"/>
+      <c r="D75" s="1" t="n">
+        <v>254.459962444568</v>
+      </c>
+      <c r="E75" s="1" t="n">
+        <v>396.688028512483</v>
+      </c>
+      <c r="F75" s="1" t="n">
+        <v>340.507235409881</v>
+      </c>
+      <c r="G75" s="1" t="n">
+        <v>554.272792867871</v>
+      </c>
+      <c r="H75" s="1" t="n">
+        <v>806.837960299909</v>
+      </c>
+      <c r="I75" s="1" t="n">
+        <v>514.180341022842</v>
+      </c>
+      <c r="J75" s="1" t="n">
+        <v>353.951208283752</v>
+      </c>
+      <c r="K75" s="1" t="n">
+        <v>532.713031386429</v>
+      </c>
+      <c r="L75" s="1" t="n">
+        <v>750.701533409985</v>
+      </c>
       <c r="M75" s="1"/>
       <c r="N75" s="1"/>
       <c r="O75" s="1"/>
@@ -23462,15 +24600,33 @@
         <v>735.095431881551</v>
       </c>
       <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
-      <c r="G76" s="1"/>
-      <c r="H76" s="1"/>
-      <c r="I76" s="1"/>
-      <c r="J76" s="1"/>
-      <c r="K76" s="1"/>
-      <c r="L76" s="1"/>
+      <c r="D76" s="1" t="n">
+        <v>265.25455210196</v>
+      </c>
+      <c r="E76" s="1" t="n">
+        <v>468.126881964952</v>
+      </c>
+      <c r="F76" s="1" t="n">
+        <v>392.855351989066</v>
+      </c>
+      <c r="G76" s="1" t="n">
+        <v>658.711625550216</v>
+      </c>
+      <c r="H76" s="1" t="n">
+        <v>978.602041202786</v>
+      </c>
+      <c r="I76" s="1" t="n">
+        <v>615.263493124646</v>
+      </c>
+      <c r="J76" s="1" t="n">
+        <v>348.220685793453</v>
+      </c>
+      <c r="K76" s="1" t="n">
+        <v>550.407250274785</v>
+      </c>
+      <c r="L76" s="1" t="n">
+        <v>870.628068509579</v>
+      </c>
       <c r="M76" s="1"/>
       <c r="N76" s="1"/>
       <c r="O76" s="1"/>
@@ -23483,15 +24639,33 @@
         <v>899.610572576827</v>
       </c>
       <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
-      <c r="G77" s="1"/>
-      <c r="H77" s="1"/>
-      <c r="I77" s="1"/>
-      <c r="J77" s="1"/>
-      <c r="K77" s="1"/>
-      <c r="L77" s="1"/>
+      <c r="D77" s="1" t="n">
+        <v>340.254461492383</v>
+      </c>
+      <c r="E77" s="1" t="n">
+        <v>571.073223616978</v>
+      </c>
+      <c r="F77" s="1" t="n">
+        <v>465.797036609527</v>
+      </c>
+      <c r="G77" s="1" t="n">
+        <v>772.732615896328</v>
+      </c>
+      <c r="H77" s="1" t="n">
+        <v>1135.68150972019</v>
+      </c>
+      <c r="I77" s="1" t="n">
+        <v>756.633854488805</v>
+      </c>
+      <c r="J77" s="1" t="n">
+        <v>734.360360831221</v>
+      </c>
+      <c r="K77" s="1" t="n">
+        <v>877.12005742392</v>
+      </c>
+      <c r="L77" s="1" t="n">
+        <v>1037.70557824517</v>
+      </c>
       <c r="M77" s="1"/>
       <c r="N77" s="1"/>
       <c r="O77" s="1"/>
@@ -23504,15 +24678,33 @@
         <v>957.090125711814</v>
       </c>
       <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
-      <c r="F78" s="1"/>
-      <c r="G78" s="1"/>
-      <c r="H78" s="1"/>
-      <c r="I78" s="1"/>
-      <c r="J78" s="1"/>
-      <c r="K78" s="1"/>
-      <c r="L78" s="1"/>
+      <c r="D78" s="1" t="n">
+        <v>395.014515275195</v>
+      </c>
+      <c r="E78" s="1" t="n">
+        <v>646.77871609647</v>
+      </c>
+      <c r="F78" s="1" t="n">
+        <v>536.521372987646</v>
+      </c>
+      <c r="G78" s="1" t="n">
+        <v>851.283512552048</v>
+      </c>
+      <c r="H78" s="1" t="n">
+        <v>1248.36009293003</v>
+      </c>
+      <c r="I78" s="1" t="n">
+        <v>809.623973977453</v>
+      </c>
+      <c r="J78" s="1" t="n">
+        <v>585.000998052167</v>
+      </c>
+      <c r="K78" s="1" t="n">
+        <v>769.326513725942</v>
+      </c>
+      <c r="L78" s="1" t="n">
+        <v>1172.99746050489</v>
+      </c>
       <c r="M78" s="1"/>
       <c r="N78" s="1"/>
       <c r="O78" s="1"/>
@@ -23525,15 +24717,33 @@
         <v>1012.96198201679</v>
       </c>
       <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
-      <c r="F79" s="1"/>
-      <c r="G79" s="1"/>
-      <c r="H79" s="1"/>
-      <c r="I79" s="1"/>
-      <c r="J79" s="1"/>
-      <c r="K79" s="1"/>
-      <c r="L79" s="1"/>
+      <c r="D79" s="1" t="n">
+        <v>430.209375303984</v>
+      </c>
+      <c r="E79" s="1" t="n">
+        <v>695.352760404122</v>
+      </c>
+      <c r="F79" s="1" t="n">
+        <v>579.026230777806</v>
+      </c>
+      <c r="G79" s="1" t="n">
+        <v>882.356859221078</v>
+      </c>
+      <c r="H79" s="1" t="n">
+        <v>1309.59200722696</v>
+      </c>
+      <c r="I79" s="1" t="n">
+        <v>880.77439017065</v>
+      </c>
+      <c r="J79" s="1" t="n">
+        <v>889.572172111006</v>
+      </c>
+      <c r="K79" s="1" t="n">
+        <v>962.157186341214</v>
+      </c>
+      <c r="L79" s="1" t="n">
+        <v>1175.80434602895</v>
+      </c>
       <c r="M79" s="1"/>
       <c r="N79" s="1"/>
       <c r="O79" s="1"/>
@@ -23546,15 +24756,33 @@
         <v>1003.65837861909</v>
       </c>
       <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
-      <c r="E80" s="1"/>
-      <c r="F80" s="1"/>
-      <c r="G80" s="1"/>
-      <c r="H80" s="1"/>
-      <c r="I80" s="1"/>
-      <c r="J80" s="1"/>
-      <c r="K80" s="1"/>
-      <c r="L80" s="1"/>
+      <c r="D80" s="1" t="n">
+        <v>483.282774452829</v>
+      </c>
+      <c r="E80" s="1" t="n">
+        <v>721.609000570419</v>
+      </c>
+      <c r="F80" s="1" t="n">
+        <v>640.500198656138</v>
+      </c>
+      <c r="G80" s="1" t="n">
+        <v>906.80543147336</v>
+      </c>
+      <c r="H80" s="1" t="n">
+        <v>1349.62255652519</v>
+      </c>
+      <c r="I80" s="1" t="n">
+        <v>914.926589943385</v>
+      </c>
+      <c r="J80" s="1" t="n">
+        <v>727.7763562679</v>
+      </c>
+      <c r="K80" s="1" t="n">
+        <v>929.952201680831</v>
+      </c>
+      <c r="L80" s="1" t="n">
+        <v>1224.08277704279</v>
+      </c>
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
       <c r="O80" s="1"/>
@@ -23567,15 +24795,33 @@
         <v>987.523058952808</v>
       </c>
       <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
-      <c r="E81" s="1"/>
-      <c r="F81" s="1"/>
-      <c r="G81" s="1"/>
-      <c r="H81" s="1"/>
-      <c r="I81" s="1"/>
-      <c r="J81" s="1"/>
-      <c r="K81" s="1"/>
-      <c r="L81" s="1"/>
+      <c r="D81" s="1" t="n">
+        <v>513.192783295186</v>
+      </c>
+      <c r="E81" s="1" t="n">
+        <v>806.066573105344</v>
+      </c>
+      <c r="F81" s="1" t="n">
+        <v>719.772343901148</v>
+      </c>
+      <c r="G81" s="1" t="n">
+        <v>966.428401224087</v>
+      </c>
+      <c r="H81" s="1" t="n">
+        <v>1363.11433425163</v>
+      </c>
+      <c r="I81" s="1" t="n">
+        <v>1062.79459549848</v>
+      </c>
+      <c r="J81" s="1" t="n">
+        <v>881.11082618807</v>
+      </c>
+      <c r="K81" s="1" t="n">
+        <v>1154.67883337213</v>
+      </c>
+      <c r="L81" s="1" t="n">
+        <v>1293.69353803949</v>
+      </c>
       <c r="M81" s="1"/>
       <c r="N81" s="1"/>
       <c r="O81" s="1"/>
@@ -23588,15 +24834,33 @@
         <v>1096.24554853104</v>
       </c>
       <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
-      <c r="E82" s="1"/>
-      <c r="F82" s="1"/>
-      <c r="G82" s="1"/>
-      <c r="H82" s="1"/>
-      <c r="I82" s="1"/>
-      <c r="J82" s="1"/>
-      <c r="K82" s="1"/>
-      <c r="L82" s="1"/>
+      <c r="D82" s="1" t="n">
+        <v>527.473125862778</v>
+      </c>
+      <c r="E82" s="1" t="n">
+        <v>821.929718205816</v>
+      </c>
+      <c r="F82" s="1" t="n">
+        <v>752.675553375073</v>
+      </c>
+      <c r="G82" s="1" t="n">
+        <v>1108.23012028732</v>
+      </c>
+      <c r="H82" s="1" t="n">
+        <v>1506.48300525678</v>
+      </c>
+      <c r="I82" s="1" t="n">
+        <v>1153.58541454571</v>
+      </c>
+      <c r="J82" s="1" t="n">
+        <v>894.32728651785</v>
+      </c>
+      <c r="K82" s="1" t="n">
+        <v>1256.65979400001</v>
+      </c>
+      <c r="L82" s="1" t="n">
+        <v>1445.12501206256</v>
+      </c>
       <c r="M82" s="1"/>
       <c r="N82" s="1"/>
       <c r="O82" s="1"/>
@@ -23609,15 +24873,33 @@
         <v>1265.99627439053</v>
       </c>
       <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
-      <c r="E83" s="1"/>
-      <c r="F83" s="1"/>
-      <c r="G83" s="1"/>
-      <c r="H83" s="1"/>
-      <c r="I83" s="1"/>
-      <c r="J83" s="1"/>
-      <c r="K83" s="1"/>
-      <c r="L83" s="1"/>
+      <c r="D83" s="1" t="n">
+        <v>580.771412296152</v>
+      </c>
+      <c r="E83" s="1" t="n">
+        <v>833.526224279264</v>
+      </c>
+      <c r="F83" s="1" t="n">
+        <v>814.8520808863</v>
+      </c>
+      <c r="G83" s="1" t="n">
+        <v>1245.29985762431</v>
+      </c>
+      <c r="H83" s="1" t="n">
+        <v>1687.21352227361</v>
+      </c>
+      <c r="I83" s="1" t="n">
+        <v>1356.05917034121</v>
+      </c>
+      <c r="J83" s="1" t="n">
+        <v>1092.21320144879</v>
+      </c>
+      <c r="K83" s="1" t="n">
+        <v>1456.14438906578</v>
+      </c>
+      <c r="L83" s="1" t="n">
+        <v>1625.04637415483</v>
+      </c>
       <c r="M83" s="1"/>
       <c r="N83" s="1"/>
       <c r="O83" s="1"/>
@@ -23629,16 +24911,36 @@
       <c r="B84" s="1" t="n">
         <v>1325.82446924763</v>
       </c>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
-      <c r="E84" s="1"/>
-      <c r="F84" s="1"/>
-      <c r="G84" s="1"/>
-      <c r="H84" s="1"/>
-      <c r="I84" s="1"/>
-      <c r="J84" s="1"/>
-      <c r="K84" s="1"/>
-      <c r="L84" s="1"/>
+      <c r="C84" s="1" t="n">
+        <v>606.103073966436</v>
+      </c>
+      <c r="D84" s="1" t="n">
+        <v>633.17014959141</v>
+      </c>
+      <c r="E84" s="1" t="n">
+        <v>878.490035564049</v>
+      </c>
+      <c r="F84" s="1" t="n">
+        <v>831.713512075785</v>
+      </c>
+      <c r="G84" s="1" t="n">
+        <v>1266.90924084085</v>
+      </c>
+      <c r="H84" s="1" t="n">
+        <v>1764.45765628982</v>
+      </c>
+      <c r="I84" s="1" t="n">
+        <v>1343.04880852303</v>
+      </c>
+      <c r="J84" s="1" t="n">
+        <v>1119.15884975424</v>
+      </c>
+      <c r="K84" s="1" t="n">
+        <v>1420.21320783312</v>
+      </c>
+      <c r="L84" s="1" t="n">
+        <v>1672.20205095905</v>
+      </c>
       <c r="M84" s="1"/>
       <c r="N84" s="1"/>
       <c r="O84" s="1"/>
@@ -28070,15 +29372,33 @@
         <v>8601.98915750264</v>
       </c>
       <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
-      <c r="I61" s="1"/>
-      <c r="J61" s="1"/>
-      <c r="K61" s="1"/>
-      <c r="L61" s="1"/>
+      <c r="D61" s="1" t="n">
+        <v>3965.05615748703</v>
+      </c>
+      <c r="E61" s="1" t="n">
+        <v>5092.64036508109</v>
+      </c>
+      <c r="F61" s="1" t="n">
+        <v>4955.51455265006</v>
+      </c>
+      <c r="G61" s="1" t="n">
+        <v>8032.12761032471</v>
+      </c>
+      <c r="H61" s="1" t="n">
+        <v>10784.1002591105</v>
+      </c>
+      <c r="I61" s="1" t="n">
+        <v>8936.93505935789</v>
+      </c>
+      <c r="J61" s="1" t="n">
+        <v>7468.62979527361</v>
+      </c>
+      <c r="K61" s="1" t="n">
+        <v>9762.38925637406</v>
+      </c>
+      <c r="L61" s="1" t="n">
+        <v>10955.3047100334</v>
+      </c>
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
       <c r="O61" s="1"/>
@@ -28091,15 +29411,33 @@
         <v>8872.80264540871</v>
       </c>
       <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
-      <c r="H62" s="1"/>
-      <c r="I62" s="1"/>
-      <c r="J62" s="1"/>
-      <c r="K62" s="1"/>
-      <c r="L62" s="1"/>
+      <c r="D62" s="1" t="n">
+        <v>4198.22548305353</v>
+      </c>
+      <c r="E62" s="1" t="n">
+        <v>5285.30660853023</v>
+      </c>
+      <c r="F62" s="1" t="n">
+        <v>4983.52826484769</v>
+      </c>
+      <c r="G62" s="1" t="n">
+        <v>8422.91013945537</v>
+      </c>
+      <c r="H62" s="1" t="n">
+        <v>11363.4461242937</v>
+      </c>
+      <c r="I62" s="1" t="n">
+        <v>8151.06018603453</v>
+      </c>
+      <c r="J62" s="1" t="n">
+        <v>7735.17368027614</v>
+      </c>
+      <c r="K62" s="1" t="n">
+        <v>11287.6555489939</v>
+      </c>
+      <c r="L62" s="1" t="n">
+        <v>11367.2694745277</v>
+      </c>
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
       <c r="O62" s="1"/>
@@ -28112,15 +29450,33 @@
         <v>9458.6857308056</v>
       </c>
       <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
-      <c r="I63" s="1"/>
-      <c r="J63" s="1"/>
-      <c r="K63" s="1"/>
-      <c r="L63" s="1"/>
+      <c r="D63" s="1" t="n">
+        <v>4152.51899593964</v>
+      </c>
+      <c r="E63" s="1" t="n">
+        <v>5733.29769532369</v>
+      </c>
+      <c r="F63" s="1" t="n">
+        <v>5307.88949609352</v>
+      </c>
+      <c r="G63" s="1" t="n">
+        <v>8988.07862358009</v>
+      </c>
+      <c r="H63" s="1" t="n">
+        <v>11997.3527633232</v>
+      </c>
+      <c r="I63" s="1" t="n">
+        <v>9458.90238359351</v>
+      </c>
+      <c r="J63" s="1" t="n">
+        <v>8091.27802151334</v>
+      </c>
+      <c r="K63" s="1" t="n">
+        <v>10097.5832387166</v>
+      </c>
+      <c r="L63" s="1" t="n">
+        <v>12121.5659805512</v>
+      </c>
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
       <c r="O63" s="1"/>
@@ -28133,15 +29489,33 @@
         <v>9309.86434161116</v>
       </c>
       <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
-      <c r="H64" s="1"/>
-      <c r="I64" s="1"/>
-      <c r="J64" s="1"/>
-      <c r="K64" s="1"/>
-      <c r="L64" s="1"/>
+      <c r="D64" s="1" t="n">
+        <v>4477.43250216229</v>
+      </c>
+      <c r="E64" s="1" t="n">
+        <v>5835.52072543841</v>
+      </c>
+      <c r="F64" s="1" t="n">
+        <v>5339.12229423452</v>
+      </c>
+      <c r="G64" s="1" t="n">
+        <v>9362.50016316327</v>
+      </c>
+      <c r="H64" s="1" t="n">
+        <v>12487.3396923588</v>
+      </c>
+      <c r="I64" s="1" t="n">
+        <v>8714.32031174848</v>
+      </c>
+      <c r="J64" s="1" t="n">
+        <v>5274.42644149264</v>
+      </c>
+      <c r="K64" s="1" t="n">
+        <v>8578.82989017594</v>
+      </c>
+      <c r="L64" s="1" t="n">
+        <v>12520.646798514</v>
+      </c>
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
       <c r="O64" s="1"/>
@@ -28154,15 +29528,33 @@
         <v>8615.9893424918</v>
       </c>
       <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
-      <c r="H65" s="1"/>
-      <c r="I65" s="1"/>
-      <c r="J65" s="1"/>
-      <c r="K65" s="1"/>
-      <c r="L65" s="1"/>
+      <c r="D65" s="1" t="n">
+        <v>3771.6316033239</v>
+      </c>
+      <c r="E65" s="1" t="n">
+        <v>5601.53561097268</v>
+      </c>
+      <c r="F65" s="1" t="n">
+        <v>5059.33007432362</v>
+      </c>
+      <c r="G65" s="1" t="n">
+        <v>8786.23273639269</v>
+      </c>
+      <c r="H65" s="1" t="n">
+        <v>11812.0913160012</v>
+      </c>
+      <c r="I65" s="1" t="n">
+        <v>8232.67280366691</v>
+      </c>
+      <c r="J65" s="1" t="n">
+        <v>4544.91932424388</v>
+      </c>
+      <c r="K65" s="1" t="n">
+        <v>7807.5956113648</v>
+      </c>
+      <c r="L65" s="1" t="n">
+        <v>11542.6381299898</v>
+      </c>
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
       <c r="O65" s="1"/>
@@ -28175,15 +29567,33 @@
         <v>7717.13438567541</v>
       </c>
       <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
-      <c r="H66" s="1"/>
-      <c r="I66" s="1"/>
-      <c r="J66" s="1"/>
-      <c r="K66" s="1"/>
-      <c r="L66" s="1"/>
+      <c r="D66" s="1" t="n">
+        <v>3347.72148300023</v>
+      </c>
+      <c r="E66" s="1" t="n">
+        <v>5273.42305954153</v>
+      </c>
+      <c r="F66" s="1" t="n">
+        <v>4751.51487862416</v>
+      </c>
+      <c r="G66" s="1" t="n">
+        <v>8312.31738431327</v>
+      </c>
+      <c r="H66" s="1" t="n">
+        <v>11150.1697092736</v>
+      </c>
+      <c r="I66" s="1" t="n">
+        <v>6925.35906473148</v>
+      </c>
+      <c r="J66" s="1" t="n">
+        <v>3050.13523862299</v>
+      </c>
+      <c r="K66" s="1" t="n">
+        <v>6179.93733138185</v>
+      </c>
+      <c r="L66" s="1" t="n">
+        <v>10746.1541244615</v>
+      </c>
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
       <c r="O66" s="1"/>
@@ -28196,15 +29606,33 @@
         <v>6770.29959582319</v>
       </c>
       <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
-      <c r="H67" s="1"/>
-      <c r="I67" s="1"/>
-      <c r="J67" s="1"/>
-      <c r="K67" s="1"/>
-      <c r="L67" s="1"/>
+      <c r="D67" s="1" t="n">
+        <v>2941.2858018692</v>
+      </c>
+      <c r="E67" s="1" t="n">
+        <v>4666.24441555436</v>
+      </c>
+      <c r="F67" s="1" t="n">
+        <v>4068.19497293417</v>
+      </c>
+      <c r="G67" s="1" t="n">
+        <v>7381.7653067678</v>
+      </c>
+      <c r="H67" s="1" t="n">
+        <v>9857.99225878619</v>
+      </c>
+      <c r="I67" s="1" t="n">
+        <v>6587.52565743328</v>
+      </c>
+      <c r="J67" s="1" t="n">
+        <v>3374.18041269188</v>
+      </c>
+      <c r="K67" s="1" t="n">
+        <v>5724.76871950572</v>
+      </c>
+      <c r="L67" s="1" t="n">
+        <v>9698.18244960244</v>
+      </c>
       <c r="M67" s="1"/>
       <c r="N67" s="1"/>
       <c r="O67" s="1"/>
@@ -28217,15 +29645,33 @@
         <v>6472.18988575108</v>
       </c>
       <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
-      <c r="H68" s="1"/>
-      <c r="I68" s="1"/>
-      <c r="J68" s="1"/>
-      <c r="K68" s="1"/>
-      <c r="L68" s="1"/>
+      <c r="D68" s="1" t="n">
+        <v>2835.7811465126</v>
+      </c>
+      <c r="E68" s="1" t="n">
+        <v>4741.25446693086</v>
+      </c>
+      <c r="F68" s="1" t="n">
+        <v>4024.00100346323</v>
+      </c>
+      <c r="G68" s="1" t="n">
+        <v>7149.35791206153</v>
+      </c>
+      <c r="H68" s="1" t="n">
+        <v>9718.19369189078</v>
+      </c>
+      <c r="I68" s="1" t="n">
+        <v>6257.81987798635</v>
+      </c>
+      <c r="J68" s="1" t="n">
+        <v>2816.13021474842</v>
+      </c>
+      <c r="K68" s="1" t="n">
+        <v>5099.75360049267</v>
+      </c>
+      <c r="L68" s="1" t="n">
+        <v>9543.17358021216</v>
+      </c>
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
       <c r="O68" s="1"/>
@@ -28238,15 +29684,33 @@
         <v>7181.16761854477</v>
       </c>
       <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
-      <c r="H69" s="1"/>
-      <c r="I69" s="1"/>
-      <c r="J69" s="1"/>
-      <c r="K69" s="1"/>
-      <c r="L69" s="1"/>
+      <c r="D69" s="1" t="n">
+        <v>2995.37369254604</v>
+      </c>
+      <c r="E69" s="1" t="n">
+        <v>5002.22400543234</v>
+      </c>
+      <c r="F69" s="1" t="n">
+        <v>4253.29927013852</v>
+      </c>
+      <c r="G69" s="1" t="n">
+        <v>7689.33886121646</v>
+      </c>
+      <c r="H69" s="1" t="n">
+        <v>10516.997235793</v>
+      </c>
+      <c r="I69" s="1" t="n">
+        <v>6854.26969711327</v>
+      </c>
+      <c r="J69" s="1" t="n">
+        <v>3475.33158567962</v>
+      </c>
+      <c r="K69" s="1" t="n">
+        <v>6254.50227228376</v>
+      </c>
+      <c r="L69" s="1" t="n">
+        <v>10107.6142644025</v>
+      </c>
       <c r="M69" s="1"/>
       <c r="N69" s="1"/>
       <c r="O69" s="1"/>
@@ -28259,15 +29723,33 @@
         <v>7601.65585342415</v>
       </c>
       <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
-      <c r="H70" s="1"/>
-      <c r="I70" s="1"/>
-      <c r="J70" s="1"/>
-      <c r="K70" s="1"/>
-      <c r="L70" s="1"/>
+      <c r="D70" s="1" t="n">
+        <v>3597.96550388406</v>
+      </c>
+      <c r="E70" s="1" t="n">
+        <v>5340.22251834365</v>
+      </c>
+      <c r="F70" s="1" t="n">
+        <v>4513.67295838921</v>
+      </c>
+      <c r="G70" s="1" t="n">
+        <v>7900.74572670241</v>
+      </c>
+      <c r="H70" s="1" t="n">
+        <v>10982.2826976034</v>
+      </c>
+      <c r="I70" s="1" t="n">
+        <v>6821.41735773813</v>
+      </c>
+      <c r="J70" s="1" t="n">
+        <v>4228.59446809616</v>
+      </c>
+      <c r="K70" s="1" t="n">
+        <v>6246.2466484093</v>
+      </c>
+      <c r="L70" s="1" t="n">
+        <v>10725.0711369486</v>
+      </c>
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
       <c r="O70" s="1"/>
@@ -28280,15 +29762,33 @@
         <v>8002.05198712647</v>
       </c>
       <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1"/>
-      <c r="H71" s="1"/>
-      <c r="I71" s="1"/>
-      <c r="J71" s="1"/>
-      <c r="K71" s="1"/>
-      <c r="L71" s="1"/>
+      <c r="D71" s="1" t="n">
+        <v>3730.45458790598</v>
+      </c>
+      <c r="E71" s="1" t="n">
+        <v>5679.21292083502</v>
+      </c>
+      <c r="F71" s="1" t="n">
+        <v>4912.25264764091</v>
+      </c>
+      <c r="G71" s="1" t="n">
+        <v>8317.22912002245</v>
+      </c>
+      <c r="H71" s="1" t="n">
+        <v>11277.355997016</v>
+      </c>
+      <c r="I71" s="1" t="n">
+        <v>7254.09318622513</v>
+      </c>
+      <c r="J71" s="1" t="n">
+        <v>4051.89670064109</v>
+      </c>
+      <c r="K71" s="1" t="n">
+        <v>6227.50665775772</v>
+      </c>
+      <c r="L71" s="1" t="n">
+        <v>11268.251373252</v>
+      </c>
       <c r="M71" s="1"/>
       <c r="N71" s="1"/>
       <c r="O71" s="1"/>
@@ -28301,15 +29801,33 @@
         <v>8622.81150122054</v>
       </c>
       <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
-      <c r="G72" s="1"/>
-      <c r="H72" s="1"/>
-      <c r="I72" s="1"/>
-      <c r="J72" s="1"/>
-      <c r="K72" s="1"/>
-      <c r="L72" s="1"/>
+      <c r="D72" s="1" t="n">
+        <v>4215.30770551024</v>
+      </c>
+      <c r="E72" s="1" t="n">
+        <v>6117.80341420258</v>
+      </c>
+      <c r="F72" s="1" t="n">
+        <v>5258.36992076992</v>
+      </c>
+      <c r="G72" s="1" t="n">
+        <v>8795.29961046955</v>
+      </c>
+      <c r="H72" s="1" t="n">
+        <v>12100.027782321</v>
+      </c>
+      <c r="I72" s="1" t="n">
+        <v>8854.22708022629</v>
+      </c>
+      <c r="J72" s="1" t="n">
+        <v>3312.57135796612</v>
+      </c>
+      <c r="K72" s="1" t="n">
+        <v>7920.15525136348</v>
+      </c>
+      <c r="L72" s="1" t="n">
+        <v>11913.351717111</v>
+      </c>
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
       <c r="O72" s="1"/>
@@ -28322,15 +29840,33 @@
         <v>8590.59200857498</v>
       </c>
       <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
-      <c r="G73" s="1"/>
-      <c r="H73" s="1"/>
-      <c r="I73" s="1"/>
-      <c r="J73" s="1"/>
-      <c r="K73" s="1"/>
-      <c r="L73" s="1"/>
+      <c r="D73" s="1" t="n">
+        <v>3961.22888320374</v>
+      </c>
+      <c r="E73" s="1" t="n">
+        <v>6051.62291274445</v>
+      </c>
+      <c r="F73" s="1" t="n">
+        <v>5056.28518134255</v>
+      </c>
+      <c r="G73" s="1" t="n">
+        <v>8688.65590108926</v>
+      </c>
+      <c r="H73" s="1" t="n">
+        <v>12086.838303596</v>
+      </c>
+      <c r="I73" s="1" t="n">
+        <v>7773.97279592853</v>
+      </c>
+      <c r="J73" s="1" t="n">
+        <v>4455.80980305332</v>
+      </c>
+      <c r="K73" s="1" t="n">
+        <v>8388.97161601818</v>
+      </c>
+      <c r="L73" s="1" t="n">
+        <v>11985.7657183259</v>
+      </c>
       <c r="M73" s="1"/>
       <c r="N73" s="1"/>
       <c r="O73" s="1"/>
@@ -28343,15 +29879,33 @@
         <v>9065.79185702573</v>
       </c>
       <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
-      <c r="G74" s="1"/>
-      <c r="H74" s="1"/>
-      <c r="I74" s="1"/>
-      <c r="J74" s="1"/>
-      <c r="K74" s="1"/>
-      <c r="L74" s="1"/>
+      <c r="D74" s="1" t="n">
+        <v>4381.3592193011</v>
+      </c>
+      <c r="E74" s="1" t="n">
+        <v>6178.14445964969</v>
+      </c>
+      <c r="F74" s="1" t="n">
+        <v>5289.62013820715</v>
+      </c>
+      <c r="G74" s="1" t="n">
+        <v>8952.45876113525</v>
+      </c>
+      <c r="H74" s="1" t="n">
+        <v>12543.1942674812</v>
+      </c>
+      <c r="I74" s="1" t="n">
+        <v>8094.67328657943</v>
+      </c>
+      <c r="J74" s="1" t="n">
+        <v>6028.57616489054</v>
+      </c>
+      <c r="K74" s="1" t="n">
+        <v>8100.10496708953</v>
+      </c>
+      <c r="L74" s="1" t="n">
+        <v>12105.6233755092</v>
+      </c>
       <c r="M74" s="1"/>
       <c r="N74" s="1"/>
       <c r="O74" s="1"/>
@@ -28364,15 +29918,33 @@
         <v>10316.6195418662</v>
       </c>
       <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
-      <c r="F75" s="1"/>
-      <c r="G75" s="1"/>
-      <c r="H75" s="1"/>
-      <c r="I75" s="1"/>
-      <c r="J75" s="1"/>
-      <c r="K75" s="1"/>
-      <c r="L75" s="1"/>
+      <c r="D75" s="1" t="n">
+        <v>4357.62685686322</v>
+      </c>
+      <c r="E75" s="1" t="n">
+        <v>6793.28248827628</v>
+      </c>
+      <c r="F75" s="1" t="n">
+        <v>5831.18640639421</v>
+      </c>
+      <c r="G75" s="1" t="n">
+        <v>9491.92157786228</v>
+      </c>
+      <c r="H75" s="1" t="n">
+        <v>13817.1000701359</v>
+      </c>
+      <c r="I75" s="1" t="n">
+        <v>8805.33834001616</v>
+      </c>
+      <c r="J75" s="1" t="n">
+        <v>6061.41444185925</v>
+      </c>
+      <c r="K75" s="1" t="n">
+        <v>9122.71066249259</v>
+      </c>
+      <c r="L75" s="1" t="n">
+        <v>12855.763759646</v>
+      </c>
       <c r="M75" s="1"/>
       <c r="N75" s="1"/>
       <c r="O75" s="1"/>
@@ -28385,15 +29957,33 @@
         <v>11848.0087256203</v>
       </c>
       <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
-      <c r="G76" s="1"/>
-      <c r="H76" s="1"/>
-      <c r="I76" s="1"/>
-      <c r="J76" s="1"/>
-      <c r="K76" s="1"/>
-      <c r="L76" s="1"/>
+      <c r="D76" s="1" t="n">
+        <v>4275.27925152571</v>
+      </c>
+      <c r="E76" s="1" t="n">
+        <v>7545.10386225864</v>
+      </c>
+      <c r="F76" s="1" t="n">
+        <v>6331.90390852966</v>
+      </c>
+      <c r="G76" s="1" t="n">
+        <v>10616.8814941623</v>
+      </c>
+      <c r="H76" s="1" t="n">
+        <v>15772.7623111508</v>
+      </c>
+      <c r="I76" s="1" t="n">
+        <v>9916.59983036195</v>
+      </c>
+      <c r="J76" s="1" t="n">
+        <v>5612.49811220036</v>
+      </c>
+      <c r="K76" s="1" t="n">
+        <v>8871.26979854654</v>
+      </c>
+      <c r="L76" s="1" t="n">
+        <v>14032.4759277426</v>
+      </c>
       <c r="M76" s="1"/>
       <c r="N76" s="1"/>
       <c r="O76" s="1"/>
@@ -28406,15 +29996,33 @@
         <v>14005.3009594347</v>
       </c>
       <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
-      <c r="G77" s="1"/>
-      <c r="H77" s="1"/>
-      <c r="I77" s="1"/>
-      <c r="J77" s="1"/>
-      <c r="K77" s="1"/>
-      <c r="L77" s="1"/>
+      <c r="D77" s="1" t="n">
+        <v>5297.14332096096</v>
+      </c>
+      <c r="E77" s="1" t="n">
+        <v>8890.57177676432</v>
+      </c>
+      <c r="F77" s="1" t="n">
+        <v>7251.61295630741</v>
+      </c>
+      <c r="G77" s="1" t="n">
+        <v>12030.0418611133</v>
+      </c>
+      <c r="H77" s="1" t="n">
+        <v>17680.4962308712</v>
+      </c>
+      <c r="I77" s="1" t="n">
+        <v>11779.4134164734</v>
+      </c>
+      <c r="J77" s="1" t="n">
+        <v>11432.6556174861</v>
+      </c>
+      <c r="K77" s="1" t="n">
+        <v>13655.1645303497</v>
+      </c>
+      <c r="L77" s="1" t="n">
+        <v>16155.1891158623</v>
+      </c>
       <c r="M77" s="1"/>
       <c r="N77" s="1"/>
       <c r="O77" s="1"/>
@@ -28427,15 +30035,33 @@
         <v>14569.0385802798</v>
       </c>
       <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
-      <c r="F78" s="1"/>
-      <c r="G78" s="1"/>
-      <c r="H78" s="1"/>
-      <c r="I78" s="1"/>
-      <c r="J78" s="1"/>
-      <c r="K78" s="1"/>
-      <c r="L78" s="1"/>
+      <c r="D78" s="1" t="n">
+        <v>6012.99873252241</v>
+      </c>
+      <c r="E78" s="1" t="n">
+        <v>9845.40934502405</v>
+      </c>
+      <c r="F78" s="1" t="n">
+        <v>8167.04756658972</v>
+      </c>
+      <c r="G78" s="1" t="n">
+        <v>12958.4268021812</v>
+      </c>
+      <c r="H78" s="1" t="n">
+        <v>19002.8147479349</v>
+      </c>
+      <c r="I78" s="1" t="n">
+        <v>12324.2760483234</v>
+      </c>
+      <c r="J78" s="1" t="n">
+        <v>8905.01519257187</v>
+      </c>
+      <c r="K78" s="1" t="n">
+        <v>11710.8591533838</v>
+      </c>
+      <c r="L78" s="1" t="n">
+        <v>17855.6280099077</v>
+      </c>
       <c r="M78" s="1"/>
       <c r="N78" s="1"/>
       <c r="O78" s="1"/>
@@ -28448,15 +30074,33 @@
         <v>15250.0869820111</v>
       </c>
       <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
-      <c r="F79" s="1"/>
-      <c r="G79" s="1"/>
-      <c r="H79" s="1"/>
-      <c r="I79" s="1"/>
-      <c r="J79" s="1"/>
-      <c r="K79" s="1"/>
-      <c r="L79" s="1"/>
+      <c r="D79" s="1" t="n">
+        <v>6476.77850732372</v>
+      </c>
+      <c r="E79" s="1" t="n">
+        <v>10468.4976016884</v>
+      </c>
+      <c r="F79" s="1" t="n">
+        <v>8717.20808973181</v>
+      </c>
+      <c r="G79" s="1" t="n">
+        <v>13283.8340344272</v>
+      </c>
+      <c r="H79" s="1" t="n">
+        <v>19715.835713197</v>
+      </c>
+      <c r="I79" s="1" t="n">
+        <v>13260.0100498219</v>
+      </c>
+      <c r="J79" s="1" t="n">
+        <v>13392.4601735393</v>
+      </c>
+      <c r="K79" s="1" t="n">
+        <v>14485.2235745875</v>
+      </c>
+      <c r="L79" s="1" t="n">
+        <v>17701.6698248314</v>
+      </c>
       <c r="M79" s="1"/>
       <c r="N79" s="1"/>
       <c r="O79" s="1"/>
@@ -28469,15 +30113,33 @@
         <v>14945.7823772625</v>
       </c>
       <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
-      <c r="E80" s="1"/>
-      <c r="F80" s="1"/>
-      <c r="G80" s="1"/>
-      <c r="H80" s="1"/>
-      <c r="I80" s="1"/>
-      <c r="J80" s="1"/>
-      <c r="K80" s="1"/>
-      <c r="L80" s="1"/>
+      <c r="D80" s="1" t="n">
+        <v>7196.71088043887</v>
+      </c>
+      <c r="E80" s="1" t="n">
+        <v>10745.6992476247</v>
+      </c>
+      <c r="F80" s="1" t="n">
+        <v>9537.88339303161</v>
+      </c>
+      <c r="G80" s="1" t="n">
+        <v>13503.5156643316</v>
+      </c>
+      <c r="H80" s="1" t="n">
+        <v>20097.6402439077</v>
+      </c>
+      <c r="I80" s="1" t="n">
+        <v>13624.4503067656</v>
+      </c>
+      <c r="J80" s="1" t="n">
+        <v>10837.5392183372</v>
+      </c>
+      <c r="K80" s="1" t="n">
+        <v>13848.2012641602</v>
+      </c>
+      <c r="L80" s="1" t="n">
+        <v>18228.1891798763</v>
+      </c>
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
       <c r="O80" s="1"/>
@@ -28490,15 +30152,33 @@
         <v>14392.6233060143</v>
       </c>
       <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
-      <c r="E81" s="1"/>
-      <c r="F81" s="1"/>
-      <c r="G81" s="1"/>
-      <c r="H81" s="1"/>
-      <c r="I81" s="1"/>
-      <c r="J81" s="1"/>
-      <c r="K81" s="1"/>
-      <c r="L81" s="1"/>
+      <c r="D81" s="1" t="n">
+        <v>7479.51184164261</v>
+      </c>
+      <c r="E81" s="1" t="n">
+        <v>11747.9915441949</v>
+      </c>
+      <c r="F81" s="1" t="n">
+        <v>10490.2990547295</v>
+      </c>
+      <c r="G81" s="1" t="n">
+        <v>14085.1798901808</v>
+      </c>
+      <c r="H81" s="1" t="n">
+        <v>19866.6663609014</v>
+      </c>
+      <c r="I81" s="1" t="n">
+        <v>15489.6659131161</v>
+      </c>
+      <c r="J81" s="1" t="n">
+        <v>12841.7216157197</v>
+      </c>
+      <c r="K81" s="1" t="n">
+        <v>16828.82980553</v>
+      </c>
+      <c r="L81" s="1" t="n">
+        <v>18854.8951820649</v>
+      </c>
       <c r="M81" s="1"/>
       <c r="N81" s="1"/>
       <c r="O81" s="1"/>
@@ -28511,15 +30191,33 @@
         <v>14581.1301115294</v>
       </c>
       <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
-      <c r="E82" s="1"/>
-      <c r="F82" s="1"/>
-      <c r="G82" s="1"/>
-      <c r="H82" s="1"/>
-      <c r="I82" s="1"/>
-      <c r="J82" s="1"/>
-      <c r="K82" s="1"/>
-      <c r="L82" s="1"/>
+      <c r="D82" s="1" t="n">
+        <v>7015.90468380589</v>
+      </c>
+      <c r="E82" s="1" t="n">
+        <v>10932.463242155</v>
+      </c>
+      <c r="F82" s="1" t="n">
+        <v>10011.3156128529</v>
+      </c>
+      <c r="G82" s="1" t="n">
+        <v>14740.5365513945</v>
+      </c>
+      <c r="H82" s="1" t="n">
+        <v>20037.6865747746</v>
+      </c>
+      <c r="I82" s="1" t="n">
+        <v>15343.8059992973</v>
+      </c>
+      <c r="J82" s="1" t="n">
+        <v>11895.4211896064</v>
+      </c>
+      <c r="K82" s="1" t="n">
+        <v>16714.7953182526</v>
+      </c>
+      <c r="L82" s="1" t="n">
+        <v>19221.5656944243</v>
+      </c>
       <c r="M82" s="1"/>
       <c r="N82" s="1"/>
       <c r="O82" s="1"/>
@@ -28532,15 +30230,33 @@
         <v>14698.4313213138</v>
       </c>
       <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
-      <c r="E83" s="1"/>
-      <c r="F83" s="1"/>
-      <c r="G83" s="1"/>
-      <c r="H83" s="1"/>
-      <c r="I83" s="1"/>
-      <c r="J83" s="1"/>
-      <c r="K83" s="1"/>
-      <c r="L83" s="1"/>
+      <c r="D83" s="1" t="n">
+        <v>6742.85453259092</v>
+      </c>
+      <c r="E83" s="1" t="n">
+        <v>9677.38073951349</v>
+      </c>
+      <c r="F83" s="1" t="n">
+        <v>9460.57076961212</v>
+      </c>
+      <c r="G83" s="1" t="n">
+        <v>14458.1424147908</v>
+      </c>
+      <c r="H83" s="1" t="n">
+        <v>19588.8349619902</v>
+      </c>
+      <c r="I83" s="1" t="n">
+        <v>15744.0768081988</v>
+      </c>
+      <c r="J83" s="1" t="n">
+        <v>12680.7803897021</v>
+      </c>
+      <c r="K83" s="1" t="n">
+        <v>16906.0831611874</v>
+      </c>
+      <c r="L83" s="1" t="n">
+        <v>18867.0638355265</v>
+      </c>
       <c r="M83" s="1"/>
       <c r="N83" s="1"/>
       <c r="O83" s="1"/>
@@ -28552,16 +30268,36 @@
       <c r="B84" s="1" t="n">
         <v>14888.3567448299</v>
       </c>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
-      <c r="E84" s="1"/>
-      <c r="F84" s="1"/>
-      <c r="G84" s="1"/>
-      <c r="H84" s="1"/>
-      <c r="I84" s="1"/>
-      <c r="J84" s="1"/>
-      <c r="K84" s="1"/>
-      <c r="L84" s="1"/>
+      <c r="C84" s="1" t="n">
+        <v>6806.23943716407</v>
+      </c>
+      <c r="D84" s="1" t="n">
+        <v>7110.189384756</v>
+      </c>
+      <c r="E84" s="1" t="n">
+        <v>9865.01105510449</v>
+      </c>
+      <c r="F84" s="1" t="n">
+        <v>9339.7337011789</v>
+      </c>
+      <c r="G84" s="1" t="n">
+        <v>14226.7677045243</v>
+      </c>
+      <c r="H84" s="1" t="n">
+        <v>19813.9917140742</v>
+      </c>
+      <c r="I84" s="1" t="n">
+        <v>15081.7776039061</v>
+      </c>
+      <c r="J84" s="1" t="n">
+        <v>12567.6034767484</v>
+      </c>
+      <c r="K84" s="1" t="n">
+        <v>15948.2958584539</v>
+      </c>
+      <c r="L84" s="1" t="n">
+        <v>18778.0066378189</v>
+      </c>
       <c r="M84" s="1"/>
       <c r="N84" s="1"/>
       <c r="O84" s="1"/>

--- a/FON Macroeconomic Data.xlsx
+++ b/FON Macroeconomic Data.xlsx
@@ -34622,31 +34622,31 @@
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="1" t="n">
-        <v>12910.3993742123</v>
+        <v>12478.1050471707</v>
       </c>
       <c r="E61" s="1" t="n">
-        <v>16873.9070662456</v>
+        <v>16308.8978757215</v>
       </c>
       <c r="F61" s="1" t="n">
-        <v>16847.6063840332</v>
+        <v>16283.4778506746</v>
       </c>
       <c r="G61" s="1" t="n">
-        <v>22108.2185977368</v>
+        <v>21367.9427004714</v>
       </c>
       <c r="H61" s="1" t="n">
-        <v>24378.2741975949</v>
+        <v>27010.4535453009</v>
       </c>
       <c r="I61" s="1" t="n">
-        <v>25554.3000267073</v>
+        <v>22993.7471067471</v>
       </c>
       <c r="J61" s="1" t="n">
-        <v>21656.4333355312</v>
+        <v>19486.4484971571</v>
       </c>
       <c r="K61" s="1" t="n">
-        <v>26537.9626451402</v>
+        <v>23878.8462666915</v>
       </c>
       <c r="L61" s="1" t="n">
-        <v>22327.3442789812</v>
+        <v>21579.7311347287</v>
       </c>
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
@@ -34661,31 +34661,31 @@
       </c>
       <c r="C62" s="1"/>
       <c r="D62" s="1" t="n">
-        <v>13052.9785364078</v>
+        <v>12611.6016765997</v>
       </c>
       <c r="E62" s="1" t="n">
-        <v>16722.3134716267</v>
+        <v>16156.8607522918</v>
       </c>
       <c r="F62" s="1" t="n">
-        <v>16254.0056509456</v>
+        <v>15704.388415806</v>
       </c>
       <c r="G62" s="1" t="n">
-        <v>22526.0132923299</v>
+        <v>21764.3127361517</v>
       </c>
       <c r="H62" s="1" t="n">
-        <v>24549.7265598345</v>
+        <v>27191.1289677435</v>
       </c>
       <c r="I62" s="1" t="n">
-        <v>22563.1912835622</v>
+        <v>20295.4155366751</v>
       </c>
       <c r="J62" s="1" t="n">
-        <v>22025.588228907</v>
+        <v>19811.8457592047</v>
       </c>
       <c r="K62" s="1" t="n">
-        <v>29050.7773750773</v>
+        <v>26130.948901726</v>
       </c>
       <c r="L62" s="1" t="n">
-        <v>23511.4583052376</v>
+        <v>22716.4356514173</v>
       </c>
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
@@ -34700,31 +34700,31 @@
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="1" t="n">
-        <v>13293.1048541881</v>
+        <v>12848.6822064158</v>
       </c>
       <c r="E63" s="1" t="n">
-        <v>18676.7629081835</v>
+        <v>18052.3507400318</v>
       </c>
       <c r="F63" s="1" t="n">
-        <v>17790.3143819697</v>
+        <v>17195.5384655031</v>
       </c>
       <c r="G63" s="1" t="n">
-        <v>24845.3751054121</v>
+        <v>24014.7303831775</v>
       </c>
       <c r="H63" s="1" t="n">
-        <v>25799.1277673496</v>
+        <v>28586.2468289546</v>
       </c>
       <c r="I63" s="1" t="n">
-        <v>25507.7568589281</v>
+        <v>22953.0935396109</v>
       </c>
       <c r="J63" s="1" t="n">
-        <v>22050.9293529506</v>
+        <v>19842.4756387966</v>
       </c>
       <c r="K63" s="1" t="n">
-        <v>25277.6930569644</v>
+        <v>22746.0711818334</v>
       </c>
       <c r="L63" s="1" t="n">
-        <v>25818.7383153263</v>
+        <v>24955.5515602303</v>
       </c>
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
@@ -34739,31 +34739,31 @@
       </c>
       <c r="C64" s="1"/>
       <c r="D64" s="1" t="n">
-        <v>14046.999313635</v>
+        <v>13569.1402512206</v>
       </c>
       <c r="E64" s="1" t="n">
-        <v>18630.1537899885</v>
+        <v>17996.3822901865</v>
       </c>
       <c r="F64" s="1" t="n">
-        <v>17318.5073504484</v>
+        <v>16729.3562086193</v>
       </c>
       <c r="G64" s="1" t="n">
-        <v>26418.6269173724</v>
+        <v>25519.9025701193</v>
       </c>
       <c r="H64" s="1" t="n">
-        <v>26432.0716632601</v>
+        <v>29269.8119418274</v>
       </c>
       <c r="I64" s="1" t="n">
-        <v>23284.0536404499</v>
+        <v>20939.3965688869</v>
       </c>
       <c r="J64" s="1" t="n">
-        <v>14587.0046279507</v>
+        <v>13118.1227879591</v>
       </c>
       <c r="K64" s="1" t="n">
-        <v>21547.7290915286</v>
+        <v>19377.9163874895</v>
       </c>
       <c r="L64" s="1" t="n">
-        <v>27390.3778471443</v>
+        <v>26458.5959067474</v>
       </c>
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
@@ -34778,31 +34778,31 @@
       </c>
       <c r="C65" s="1"/>
       <c r="D65" s="1" t="n">
-        <v>11135.6708531211</v>
+        <v>10764.0507692031</v>
       </c>
       <c r="E65" s="1" t="n">
-        <v>16829.7060750245</v>
+        <v>16268.0644041805</v>
       </c>
       <c r="F65" s="1" t="n">
-        <v>15914.4165847199</v>
+        <v>15383.3199938879</v>
       </c>
       <c r="G65" s="1" t="n">
-        <v>25473.6654183836</v>
+        <v>24623.5571666813</v>
       </c>
       <c r="H65" s="1" t="n">
-        <v>26747.9515660072</v>
+        <v>29639.4294115229</v>
       </c>
       <c r="I65" s="1" t="n">
-        <v>23661.9951274897</v>
+        <v>21293.5226098675</v>
       </c>
       <c r="J65" s="1" t="n">
-        <v>13636.2491454794</v>
+        <v>12271.3143134628</v>
       </c>
       <c r="K65" s="1" t="n">
-        <v>21400.8541915161</v>
+        <v>19258.7129759024</v>
       </c>
       <c r="L65" s="1" t="n">
-        <v>26248.1503491704</v>
+        <v>25372.1959532377</v>
       </c>
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
@@ -34817,31 +34817,31 @@
       </c>
       <c r="C66" s="1"/>
       <c r="D66" s="1" t="n">
-        <v>9789.44967525936</v>
+        <v>9483.26278860148</v>
       </c>
       <c r="E66" s="1" t="n">
-        <v>15686.0839391244</v>
+        <v>15195.4666557736</v>
       </c>
       <c r="F66" s="1" t="n">
-        <v>14362.3664244347</v>
+        <v>13913.1513606246</v>
       </c>
       <c r="G66" s="1" t="n">
-        <v>23937.1823617228</v>
+        <v>23188.4935604287</v>
       </c>
       <c r="H66" s="1" t="n">
-        <v>25874.700442297</v>
+        <v>28733.9145959635</v>
       </c>
       <c r="I66" s="1" t="n">
-        <v>18933.850687953</v>
+        <v>17075.5718136705</v>
       </c>
       <c r="J66" s="1" t="n">
-        <v>8757.05494044997</v>
+        <v>7897.58633763036</v>
       </c>
       <c r="K66" s="1" t="n">
-        <v>16450.5205929073</v>
+        <v>14835.9702622553</v>
       </c>
       <c r="L66" s="1" t="n">
-        <v>25320.3023098767</v>
+        <v>24528.3533453612</v>
       </c>
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
@@ -34856,31 +34856,31 @@
       </c>
       <c r="C67" s="1"/>
       <c r="D67" s="1" t="n">
-        <v>8643.20963619907</v>
+        <v>8352.89179534804</v>
       </c>
       <c r="E67" s="1" t="n">
-        <v>13953.6432031149</v>
+        <v>13484.9525503084</v>
       </c>
       <c r="F67" s="1" t="n">
-        <v>13466.2804150827</v>
+        <v>13013.9598514315</v>
       </c>
       <c r="G67" s="1" t="n">
-        <v>22361.1882194069</v>
+        <v>21610.0954939068</v>
       </c>
       <c r="H67" s="1" t="n">
-        <v>23139.8181948223</v>
+        <v>25635.495140876</v>
       </c>
       <c r="I67" s="1" t="n">
-        <v>19979.1664334227</v>
+        <v>17975.2928392836</v>
       </c>
       <c r="J67" s="1" t="n">
-        <v>10353.6542948506</v>
+        <v>9315.20183921724</v>
       </c>
       <c r="K67" s="1" t="n">
-        <v>16872.1722455619</v>
+        <v>15179.9244457694</v>
       </c>
       <c r="L67" s="1" t="n">
-        <v>24183.059881585</v>
+        <v>23370.7720827806</v>
       </c>
       <c r="M67" s="1"/>
       <c r="N67" s="1"/>
@@ -34895,31 +34895,31 @@
       </c>
       <c r="C68" s="1"/>
       <c r="D68" s="1" t="n">
-        <v>8833.4881408295</v>
+        <v>8539.11711643323</v>
       </c>
       <c r="E68" s="1" t="n">
-        <v>15029.17338859</v>
+        <v>14528.3346377257</v>
       </c>
       <c r="F68" s="1" t="n">
-        <v>13267.2019196519</v>
+        <v>12825.0798770685</v>
       </c>
       <c r="G68" s="1" t="n">
-        <v>21695.7353575278</v>
+        <v>20972.7371782802</v>
       </c>
       <c r="H68" s="1" t="n">
-        <v>22978.1918712652</v>
+        <v>25463.4092493861</v>
       </c>
       <c r="I68" s="1" t="n">
-        <v>19206.0236891621</v>
+        <v>17284.4275557633</v>
       </c>
       <c r="J68" s="1" t="n">
-        <v>8545.77799648688</v>
+        <v>7690.75801834323</v>
       </c>
       <c r="K68" s="1" t="n">
-        <v>14750.3884065637</v>
+        <v>13274.5863463914</v>
       </c>
       <c r="L68" s="1" t="n">
-        <v>23551.1565017681</v>
+        <v>22766.3274563655</v>
       </c>
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
@@ -34934,31 +34934,31 @@
       </c>
       <c r="C69" s="1"/>
       <c r="D69" s="1" t="n">
-        <v>8645.17251440812</v>
+        <v>8323.53476213952</v>
       </c>
       <c r="E69" s="1" t="n">
-        <v>14691.5663001391</v>
+        <v>14144.9765873015</v>
       </c>
       <c r="F69" s="1" t="n">
-        <v>12917.7602788748</v>
+        <v>12437.1638103234</v>
       </c>
       <c r="G69" s="1" t="n">
-        <v>22931.8362329123</v>
+        <v>22078.6728924407</v>
       </c>
       <c r="H69" s="1" t="n">
-        <v>22588.0822202367</v>
+        <v>24930.6414236689</v>
       </c>
       <c r="I69" s="1" t="n">
-        <v>21992.2657794361</v>
+        <v>19712.4638418564</v>
       </c>
       <c r="J69" s="1" t="n">
-        <v>11026.0914140472</v>
+        <v>9883.08483065179</v>
       </c>
       <c r="K69" s="1" t="n">
-        <v>18707.4816308844</v>
+        <v>16768.1929147028</v>
       </c>
       <c r="L69" s="1" t="n">
-        <v>23633.3316402941</v>
+        <v>22754.0696412149</v>
       </c>
       <c r="M69" s="1"/>
       <c r="N69" s="1"/>
@@ -34973,31 +34973,31 @@
       </c>
       <c r="C70" s="1"/>
       <c r="D70" s="1" t="n">
-        <v>10616.783492352</v>
+        <v>10233.9650984143</v>
       </c>
       <c r="E70" s="1" t="n">
-        <v>16035.3199569721</v>
+        <v>15457.1207842539</v>
       </c>
       <c r="F70" s="1" t="n">
-        <v>13799.9799063111</v>
+        <v>13302.3822913732</v>
       </c>
       <c r="G70" s="1" t="n">
-        <v>23695.7905132062</v>
+        <v>22841.3712369833</v>
       </c>
       <c r="H70" s="1" t="n">
-        <v>24084.630552735</v>
+        <v>26614.0469251304</v>
       </c>
       <c r="I70" s="1" t="n">
-        <v>21249.0007124126</v>
+        <v>19068.9281539758</v>
       </c>
       <c r="J70" s="1" t="n">
-        <v>13199.4680587448</v>
+        <v>11845.2491714527</v>
       </c>
       <c r="K70" s="1" t="n">
-        <v>18369.812656933</v>
+        <v>16485.1346422342</v>
       </c>
       <c r="L70" s="1" t="n">
-        <v>24247.2256729891</v>
+        <v>23372.9228301115</v>
       </c>
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
@@ -35012,31 +35012,31 @@
       </c>
       <c r="C71" s="1"/>
       <c r="D71" s="1" t="n">
-        <v>10731.0464249547</v>
+        <v>10349.1689516963</v>
       </c>
       <c r="E71" s="1" t="n">
-        <v>16624.5836629869</v>
+        <v>16032.9774251803</v>
       </c>
       <c r="F71" s="1" t="n">
-        <v>15039.3031883501</v>
+        <v>14504.1111042139</v>
       </c>
       <c r="G71" s="1" t="n">
-        <v>24604.8857895577</v>
+        <v>23729.290694444</v>
       </c>
       <c r="H71" s="1" t="n">
-        <v>24802.9062612475</v>
+        <v>27421.1670146781</v>
       </c>
       <c r="I71" s="1" t="n">
-        <v>22016.8803198602</v>
+        <v>19767.6929056511</v>
       </c>
       <c r="J71" s="1" t="n">
-        <v>12732.1990638345</v>
+        <v>11431.5106159917</v>
       </c>
       <c r="K71" s="1" t="n">
-        <v>17963.8890855155</v>
+        <v>16128.7447483342</v>
       </c>
       <c r="L71" s="1" t="n">
-        <v>25602.3243732843</v>
+        <v>24691.2342005239</v>
       </c>
       <c r="M71" s="1"/>
       <c r="N71" s="1"/>
@@ -35051,31 +35051,31 @@
       </c>
       <c r="C72" s="1"/>
       <c r="D72" s="1" t="n">
-        <v>11461.0202142768</v>
+        <v>11030.7246270517</v>
       </c>
       <c r="E72" s="1" t="n">
-        <v>16926.6815662187</v>
+        <v>16291.1817373958</v>
       </c>
       <c r="F72" s="1" t="n">
-        <v>15183.5603374763</v>
+        <v>14613.5047150769</v>
       </c>
       <c r="G72" s="1" t="n">
-        <v>23814.955824626</v>
+        <v>22920.8407973677</v>
       </c>
       <c r="H72" s="1" t="n">
-        <v>25055.171181127</v>
+        <v>27643.8226127865</v>
       </c>
       <c r="I72" s="1" t="n">
-        <v>28250.1673362564</v>
+        <v>25312.7068654973</v>
       </c>
       <c r="J72" s="1" t="n">
-        <v>10651.1774560858</v>
+        <v>9543.66498113711</v>
       </c>
       <c r="K72" s="1" t="n">
-        <v>23537.7376822199</v>
+        <v>21090.2769932391</v>
       </c>
       <c r="L72" s="1" t="n">
-        <v>27006.2311649734</v>
+        <v>25992.3020486638</v>
       </c>
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
@@ -35090,31 +35090,31 @@
       </c>
       <c r="C73" s="1"/>
       <c r="D73" s="1" t="n">
-        <v>11342.1219544162</v>
+        <v>10931.8309711863</v>
       </c>
       <c r="E73" s="1" t="n">
-        <v>17632.6888779489</v>
+        <v>16994.842336905</v>
       </c>
       <c r="F73" s="1" t="n">
-        <v>16471.1911702071</v>
+        <v>15875.360756167</v>
       </c>
       <c r="G73" s="1" t="n">
-        <v>23193.1689830998</v>
+        <v>22354.1771132769</v>
       </c>
       <c r="H73" s="1" t="n">
-        <v>25931.4651419321</v>
+        <v>28651.3842737179</v>
       </c>
       <c r="I73" s="1" t="n">
-        <v>25075.0819155681</v>
+        <v>22499.7533117387</v>
       </c>
       <c r="J73" s="1" t="n">
-        <v>13850.2957405376</v>
+        <v>12427.8053609566</v>
       </c>
       <c r="K73" s="1" t="n">
-        <v>24158.7151256546</v>
+        <v>21677.5016921609</v>
       </c>
       <c r="L73" s="1" t="n">
-        <v>28046.5134434274</v>
+        <v>27031.9562359557</v>
       </c>
       <c r="M73" s="1"/>
       <c r="N73" s="1"/>
@@ -35129,31 +35129,31 @@
       </c>
       <c r="C74" s="1"/>
       <c r="D74" s="1" t="n">
-        <v>13333.3522068365</v>
+        <v>12861.9616378282</v>
       </c>
       <c r="E74" s="1" t="n">
-        <v>19132.4619862446</v>
+        <v>18456.0482830499</v>
       </c>
       <c r="F74" s="1" t="n">
-        <v>17232.9573342492</v>
+        <v>16623.6991794003</v>
       </c>
       <c r="G74" s="1" t="n">
-        <v>23909.7277477431</v>
+        <v>23064.4174317024</v>
       </c>
       <c r="H74" s="1" t="n">
-        <v>27517.8095065797</v>
+        <v>30429.980726273</v>
       </c>
       <c r="I74" s="1" t="n">
-        <v>25009.8470155313</v>
+        <v>22460.3073274763</v>
       </c>
       <c r="J74" s="1" t="n">
-        <v>18721.2307508757</v>
+        <v>16812.7616275359</v>
       </c>
       <c r="K74" s="1" t="n">
-        <v>23350.4228754191</v>
+        <v>20970.0472650934</v>
       </c>
       <c r="L74" s="1" t="n">
-        <v>28564.266007048</v>
+        <v>27554.3980160515</v>
       </c>
       <c r="M74" s="1"/>
       <c r="N74" s="1"/>
@@ -35168,31 +35168,31 @@
       </c>
       <c r="C75" s="1"/>
       <c r="D75" s="1" t="n">
-        <v>13701.6069265384</v>
+        <v>13186.0896369068</v>
       </c>
       <c r="E75" s="1" t="n">
-        <v>21736.1914302129</v>
+        <v>20918.3762240772</v>
       </c>
       <c r="F75" s="1" t="n">
-        <v>19561.9472178037</v>
+        <v>18825.9370502586</v>
       </c>
       <c r="G75" s="1" t="n">
-        <v>27378.5783749641</v>
+        <v>26348.4706953685</v>
       </c>
       <c r="H75" s="1" t="n">
-        <v>30533.1725771571</v>
+        <v>33684.9890601773</v>
       </c>
       <c r="I75" s="1" t="n">
-        <v>28324.1036220174</v>
+        <v>25376.8372675769</v>
       </c>
       <c r="J75" s="1" t="n">
-        <v>20149.7657508249</v>
+        <v>18053.0806292135</v>
       </c>
       <c r="K75" s="1" t="n">
-        <v>28583.4051145106</v>
+        <v>25609.1571272291</v>
       </c>
       <c r="L75" s="1" t="n">
-        <v>32961.326463817</v>
+        <v>31721.1701980306</v>
       </c>
       <c r="M75" s="1"/>
       <c r="N75" s="1"/>
@@ -35207,31 +35207,31 @@
       </c>
       <c r="C76" s="1"/>
       <c r="D76" s="1" t="n">
-        <v>13320.8441083925</v>
+        <v>12802.0797095842</v>
       </c>
       <c r="E76" s="1" t="n">
-        <v>23922.9532529345</v>
+        <v>22991.3023484578</v>
       </c>
       <c r="F76" s="1" t="n">
-        <v>21066.5054680623</v>
+        <v>20246.0955184222</v>
       </c>
       <c r="G76" s="1" t="n">
-        <v>31317.1207449388</v>
+        <v>30097.5127994169</v>
       </c>
       <c r="H76" s="1" t="n">
-        <v>35316.5888821269</v>
+        <v>38908.7689027965</v>
       </c>
       <c r="I76" s="1" t="n">
-        <v>34654.1832095768</v>
+        <v>31005.6791713277</v>
       </c>
       <c r="J76" s="1" t="n">
-        <v>19848.9131416164</v>
+        <v>17759.1556276655</v>
       </c>
       <c r="K76" s="1" t="n">
-        <v>29545.8897887298</v>
+        <v>26435.2033369408</v>
       </c>
       <c r="L76" s="1" t="n">
-        <v>37909.1545936187</v>
+        <v>36432.8277458555</v>
       </c>
       <c r="M76" s="1"/>
       <c r="N76" s="1"/>
@@ -35246,31 +35246,31 @@
       </c>
       <c r="C77" s="1"/>
       <c r="D77" s="1" t="n">
-        <v>15977.2100096661</v>
+        <v>15353.9248890756</v>
       </c>
       <c r="E77" s="1" t="n">
-        <v>27287.9696412668</v>
+        <v>26223.4417644826</v>
       </c>
       <c r="F77" s="1" t="n">
-        <v>23878.3375852587</v>
+        <v>22946.8224764054</v>
       </c>
       <c r="G77" s="1" t="n">
-        <v>33157.5479685205</v>
+        <v>31864.0426398968</v>
       </c>
       <c r="H77" s="1" t="n">
-        <v>39233.9452240359</v>
+        <v>43221.557049292</v>
       </c>
       <c r="I77" s="1" t="n">
-        <v>40458.2635792417</v>
+        <v>36196.1607394103</v>
       </c>
       <c r="J77" s="1" t="n">
-        <v>40316.9297887881</v>
+        <v>36069.7158516522</v>
       </c>
       <c r="K77" s="1" t="n">
-        <v>43671.5348251442</v>
+        <v>39070.9277765129</v>
       </c>
       <c r="L77" s="1" t="n">
-        <v>41399.1874787121</v>
+        <v>39784.1684895141</v>
       </c>
       <c r="M77" s="1"/>
       <c r="N77" s="1"/>
@@ -35285,31 +35285,31 @@
       </c>
       <c r="C78" s="1"/>
       <c r="D78" s="1" t="n">
-        <v>18499.6556389111</v>
+        <v>17794.3162487867</v>
       </c>
       <c r="E78" s="1" t="n">
-        <v>30823.9733198325</v>
+        <v>29648.7426578687</v>
       </c>
       <c r="F78" s="1" t="n">
-        <v>26429.215865697</v>
+        <v>25421.544838515</v>
       </c>
       <c r="G78" s="1" t="n">
-        <v>35160.1356085263</v>
+        <v>33819.5793792176</v>
       </c>
       <c r="H78" s="1" t="n">
-        <v>42554.7813841561</v>
+        <v>46923.0229379361</v>
       </c>
       <c r="I78" s="1" t="n">
-        <v>41923.8189313044</v>
+        <v>37541.8178155915</v>
       </c>
       <c r="J78" s="1" t="n">
-        <v>31371.5321899772</v>
+        <v>28092.487184956</v>
       </c>
       <c r="K78" s="1" t="n">
-        <v>37092.8924073724</v>
+        <v>33215.8339700085</v>
       </c>
       <c r="L78" s="1" t="n">
-        <v>42571.1450684278</v>
+        <v>40948.0280717901</v>
       </c>
       <c r="M78" s="1"/>
       <c r="N78" s="1"/>
@@ -35324,31 +35324,31 @@
       </c>
       <c r="C79" s="1"/>
       <c r="D79" s="1" t="n">
-        <v>19395.9583995899</v>
+        <v>18669.2942213709</v>
       </c>
       <c r="E79" s="1" t="n">
-        <v>31902.0702467535</v>
+        <v>30706.8680720659</v>
       </c>
       <c r="F79" s="1" t="n">
-        <v>27806.9837489981</v>
+        <v>26765.2028491618</v>
       </c>
       <c r="G79" s="1" t="n">
-        <v>36458.6824413607</v>
+        <v>35092.7680601587</v>
       </c>
       <c r="H79" s="1" t="n">
-        <v>44110.1808090529</v>
+        <v>48671.5809140084</v>
       </c>
       <c r="I79" s="1" t="n">
-        <v>43073.9469473905</v>
+        <v>38598.2954118921</v>
       </c>
       <c r="J79" s="1" t="n">
-        <v>45053.9450909202</v>
+        <v>40372.559408463</v>
       </c>
       <c r="K79" s="1" t="n">
-        <v>43658.24801818</v>
+        <v>39121.8839599155</v>
       </c>
       <c r="L79" s="1" t="n">
-        <v>43872.4302364714</v>
+        <v>42228.7618594075</v>
       </c>
       <c r="M79" s="1"/>
       <c r="N79" s="1"/>
@@ -35363,31 +35363,31 @@
       </c>
       <c r="C80" s="1"/>
       <c r="D80" s="1" t="n">
-        <v>21130.038324649</v>
+        <v>20340.2766534073</v>
       </c>
       <c r="E80" s="1" t="n">
-        <v>32105.7796540619</v>
+        <v>30905.7858913183</v>
       </c>
       <c r="F80" s="1" t="n">
-        <v>29572.5286355392</v>
+        <v>28467.2183053253</v>
       </c>
       <c r="G80" s="1" t="n">
-        <v>38131.9617703734</v>
+        <v>36706.7318965417</v>
       </c>
       <c r="H80" s="1" t="n">
-        <v>44334.6699146765</v>
+        <v>48923.7804987997</v>
       </c>
       <c r="I80" s="1" t="n">
-        <v>42026.5506985274</v>
+        <v>37663.1915135345</v>
       </c>
       <c r="J80" s="1" t="n">
-        <v>34760.8224237462</v>
+        <v>31151.8192750325</v>
       </c>
       <c r="K80" s="1" t="n">
-        <v>39614.0693604447</v>
+        <v>35501.1833270711</v>
       </c>
       <c r="L80" s="1" t="n">
-        <v>46032.4235746755</v>
+        <v>44311.9040367987</v>
       </c>
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
@@ -39833,31 +39833,31 @@
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="1" t="n">
-        <v>25728.9630894</v>
+        <v>26620.3231750995</v>
       </c>
       <c r="E61" s="1" t="n">
-        <v>149667.653529691</v>
+        <v>154852.773972093</v>
       </c>
       <c r="F61" s="1" t="n">
-        <v>112160.283950678</v>
+        <v>116045.990497303</v>
       </c>
       <c r="G61" s="1" t="n">
-        <v>910740.046944987</v>
+        <v>942291.933566848</v>
       </c>
       <c r="H61" s="1" t="n">
-        <v>1347882.31846623</v>
+        <v>1216530.65508692</v>
       </c>
       <c r="I61" s="1" t="n">
-        <v>215222.065967166</v>
+        <v>239188.907339026</v>
       </c>
       <c r="J61" s="1" t="n">
-        <v>272540.971171349</v>
+        <v>302890.769153463</v>
       </c>
       <c r="K61" s="1" t="n">
-        <v>215228.447392811</v>
+        <v>239195.999391695</v>
       </c>
       <c r="L61" s="1" t="n">
-        <v>286321.118749358</v>
+        <v>296240.493115872</v>
       </c>
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
@@ -39872,31 +39872,31 @@
       </c>
       <c r="C62" s="1"/>
       <c r="D62" s="1" t="n">
-        <v>26548.7279613101</v>
+        <v>27477.8719733038</v>
       </c>
       <c r="E62" s="1" t="n">
-        <v>154436.298282242</v>
+        <v>159841.211165169</v>
       </c>
       <c r="F62" s="1" t="n">
-        <v>115778.500270394</v>
+        <v>119830.47972495</v>
       </c>
       <c r="G62" s="1" t="n">
-        <v>942622.309035715</v>
+        <v>975611.907455967</v>
       </c>
       <c r="H62" s="1" t="n">
-        <v>1413685.17256193</v>
+        <v>1276356.87614364</v>
       </c>
       <c r="I62" s="1" t="n">
-        <v>223132.53089166</v>
+        <v>248064.986252491</v>
       </c>
       <c r="J62" s="1" t="n">
-        <v>280224.999936933</v>
+        <v>311536.872186115</v>
       </c>
       <c r="K62" s="1" t="n">
-        <v>233355.492916423</v>
+        <v>259430.244935295</v>
       </c>
       <c r="L62" s="1" t="n">
-        <v>285780.744472019</v>
+        <v>295782.408877794</v>
       </c>
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
@@ -39911,31 +39911,31 @@
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="1" t="n">
-        <v>26389.1987353175</v>
+        <v>27301.9738655703</v>
       </c>
       <c r="E63" s="1" t="n">
-        <v>151763.890136999</v>
+        <v>157013.246359478</v>
       </c>
       <c r="F63" s="1" t="n">
-        <v>114852.633258466</v>
+        <v>118825.267226396</v>
       </c>
       <c r="G63" s="1" t="n">
-        <v>942864.909573863</v>
+        <v>975477.633032395</v>
       </c>
       <c r="H63" s="1" t="n">
-        <v>1463348.2378317</v>
+        <v>1320673.83248459</v>
       </c>
       <c r="I63" s="1" t="n">
-        <v>236371.378790476</v>
+        <v>262679.348567638</v>
       </c>
       <c r="J63" s="1" t="n">
-        <v>303637.793118745</v>
+        <v>337432.467945484</v>
       </c>
       <c r="K63" s="1" t="n">
-        <v>252327.296043944</v>
+        <v>280411.148294776</v>
       </c>
       <c r="L63" s="1" t="n">
-        <v>288895.034807246</v>
+        <v>298887.615698786</v>
       </c>
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
@@ -39950,31 +39950,31 @@
       </c>
       <c r="C64" s="1"/>
       <c r="D64" s="1" t="n">
-        <v>26757.5146636459</v>
+        <v>27699.8235080517</v>
       </c>
       <c r="E64" s="1" t="n">
-        <v>153882.069572577</v>
+        <v>159301.273746675</v>
       </c>
       <c r="F64" s="1" t="n">
-        <v>118811.47542826</v>
+        <v>122995.612315423</v>
       </c>
       <c r="G64" s="1" t="n">
-        <v>937114.021463718</v>
+        <v>970115.996488019</v>
       </c>
       <c r="H64" s="1" t="n">
-        <v>1502525.77897211</v>
+        <v>1356854.26146975</v>
       </c>
       <c r="I64" s="1" t="n">
-        <v>241702.537819628</v>
+        <v>268766.811742191</v>
       </c>
       <c r="J64" s="1" t="n">
-        <v>304570.219560363</v>
+        <v>338674.006492828</v>
       </c>
       <c r="K64" s="1" t="n">
-        <v>259776.741457739</v>
+        <v>288864.846832824</v>
       </c>
       <c r="L64" s="1" t="n">
-        <v>287363.609020798</v>
+        <v>297483.579942784</v>
       </c>
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
@@ -39989,31 +39989,31 @@
       </c>
       <c r="C65" s="1"/>
       <c r="D65" s="1" t="n">
-        <v>28113.2871493664</v>
+        <v>29083.8754858271</v>
       </c>
       <c r="E65" s="1" t="n">
-        <v>161365.157015155</v>
+        <v>166936.157605656</v>
       </c>
       <c r="F65" s="1" t="n">
-        <v>121743.112627841</v>
+        <v>125946.194413802</v>
       </c>
       <c r="G65" s="1" t="n">
-        <v>919064.075574774</v>
+        <v>950794.014072306</v>
       </c>
       <c r="H65" s="1" t="n">
-        <v>1410390.25061457</v>
+        <v>1272799.47224426</v>
       </c>
       <c r="I65" s="1" t="n">
-        <v>226112.614915367</v>
+        <v>251263.057335193</v>
       </c>
       <c r="J65" s="1" t="n">
-        <v>283880.183443369</v>
+        <v>315456.096226893</v>
       </c>
       <c r="K65" s="1" t="n">
-        <v>243632.676747042</v>
+        <v>270731.870705805</v>
       </c>
       <c r="L65" s="1" t="n">
-        <v>280394.278298669</v>
+        <v>290074.66233491</v>
       </c>
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
@@ -40028,31 +40028,31 @@
       </c>
       <c r="C66" s="1"/>
       <c r="D66" s="1" t="n">
-        <v>27766.1811420079</v>
+        <v>28662.6701192478</v>
       </c>
       <c r="E66" s="1" t="n">
-        <v>159062.767764802</v>
+        <v>164198.440447376</v>
       </c>
       <c r="F66" s="1" t="n">
-        <v>124601.000805904</v>
+        <v>128624.003580548</v>
       </c>
       <c r="G66" s="1" t="n">
-        <v>921051.803269676</v>
+        <v>950789.878695862</v>
       </c>
       <c r="H66" s="1" t="n">
-        <v>1364450.86510909</v>
+        <v>1228678.99829737</v>
       </c>
       <c r="I66" s="1" t="n">
-        <v>236268.522016534</v>
+        <v>261980.855864692</v>
       </c>
       <c r="J66" s="1" t="n">
-        <v>296237.589015793</v>
+        <v>328476.16113762</v>
       </c>
       <c r="K66" s="1" t="n">
-        <v>253583.248506218</v>
+        <v>281179.887653247</v>
       </c>
       <c r="L66" s="1" t="n">
-        <v>271877.82255346</v>
+        <v>280655.964200977</v>
       </c>
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
@@ -40067,31 +40067,31 @@
       </c>
       <c r="C67" s="1"/>
       <c r="D67" s="1" t="n">
-        <v>27245.1702675861</v>
+        <v>28192.1188453361</v>
       </c>
       <c r="E67" s="1" t="n">
-        <v>156129.355554318</v>
+        <v>161555.875914996</v>
       </c>
       <c r="F67" s="1" t="n">
-        <v>112510.171337042</v>
+        <v>116420.638611925</v>
       </c>
       <c r="G67" s="1" t="n">
-        <v>868617.483116566</v>
+        <v>898807.644608219</v>
       </c>
       <c r="H67" s="1" t="n">
-        <v>1330977.31508574</v>
+        <v>1201403.48073122</v>
       </c>
       <c r="I67" s="1" t="n">
-        <v>209108.367674376</v>
+        <v>232419.628305439</v>
       </c>
       <c r="J67" s="1" t="n">
-        <v>270884.372583839</v>
+        <v>301082.380824317</v>
       </c>
       <c r="K67" s="1" t="n">
-        <v>225868.67546556</v>
+        <v>251048.36397219</v>
       </c>
       <c r="L67" s="1" t="n">
-        <v>255056.180948251</v>
+        <v>263921.058114485</v>
       </c>
       <c r="M67" s="1"/>
       <c r="N67" s="1"/>
@@ -40106,31 +40106,31 @@
       </c>
       <c r="C68" s="1"/>
       <c r="D68" s="1" t="n">
-        <v>25635.6245879099</v>
+        <v>26519.3675988189</v>
       </c>
       <c r="E68" s="1" t="n">
-        <v>146952.976350185</v>
+        <v>152018.921411769</v>
       </c>
       <c r="F68" s="1" t="n">
-        <v>112759.639194218</v>
+        <v>116646.82917505</v>
       </c>
       <c r="G68" s="1" t="n">
-        <v>868965.196988214</v>
+        <v>898921.241824494</v>
       </c>
       <c r="H68" s="1" t="n">
-        <v>1317908.07667366</v>
+        <v>1189280.83658819</v>
       </c>
       <c r="I68" s="1" t="n">
-        <v>204682.05523573</v>
+        <v>227437.581541023</v>
       </c>
       <c r="J68" s="1" t="n">
-        <v>270752.843028433</v>
+        <v>300853.78878389</v>
       </c>
       <c r="K68" s="1" t="n">
-        <v>230074.196245241</v>
+        <v>255652.693680192</v>
       </c>
       <c r="L68" s="1" t="n">
-        <v>257786.787036306</v>
+        <v>266673.532532472</v>
       </c>
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
@@ -40145,31 +40145,31 @@
       </c>
       <c r="C69" s="1"/>
       <c r="D69" s="1" t="n">
-        <v>28471.672712826</v>
+        <v>29571.8741388277</v>
       </c>
       <c r="E69" s="1" t="n">
-        <v>163261.507021583</v>
+        <v>169570.252722899</v>
       </c>
       <c r="F69" s="1" t="n">
-        <v>125768.919929799</v>
+        <v>130628.878332985</v>
       </c>
       <c r="G69" s="1" t="n">
-        <v>913220.704164337</v>
+        <v>948509.348112652</v>
       </c>
       <c r="H69" s="1" t="n">
-        <v>1490048.33441051</v>
+        <v>1350038.84247589</v>
       </c>
       <c r="I69" s="1" t="n">
-        <v>199540.79207674</v>
+        <v>222618.24642503</v>
       </c>
       <c r="J69" s="1" t="n">
-        <v>264129.481112522</v>
+        <v>294676.799177028</v>
       </c>
       <c r="K69" s="1" t="n">
-        <v>228844.709150736</v>
+        <v>255311.244004636</v>
       </c>
       <c r="L69" s="1" t="n">
-        <v>280771.074741928</v>
+        <v>291620.621234219</v>
       </c>
       <c r="M69" s="1"/>
       <c r="N69" s="1"/>
@@ -40184,31 +40184,31 @@
       </c>
       <c r="C70" s="1"/>
       <c r="D70" s="1" t="n">
-        <v>28545.8749831672</v>
+        <v>29613.6806586328</v>
       </c>
       <c r="E70" s="1" t="n">
-        <v>163432.344682092</v>
+        <v>169545.801891201</v>
       </c>
       <c r="F70" s="1" t="n">
-        <v>128170.152655738</v>
+        <v>132964.569239983</v>
       </c>
       <c r="G70" s="1" t="n">
-        <v>933219.531797492</v>
+        <v>968128.152153193</v>
       </c>
       <c r="H70" s="1" t="n">
-        <v>1492520.0498961</v>
+        <v>1350669.97121563</v>
       </c>
       <c r="I70" s="1" t="n">
-        <v>208682.464719894</v>
+        <v>232540.277339946</v>
       </c>
       <c r="J70" s="1" t="n">
-        <v>272780.960537421</v>
+        <v>303966.892002985</v>
       </c>
       <c r="K70" s="1" t="n">
-        <v>238159.184874747</v>
+        <v>265386.95034183</v>
       </c>
       <c r="L70" s="1" t="n">
-        <v>298062.568171772</v>
+        <v>309212.091601176</v>
       </c>
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
@@ -40223,31 +40223,31 @@
       </c>
       <c r="C71" s="1"/>
       <c r="D71" s="1" t="n">
-        <v>30074.7885107522</v>
+        <v>31184.5282684923</v>
       </c>
       <c r="E71" s="1" t="n">
-        <v>172558.816147402</v>
+        <v>178926.122064079</v>
       </c>
       <c r="F71" s="1" t="n">
-        <v>131565.138339049</v>
+        <v>136419.804721665</v>
       </c>
       <c r="G71" s="1" t="n">
-        <v>974430.365016138</v>
+        <v>1010386.19947931</v>
       </c>
       <c r="H71" s="1" t="n">
-        <v>1525001.13820625</v>
+        <v>1379389.15068708</v>
       </c>
       <c r="I71" s="1" t="n">
-        <v>217981.203565091</v>
+        <v>242783.317900476</v>
       </c>
       <c r="J71" s="1" t="n">
-        <v>275764.116683518</v>
+        <v>307140.827334346</v>
       </c>
       <c r="K71" s="1" t="n">
-        <v>249218.856288646</v>
+        <v>277575.221273846</v>
       </c>
       <c r="L71" s="1" t="n">
-        <v>305105.42299047</v>
+        <v>316363.61082689</v>
       </c>
       <c r="M71" s="1"/>
       <c r="N71" s="1"/>
@@ -40262,31 +40262,31 @@
       </c>
       <c r="C72" s="1"/>
       <c r="D72" s="1" t="n">
-        <v>31838.3869516708</v>
+        <v>33080.3649606286</v>
       </c>
       <c r="E72" s="1" t="n">
-        <v>184696.277363413</v>
+        <v>191901.061800826</v>
       </c>
       <c r="F72" s="1" t="n">
-        <v>140870.82454207</v>
+        <v>146366.029636806</v>
       </c>
       <c r="G72" s="1" t="n">
-        <v>1079769.10898407</v>
+        <v>1121889.63130029</v>
       </c>
       <c r="H72" s="1" t="n">
-        <v>1634912.06415391</v>
+        <v>1481813.93750221</v>
       </c>
       <c r="I72" s="1" t="n">
-        <v>208592.062037754</v>
+        <v>232798.518502718</v>
       </c>
       <c r="J72" s="1" t="n">
-        <v>266907.420030336</v>
+        <v>297881.191419444</v>
       </c>
       <c r="K72" s="1" t="n">
-        <v>243048.419758252</v>
+        <v>271253.428780558</v>
       </c>
       <c r="L72" s="1" t="n">
-        <v>311654.830772034</v>
+        <v>323812.118978623</v>
       </c>
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
@@ -40301,31 +40301,31 @@
       </c>
       <c r="C73" s="1"/>
       <c r="D73" s="1" t="n">
-        <v>30364.729585832</v>
+        <v>31504.3716814809</v>
       </c>
       <c r="E73" s="1" t="n">
-        <v>176178.22774797</v>
+        <v>182790.508753499</v>
       </c>
       <c r="F73" s="1" t="n">
-        <v>125497.40976998</v>
+        <v>130207.549890428</v>
       </c>
       <c r="G73" s="1" t="n">
-        <v>1102897.32751383</v>
+        <v>1144291.01811333</v>
       </c>
       <c r="H73" s="1" t="n">
-        <v>1583048.67745212</v>
+        <v>1432767.47835837</v>
       </c>
       <c r="I73" s="1" t="n">
-        <v>206461.506704696</v>
+        <v>230093.15352497</v>
       </c>
       <c r="J73" s="1" t="n">
-        <v>271969.20602165</v>
+        <v>303098.884019625</v>
       </c>
       <c r="K73" s="1" t="n">
-        <v>250837.154786176</v>
+        <v>279548.051775743</v>
       </c>
       <c r="L73" s="1" t="n">
-        <v>306333.53775576</v>
+        <v>317830.778129619</v>
       </c>
       <c r="M73" s="1"/>
       <c r="N73" s="1"/>
@@ -40340,31 +40340,31 @@
       </c>
       <c r="C74" s="1"/>
       <c r="D74" s="1" t="n">
-        <v>28938.2335607301</v>
+        <v>29998.81908947</v>
       </c>
       <c r="E74" s="1" t="n">
-        <v>169716.753160054</v>
+        <v>175936.867874677</v>
       </c>
       <c r="F74" s="1" t="n">
-        <v>128542.531712124</v>
+        <v>133253.612251141</v>
       </c>
       <c r="G74" s="1" t="n">
-        <v>1133039.03994762</v>
+        <v>1174564.89213013</v>
       </c>
       <c r="H74" s="1" t="n">
-        <v>1583465.72713511</v>
+        <v>1431926.90890798</v>
       </c>
       <c r="I74" s="1" t="n">
-        <v>220140.304994608</v>
+        <v>245129.119098575</v>
       </c>
       <c r="J74" s="1" t="n">
-        <v>273327.423305032</v>
+        <v>304353.673453332</v>
       </c>
       <c r="K74" s="1" t="n">
-        <v>255442.465014078</v>
+        <v>284438.537644451</v>
       </c>
       <c r="L74" s="1" t="n">
-        <v>314458.924434341</v>
+        <v>325983.836068573</v>
       </c>
       <c r="M74" s="1"/>
       <c r="N74" s="1"/>
@@ -40379,31 +40379,31 @@
       </c>
       <c r="C75" s="1"/>
       <c r="D75" s="1" t="n">
-        <v>29736.6857438435</v>
+        <v>30899.2575190562</v>
       </c>
       <c r="E75" s="1" t="n">
-        <v>175024.52750872</v>
+        <v>181867.205855742</v>
       </c>
       <c r="F75" s="1" t="n">
-        <v>132609.213776511</v>
+        <v>137793.642545666</v>
       </c>
       <c r="G75" s="1" t="n">
-        <v>1118517.07992935</v>
+        <v>1162246.10872632</v>
       </c>
       <c r="H75" s="1" t="n">
-        <v>1668856.85504943</v>
+        <v>1512706.27610314</v>
       </c>
       <c r="I75" s="1" t="n">
-        <v>222746.903903861</v>
+        <v>248616.733485438</v>
       </c>
       <c r="J75" s="1" t="n">
-        <v>266462.998383504</v>
+        <v>297410.015994813</v>
       </c>
       <c r="K75" s="1" t="n">
-        <v>248157.52606013</v>
+        <v>276978.545773751</v>
       </c>
       <c r="L75" s="1" t="n">
-        <v>309014.960839286</v>
+        <v>321096.067479241</v>
       </c>
       <c r="M75" s="1"/>
       <c r="N75" s="1"/>
@@ -40418,31 +40418,31 @@
       </c>
       <c r="C76" s="1"/>
       <c r="D76" s="1" t="n">
-        <v>31098.7747143459</v>
+        <v>32358.9556798092</v>
       </c>
       <c r="E76" s="1" t="n">
-        <v>185936.735140819</v>
+        <v>193471.242096707</v>
       </c>
       <c r="F76" s="1" t="n">
-        <v>140224.825119103</v>
+        <v>145906.999324474</v>
       </c>
       <c r="G76" s="1" t="n">
-        <v>1152110.23082583</v>
+        <v>1198795.9088417</v>
       </c>
       <c r="H76" s="1" t="n">
-        <v>1725406.83684175</v>
+        <v>1566111.84649359</v>
       </c>
       <c r="I76" s="1" t="n">
-        <v>212979.792281409</v>
+        <v>238041.576218164</v>
       </c>
       <c r="J76" s="1" t="n">
-        <v>258413.035737199</v>
+        <v>288821.045805731</v>
       </c>
       <c r="K76" s="1" t="n">
-        <v>243835.996391122</v>
+        <v>272528.695318556</v>
       </c>
       <c r="L76" s="1" t="n">
-        <v>308762.283659778</v>
+        <v>321273.913339566</v>
       </c>
       <c r="M76" s="1"/>
       <c r="N76" s="1"/>
@@ -40457,31 +40457,31 @@
       </c>
       <c r="C77" s="1"/>
       <c r="D77" s="1" t="n">
-        <v>30152.2282489447</v>
+        <v>31376.243304117</v>
       </c>
       <c r="E77" s="1" t="n">
-        <v>194572.775064156</v>
+        <v>202471.362327388</v>
       </c>
       <c r="F77" s="1" t="n">
-        <v>142391.685815018</v>
+        <v>148172.007114326</v>
       </c>
       <c r="G77" s="1" t="n">
-        <v>1242855.25524188</v>
+        <v>1293308.36044047</v>
       </c>
       <c r="H77" s="1" t="n">
-        <v>1768674.08568847</v>
+        <v>1605496.5839832</v>
       </c>
       <c r="I77" s="1" t="n">
-        <v>213005.64537448</v>
+        <v>238087.089027763</v>
       </c>
       <c r="J77" s="1" t="n">
-        <v>242991.814637421</v>
+        <v>271604.133791323</v>
       </c>
       <c r="K77" s="1" t="n">
-        <v>245186.371183798</v>
+        <v>274057.099668894</v>
       </c>
       <c r="L77" s="1" t="n">
-        <v>343064.361176683</v>
+        <v>356990.892227934</v>
       </c>
       <c r="M77" s="1"/>
       <c r="N77" s="1"/>
@@ -40496,31 +40496,31 @@
       </c>
       <c r="C78" s="1"/>
       <c r="D78" s="1" t="n">
-        <v>29683.9357232498</v>
+        <v>30860.5613843204</v>
       </c>
       <c r="E78" s="1" t="n">
-        <v>194254.193906298</v>
+        <v>201954.132063142</v>
       </c>
       <c r="F78" s="1" t="n">
-        <v>143586.768012239</v>
+        <v>149278.327157513</v>
       </c>
       <c r="G78" s="1" t="n">
-        <v>1278656.05693118</v>
+        <v>1329340.02088715</v>
       </c>
       <c r="H78" s="1" t="n">
-        <v>1754502.37088246</v>
+        <v>1591169.11392603</v>
       </c>
       <c r="I78" s="1" t="n">
-        <v>213300.316716711</v>
+        <v>238197.412281603</v>
       </c>
       <c r="J78" s="1" t="n">
-        <v>238723.721076336</v>
+        <v>266588.317757353</v>
       </c>
       <c r="K78" s="1" t="n">
-        <v>248725.513925605</v>
+        <v>277757.551875446</v>
       </c>
       <c r="L78" s="1" t="n">
-        <v>378839.216165876</v>
+        <v>393855.821353156</v>
       </c>
       <c r="M78" s="1"/>
       <c r="N78" s="1"/>
@@ -40535,31 +40535,31 @@
       </c>
       <c r="C79" s="1"/>
       <c r="D79" s="1" t="n">
-        <v>29958.7259747639</v>
+        <v>31124.8082450844</v>
       </c>
       <c r="E79" s="1" t="n">
-        <v>197670.039054397</v>
+        <v>205363.941929608</v>
       </c>
       <c r="F79" s="1" t="n">
-        <v>142481.540642654</v>
+        <v>148027.343843073</v>
       </c>
       <c r="G79" s="1" t="n">
-        <v>1257258.73712859</v>
+        <v>1306194.96772152</v>
       </c>
       <c r="H79" s="1" t="n">
-        <v>1746363.20303191</v>
+        <v>1582697.64814323</v>
       </c>
       <c r="I79" s="1" t="n">
-        <v>220646.855312863</v>
+        <v>246231.882481696</v>
       </c>
       <c r="J79" s="1" t="n">
-        <v>245001.059521321</v>
+        <v>273410.069726147</v>
       </c>
       <c r="K79" s="1" t="n">
-        <v>264304.408323195</v>
+        <v>294951.731432345</v>
       </c>
       <c r="L79" s="1" t="n">
-        <v>370742.695509029</v>
+        <v>385173.098338844</v>
       </c>
       <c r="M79" s="1"/>
       <c r="N79" s="1"/>
@@ -40574,31 +40574,31 @@
       </c>
       <c r="C80" s="1"/>
       <c r="D80" s="1" t="n">
-        <v>30109.419227265</v>
+        <v>31278.4920798243</v>
       </c>
       <c r="E80" s="1" t="n">
-        <v>199077.82616984</v>
+        <v>206807.51634968</v>
       </c>
       <c r="F80" s="1" t="n">
-        <v>144730.881891578</v>
+        <v>150350.417216032</v>
       </c>
       <c r="G80" s="1" t="n">
-        <v>1211402.54532022</v>
+        <v>1258438.25260389</v>
       </c>
       <c r="H80" s="1" t="n">
-        <v>1742377.92485969</v>
+        <v>1578940.73960962</v>
       </c>
       <c r="I80" s="1" t="n">
-        <v>226469.871305197</v>
+        <v>252706.877606922</v>
       </c>
       <c r="J80" s="1" t="n">
-        <v>249555.083315894</v>
+        <v>278466.559512933</v>
       </c>
       <c r="K80" s="1" t="n">
-        <v>271416.37770432</v>
+        <v>302860.530390851</v>
       </c>
       <c r="L80" s="1" t="n">
-        <v>361099.327084485</v>
+        <v>375119.903741428</v>
       </c>
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>

--- a/FON Macroeconomic Data.xlsx
+++ b/FON Macroeconomic Data.xlsx
@@ -34622,31 +34622,31 @@
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="1" t="n">
-        <v>12478.1050471707</v>
+        <v>12714.2357204697</v>
       </c>
       <c r="E61" s="1" t="n">
-        <v>16308.8978757215</v>
+        <v>16610.1219843713</v>
       </c>
       <c r="F61" s="1" t="n">
-        <v>16283.4778506746</v>
+        <v>15852.2923206661</v>
       </c>
       <c r="G61" s="1" t="n">
-        <v>21367.9427004714</v>
+        <v>21367.9384247236</v>
       </c>
       <c r="H61" s="1" t="n">
-        <v>27010.4535453009</v>
+        <v>27010.4571050308</v>
       </c>
       <c r="I61" s="1" t="n">
-        <v>22993.7471067471</v>
+        <v>22926.7502438836</v>
       </c>
       <c r="J61" s="1" t="n">
-        <v>19486.4484971571</v>
+        <v>19717.414094081</v>
       </c>
       <c r="K61" s="1" t="n">
-        <v>23878.8462666915</v>
+        <v>23563.2163242834</v>
       </c>
       <c r="L61" s="1" t="n">
-        <v>21579.7311347287</v>
+        <v>21579.7309859704</v>
       </c>
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
@@ -34661,31 +34661,31 @@
       </c>
       <c r="C62" s="1"/>
       <c r="D62" s="1" t="n">
-        <v>12611.6016765997</v>
+        <v>12652.989471591</v>
       </c>
       <c r="E62" s="1" t="n">
-        <v>16156.8607522918</v>
+        <v>16202.6656524751</v>
       </c>
       <c r="F62" s="1" t="n">
-        <v>15704.388415806</v>
+        <v>15637.0287836465</v>
       </c>
       <c r="G62" s="1" t="n">
-        <v>21764.3127361517</v>
+        <v>21764.3185239217</v>
       </c>
       <c r="H62" s="1" t="n">
-        <v>27191.1289677435</v>
+        <v>27191.1321363361</v>
       </c>
       <c r="I62" s="1" t="n">
-        <v>20295.4155366751</v>
+        <v>20378.9234365396</v>
       </c>
       <c r="J62" s="1" t="n">
-        <v>19811.8457592047</v>
+        <v>19761.8008388853</v>
       </c>
       <c r="K62" s="1" t="n">
-        <v>26130.948901726</v>
+        <v>26109.4846438396</v>
       </c>
       <c r="L62" s="1" t="n">
-        <v>22716.4356514173</v>
+        <v>22716.433567095</v>
       </c>
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
@@ -34700,31 +34700,31 @@
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="1" t="n">
-        <v>12848.6822064158</v>
+        <v>12936.3795741665</v>
       </c>
       <c r="E63" s="1" t="n">
-        <v>18052.3507400318</v>
+        <v>18167.4725387208</v>
       </c>
       <c r="F63" s="1" t="n">
-        <v>17195.5384655031</v>
+        <v>17034.0555554879</v>
       </c>
       <c r="G63" s="1" t="n">
-        <v>24014.7303831775</v>
+        <v>24014.7373715644</v>
       </c>
       <c r="H63" s="1" t="n">
-        <v>28586.2468289546</v>
+        <v>28586.2463396642</v>
       </c>
       <c r="I63" s="1" t="n">
-        <v>22953.0935396109</v>
+        <v>22852.3670525335</v>
       </c>
       <c r="J63" s="1" t="n">
-        <v>19842.4756387966</v>
+        <v>19988.244216118</v>
       </c>
       <c r="K63" s="1" t="n">
-        <v>22746.0711818334</v>
+        <v>22625.3589527371</v>
       </c>
       <c r="L63" s="1" t="n">
-        <v>24955.5515602303</v>
+        <v>24955.5527559234</v>
       </c>
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
@@ -34739,31 +34739,31 @@
       </c>
       <c r="C64" s="1"/>
       <c r="D64" s="1" t="n">
-        <v>13569.1402512206</v>
+        <v>13563.7856789371</v>
       </c>
       <c r="E64" s="1" t="n">
-        <v>17996.3822901865</v>
+        <v>17981.2709325959</v>
       </c>
       <c r="F64" s="1" t="n">
-        <v>16729.3562086193</v>
+        <v>16748.4792611723</v>
       </c>
       <c r="G64" s="1" t="n">
-        <v>25519.9025701193</v>
+        <v>25519.8999177436</v>
       </c>
       <c r="H64" s="1" t="n">
-        <v>29269.8119418274</v>
+        <v>29269.8099260541</v>
       </c>
       <c r="I64" s="1" t="n">
-        <v>20939.3965688869</v>
+        <v>21205.7342409373</v>
       </c>
       <c r="J64" s="1" t="n">
-        <v>13118.1227879591</v>
+        <v>13056.7649347037</v>
       </c>
       <c r="K64" s="1" t="n">
-        <v>19377.9163874895</v>
+        <v>19254.0319702652</v>
       </c>
       <c r="L64" s="1" t="n">
-        <v>26458.5959067474</v>
+        <v>26458.5964351583</v>
       </c>
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
@@ -34778,31 +34778,31 @@
       </c>
       <c r="C65" s="1"/>
       <c r="D65" s="1" t="n">
-        <v>10764.0507692031</v>
+        <v>10864.3829590109</v>
       </c>
       <c r="E65" s="1" t="n">
-        <v>16268.0644041805</v>
+        <v>16412.3888694481</v>
       </c>
       <c r="F65" s="1" t="n">
-        <v>15383.3199938879</v>
+        <v>15183.3805406839</v>
       </c>
       <c r="G65" s="1" t="n">
-        <v>24623.5571666813</v>
+        <v>24623.5583778189</v>
       </c>
       <c r="H65" s="1" t="n">
-        <v>29639.4294115229</v>
+        <v>29639.4304657162</v>
       </c>
       <c r="I65" s="1" t="n">
-        <v>21293.5226098675</v>
+        <v>21171.7871480161</v>
       </c>
       <c r="J65" s="1" t="n">
-        <v>12271.3143134628</v>
+        <v>12236.9169031862</v>
       </c>
       <c r="K65" s="1" t="n">
-        <v>19258.7129759024</v>
+        <v>19441.6342289942</v>
       </c>
       <c r="L65" s="1" t="n">
-        <v>25372.1959532377</v>
+        <v>25372.194364404</v>
       </c>
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
@@ -34817,31 +34817,31 @@
       </c>
       <c r="C66" s="1"/>
       <c r="D66" s="1" t="n">
-        <v>9483.26278860148</v>
+        <v>9351.05842859054</v>
       </c>
       <c r="E66" s="1" t="n">
-        <v>15195.4666557736</v>
+        <v>14982.7993306013</v>
       </c>
       <c r="F66" s="1" t="n">
-        <v>13913.1513606246</v>
+        <v>14202.2318289602</v>
       </c>
       <c r="G66" s="1" t="n">
-        <v>23188.4935604287</v>
+        <v>23188.4924009701</v>
       </c>
       <c r="H66" s="1" t="n">
-        <v>28733.9145959635</v>
+        <v>28733.9146046684</v>
       </c>
       <c r="I66" s="1" t="n">
-        <v>17075.5718136705</v>
+        <v>17198.2222199933</v>
       </c>
       <c r="J66" s="1" t="n">
-        <v>7897.58633763036</v>
+        <v>7820.88519641773</v>
       </c>
       <c r="K66" s="1" t="n">
-        <v>14835.9702622553</v>
+        <v>14919.9807509054</v>
       </c>
       <c r="L66" s="1" t="n">
-        <v>24528.3533453612</v>
+        <v>24528.3528188127</v>
       </c>
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
@@ -34856,31 +34856,31 @@
       </c>
       <c r="C67" s="1"/>
       <c r="D67" s="1" t="n">
-        <v>8352.89179534804</v>
+        <v>8376.69695129467</v>
       </c>
       <c r="E67" s="1" t="n">
-        <v>13484.9525503084</v>
+        <v>13517.3624280503</v>
       </c>
       <c r="F67" s="1" t="n">
-        <v>13013.9598514315</v>
+        <v>12964.4186130359</v>
       </c>
       <c r="G67" s="1" t="n">
-        <v>21610.0954939068</v>
+        <v>21610.0982703701</v>
       </c>
       <c r="H67" s="1" t="n">
-        <v>25635.495140876</v>
+        <v>25635.5018433246</v>
       </c>
       <c r="I67" s="1" t="n">
-        <v>17975.2928392836</v>
+        <v>18208.0962979585</v>
       </c>
       <c r="J67" s="1" t="n">
-        <v>9315.20183921724</v>
+        <v>9203.98833674002</v>
       </c>
       <c r="K67" s="1" t="n">
-        <v>15179.9244457694</v>
+        <v>15232.077299527</v>
       </c>
       <c r="L67" s="1" t="n">
-        <v>23370.7720827806</v>
+        <v>23370.7719216759</v>
       </c>
       <c r="M67" s="1"/>
       <c r="N67" s="1"/>
@@ -34895,31 +34895,31 @@
       </c>
       <c r="C68" s="1"/>
       <c r="D68" s="1" t="n">
-        <v>8539.11711643323</v>
+        <v>8659.68244523292</v>
       </c>
       <c r="E68" s="1" t="n">
-        <v>14528.3346377257</v>
+        <v>14726.9027251278</v>
       </c>
       <c r="F68" s="1" t="n">
-        <v>12825.0798770685</v>
+        <v>12575.9017378767</v>
       </c>
       <c r="G68" s="1" t="n">
-        <v>20972.7371782802</v>
+        <v>20972.7349985078</v>
       </c>
       <c r="H68" s="1" t="n">
-        <v>25463.4092493861</v>
+        <v>25463.4133483559</v>
       </c>
       <c r="I68" s="1" t="n">
-        <v>17284.4275557633</v>
+        <v>17219.918080352</v>
       </c>
       <c r="J68" s="1" t="n">
-        <v>7690.75801834323</v>
+        <v>7717.59558224401</v>
       </c>
       <c r="K68" s="1" t="n">
-        <v>13274.5863463914</v>
+        <v>13261.7451042157</v>
       </c>
       <c r="L68" s="1" t="n">
-        <v>22766.3274563655</v>
+        <v>22766.3293037746</v>
       </c>
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
@@ -34934,31 +34934,31 @@
       </c>
       <c r="C69" s="1"/>
       <c r="D69" s="1" t="n">
-        <v>8323.53476213952</v>
+        <v>8324.61789766021</v>
       </c>
       <c r="E69" s="1" t="n">
-        <v>14144.9765873015</v>
+        <v>14140.5183872807</v>
       </c>
       <c r="F69" s="1" t="n">
-        <v>12437.1638103234</v>
+        <v>12441.8844442824</v>
       </c>
       <c r="G69" s="1" t="n">
-        <v>22078.6728924407</v>
+        <v>22078.6737568631</v>
       </c>
       <c r="H69" s="1" t="n">
-        <v>24930.6414236689</v>
+        <v>24930.6451772631</v>
       </c>
       <c r="I69" s="1" t="n">
-        <v>19712.4638418564</v>
+        <v>19774.6194175164</v>
       </c>
       <c r="J69" s="1" t="n">
-        <v>9883.08483065179</v>
+        <v>9854.40410021462</v>
       </c>
       <c r="K69" s="1" t="n">
-        <v>16768.1929147028</v>
+        <v>16781.6575119622</v>
       </c>
       <c r="L69" s="1" t="n">
-        <v>22754.0696412149</v>
+        <v>22754.0675251387</v>
       </c>
       <c r="M69" s="1"/>
       <c r="N69" s="1"/>
@@ -34973,31 +34973,31 @@
       </c>
       <c r="C70" s="1"/>
       <c r="D70" s="1" t="n">
-        <v>10233.9650984143</v>
+        <v>10062.6259720989</v>
       </c>
       <c r="E70" s="1" t="n">
-        <v>15457.1207842539</v>
+        <v>15191.5674585494</v>
       </c>
       <c r="F70" s="1" t="n">
-        <v>13302.3822913732</v>
+        <v>13642.8654073686</v>
       </c>
       <c r="G70" s="1" t="n">
-        <v>22841.3712369833</v>
+        <v>22841.3688849832</v>
       </c>
       <c r="H70" s="1" t="n">
-        <v>26614.0469251304</v>
+        <v>26614.0478717191</v>
       </c>
       <c r="I70" s="1" t="n">
-        <v>19068.9281539758</v>
+        <v>18964.3437064854</v>
       </c>
       <c r="J70" s="1" t="n">
-        <v>11845.2491714527</v>
+        <v>11794.1351604205</v>
       </c>
       <c r="K70" s="1" t="n">
-        <v>16485.1346422342</v>
+        <v>16664.2612411291</v>
       </c>
       <c r="L70" s="1" t="n">
-        <v>23372.9228301115</v>
+        <v>23372.9214025238</v>
       </c>
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
@@ -35012,31 +35012,31 @@
       </c>
       <c r="C71" s="1"/>
       <c r="D71" s="1" t="n">
-        <v>10349.1689516963</v>
+        <v>10333.7996614864</v>
       </c>
       <c r="E71" s="1" t="n">
-        <v>16032.9774251803</v>
+        <v>16002.0391665892</v>
       </c>
       <c r="F71" s="1" t="n">
-        <v>14504.1111042139</v>
+        <v>14544.3462035697</v>
       </c>
       <c r="G71" s="1" t="n">
-        <v>23729.290694444</v>
+        <v>23729.2939542008</v>
       </c>
       <c r="H71" s="1" t="n">
-        <v>27421.1670146781</v>
+        <v>27421.1640292178</v>
       </c>
       <c r="I71" s="1" t="n">
-        <v>19767.6929056511</v>
+        <v>19819.9671744035</v>
       </c>
       <c r="J71" s="1" t="n">
-        <v>11431.5106159917</v>
+        <v>11386.5755119034</v>
       </c>
       <c r="K71" s="1" t="n">
-        <v>16128.7447483342</v>
+        <v>16167.4395431966</v>
       </c>
       <c r="L71" s="1" t="n">
-        <v>24691.2342005239</v>
+        <v>24691.2340303166</v>
       </c>
       <c r="M71" s="1"/>
       <c r="N71" s="1"/>
@@ -35051,31 +35051,31 @@
       </c>
       <c r="C72" s="1"/>
       <c r="D72" s="1" t="n">
-        <v>11030.7246270517</v>
+        <v>11061.9810566571</v>
       </c>
       <c r="E72" s="1" t="n">
-        <v>16291.1817373958</v>
+        <v>16330.06987938</v>
       </c>
       <c r="F72" s="1" t="n">
-        <v>14613.5047150769</v>
+        <v>14561.3628935406</v>
       </c>
       <c r="G72" s="1" t="n">
-        <v>22920.8407973677</v>
+        <v>22920.8384151219</v>
       </c>
       <c r="H72" s="1" t="n">
-        <v>27643.8226127865</v>
+        <v>27643.8299031233</v>
       </c>
       <c r="I72" s="1" t="n">
-        <v>25312.7068654973</v>
+        <v>24794.2675956134</v>
       </c>
       <c r="J72" s="1" t="n">
-        <v>9543.66498113711</v>
+        <v>9614.98570001441</v>
       </c>
       <c r="K72" s="1" t="n">
-        <v>21090.2769932391</v>
+        <v>21308.6892260386</v>
       </c>
       <c r="L72" s="1" t="n">
-        <v>25992.3020486638</v>
+        <v>25992.3037828199</v>
       </c>
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
@@ -35090,31 +35090,31 @@
       </c>
       <c r="C73" s="1"/>
       <c r="D73" s="1" t="n">
-        <v>10931.8309711863</v>
+        <v>10993.7376520228</v>
       </c>
       <c r="E73" s="1" t="n">
-        <v>16994.842336905</v>
+        <v>17083.4738857178</v>
       </c>
       <c r="F73" s="1" t="n">
-        <v>15875.360756167</v>
+        <v>15745.4555093156</v>
       </c>
       <c r="G73" s="1" t="n">
-        <v>22354.1771132769</v>
+        <v>22354.1746970515</v>
       </c>
       <c r="H73" s="1" t="n">
-        <v>28651.3842737179</v>
+        <v>28651.3852927692</v>
       </c>
       <c r="I73" s="1" t="n">
-        <v>22499.7533117387</v>
+        <v>21817.1094016209</v>
       </c>
       <c r="J73" s="1" t="n">
-        <v>12427.8053609566</v>
+        <v>12565.094357381</v>
       </c>
       <c r="K73" s="1" t="n">
-        <v>21677.5016921609</v>
+        <v>21997.1471758728</v>
       </c>
       <c r="L73" s="1" t="n">
-        <v>27031.9562359557</v>
+        <v>27031.9553731861</v>
       </c>
       <c r="M73" s="1"/>
       <c r="N73" s="1"/>
@@ -35129,31 +35129,31 @@
       </c>
       <c r="C74" s="1"/>
       <c r="D74" s="1" t="n">
-        <v>12861.9616378282</v>
+        <v>12810.5935656972</v>
       </c>
       <c r="E74" s="1" t="n">
-        <v>18456.0482830499</v>
+        <v>18374.1538179084</v>
       </c>
       <c r="F74" s="1" t="n">
-        <v>16623.6991794003</v>
+        <v>16732.5547830067</v>
       </c>
       <c r="G74" s="1" t="n">
-        <v>23064.4174317024</v>
+        <v>23064.4136187146</v>
       </c>
       <c r="H74" s="1" t="n">
-        <v>30429.980726273</v>
+        <v>30429.9818085841</v>
       </c>
       <c r="I74" s="1" t="n">
-        <v>22460.3073274763</v>
+        <v>22024.2289658718</v>
       </c>
       <c r="J74" s="1" t="n">
-        <v>16812.7616275359</v>
+        <v>16927.3985449369</v>
       </c>
       <c r="K74" s="1" t="n">
-        <v>20970.0472650934</v>
+        <v>21188.3294751567</v>
       </c>
       <c r="L74" s="1" t="n">
-        <v>27554.3980160515</v>
+        <v>27554.3978261072</v>
       </c>
       <c r="M74" s="1"/>
       <c r="N74" s="1"/>
@@ -35168,31 +35168,31 @@
       </c>
       <c r="C75" s="1"/>
       <c r="D75" s="1" t="n">
-        <v>13186.0896369068</v>
+        <v>13185.2081641347</v>
       </c>
       <c r="E75" s="1" t="n">
-        <v>20918.3762240772</v>
+        <v>20907.6645661075</v>
       </c>
       <c r="F75" s="1" t="n">
-        <v>18825.9370502586</v>
+        <v>18838.6602150186</v>
       </c>
       <c r="G75" s="1" t="n">
-        <v>26348.4706953685</v>
+        <v>26348.4709679165</v>
       </c>
       <c r="H75" s="1" t="n">
-        <v>33684.9890601773</v>
+        <v>33684.9878641573</v>
       </c>
       <c r="I75" s="1" t="n">
-        <v>25376.8372675769</v>
+        <v>25571.4785765855</v>
       </c>
       <c r="J75" s="1" t="n">
-        <v>18053.0806292135</v>
+        <v>18142.8995640752</v>
       </c>
       <c r="K75" s="1" t="n">
-        <v>25609.1571272291</v>
+        <v>25273.3859042738</v>
       </c>
       <c r="L75" s="1" t="n">
-        <v>31721.1701980306</v>
+        <v>31721.1692681424</v>
       </c>
       <c r="M75" s="1"/>
       <c r="N75" s="1"/>
@@ -35207,31 +35207,31 @@
       </c>
       <c r="C76" s="1"/>
       <c r="D76" s="1" t="n">
-        <v>12802.0797095842</v>
+        <v>12835.4310573811</v>
       </c>
       <c r="E76" s="1" t="n">
-        <v>22991.3023484578</v>
+        <v>23040.9346030854</v>
       </c>
       <c r="F76" s="1" t="n">
-        <v>20246.0955184222</v>
+        <v>20180.1167512851</v>
       </c>
       <c r="G76" s="1" t="n">
-        <v>30097.5127994169</v>
+        <v>30097.5070208466</v>
       </c>
       <c r="H76" s="1" t="n">
-        <v>38908.7689027965</v>
+        <v>38908.7711729906</v>
       </c>
       <c r="I76" s="1" t="n">
-        <v>31005.6791713277</v>
+        <v>30866.6119603012</v>
       </c>
       <c r="J76" s="1" t="n">
-        <v>17759.1556276655</v>
+        <v>17897.8129851282</v>
       </c>
       <c r="K76" s="1" t="n">
-        <v>26435.2033369408</v>
+        <v>26305.9054997417</v>
       </c>
       <c r="L76" s="1" t="n">
-        <v>36432.8277458555</v>
+        <v>36432.8274947084</v>
       </c>
       <c r="M76" s="1"/>
       <c r="N76" s="1"/>
@@ -35246,31 +35246,31 @@
       </c>
       <c r="C77" s="1"/>
       <c r="D77" s="1" t="n">
-        <v>15353.9248890756</v>
+        <v>15481.5213037332</v>
       </c>
       <c r="E77" s="1" t="n">
-        <v>26223.4417644826</v>
+        <v>26429.5945870359</v>
       </c>
       <c r="F77" s="1" t="n">
-        <v>22946.8224764054</v>
+        <v>22677.9418627701</v>
       </c>
       <c r="G77" s="1" t="n">
-        <v>31864.0426398968</v>
+        <v>31864.0441694711</v>
       </c>
       <c r="H77" s="1" t="n">
-        <v>43221.557049292</v>
+        <v>43221.5585865644</v>
       </c>
       <c r="I77" s="1" t="n">
-        <v>36196.1607394103</v>
+        <v>36181.6072515465</v>
       </c>
       <c r="J77" s="1" t="n">
-        <v>36069.7158516522</v>
+        <v>36079.4152187578</v>
       </c>
       <c r="K77" s="1" t="n">
-        <v>39070.9277765129</v>
+        <v>39074.1435548323</v>
       </c>
       <c r="L77" s="1" t="n">
-        <v>39784.1684895141</v>
+        <v>39784.1682152648</v>
       </c>
       <c r="M77" s="1"/>
       <c r="N77" s="1"/>
@@ -35285,31 +35285,31 @@
       </c>
       <c r="C78" s="1"/>
       <c r="D78" s="1" t="n">
-        <v>17794.3162487867</v>
+        <v>17720.6315191434</v>
       </c>
       <c r="E78" s="1" t="n">
-        <v>29648.7426578687</v>
+        <v>29512.8233215912</v>
       </c>
       <c r="F78" s="1" t="n">
-        <v>25421.544838515</v>
+        <v>25595.2945137779</v>
       </c>
       <c r="G78" s="1" t="n">
-        <v>33819.5793792176</v>
+        <v>33819.5742291866</v>
       </c>
       <c r="H78" s="1" t="n">
-        <v>46923.0229379361</v>
+        <v>46923.0185870478</v>
       </c>
       <c r="I78" s="1" t="n">
-        <v>37541.8178155915</v>
+        <v>37609.8766650508</v>
       </c>
       <c r="J78" s="1" t="n">
-        <v>28092.487184956</v>
+        <v>28092.9391152009</v>
       </c>
       <c r="K78" s="1" t="n">
-        <v>33215.8339700085</v>
+        <v>33159.9034585891</v>
       </c>
       <c r="L78" s="1" t="n">
-        <v>40948.0280717901</v>
+        <v>40948.0277895178</v>
       </c>
       <c r="M78" s="1"/>
       <c r="N78" s="1"/>
@@ -35324,31 +35324,31 @@
       </c>
       <c r="C79" s="1"/>
       <c r="D79" s="1" t="n">
-        <v>18669.2942213709</v>
+        <v>18690.3760887161</v>
       </c>
       <c r="E79" s="1" t="n">
-        <v>30706.8680720659</v>
+        <v>30727.855407156</v>
       </c>
       <c r="F79" s="1" t="n">
-        <v>26765.2028491618</v>
+        <v>26735.0696221699</v>
       </c>
       <c r="G79" s="1" t="n">
-        <v>35092.7680601587</v>
+        <v>35092.7629179927</v>
       </c>
       <c r="H79" s="1" t="n">
-        <v>48671.5809140084</v>
+        <v>48671.5788760754</v>
       </c>
       <c r="I79" s="1" t="n">
-        <v>38598.2954118921</v>
+        <v>38564.2427491577</v>
       </c>
       <c r="J79" s="1" t="n">
-        <v>40372.559408463</v>
+        <v>40370.6602297358</v>
       </c>
       <c r="K79" s="1" t="n">
-        <v>39121.8839599155</v>
+        <v>39154.9703086923</v>
       </c>
       <c r="L79" s="1" t="n">
-        <v>42228.7618594075</v>
+        <v>42228.761736906</v>
       </c>
       <c r="M79" s="1"/>
       <c r="N79" s="1"/>
@@ -35363,31 +35363,31 @@
       </c>
       <c r="C80" s="1"/>
       <c r="D80" s="1" t="n">
-        <v>20340.2766534073</v>
+        <v>20367.5872432776</v>
       </c>
       <c r="E80" s="1" t="n">
-        <v>30905.7858913183</v>
+        <v>30933.5033459789</v>
       </c>
       <c r="F80" s="1" t="n">
-        <v>28467.2183053253</v>
+        <v>28426.288345981</v>
       </c>
       <c r="G80" s="1" t="n">
-        <v>36706.7318965417</v>
+        <v>36706.7315678279</v>
       </c>
       <c r="H80" s="1" t="n">
-        <v>48923.7804987997</v>
+        <v>48923.7781158623</v>
       </c>
       <c r="I80" s="1" t="n">
-        <v>37663.1915135345</v>
+        <v>37694.67976907</v>
       </c>
       <c r="J80" s="1" t="n">
-        <v>31151.8192750325</v>
+        <v>31097.1151336652</v>
       </c>
       <c r="K80" s="1" t="n">
-        <v>35501.1833270711</v>
+        <v>35538.702448824</v>
       </c>
       <c r="L80" s="1" t="n">
-        <v>44311.9040367987</v>
+        <v>44311.9027670085</v>
       </c>
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
@@ -35402,31 +35402,31 @@
       </c>
       <c r="C81" s="1"/>
       <c r="D81" s="1" t="n">
-        <v>19324.8363552826</v>
+        <v>19343.0887471424</v>
       </c>
       <c r="E81" s="1" t="n">
-        <v>30887.9088186146</v>
+        <v>30903.3167403714</v>
       </c>
       <c r="F81" s="1" t="n">
-        <v>28607.9684998339</v>
+        <v>28584.861229204</v>
       </c>
       <c r="G81" s="1" t="n">
-        <v>35277.5559743392</v>
+        <v>35277.5530369094</v>
       </c>
       <c r="H81" s="1" t="n">
-        <v>43531.8428129465</v>
+        <v>43531.8435915543</v>
       </c>
       <c r="I81" s="1" t="n">
-        <v>35322.4936918584</v>
+        <v>35288.2598787368</v>
       </c>
       <c r="J81" s="1" t="n">
-        <v>30228.6067831452</v>
+        <v>30281.3974431678</v>
       </c>
       <c r="K81" s="1" t="n">
-        <v>35467.5326548373</v>
+        <v>35434.6452129441</v>
       </c>
       <c r="L81" s="1" t="n">
-        <v>42937.4450373399</v>
+        <v>42937.4429510667</v>
       </c>
       <c r="M81" s="1"/>
       <c r="N81" s="1"/>
@@ -35441,31 +35441,31 @@
       </c>
       <c r="C82" s="1"/>
       <c r="D82" s="1" t="n">
-        <v>17702.99562362</v>
+        <v>18097.2330997116</v>
       </c>
       <c r="E82" s="1" t="n">
-        <v>28071.3576888315</v>
+        <v>28683.7166398791</v>
       </c>
       <c r="F82" s="1" t="n">
-        <v>26785.2807852542</v>
+        <v>25978.3199852064</v>
       </c>
       <c r="G82" s="1" t="n">
-        <v>36716.5711870836</v>
+        <v>36716.5708954783</v>
       </c>
       <c r="H82" s="1" t="n">
-        <v>43020.5499679022</v>
+        <v>43020.5514980254</v>
       </c>
       <c r="I82" s="1" t="n">
-        <v>35216.129554122</v>
+        <v>35188.7810446693</v>
       </c>
       <c r="J82" s="1" t="n">
-        <v>28217.3173380368</v>
+        <v>28272.215447473</v>
       </c>
       <c r="K82" s="1" t="n">
-        <v>35666.0420109851</v>
+        <v>35620.6094437528</v>
       </c>
       <c r="L82" s="1" t="n">
-        <v>42983.7234476407</v>
+        <v>42983.7217562869</v>
       </c>
       <c r="M82" s="1"/>
       <c r="N82" s="1"/>
@@ -35480,31 +35480,31 @@
       </c>
       <c r="C83" s="1"/>
       <c r="D83" s="1" t="n">
-        <v>17471.5145483443</v>
+        <v>17702.9236589038</v>
       </c>
       <c r="E83" s="1" t="n">
-        <v>25516.8406834939</v>
+        <v>25843.2977689633</v>
       </c>
       <c r="F83" s="1" t="n">
-        <v>26943.6394145955</v>
+        <v>26442.8000510936</v>
       </c>
       <c r="G83" s="1" t="n">
-        <v>36870.3233328504</v>
+        <v>36870.3180308906</v>
       </c>
       <c r="H83" s="1" t="n">
-        <v>43647.472783239</v>
+        <v>43647.4760636519</v>
       </c>
       <c r="I83" s="1" t="n">
-        <v>37471.5561369967</v>
+        <v>37539.2462925188</v>
       </c>
       <c r="J83" s="1" t="n">
-        <v>31638.4409294753</v>
+        <v>31535.6768485939</v>
       </c>
       <c r="K83" s="1" t="n">
-        <v>37579.363935312</v>
+        <v>37639.4244194771</v>
       </c>
       <c r="L83" s="1" t="n">
-        <v>44418.6233667452</v>
+        <v>44418.6227459835</v>
       </c>
       <c r="M83" s="1"/>
       <c r="N83" s="1"/>
@@ -35519,31 +35519,31 @@
       </c>
       <c r="C84" s="1"/>
       <c r="D84" s="1" t="n">
-        <v>19596.6984546182</v>
+        <v>19604.5329397466</v>
       </c>
       <c r="E84" s="1" t="n">
-        <v>27668.245980712</v>
+        <v>27666.9831356455</v>
       </c>
       <c r="F84" s="1" t="n">
-        <v>26927.5516796976</v>
+        <v>26927.184503666</v>
       </c>
       <c r="G84" s="1" t="n">
-        <v>37497.8479572971</v>
+        <v>37497.8440600102</v>
       </c>
       <c r="H84" s="1" t="n">
-        <v>45683.2619242199</v>
+        <v>45683.2635490484</v>
       </c>
       <c r="I84" s="1" t="n">
-        <v>38356.7018464396</v>
+        <v>38355.5683227535</v>
       </c>
       <c r="J84" s="1" t="n">
-        <v>33135.0814359299</v>
+        <v>33135.877839531</v>
       </c>
       <c r="K84" s="1" t="n">
-        <v>37671.5960821742</v>
+        <v>37671.7542763905</v>
       </c>
       <c r="L84" s="1" t="n">
-        <v>46269.5396018861</v>
+        <v>46269.5392829303</v>
       </c>
       <c r="M84" s="1"/>
       <c r="N84" s="1"/>
@@ -35557,34 +35557,34 @@
         <v>42996.902509941</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>25806.2547260644</v>
+        <v>25808.0436416959</v>
       </c>
       <c r="D85" s="1" t="n">
-        <v>20796.9958400484</v>
+        <v>20805.3101872331</v>
       </c>
       <c r="E85" s="1" t="n">
-        <v>30170.4725423982</v>
+        <v>30169.0954897137</v>
       </c>
       <c r="F85" s="1" t="n">
-        <v>30581.0261051427</v>
+        <v>30580.6091114278</v>
       </c>
       <c r="G85" s="1" t="n">
-        <v>40909.3403404279</v>
+        <v>40909.3360885724</v>
       </c>
       <c r="H85" s="1" t="n">
-        <v>49718.2994916114</v>
+        <v>49718.3012599552</v>
       </c>
       <c r="I85" s="1" t="n">
-        <v>40671.8902616861</v>
+        <v>40670.6883191636</v>
       </c>
       <c r="J85" s="1" t="n">
-        <v>30461.275930793</v>
+        <v>30462.0080693239</v>
       </c>
       <c r="K85" s="1" t="n">
-        <v>38748.0351237215</v>
+        <v>38748.1978382249</v>
       </c>
       <c r="L85" s="1" t="n">
-        <v>52619.3049238083</v>
+        <v>52619.3045610809</v>
       </c>
       <c r="M85" s="1"/>
       <c r="N85" s="1"/>
@@ -35598,34 +35598,34 @@
         <v>44294.2729546124</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>27218.7584883343</v>
+        <v>27190.5173231188</v>
       </c>
       <c r="D86" s="1" t="n">
-        <v>20682.5395982805</v>
+        <v>20601.7991232689</v>
       </c>
       <c r="E86" s="1" t="n">
-        <v>29999.5645435551</v>
+        <v>30009.7305630228</v>
       </c>
       <c r="F86" s="1" t="n">
-        <v>32014.0135630088</v>
+        <v>32024.5834325365</v>
       </c>
       <c r="G86" s="1" t="n">
-        <v>42257.2532573676</v>
+        <v>42257.2435222265</v>
       </c>
       <c r="H86" s="1" t="n">
-        <v>49750.608473948</v>
+        <v>49750.6124450677</v>
       </c>
       <c r="I86" s="1" t="n">
-        <v>41847.3580617013</v>
+        <v>41830.5841009348</v>
       </c>
       <c r="J86" s="1" t="n">
-        <v>38839.0556986383</v>
+        <v>38864.5982321386</v>
       </c>
       <c r="K86" s="1" t="n">
-        <v>40841.8212514393</v>
+        <v>40831.3922969305</v>
       </c>
       <c r="L86" s="1" t="n">
-        <v>54036.5286498382</v>
+        <v>54036.5282773413</v>
       </c>
       <c r="M86" s="1"/>
       <c r="N86" s="1"/>
@@ -35639,34 +35639,34 @@
         <v>47952.8528929214</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>30186.7459855594</v>
+        <v>30269.5573809501</v>
       </c>
       <c r="D87" s="1" t="n">
-        <v>25602.268205178</v>
+        <v>25572.53692904</v>
       </c>
       <c r="E87" s="1" t="n">
-        <v>34770.9785547543</v>
+        <v>34768.298607616</v>
       </c>
       <c r="F87" s="1" t="n">
-        <v>34061.215725839</v>
+        <v>34072.2548484897</v>
       </c>
       <c r="G87" s="1" t="n">
-        <v>45097.8842266714</v>
+        <v>45097.8795394853</v>
       </c>
       <c r="H87" s="1" t="n">
-        <v>53783.2726450082</v>
+        <v>53783.2745579319</v>
       </c>
       <c r="I87" s="1" t="n">
-        <v>44730.3517079492</v>
+        <v>44665.4530808057</v>
       </c>
       <c r="J87" s="1" t="n">
-        <v>44910.8249883317</v>
+        <v>44898.2054352248</v>
       </c>
       <c r="K87" s="1" t="n">
-        <v>45297.4588801249</v>
+        <v>45362.3728583978</v>
       </c>
       <c r="L87" s="1" t="n">
-        <v>56382.408990241</v>
+        <v>56382.4086015729</v>
       </c>
       <c r="M87" s="1"/>
       <c r="N87" s="1"/>
@@ -35680,34 +35680,34 @@
         <v>50362.0100910562</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>33252.9461867526</v>
+        <v>33342.0796469684</v>
       </c>
       <c r="D88" s="1" t="n">
-        <v>21989.4578847208</v>
+        <v>21981.2589751151</v>
       </c>
       <c r="E88" s="1" t="n">
-        <v>35982.8293265486</v>
+        <v>36007.6258571855</v>
       </c>
       <c r="F88" s="1" t="n">
-        <v>35320.1981403982</v>
+        <v>35292.4379216233</v>
       </c>
       <c r="G88" s="1" t="n">
-        <v>46937.8948836297</v>
+        <v>46937.8900052047</v>
       </c>
       <c r="H88" s="1" t="n">
-        <v>56560.7625170804</v>
+        <v>56560.7645287918</v>
       </c>
       <c r="I88" s="1" t="n">
-        <v>47662.0535400946</v>
+        <v>47595.3145479629</v>
       </c>
       <c r="J88" s="1" t="n">
-        <v>45301.4121836679</v>
+        <v>45289.5088953561</v>
       </c>
       <c r="K88" s="1" t="n">
-        <v>49864.8009303441</v>
+        <v>49931.7626217092</v>
       </c>
       <c r="L88" s="1" t="n">
-        <v>59132.6792568634</v>
+        <v>59132.6788492366</v>
       </c>
       <c r="M88" s="1"/>
       <c r="N88" s="1"/>
@@ -35721,34 +35721,34 @@
         <v>50185.7894591913</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>33465.0744189964</v>
+        <v>33552.1218321255</v>
       </c>
       <c r="D89" s="1" t="n">
-        <v>24146.1298147929</v>
+        <v>24119.1056032239</v>
       </c>
       <c r="E89" s="1" t="n">
-        <v>37883.8422792635</v>
+        <v>37880.7969444216</v>
       </c>
       <c r="F89" s="1" t="n">
-        <v>37453.6989301788</v>
+        <v>37465.5727476381</v>
       </c>
       <c r="G89" s="1" t="n">
-        <v>47900.9480461735</v>
+        <v>47900.9430676548</v>
       </c>
       <c r="H89" s="1" t="n">
-        <v>55493.3373170706</v>
+        <v>55493.3392908166</v>
       </c>
       <c r="I89" s="1" t="n">
-        <v>48123.5673512706</v>
+        <v>48116.9766223867</v>
       </c>
       <c r="J89" s="1" t="n">
-        <v>37674.4659847075</v>
+        <v>37623.0474992899</v>
       </c>
       <c r="K89" s="1" t="n">
-        <v>49527.8184667583</v>
+        <v>49589.6060465115</v>
       </c>
       <c r="L89" s="1" t="n">
-        <v>60110.1529534981</v>
+        <v>60110.1525391331</v>
       </c>
       <c r="M89" s="1"/>
       <c r="N89" s="1"/>
@@ -35762,34 +35762,34 @@
         <v>54080.923565497</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>36036.9213567223</v>
+        <v>36128.1865155293</v>
       </c>
       <c r="D90" s="1" t="n">
-        <v>25150.6048220685</v>
+        <v>25122.9120558926</v>
       </c>
       <c r="E90" s="1" t="n">
-        <v>38739.2004843247</v>
+        <v>38735.947471763</v>
       </c>
       <c r="F90" s="1" t="n">
-        <v>39613.1841992176</v>
+        <v>39625.5239828994</v>
       </c>
       <c r="G90" s="1" t="n">
-        <v>50886.5239796852</v>
+        <v>50886.5186908649</v>
       </c>
       <c r="H90" s="1" t="n">
-        <v>60007.3482207944</v>
+        <v>60007.3503550914</v>
       </c>
       <c r="I90" s="1" t="n">
-        <v>51019.7034417876</v>
+        <v>51031.021739979</v>
       </c>
       <c r="J90" s="1" t="n">
-        <v>44800.5746044799</v>
+        <v>44757.2624238616</v>
       </c>
       <c r="K90" s="1" t="n">
-        <v>53107.9624214726</v>
+        <v>53140.9321239432</v>
       </c>
       <c r="L90" s="1" t="n">
-        <v>65035.2603851085</v>
+        <v>65035.2599367926</v>
       </c>
       <c r="M90" s="1"/>
       <c r="N90" s="1"/>
@@ -35803,34 +35803,34 @@
         <v>57608.848453564</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>38953.5800433784</v>
+        <v>39040.743491852</v>
       </c>
       <c r="D91" s="1" t="n">
-        <v>31211.5166579929</v>
+        <v>31097.5384008841</v>
       </c>
       <c r="E91" s="1" t="n">
-        <v>40969.5333763219</v>
+        <v>40943.0606137073</v>
       </c>
       <c r="F91" s="1" t="n">
-        <v>42362.808999315</v>
+        <v>42425.3425691181</v>
       </c>
       <c r="G91" s="1" t="n">
-        <v>54798.4494604458</v>
+        <v>54798.4388112338</v>
       </c>
       <c r="H91" s="1" t="n">
-        <v>62924.0318380834</v>
+        <v>62924.0281058447</v>
       </c>
       <c r="I91" s="1" t="n">
-        <v>54993.5427348241</v>
+        <v>54930.3986836429</v>
       </c>
       <c r="J91" s="1" t="n">
-        <v>50156.7482029278</v>
+        <v>50118.9091522703</v>
       </c>
       <c r="K91" s="1" t="n">
-        <v>58730.8421823371</v>
+        <v>58816.8691341156</v>
       </c>
       <c r="L91" s="1" t="n">
-        <v>66842.6611168435</v>
+        <v>66842.6606560684</v>
       </c>
       <c r="M91" s="1"/>
       <c r="N91" s="1"/>
@@ -35844,34 +35844,34 @@
         <v>56824.741841202</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>39903.3921321337</v>
+        <v>40000.2765733824</v>
       </c>
       <c r="D92" s="1" t="n">
-        <v>27081.0145391489</v>
+        <v>27072.0797320416</v>
       </c>
       <c r="E92" s="1" t="n">
-        <v>42211.8708822144</v>
+        <v>42179.1553196705</v>
       </c>
       <c r="F92" s="1" t="n">
-        <v>42592.7804680758</v>
+        <v>42636.8634996205</v>
       </c>
       <c r="G92" s="1" t="n">
-        <v>53314.8689016203</v>
+        <v>53314.8633604133</v>
       </c>
       <c r="H92" s="1" t="n">
-        <v>61693.3878348331</v>
+        <v>61693.390029098</v>
       </c>
       <c r="I92" s="1" t="n">
-        <v>53991.1694816744</v>
+        <v>53903.8056744402</v>
       </c>
       <c r="J92" s="1" t="n">
-        <v>48639.5910473932</v>
+        <v>48617.4598187963</v>
       </c>
       <c r="K92" s="1" t="n">
-        <v>60355.1036880669</v>
+        <v>60448.1971821843</v>
       </c>
       <c r="L92" s="1" t="n">
-        <v>66707.3001907684</v>
+        <v>66707.2997309265</v>
       </c>
       <c r="M92" s="1"/>
       <c r="N92" s="1"/>
@@ -35885,34 +35885,34 @@
         <v>57542.0241644063</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>44307.2720885025</v>
+        <v>44412.9137529504</v>
       </c>
       <c r="D93" s="1" t="n">
-        <v>28640.9909573055</v>
+        <v>28611.0411900269</v>
       </c>
       <c r="E93" s="1" t="n">
-        <v>42864.5722662061</v>
+        <v>42861.0511268927</v>
       </c>
       <c r="F93" s="1" t="n">
-        <v>44354.9950795968</v>
+        <v>44367.8686257112</v>
       </c>
       <c r="G93" s="1" t="n">
-        <v>53023.6455822365</v>
+        <v>53023.6400712974</v>
       </c>
       <c r="H93" s="1" t="n">
-        <v>63106.4250240488</v>
+        <v>63106.4272685715</v>
       </c>
       <c r="I93" s="1" t="n">
-        <v>55823.1934801117</v>
+        <v>55761.4014638511</v>
       </c>
       <c r="J93" s="1" t="n">
-        <v>49449.9725651457</v>
+        <v>49451.1738314324</v>
       </c>
       <c r="K93" s="1" t="n">
-        <v>59912.7913238785</v>
+        <v>59959.5700327606</v>
       </c>
       <c r="L93" s="1" t="n">
-        <v>66348.0690976427</v>
+        <v>66348.0686402771</v>
       </c>
       <c r="M93" s="1"/>
       <c r="N93" s="1"/>
@@ -35926,34 +35926,34 @@
         <v>58975.5708018962</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45838.3715883793</v>
+        <v>45841.5491505761</v>
       </c>
       <c r="D94" s="1" t="n">
-        <v>32008.6518267959</v>
+        <v>32269.3232581879</v>
       </c>
       <c r="E94" s="1" t="n">
-        <v>44163.1610692333</v>
+        <v>44127.9773655293</v>
       </c>
       <c r="F94" s="1" t="n">
-        <v>44962.1352134912</v>
+        <v>44942.441574344</v>
       </c>
       <c r="G94" s="1" t="n">
-        <v>54627.3059132922</v>
+        <v>54627.3002356789</v>
       </c>
       <c r="H94" s="1" t="n">
-        <v>64662.9441017408</v>
+        <v>64662.9464016247</v>
       </c>
       <c r="I94" s="1" t="n">
-        <v>56890.1882388135</v>
+        <v>56840.5305104767</v>
       </c>
       <c r="J94" s="1" t="n">
-        <v>50535.1493319055</v>
+        <v>50492.7458940008</v>
       </c>
       <c r="K94" s="1" t="n">
-        <v>60590.9655655959</v>
+        <v>60666.0720754844</v>
       </c>
       <c r="L94" s="1" t="n">
-        <v>67891.6791863493</v>
+        <v>67891.6787183429</v>
       </c>
       <c r="M94" s="1"/>
       <c r="N94" s="1"/>
@@ -35967,34 +35967,34 @@
         <v>59663.5313106458</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>50252.6431143202</v>
+        <v>50368.3055324685</v>
       </c>
       <c r="D95" s="1" t="n">
-        <v>31118.4882004047</v>
+        <v>31108.8904879643</v>
       </c>
       <c r="E95" s="1" t="n">
-        <v>45391.2952948302</v>
+        <v>45419.4806343618</v>
       </c>
       <c r="F95" s="1" t="n">
-        <v>45786.7964467749</v>
+        <v>45753.7588113979</v>
       </c>
       <c r="G95" s="1" t="n">
-        <v>56016.225291651</v>
+        <v>56016.2194696822</v>
       </c>
       <c r="H95" s="1" t="n">
-        <v>64241.2831667718</v>
+        <v>64241.2854516583</v>
       </c>
       <c r="I95" s="1" t="n">
-        <v>58134.1604083637</v>
+        <v>58111.8398761699</v>
       </c>
       <c r="J95" s="1" t="n">
-        <v>52803.9770499847</v>
+        <v>52727.8248843718</v>
       </c>
       <c r="K95" s="1" t="n">
-        <v>60524.1509640498</v>
+        <v>60603.498225136</v>
       </c>
       <c r="L95" s="1" t="n">
-        <v>69767.8008259778</v>
+        <v>69767.8003450385</v>
       </c>
       <c r="M95" s="1"/>
       <c r="N95" s="1"/>
@@ -36008,34 +36008,34 @@
         <v>60565.432579276</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>52739.6700763985</v>
+        <v>52870.0298187388</v>
       </c>
       <c r="D96" s="1" t="n">
-        <v>34226.5216216065</v>
+        <v>34311.5643048828</v>
       </c>
       <c r="E96" s="1" t="n">
-        <v>44684.9180351125</v>
+        <v>44665.9490212637</v>
       </c>
       <c r="F96" s="1" t="n">
-        <v>45559.9170389483</v>
+        <v>45563.9976306467</v>
       </c>
       <c r="G96" s="1" t="n">
-        <v>58162.0523653611</v>
+        <v>58162.0463203688</v>
       </c>
       <c r="H96" s="1" t="n">
-        <v>65830.635421115</v>
+        <v>65830.6344041912</v>
       </c>
       <c r="I96" s="1" t="n">
-        <v>56493.0595854281</v>
+        <v>56480.6977593407</v>
       </c>
       <c r="J96" s="1" t="n">
-        <v>47048.301429584</v>
+        <v>47014.890371163</v>
       </c>
       <c r="K96" s="1" t="n">
-        <v>61591.4242188369</v>
+        <v>61631.7911518378</v>
       </c>
       <c r="L96" s="1" t="n">
-        <v>69821.7174276211</v>
+        <v>69821.7169463102</v>
       </c>
       <c r="M96" s="1"/>
       <c r="N96" s="1"/>
@@ -36049,34 +36049,34 @@
         <v>63309.7724230254</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>51761.0054229489</v>
+        <v>51875.2016539746</v>
       </c>
       <c r="D97" s="1" t="n">
-        <v>35252.5814064783</v>
+        <v>35266.6748939812</v>
       </c>
       <c r="E97" s="1" t="n">
-        <v>46347.5865661118</v>
+        <v>46345.4711511672</v>
       </c>
       <c r="F97" s="1" t="n">
-        <v>46250.5245944572</v>
+        <v>46249.8939361529</v>
       </c>
       <c r="G97" s="1" t="n">
-        <v>60260.169610723</v>
+        <v>60260.1633476658</v>
       </c>
       <c r="H97" s="1" t="n">
-        <v>68736.307280311</v>
+        <v>68736.3097250733</v>
       </c>
       <c r="I97" s="1" t="n">
-        <v>60117.1542617723</v>
+        <v>60068.3469081642</v>
       </c>
       <c r="J97" s="1" t="n">
-        <v>58801.2419680108</v>
+        <v>58757.0560578642</v>
       </c>
       <c r="K97" s="1" t="n">
-        <v>62919.6081737527</v>
+        <v>62987.0517195137</v>
       </c>
       <c r="L97" s="1" t="n">
-        <v>71011.3309298202</v>
+        <v>71011.3304403088</v>
       </c>
       <c r="M97" s="1"/>
       <c r="N97" s="1"/>
@@ -36090,34 +36090,34 @@
         <v>65689.2558762635</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>50910.6518835524</v>
+        <v>51021.1436265951</v>
       </c>
       <c r="D98" s="1" t="n">
-        <v>37320.1100034961</v>
+        <v>37335.0300599277</v>
       </c>
       <c r="E98" s="1" t="n">
-        <v>48657.1323271528</v>
+        <v>48654.9114990037</v>
       </c>
       <c r="F98" s="1" t="n">
-        <v>49666.2441218668</v>
+        <v>49665.5668878338</v>
       </c>
       <c r="G98" s="1" t="n">
-        <v>61697.5105242568</v>
+        <v>61697.5041118115</v>
       </c>
       <c r="H98" s="1" t="n">
-        <v>70826.0068515501</v>
+        <v>70826.0093706373</v>
       </c>
       <c r="I98" s="1" t="n">
-        <v>61638.283496219</v>
+        <v>61608.0585135447</v>
       </c>
       <c r="J98" s="1" t="n">
-        <v>68907.3810662825</v>
+        <v>68804.7800560941</v>
       </c>
       <c r="K98" s="1" t="n">
-        <v>66003.632877635</v>
+        <v>66091.9428585858</v>
       </c>
       <c r="L98" s="1" t="n">
-        <v>73091.7277366028</v>
+        <v>73091.7272327502</v>
       </c>
       <c r="M98" s="1"/>
       <c r="N98" s="1"/>
@@ -36131,34 +36131,34 @@
         <v>68224.704671014</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>53672.3126575455</v>
+        <v>53787.1637801243</v>
       </c>
       <c r="D99" s="1" t="n">
-        <v>39382.7645797151</v>
+        <v>39371.9679816452</v>
       </c>
       <c r="E99" s="1" t="n">
-        <v>49663.2790922429</v>
+        <v>49627.5576088838</v>
       </c>
       <c r="F99" s="1" t="n">
-        <v>52850.1383090634</v>
+        <v>52900.2533433927</v>
       </c>
       <c r="G99" s="1" t="n">
-        <v>64946.400085734</v>
+        <v>64946.39333562</v>
       </c>
       <c r="H99" s="1" t="n">
-        <v>73858.8640628281</v>
+        <v>73858.8666897856</v>
       </c>
       <c r="I99" s="1" t="n">
-        <v>64822.1228006186</v>
+        <v>64829.3822910467</v>
       </c>
       <c r="J99" s="1" t="n">
-        <v>64495.5600130772</v>
+        <v>64507.4521893302</v>
       </c>
       <c r="K99" s="1" t="n">
-        <v>68076.6923745911</v>
+        <v>68063.2542241454</v>
       </c>
       <c r="L99" s="1" t="n">
-        <v>75272.9441485977</v>
+        <v>75272.9436297091</v>
       </c>
       <c r="M99" s="1"/>
       <c r="N99" s="1"/>
@@ -36172,34 +36172,34 @@
         <v>70771.2592469223</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>54042.9672498332</v>
+        <v>54046.7135628847</v>
       </c>
       <c r="D100" s="1" t="n">
-        <v>41635.8728595957</v>
+        <v>41652.5182974731</v>
       </c>
       <c r="E100" s="1" t="n">
-        <v>50348.1447190093</v>
+        <v>50345.8467090014</v>
       </c>
       <c r="F100" s="1" t="n">
-        <v>54442.3846263237</v>
+        <v>54441.642266269</v>
       </c>
       <c r="G100" s="1" t="n">
-        <v>66745.2403885698</v>
+        <v>66745.2334514958</v>
       </c>
       <c r="H100" s="1" t="n">
-        <v>77295.1507683751</v>
+        <v>77295.153517552</v>
       </c>
       <c r="I100" s="1" t="n">
-        <v>66339.1602361137</v>
+        <v>66297.6520863164</v>
       </c>
       <c r="J100" s="1" t="n">
-        <v>66679.3674596477</v>
+        <v>66711.3661256394</v>
       </c>
       <c r="K100" s="1" t="n">
-        <v>71190.0767245817</v>
+        <v>71197.0022536492</v>
       </c>
       <c r="L100" s="1" t="n">
-        <v>78383.1069727696</v>
+        <v>78383.1064324413</v>
       </c>
       <c r="M100" s="1"/>
       <c r="N100" s="1"/>
@@ -36213,34 +36213,34 @@
         <v>73014.1259188239</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>55354.5951511038</v>
+        <v>55425.7511135745</v>
       </c>
       <c r="D101" s="1" t="n">
-        <v>43199.2679716971</v>
+        <v>43365.7881248</v>
       </c>
       <c r="E101" s="1" t="n">
-        <v>52036.8815311441</v>
+        <v>52043.4441428276</v>
       </c>
       <c r="F101" s="1" t="n">
-        <v>56664.9925807791</v>
+        <v>56617.4388117049</v>
       </c>
       <c r="G101" s="1" t="n">
-        <v>67641.1377151995</v>
+        <v>67641.1282447617</v>
       </c>
       <c r="H101" s="1" t="n">
-        <v>80040.3053756459</v>
+        <v>80040.3129446606</v>
       </c>
       <c r="I101" s="1" t="n">
-        <v>67254.975239832</v>
+        <v>67200.239324448</v>
       </c>
       <c r="J101" s="1" t="n">
-        <v>73614.7048334659</v>
+        <v>73612.573580899</v>
       </c>
       <c r="K101" s="1" t="n">
-        <v>75411.0042084839</v>
+        <v>75452.7048169042</v>
       </c>
       <c r="L101" s="1" t="n">
-        <v>79457.9144632056</v>
+        <v>79457.9139154682</v>
       </c>
       <c r="M101" s="1"/>
       <c r="N101" s="1"/>
@@ -36254,34 +36254,34 @@
         <v>73662.6861805078</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>54838.9226042891</v>
+        <v>54952.6293524742</v>
       </c>
       <c r="D102" s="1" t="n">
-        <v>42261.7552736125</v>
+        <v>42221.9727393817</v>
       </c>
       <c r="E102" s="1" t="n">
-        <v>54503.8973323204</v>
+        <v>54499.9620311115</v>
       </c>
       <c r="F102" s="1" t="n">
-        <v>57331.8278338558</v>
+        <v>57346.5343103883</v>
       </c>
       <c r="G102" s="1" t="n">
-        <v>68722.3773679804</v>
+        <v>68722.3702254153</v>
       </c>
       <c r="H102" s="1" t="n">
-        <v>81258.0501407046</v>
+        <v>81258.0530308309</v>
       </c>
       <c r="I102" s="1" t="n">
-        <v>70210.9302323607</v>
+        <v>70178.9019200128</v>
       </c>
       <c r="J102" s="1" t="n">
-        <v>65039.0674052675</v>
+        <v>65013.3049580146</v>
       </c>
       <c r="K102" s="1" t="n">
-        <v>76542.4354418609</v>
+        <v>76584.6212453005</v>
       </c>
       <c r="L102" s="1" t="n">
-        <v>78487.1822882375</v>
+        <v>78487.1817471918</v>
       </c>
       <c r="M102" s="1"/>
       <c r="N102" s="1"/>
@@ -36295,34 +36295,34 @@
         <v>75873.4780755366</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>60267.3967516077</v>
+        <v>60390.6883320889</v>
       </c>
       <c r="D103" s="1" t="n">
-        <v>43939.077311076</v>
+        <v>43898.2364012469</v>
       </c>
       <c r="E103" s="1" t="n">
-        <v>57357.3898348139</v>
+        <v>57353.2407826764</v>
       </c>
       <c r="F103" s="1" t="n">
-        <v>59607.7706570337</v>
+        <v>59622.9998706445</v>
       </c>
       <c r="G103" s="1" t="n">
-        <v>70502.2203262547</v>
+        <v>70502.2129987042</v>
       </c>
       <c r="H103" s="1" t="n">
-        <v>83905.3956409366</v>
+        <v>83905.3986252217</v>
       </c>
       <c r="I103" s="1" t="n">
-        <v>72942.3779288979</v>
+        <v>72909.833535587</v>
       </c>
       <c r="J103" s="1" t="n">
-        <v>65141.313897925</v>
+        <v>65116.5069713767</v>
       </c>
       <c r="K103" s="1" t="n">
-        <v>77875.5983976765</v>
+        <v>77916.4719535894</v>
       </c>
       <c r="L103" s="1" t="n">
-        <v>79858.8356037114</v>
+        <v>79858.8350532102</v>
       </c>
       <c r="M103" s="1"/>
       <c r="N103" s="1"/>
@@ -36336,34 +36336,34 @@
         <v>77257.2520976603</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>62151.3641068272</v>
+        <v>62276.5979350186</v>
       </c>
       <c r="D104" s="1" t="n">
-        <v>45828.2435522598</v>
+        <v>45785.5320960138</v>
       </c>
       <c r="E104" s="1" t="n">
-        <v>60232.4910913915</v>
+        <v>60304.7861539753</v>
       </c>
       <c r="F104" s="1" t="n">
-        <v>61990.3923165485</v>
+        <v>61907.02384796</v>
       </c>
       <c r="G104" s="1" t="n">
-        <v>71893.7704427458</v>
+        <v>71893.7629705665</v>
       </c>
       <c r="H104" s="1" t="n">
-        <v>85036.3540755963</v>
+        <v>85036.3571001065</v>
       </c>
       <c r="I104" s="1" t="n">
-        <v>72892.5142899753</v>
+        <v>72827.900607553</v>
       </c>
       <c r="J104" s="1" t="n">
-        <v>66581.4396999817</v>
+        <v>66525.9851635588</v>
       </c>
       <c r="K104" s="1" t="n">
-        <v>78832.4777541143</v>
+        <v>78916.8259843742</v>
       </c>
       <c r="L104" s="1" t="n">
-        <v>81585.8100157077</v>
+        <v>81585.8094533019</v>
       </c>
       <c r="M104" s="1"/>
       <c r="N104" s="1"/>
@@ -36377,34 +36377,34 @@
         <v>79791.189024638</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>66881.2525739125</v>
+        <v>67015.261942417</v>
       </c>
       <c r="D105" s="1" t="n">
-        <v>49900.0098115784</v>
+        <v>49854.3908494473</v>
       </c>
       <c r="E105" s="1" t="n">
-        <v>63488.6370774863</v>
+        <v>63483.4299725646</v>
       </c>
       <c r="F105" s="1" t="n">
-        <v>65563.5126880746</v>
+        <v>65580.9324959553</v>
       </c>
       <c r="G105" s="1" t="n">
-        <v>74867.5999379333</v>
+        <v>74867.5921566731</v>
       </c>
       <c r="H105" s="1" t="n">
-        <v>87506.9859848631</v>
+        <v>87506.989097247</v>
       </c>
       <c r="I105" s="1" t="n">
-        <v>76324.7120337601</v>
+        <v>76301.0147069302</v>
       </c>
       <c r="J105" s="1" t="n">
-        <v>64459.6209295547</v>
+        <v>64374.577130056</v>
       </c>
       <c r="K105" s="1" t="n">
-        <v>82132.927409198</v>
+        <v>82213.1575691806</v>
       </c>
       <c r="L105" s="1" t="n">
-        <v>82573.2930561437</v>
+        <v>82573.2924869307</v>
       </c>
       <c r="M105" s="1"/>
       <c r="N105" s="1"/>
@@ -36418,34 +36418,34 @@
         <v>82486.6879753819</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>67429.7790908091</v>
+        <v>67440.2967772185</v>
       </c>
       <c r="D106" s="1" t="n">
-        <v>51186.7190094918</v>
+        <v>51209.8197247548</v>
       </c>
       <c r="E106" s="1" t="n">
-        <v>66616.9348449409</v>
+        <v>66612.5012935187</v>
       </c>
       <c r="F106" s="1" t="n">
-        <v>68316.3304733247</v>
+        <v>68316.5398147582</v>
       </c>
       <c r="G106" s="1" t="n">
-        <v>76604.8722017904</v>
+        <v>76604.869154611</v>
       </c>
       <c r="H106" s="1" t="n">
-        <v>90374.9186536636</v>
+        <v>90374.9271083913</v>
       </c>
       <c r="I106" s="1" t="n">
-        <v>78640.0282729088</v>
+        <v>78640.2847993337</v>
       </c>
       <c r="J106" s="1" t="n">
-        <v>71534.4066898598</v>
+        <v>71533.8380639157</v>
       </c>
       <c r="K106" s="1" t="n">
-        <v>84916.93819646</v>
+        <v>84917.1743793099</v>
       </c>
       <c r="L106" s="1" t="n">
-        <v>85198.4080732052</v>
+        <v>85198.4074858962</v>
       </c>
       <c r="M106" s="1"/>
       <c r="N106" s="1"/>
@@ -36459,34 +36459,34 @@
         <v>85263.5918622889</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>64235.223267859</v>
+        <v>64236.8163825443</v>
       </c>
       <c r="D107" s="1" t="n">
-        <v>52801.7653643608</v>
+        <v>52837.5708576244</v>
       </c>
       <c r="E107" s="1" t="n">
-        <v>70585.9089157527</v>
+        <v>70581.4012765105</v>
       </c>
       <c r="F107" s="1" t="n">
-        <v>72457.3774312319</v>
+        <v>72454.4673565021</v>
       </c>
       <c r="G107" s="1" t="n">
-        <v>80424.6120299775</v>
+        <v>80424.6064875636</v>
       </c>
       <c r="H107" s="1" t="n">
-        <v>92379.6545123511</v>
+        <v>92379.6557608659</v>
       </c>
       <c r="I107" s="1" t="n">
-        <v>80055.3947745349</v>
+        <v>80055.1378657657</v>
       </c>
       <c r="J107" s="1" t="n">
-        <v>70049.7627950969</v>
+        <v>70051.4565504242</v>
       </c>
       <c r="K107" s="1" t="n">
-        <v>88237.031441246</v>
+        <v>88236.0190082873</v>
       </c>
       <c r="L107" s="1" t="n">
-        <v>89352.9195071023</v>
+        <v>89352.920403384</v>
       </c>
       <c r="M107" s="1"/>
       <c r="N107" s="1"/>
@@ -36500,34 +36500,34 @@
         <v>88124.0893144291</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>64568.2250085087</v>
+        <v>64577.3169902731</v>
       </c>
       <c r="D108" s="1" t="n">
-        <v>59513.4146339484</v>
+        <v>59527.7920332569</v>
       </c>
       <c r="E108" s="1" t="n">
-        <v>70081.4005421135</v>
+        <v>70080.5554836264</v>
       </c>
       <c r="F108" s="1" t="n">
-        <v>74335.5308216055</v>
+        <v>74333.4688902617</v>
       </c>
       <c r="G108" s="1" t="n">
-        <v>80016.6519572089</v>
+        <v>80016.6482284658</v>
       </c>
       <c r="H108" s="1" t="n">
-        <v>94327.9240789154</v>
+        <v>94327.9276902529</v>
       </c>
       <c r="I108" s="1" t="n">
-        <v>84813.7360393034</v>
+        <v>84815.3023684175</v>
       </c>
       <c r="J108" s="1" t="n">
-        <v>80266.2958176939</v>
+        <v>80265.4762163306</v>
       </c>
       <c r="K108" s="1" t="n">
-        <v>98861.333868909</v>
+        <v>98860.8274936276</v>
       </c>
       <c r="L108" s="1" t="n">
-        <v>96095.4363328615</v>
+        <v>96095.4363216646</v>
       </c>
       <c r="M108" s="1"/>
       <c r="N108" s="1"/>
@@ -36541,34 +36541,34 @@
         <v>90522.4375014098</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>70578.606171873</v>
+        <v>70582.9850477053</v>
       </c>
       <c r="D109" s="1" t="n">
-        <v>58090.6733963551</v>
+        <v>58131.3546991491</v>
       </c>
       <c r="E109" s="1" t="n">
-        <v>66768.6825192815</v>
+        <v>66767.8090524373</v>
       </c>
       <c r="F109" s="1" t="n">
-        <v>73404.1463225747</v>
+        <v>73396.2842072162</v>
       </c>
       <c r="G109" s="1" t="n">
-        <v>81469.2726142189</v>
+        <v>81469.265343474</v>
       </c>
       <c r="H109" s="1" t="n">
-        <v>94190.3361881981</v>
+        <v>94190.3383373938</v>
       </c>
       <c r="I109" s="1" t="n">
-        <v>85994.72977474</v>
+        <v>85991.3193461087</v>
       </c>
       <c r="J109" s="1" t="n">
-        <v>93911.6190145706</v>
+        <v>93917.9256384794</v>
       </c>
       <c r="K109" s="1" t="n">
-        <v>116712.705492126</v>
+        <v>116711.306908248</v>
       </c>
       <c r="L109" s="1" t="n">
-        <v>95778.5194580239</v>
+        <v>95778.5170438875</v>
       </c>
       <c r="M109" s="1"/>
       <c r="N109" s="1"/>
@@ -36582,34 +36582,34 @@
         <v>90304.7285983137</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>71841.5083321554</v>
+        <v>71847.0048785643</v>
       </c>
       <c r="D110" s="1" t="n">
-        <v>56494.4789349885</v>
+        <v>56508.3862483845</v>
       </c>
       <c r="E110" s="1" t="n">
-        <v>66461.1124984535</v>
+        <v>66457.4834518565</v>
       </c>
       <c r="F110" s="1" t="n">
-        <v>72545.2927522883</v>
+        <v>72547.0969553885</v>
       </c>
       <c r="G110" s="1" t="n">
-        <v>81872.727645698</v>
+        <v>81872.7084828</v>
       </c>
       <c r="H110" s="1" t="n">
-        <v>92679.8176845202</v>
+        <v>92679.8291753162</v>
       </c>
       <c r="I110" s="1" t="n">
-        <v>87284.2128678044</v>
+        <v>87283.3024073588</v>
       </c>
       <c r="J110" s="1" t="n">
-        <v>94955.7969031517</v>
+        <v>94956.0262567135</v>
       </c>
       <c r="K110" s="1" t="n">
-        <v>120611.338420894</v>
+        <v>120611.942931848</v>
       </c>
       <c r="L110" s="1" t="n">
-        <v>93928.4226561495</v>
+        <v>93928.4225004111</v>
       </c>
       <c r="M110" s="1"/>
       <c r="N110" s="1"/>
@@ -39727,15 +39727,33 @@
         <v>3121000</v>
       </c>
       <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
-      <c r="K56" s="1"/>
-      <c r="L56" s="1"/>
+      <c r="D56" s="1" t="n">
+        <v>27167.3770183941</v>
+      </c>
+      <c r="E56" s="1" t="n">
+        <v>157903.073844882</v>
+      </c>
+      <c r="F56" s="1" t="n">
+        <v>115310.369532281</v>
+      </c>
+      <c r="G56" s="1" t="n">
+        <v>763478.015287443</v>
+      </c>
+      <c r="H56" s="1" t="n">
+        <v>1084220.32530916</v>
+      </c>
+      <c r="I56" s="1" t="n">
+        <v>222753.74803882</v>
+      </c>
+      <c r="J56" s="1" t="n">
+        <v>269058.096765508</v>
+      </c>
+      <c r="K56" s="1" t="n">
+        <v>232549.462731496</v>
+      </c>
+      <c r="L56" s="1" t="n">
+        <v>234921.69971785</v>
+      </c>
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
       <c r="O56" s="1"/>
@@ -39748,15 +39766,33 @@
         <v>3230000</v>
       </c>
       <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
-      <c r="K57" s="1"/>
-      <c r="L57" s="1"/>
+      <c r="D57" s="1" t="n">
+        <v>26791.4053344064</v>
+      </c>
+      <c r="E57" s="1" t="n">
+        <v>154485.27621968</v>
+      </c>
+      <c r="F57" s="1" t="n">
+        <v>114278.795724241</v>
+      </c>
+      <c r="G57" s="1" t="n">
+        <v>782984.099829686</v>
+      </c>
+      <c r="H57" s="1" t="n">
+        <v>1150114.00597962</v>
+      </c>
+      <c r="I57" s="1" t="n">
+        <v>222916.359897095</v>
+      </c>
+      <c r="J57" s="1" t="n">
+        <v>278399.363021046</v>
+      </c>
+      <c r="K57" s="1" t="n">
+        <v>237563.188778549</v>
+      </c>
+      <c r="L57" s="1" t="n">
+        <v>248391.265023425</v>
+      </c>
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
@@ -39769,15 +39805,33 @@
         <v>3323000</v>
       </c>
       <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
-      <c r="J58" s="1"/>
-      <c r="K58" s="1"/>
-      <c r="L58" s="1"/>
+      <c r="D58" s="1" t="n">
+        <v>27762.1667338703</v>
+      </c>
+      <c r="E58" s="1" t="n">
+        <v>162508.083161034</v>
+      </c>
+      <c r="F58" s="1" t="n">
+        <v>118159.898607996</v>
+      </c>
+      <c r="G58" s="1" t="n">
+        <v>837973.937770295</v>
+      </c>
+      <c r="H58" s="1" t="n">
+        <v>1184433.4827305</v>
+      </c>
+      <c r="I58" s="1" t="n">
+        <v>221386.20161124</v>
+      </c>
+      <c r="J58" s="1" t="n">
+        <v>276698.419651474</v>
+      </c>
+      <c r="K58" s="1" t="n">
+        <v>227955.549464956</v>
+      </c>
+      <c r="L58" s="1" t="n">
+        <v>251832.652893846</v>
+      </c>
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
       <c r="O58" s="1"/>
@@ -39790,15 +39844,33 @@
         <v>3344000</v>
       </c>
       <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
-      <c r="K59" s="1"/>
-      <c r="L59" s="1"/>
+      <c r="D59" s="1" t="n">
+        <v>25884.0181815045</v>
+      </c>
+      <c r="E59" s="1" t="n">
+        <v>152684.182796129</v>
+      </c>
+      <c r="F59" s="1" t="n">
+        <v>112395.146049155</v>
+      </c>
+      <c r="G59" s="1" t="n">
+        <v>870842.270895059</v>
+      </c>
+      <c r="H59" s="1" t="n">
+        <v>1173644.73602496</v>
+      </c>
+      <c r="I59" s="1" t="n">
+        <v>221280.704364107</v>
+      </c>
+      <c r="J59" s="1" t="n">
+        <v>276884.745748281</v>
+      </c>
+      <c r="K59" s="1" t="n">
+        <v>230179.843191625</v>
+      </c>
+      <c r="L59" s="1" t="n">
+        <v>265940.101105285</v>
+      </c>
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
@@ -39811,15 +39883,33 @@
         <v>3423000</v>
       </c>
       <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
-      <c r="I60" s="1"/>
-      <c r="J60" s="1"/>
-      <c r="K60" s="1"/>
-      <c r="L60" s="1"/>
+      <c r="D60" s="1" t="n">
+        <v>26414.6607847117</v>
+      </c>
+      <c r="E60" s="1" t="n">
+        <v>155512.362126977</v>
+      </c>
+      <c r="F60" s="1" t="n">
+        <v>115283.767921769</v>
+      </c>
+      <c r="G60" s="1" t="n">
+        <v>889815.248290445</v>
+      </c>
+      <c r="H60" s="1" t="n">
+        <v>1197734.7463333</v>
+      </c>
+      <c r="I60" s="1" t="n">
+        <v>227621.903002253</v>
+      </c>
+      <c r="J60" s="1" t="n">
+        <v>285758.01721598</v>
+      </c>
+      <c r="K60" s="1" t="n">
+        <v>226063.949283465</v>
+      </c>
+      <c r="L60" s="1" t="n">
+        <v>283561.755819718</v>
+      </c>
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
       <c r="O60" s="1"/>
@@ -39833,31 +39923,31 @@
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="1" t="n">
-        <v>26620.3231750995</v>
+        <v>26125.9265811576</v>
       </c>
       <c r="E61" s="1" t="n">
-        <v>154852.773972093</v>
+        <v>152044.523144339</v>
       </c>
       <c r="F61" s="1" t="n">
-        <v>116045.990497303</v>
+        <v>119202.464709724</v>
       </c>
       <c r="G61" s="1" t="n">
-        <v>942291.933566848</v>
+        <v>942292.122120492</v>
       </c>
       <c r="H61" s="1" t="n">
-        <v>1216530.65508692</v>
+        <v>1216530.49475936</v>
       </c>
       <c r="I61" s="1" t="n">
-        <v>239188.907339026</v>
+        <v>239887.86843264</v>
       </c>
       <c r="J61" s="1" t="n">
-        <v>302890.769153463</v>
+        <v>299342.771075902</v>
       </c>
       <c r="K61" s="1" t="n">
-        <v>239195.999391695</v>
+        <v>242400.036500774</v>
       </c>
       <c r="L61" s="1" t="n">
-        <v>296240.493115872</v>
+        <v>296240.495157984</v>
       </c>
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
@@ -39872,31 +39962,31 @@
       </c>
       <c r="C62" s="1"/>
       <c r="D62" s="1" t="n">
-        <v>27477.8719733038</v>
+        <v>27387.9921441471</v>
       </c>
       <c r="E62" s="1" t="n">
-        <v>159841.211165169</v>
+        <v>159389.340412563</v>
       </c>
       <c r="F62" s="1" t="n">
-        <v>119830.47972495</v>
+        <v>120346.673507506</v>
       </c>
       <c r="G62" s="1" t="n">
-        <v>975611.907455967</v>
+        <v>975611.648012175</v>
       </c>
       <c r="H62" s="1" t="n">
-        <v>1276356.87614364</v>
+        <v>1276356.7274093</v>
       </c>
       <c r="I62" s="1" t="n">
-        <v>248064.986252491</v>
+        <v>247048.475930129</v>
       </c>
       <c r="J62" s="1" t="n">
-        <v>311536.872186115</v>
+        <v>312325.810303254</v>
       </c>
       <c r="K62" s="1" t="n">
-        <v>259430.244935295</v>
+        <v>259643.519067541</v>
       </c>
       <c r="L62" s="1" t="n">
-        <v>295782.408877794</v>
+        <v>295782.436016995</v>
       </c>
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
@@ -39911,31 +40001,31 @@
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="1" t="n">
-        <v>27301.9738655703</v>
+        <v>27116.89030114</v>
       </c>
       <c r="E63" s="1" t="n">
-        <v>157013.246359478</v>
+        <v>156018.300733422</v>
       </c>
       <c r="F63" s="1" t="n">
-        <v>118825.267226396</v>
+        <v>119951.73120161</v>
       </c>
       <c r="G63" s="1" t="n">
-        <v>975477.633032395</v>
+        <v>975477.349164407</v>
       </c>
       <c r="H63" s="1" t="n">
-        <v>1320673.83248459</v>
+        <v>1320673.85508962</v>
       </c>
       <c r="I63" s="1" t="n">
-        <v>262679.348567638</v>
+        <v>263837.161583164</v>
       </c>
       <c r="J63" s="1" t="n">
-        <v>337432.467945484</v>
+        <v>334971.668974717</v>
       </c>
       <c r="K63" s="1" t="n">
-        <v>280411.148294776</v>
+        <v>281907.215377947</v>
       </c>
       <c r="L63" s="1" t="n">
-        <v>298887.615698786</v>
+        <v>298887.601378211</v>
       </c>
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
@@ -39950,31 +40040,31 @@
       </c>
       <c r="C64" s="1"/>
       <c r="D64" s="1" t="n">
-        <v>27699.8235080517</v>
+        <v>27710.7585604572</v>
       </c>
       <c r="E64" s="1" t="n">
-        <v>159301.273746675</v>
+        <v>159435.149629045</v>
       </c>
       <c r="F64" s="1" t="n">
-        <v>122995.612315423</v>
+        <v>122855.178576847</v>
       </c>
       <c r="G64" s="1" t="n">
-        <v>970115.996488019</v>
+        <v>970116.097315691</v>
       </c>
       <c r="H64" s="1" t="n">
-        <v>1356854.26146975</v>
+        <v>1356854.35491451</v>
       </c>
       <c r="I64" s="1" t="n">
-        <v>268766.811742191</v>
+        <v>265391.181068406</v>
       </c>
       <c r="J64" s="1" t="n">
-        <v>338674.006492828</v>
+        <v>340265.542382134</v>
       </c>
       <c r="K64" s="1" t="n">
-        <v>288864.846832824</v>
+        <v>290723.462901486</v>
       </c>
       <c r="L64" s="1" t="n">
-        <v>297483.579942784</v>
+        <v>297483.574001668</v>
       </c>
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
@@ -39989,31 +40079,31 @@
       </c>
       <c r="C65" s="1"/>
       <c r="D65" s="1" t="n">
-        <v>29083.8754858271</v>
+        <v>28815.2869312264</v>
       </c>
       <c r="E65" s="1" t="n">
-        <v>166936.157605656</v>
+        <v>165468.182902405</v>
       </c>
       <c r="F65" s="1" t="n">
-        <v>125946.194413802</v>
+        <v>127604.692873796</v>
       </c>
       <c r="G65" s="1" t="n">
-        <v>950794.014072306</v>
+        <v>950793.967306428</v>
       </c>
       <c r="H65" s="1" t="n">
-        <v>1272799.47224426</v>
+        <v>1272799.42697427</v>
       </c>
       <c r="I65" s="1" t="n">
-        <v>251263.057335193</v>
+        <v>252707.792449761</v>
       </c>
       <c r="J65" s="1" t="n">
-        <v>315456.096226893</v>
+        <v>316342.828796218</v>
       </c>
       <c r="K65" s="1" t="n">
-        <v>270731.870705805</v>
+        <v>268184.625322105</v>
       </c>
       <c r="L65" s="1" t="n">
-        <v>290074.66233491</v>
+        <v>290074.680499694</v>
       </c>
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
@@ -40028,31 +40118,31 @@
       </c>
       <c r="C66" s="1"/>
       <c r="D66" s="1" t="n">
-        <v>28662.6701192478</v>
+        <v>29067.9001783109</v>
       </c>
       <c r="E66" s="1" t="n">
-        <v>164198.440447376</v>
+        <v>166529.089237158</v>
       </c>
       <c r="F66" s="1" t="n">
-        <v>128624.003580548</v>
+        <v>126005.915969948</v>
       </c>
       <c r="G66" s="1" t="n">
-        <v>950789.878695862</v>
+        <v>950789.926236753</v>
       </c>
       <c r="H66" s="1" t="n">
-        <v>1228678.99829737</v>
+        <v>1228678.99792515</v>
       </c>
       <c r="I66" s="1" t="n">
-        <v>261980.855864692</v>
+        <v>260112.519823351</v>
       </c>
       <c r="J66" s="1" t="n">
-        <v>328476.16113762</v>
+        <v>331697.599093511</v>
       </c>
       <c r="K66" s="1" t="n">
-        <v>281179.887653247</v>
+        <v>279596.637637399</v>
       </c>
       <c r="L66" s="1" t="n">
-        <v>280655.964200977</v>
+        <v>280655.9702258</v>
       </c>
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
@@ -40067,31 +40157,31 @@
       </c>
       <c r="C67" s="1"/>
       <c r="D67" s="1" t="n">
-        <v>28192.1188453361</v>
+        <v>28112.0016118392</v>
       </c>
       <c r="E67" s="1" t="n">
-        <v>161555.875914996</v>
+        <v>161168.521783243</v>
       </c>
       <c r="F67" s="1" t="n">
-        <v>116420.638611925</v>
+        <v>116865.519542092</v>
       </c>
       <c r="G67" s="1" t="n">
-        <v>898807.644608219</v>
+        <v>898807.529129501</v>
       </c>
       <c r="H67" s="1" t="n">
-        <v>1201403.48073122</v>
+        <v>1201403.1666221</v>
       </c>
       <c r="I67" s="1" t="n">
-        <v>232419.628305439</v>
+        <v>229447.978087425</v>
       </c>
       <c r="J67" s="1" t="n">
-        <v>301082.380824317</v>
+        <v>304720.415215559</v>
       </c>
       <c r="K67" s="1" t="n">
-        <v>251048.36397219</v>
+        <v>250188.803693255</v>
       </c>
       <c r="L67" s="1" t="n">
-        <v>263921.058114485</v>
+        <v>263921.059933806</v>
       </c>
       <c r="M67" s="1"/>
       <c r="N67" s="1"/>
@@ -40106,31 +40196,31 @@
       </c>
       <c r="C68" s="1"/>
       <c r="D68" s="1" t="n">
-        <v>26519.3675988189</v>
+        <v>26150.1489474038</v>
       </c>
       <c r="E68" s="1" t="n">
-        <v>152018.921411769</v>
+        <v>149969.196018923</v>
       </c>
       <c r="F68" s="1" t="n">
-        <v>116646.82917505</v>
+        <v>118958.062233506</v>
       </c>
       <c r="G68" s="1" t="n">
-        <v>898921.241824494</v>
+        <v>898921.335252637</v>
       </c>
       <c r="H68" s="1" t="n">
-        <v>1189280.83658819</v>
+        <v>1189280.64514386</v>
       </c>
       <c r="I68" s="1" t="n">
-        <v>227437.581541023</v>
+        <v>228289.611092242</v>
       </c>
       <c r="J68" s="1" t="n">
-        <v>300853.78878389</v>
+        <v>299807.584341686</v>
       </c>
       <c r="K68" s="1" t="n">
-        <v>255652.693680192</v>
+        <v>255900.240147616</v>
       </c>
       <c r="L68" s="1" t="n">
-        <v>266673.532532472</v>
+        <v>266673.510892834</v>
       </c>
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
@@ -40145,31 +40235,31 @@
       </c>
       <c r="C69" s="1"/>
       <c r="D69" s="1" t="n">
-        <v>29571.8741388277</v>
+        <v>29568.0264730625</v>
       </c>
       <c r="E69" s="1" t="n">
-        <v>169570.252722899</v>
+        <v>169623.714560967</v>
       </c>
       <c r="F69" s="1" t="n">
-        <v>130628.878332985</v>
+        <v>130579.315815198</v>
       </c>
       <c r="G69" s="1" t="n">
-        <v>948509.348112652</v>
+        <v>948509.310976692</v>
       </c>
       <c r="H69" s="1" t="n">
-        <v>1350038.84247589</v>
+        <v>1350038.63921208</v>
       </c>
       <c r="I69" s="1" t="n">
-        <v>222618.24642503</v>
+        <v>221918.512843977</v>
       </c>
       <c r="J69" s="1" t="n">
-        <v>294676.799177028</v>
+        <v>295534.44066984</v>
       </c>
       <c r="K69" s="1" t="n">
-        <v>255311.244004636</v>
+        <v>255106.397548089</v>
       </c>
       <c r="L69" s="1" t="n">
-        <v>291620.621234219</v>
+        <v>291620.64835427</v>
       </c>
       <c r="M69" s="1"/>
       <c r="N69" s="1"/>
@@ -40184,31 +40274,31 @@
       </c>
       <c r="C70" s="1"/>
       <c r="D70" s="1" t="n">
-        <v>29613.6806586328</v>
+        <v>30117.9210214468</v>
       </c>
       <c r="E70" s="1" t="n">
-        <v>169545.801891201</v>
+        <v>172509.515258785</v>
       </c>
       <c r="F70" s="1" t="n">
-        <v>132964.569239983</v>
+        <v>129646.190768892</v>
       </c>
       <c r="G70" s="1" t="n">
-        <v>968128.152153193</v>
+        <v>968128.25184238</v>
       </c>
       <c r="H70" s="1" t="n">
-        <v>1350669.97121563</v>
+        <v>1350669.923176</v>
       </c>
       <c r="I70" s="1" t="n">
-        <v>232540.277339946</v>
+        <v>233822.689049061</v>
       </c>
       <c r="J70" s="1" t="n">
-        <v>303966.892002985</v>
+        <v>305284.238875813</v>
       </c>
       <c r="K70" s="1" t="n">
-        <v>265386.95034183</v>
+        <v>262534.266918426</v>
       </c>
       <c r="L70" s="1" t="n">
-        <v>309212.091601176</v>
+        <v>309212.110487449</v>
       </c>
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
@@ -40223,31 +40313,31 @@
       </c>
       <c r="C71" s="1"/>
       <c r="D71" s="1" t="n">
-        <v>31184.5282684923</v>
+        <v>31230.9085042932</v>
       </c>
       <c r="E71" s="1" t="n">
-        <v>178926.122064079</v>
+        <v>179272.056889979</v>
       </c>
       <c r="F71" s="1" t="n">
-        <v>136419.804721665</v>
+        <v>136042.41653795</v>
       </c>
       <c r="G71" s="1" t="n">
-        <v>1010386.19947931</v>
+        <v>1010386.06067985</v>
       </c>
       <c r="H71" s="1" t="n">
-        <v>1379389.15068708</v>
+        <v>1379389.30086712</v>
       </c>
       <c r="I71" s="1" t="n">
-        <v>242783.317900476</v>
+        <v>242142.987858713</v>
       </c>
       <c r="J71" s="1" t="n">
-        <v>307140.827334346</v>
+        <v>308352.904225383</v>
       </c>
       <c r="K71" s="1" t="n">
-        <v>277575.221273846</v>
+        <v>276910.878833142</v>
       </c>
       <c r="L71" s="1" t="n">
-        <v>316363.61082689</v>
+        <v>316363.61300772</v>
       </c>
       <c r="M71" s="1"/>
       <c r="N71" s="1"/>
@@ -40262,31 +40352,31 @@
       </c>
       <c r="C72" s="1"/>
       <c r="D72" s="1" t="n">
-        <v>33080.3649606286</v>
+        <v>32986.8939906985</v>
       </c>
       <c r="E72" s="1" t="n">
-        <v>191901.061800826</v>
+        <v>191444.071978165</v>
       </c>
       <c r="F72" s="1" t="n">
-        <v>146366.029636806</v>
+        <v>146890.14207409</v>
       </c>
       <c r="G72" s="1" t="n">
-        <v>1121889.63130029</v>
+        <v>1121889.74790234</v>
       </c>
       <c r="H72" s="1" t="n">
-        <v>1481813.93750221</v>
+        <v>1481813.54671256</v>
       </c>
       <c r="I72" s="1" t="n">
-        <v>232798.518502718</v>
+        <v>237666.252284213</v>
       </c>
       <c r="J72" s="1" t="n">
-        <v>297881.191419444</v>
+        <v>295671.609276016</v>
       </c>
       <c r="K72" s="1" t="n">
-        <v>271253.428780558</v>
+        <v>268473.104453424</v>
       </c>
       <c r="L72" s="1" t="n">
-        <v>323812.118978623</v>
+        <v>323812.097374506</v>
       </c>
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
@@ -40301,31 +40391,31 @@
       </c>
       <c r="C73" s="1"/>
       <c r="D73" s="1" t="n">
-        <v>31504.3716814809</v>
+        <v>31326.9678590163</v>
       </c>
       <c r="E73" s="1" t="n">
-        <v>182790.508753499</v>
+        <v>181842.164991131</v>
       </c>
       <c r="F73" s="1" t="n">
-        <v>130207.549890428</v>
+        <v>131281.805500271</v>
       </c>
       <c r="G73" s="1" t="n">
-        <v>1144291.01811333</v>
+        <v>1144291.14179784</v>
       </c>
       <c r="H73" s="1" t="n">
-        <v>1432767.47835837</v>
+        <v>1432767.42739875</v>
       </c>
       <c r="I73" s="1" t="n">
-        <v>230093.15352497</v>
+        <v>237292.626522156</v>
       </c>
       <c r="J73" s="1" t="n">
-        <v>303098.884019625</v>
+        <v>299787.158661991</v>
       </c>
       <c r="K73" s="1" t="n">
-        <v>279548.051775743</v>
+        <v>275485.87628016</v>
       </c>
       <c r="L73" s="1" t="n">
-        <v>317830.778129619</v>
+        <v>317830.788273713</v>
       </c>
       <c r="M73" s="1"/>
       <c r="N73" s="1"/>
@@ -40340,31 +40430,31 @@
       </c>
       <c r="C74" s="1"/>
       <c r="D74" s="1" t="n">
-        <v>29998.81908947</v>
+        <v>30119.1087149998</v>
       </c>
       <c r="E74" s="1" t="n">
-        <v>175936.867874677</v>
+        <v>176721.026744579</v>
       </c>
       <c r="F74" s="1" t="n">
-        <v>133253.612251141</v>
+        <v>132386.715200305</v>
       </c>
       <c r="G74" s="1" t="n">
-        <v>1174564.89213013</v>
+        <v>1174565.08630813</v>
       </c>
       <c r="H74" s="1" t="n">
-        <v>1431926.90890798</v>
+        <v>1431926.85797826</v>
       </c>
       <c r="I74" s="1" t="n">
-        <v>245129.119098575</v>
+        <v>249982.660387294</v>
       </c>
       <c r="J74" s="1" t="n">
-        <v>304353.673453332</v>
+        <v>302292.508128268</v>
       </c>
       <c r="K74" s="1" t="n">
-        <v>284438.537644451</v>
+        <v>281508.251295213</v>
       </c>
       <c r="L74" s="1" t="n">
-        <v>325983.836068573</v>
+        <v>325983.838315719</v>
       </c>
       <c r="M74" s="1"/>
       <c r="N74" s="1"/>
@@ -40379,31 +40469,31 @@
       </c>
       <c r="C75" s="1"/>
       <c r="D75" s="1" t="n">
-        <v>30899.2575190562</v>
+        <v>30901.323231925</v>
       </c>
       <c r="E75" s="1" t="n">
-        <v>181867.205855742</v>
+        <v>181960.382178658</v>
       </c>
       <c r="F75" s="1" t="n">
-        <v>137793.642545666</v>
+        <v>137700.580130559</v>
       </c>
       <c r="G75" s="1" t="n">
-        <v>1162246.10872632</v>
+        <v>1162246.09670407</v>
       </c>
       <c r="H75" s="1" t="n">
-        <v>1512706.27610314</v>
+        <v>1512706.32981333</v>
       </c>
       <c r="I75" s="1" t="n">
-        <v>248616.733485438</v>
+        <v>246724.348330543</v>
       </c>
       <c r="J75" s="1" t="n">
-        <v>297410.015994813</v>
+        <v>295937.646555765</v>
       </c>
       <c r="K75" s="1" t="n">
-        <v>276978.545773751</v>
+        <v>280658.362376049</v>
       </c>
       <c r="L75" s="1" t="n">
-        <v>321096.067479241</v>
+        <v>321096.076891991</v>
       </c>
       <c r="M75" s="1"/>
       <c r="N75" s="1"/>
@@ -40418,31 +40508,31 @@
       </c>
       <c r="C76" s="1"/>
       <c r="D76" s="1" t="n">
-        <v>32358.9556798092</v>
+        <v>32274.8747650042</v>
       </c>
       <c r="E76" s="1" t="n">
-        <v>193471.242096707</v>
+        <v>193054.487563253</v>
       </c>
       <c r="F76" s="1" t="n">
-        <v>145906.999324474</v>
+        <v>146384.041358014</v>
       </c>
       <c r="G76" s="1" t="n">
-        <v>1198795.9088417</v>
+        <v>1198796.1390045</v>
       </c>
       <c r="H76" s="1" t="n">
-        <v>1566111.84649359</v>
+        <v>1566111.75511631</v>
       </c>
       <c r="I76" s="1" t="n">
-        <v>238041.576218164</v>
+        <v>239114.054731698</v>
       </c>
       <c r="J76" s="1" t="n">
-        <v>288821.045805731</v>
+        <v>286583.50074789</v>
       </c>
       <c r="K76" s="1" t="n">
-        <v>272528.695318556</v>
+        <v>273868.218524846</v>
       </c>
       <c r="L76" s="1" t="n">
-        <v>321273.913339566</v>
+        <v>321273.915554244</v>
       </c>
       <c r="M76" s="1"/>
       <c r="N76" s="1"/>
@@ -40457,31 +40547,31 @@
       </c>
       <c r="C77" s="1"/>
       <c r="D77" s="1" t="n">
-        <v>31376.243304117</v>
+        <v>31117.644935618</v>
       </c>
       <c r="E77" s="1" t="n">
-        <v>202471.362327388</v>
+        <v>200892.07049631</v>
       </c>
       <c r="F77" s="1" t="n">
-        <v>148172.007114326</v>
+        <v>149928.805876645</v>
       </c>
       <c r="G77" s="1" t="n">
-        <v>1293308.36044047</v>
+        <v>1293308.29835761</v>
       </c>
       <c r="H77" s="1" t="n">
-        <v>1605496.5839832</v>
+        <v>1605496.52688009</v>
       </c>
       <c r="I77" s="1" t="n">
-        <v>238087.089027763</v>
+        <v>238182.855850298</v>
       </c>
       <c r="J77" s="1" t="n">
-        <v>271604.133791323</v>
+        <v>271531.117413838</v>
       </c>
       <c r="K77" s="1" t="n">
-        <v>274057.099668894</v>
+        <v>274034.544935784</v>
       </c>
       <c r="L77" s="1" t="n">
-        <v>356990.892227934</v>
+        <v>356990.894688824</v>
       </c>
       <c r="M77" s="1"/>
       <c r="N77" s="1"/>
@@ -40496,31 +40586,31 @@
       </c>
       <c r="C78" s="1"/>
       <c r="D78" s="1" t="n">
-        <v>30860.5613843204</v>
+        <v>30988.8836802717</v>
       </c>
       <c r="E78" s="1" t="n">
-        <v>201954.132063142</v>
+        <v>202884.21832732</v>
       </c>
       <c r="F78" s="1" t="n">
-        <v>149278.327157513</v>
+        <v>148264.97445499</v>
       </c>
       <c r="G78" s="1" t="n">
-        <v>1329340.02088715</v>
+        <v>1329340.22331851</v>
       </c>
       <c r="H78" s="1" t="n">
-        <v>1591169.11392603</v>
+        <v>1591169.26146554</v>
       </c>
       <c r="I78" s="1" t="n">
-        <v>238197.412281603</v>
+        <v>237766.370138911</v>
       </c>
       <c r="J78" s="1" t="n">
-        <v>266588.317757353</v>
+        <v>266584.029159309</v>
       </c>
       <c r="K78" s="1" t="n">
-        <v>277757.551875446</v>
+        <v>278226.043044198</v>
       </c>
       <c r="L78" s="1" t="n">
-        <v>393855.821353156</v>
+        <v>393855.824068173</v>
       </c>
       <c r="M78" s="1"/>
       <c r="N78" s="1"/>
@@ -40535,31 +40625,31 @@
       </c>
       <c r="C79" s="1"/>
       <c r="D79" s="1" t="n">
-        <v>31124.8082450844</v>
+        <v>31089.7009216442</v>
       </c>
       <c r="E79" s="1" t="n">
-        <v>205363.941929608</v>
+        <v>205223.676954797</v>
       </c>
       <c r="F79" s="1" t="n">
-        <v>148027.343843073</v>
+        <v>148194.186182221</v>
       </c>
       <c r="G79" s="1" t="n">
-        <v>1306194.96772152</v>
+        <v>1306195.15911913</v>
       </c>
       <c r="H79" s="1" t="n">
-        <v>1582697.64814323</v>
+        <v>1582697.71441254</v>
       </c>
       <c r="I79" s="1" t="n">
-        <v>246231.882481696</v>
+        <v>246449.308020248</v>
       </c>
       <c r="J79" s="1" t="n">
-        <v>273410.069726147</v>
+        <v>273422.931903413</v>
       </c>
       <c r="K79" s="1" t="n">
-        <v>294951.731432345</v>
+        <v>294702.494214654</v>
       </c>
       <c r="L79" s="1" t="n">
-        <v>385173.098338844</v>
+        <v>385173.099456194</v>
       </c>
       <c r="M79" s="1"/>
       <c r="N79" s="1"/>
@@ -40574,31 +40664,31 @@
       </c>
       <c r="C80" s="1"/>
       <c r="D80" s="1" t="n">
-        <v>31278.4920798243</v>
+        <v>31236.5512225814</v>
       </c>
       <c r="E80" s="1" t="n">
-        <v>206807.51634968</v>
+        <v>206622.209891056</v>
       </c>
       <c r="F80" s="1" t="n">
-        <v>150350.417216032</v>
+        <v>150566.901211028</v>
       </c>
       <c r="G80" s="1" t="n">
-        <v>1258438.25260389</v>
+        <v>1258438.26387338</v>
       </c>
       <c r="H80" s="1" t="n">
-        <v>1578940.73960962</v>
+        <v>1578940.81651531</v>
       </c>
       <c r="I80" s="1" t="n">
-        <v>252706.877606922</v>
+        <v>252495.778884599</v>
       </c>
       <c r="J80" s="1" t="n">
-        <v>278466.559512933</v>
+        <v>278956.420838403</v>
       </c>
       <c r="K80" s="1" t="n">
-        <v>302860.530390851</v>
+        <v>302540.792743416</v>
       </c>
       <c r="L80" s="1" t="n">
-        <v>375119.903741428</v>
+        <v>375119.914490765</v>
       </c>
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
@@ -40613,31 +40703,31 @@
       </c>
       <c r="C81" s="1"/>
       <c r="D81" s="1" t="n">
-        <v>32215.2149025761</v>
+        <v>32184.8162039019</v>
       </c>
       <c r="E81" s="1" t="n">
-        <v>204764.39758261</v>
+        <v>204662.305181232</v>
       </c>
       <c r="F81" s="1" t="n">
-        <v>155204.56712971</v>
+        <v>155330.030531715</v>
       </c>
       <c r="G81" s="1" t="n">
-        <v>1282999.91212748</v>
+        <v>1283000.01895808</v>
       </c>
       <c r="H81" s="1" t="n">
-        <v>1653999.75434512</v>
+        <v>1653999.72476178</v>
       </c>
       <c r="I81" s="1" t="n">
-        <v>282254.655250931</v>
+        <v>282528.475868716</v>
       </c>
       <c r="J81" s="1" t="n">
-        <v>313234.388009909</v>
+        <v>312688.315124209</v>
       </c>
       <c r="K81" s="1" t="n">
-        <v>337544.097853264</v>
+        <v>337857.377747498</v>
       </c>
       <c r="L81" s="1" t="n">
-        <v>390000</v>
+        <v>390000.018949581</v>
       </c>
       <c r="M81" s="1"/>
       <c r="N81" s="1"/>
@@ -40652,31 +40742,31 @@
       </c>
       <c r="C82" s="1"/>
       <c r="D82" s="1" t="n">
-        <v>33115.2198720461</v>
+        <v>32393.824472504</v>
       </c>
       <c r="E82" s="1" t="n">
-        <v>212908.301170695</v>
+        <v>208362.993963436</v>
       </c>
       <c r="F82" s="1" t="n">
-        <v>162135.323630386</v>
+        <v>167171.709761101</v>
       </c>
       <c r="G82" s="1" t="n">
-        <v>1323999.90931939</v>
+        <v>1323999.91983468</v>
       </c>
       <c r="H82" s="1" t="n">
-        <v>1728999.95623094</v>
+        <v>1728999.89473515</v>
       </c>
       <c r="I82" s="1" t="n">
-        <v>286219.214464314</v>
+        <v>286441.662320134</v>
       </c>
       <c r="J82" s="1" t="n">
-        <v>313280.418467296</v>
+        <v>312672.100285469</v>
       </c>
       <c r="K82" s="1" t="n">
-        <v>343686.889590089</v>
+        <v>344125.247550888</v>
       </c>
       <c r="L82" s="1" t="n">
-        <v>415000</v>
+        <v>415000.016329713</v>
       </c>
       <c r="M82" s="1"/>
       <c r="N82" s="1"/>
@@ -40691,31 +40781,31 @@
       </c>
       <c r="C83" s="1"/>
       <c r="D83" s="1" t="n">
-        <v>32644.1963698709</v>
+        <v>32217.4779027729</v>
       </c>
       <c r="E83" s="1" t="n">
-        <v>215586.092008218</v>
+        <v>212862.770553893</v>
       </c>
       <c r="F83" s="1" t="n">
-        <v>159037.749179137</v>
+        <v>162050.000715198</v>
       </c>
       <c r="G83" s="1" t="n">
-        <v>1350999.90747016</v>
+        <v>1351000.10174424</v>
       </c>
       <c r="H83" s="1" t="n">
-        <v>1744999.95582591</v>
+        <v>1744999.82467696</v>
       </c>
       <c r="I83" s="1" t="n">
-        <v>285078.257146546</v>
+        <v>284564.208691448</v>
       </c>
       <c r="J83" s="1" t="n">
-        <v>305481.364967263</v>
+        <v>306476.825183575</v>
       </c>
       <c r="K83" s="1" t="n">
-        <v>349430.849024965</v>
+        <v>348873.269139024</v>
       </c>
       <c r="L83" s="1" t="n">
-        <v>418000</v>
+        <v>418000.005841658</v>
       </c>
       <c r="M83" s="1"/>
       <c r="N83" s="1"/>
@@ -40730,31 +40820,31 @@
       </c>
       <c r="C84" s="1"/>
       <c r="D84" s="1" t="n">
-        <v>31863.1779335169</v>
+        <v>31850.444572593</v>
       </c>
       <c r="E84" s="1" t="n">
-        <v>209521.970655491</v>
+        <v>209531.534176951</v>
       </c>
       <c r="F84" s="1" t="n">
-        <v>164613.069942388</v>
+        <v>164615.314587526</v>
       </c>
       <c r="G84" s="1" t="n">
-        <v>1375999.90575792</v>
+        <v>1376000.04877058</v>
       </c>
       <c r="H84" s="1" t="n">
-        <v>1773999.95509178</v>
+        <v>1773999.89199546</v>
       </c>
       <c r="I84" s="1" t="n">
-        <v>278080.241359065</v>
+        <v>278088.459475861</v>
       </c>
       <c r="J84" s="1" t="n">
-        <v>294815.783292174</v>
+        <v>294808.697548058</v>
       </c>
       <c r="K84" s="1" t="n">
-        <v>350031.001030608</v>
+        <v>350029.531152686</v>
       </c>
       <c r="L84" s="1" t="n">
-        <v>422000</v>
+        <v>422000.002909026</v>
       </c>
       <c r="M84" s="1"/>
       <c r="N84" s="1"/>
@@ -40768,34 +40858,34 @@
         <v>4976000</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>91000</v>
+        <v>90993.6922253879</v>
       </c>
       <c r="D85" s="1" t="n">
-        <v>31382.4520299249</v>
+        <v>31369.9107796702</v>
       </c>
       <c r="E85" s="1" t="n">
-        <v>204736.220114717</v>
+        <v>204745.565193081</v>
       </c>
       <c r="F85" s="1" t="n">
-        <v>156016.130641358</v>
+        <v>156018.258059607</v>
       </c>
       <c r="G85" s="1" t="n">
-        <v>1369999.90616886</v>
+        <v>1370000.04855791</v>
       </c>
       <c r="H85" s="1" t="n">
-        <v>1781999.95488926</v>
+        <v>1781999.89150841</v>
       </c>
       <c r="I85" s="1" t="n">
-        <v>274676.437107029</v>
+        <v>274684.554631058</v>
       </c>
       <c r="J85" s="1" t="n">
-        <v>291827.963645901</v>
+        <v>291820.949712476</v>
       </c>
       <c r="K85" s="1" t="n">
-        <v>352844.701283564</v>
+        <v>352843.219590129</v>
       </c>
       <c r="L85" s="1" t="n">
-        <v>411000</v>
+        <v>411000.002833199</v>
       </c>
       <c r="M85" s="1"/>
       <c r="N85" s="1"/>
@@ -40809,34 +40899,34 @@
         <v>5097000</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>95000</v>
+        <v>95098.6708220219</v>
       </c>
       <c r="D86" s="1" t="n">
-        <v>32004.4993745749</v>
+        <v>32129.9281522535</v>
       </c>
       <c r="E86" s="1" t="n">
-        <v>206354.348400432</v>
+        <v>206284.444329861</v>
       </c>
       <c r="F86" s="1" t="n">
-        <v>157775.350123777</v>
+        <v>157723.275602058</v>
       </c>
       <c r="G86" s="1" t="n">
-        <v>1419999.90274436</v>
+        <v>1420000.22988116</v>
       </c>
       <c r="H86" s="1" t="n">
-        <v>1837999.95347164</v>
+        <v>1837999.80676153</v>
       </c>
       <c r="I86" s="1" t="n">
-        <v>275026.672157339</v>
+        <v>275136.957172661</v>
       </c>
       <c r="J86" s="1" t="n">
-        <v>287639.398831252</v>
+        <v>287450.356892963</v>
       </c>
       <c r="K86" s="1" t="n">
-        <v>359233.253382474</v>
+        <v>359325.006982995</v>
       </c>
       <c r="L86" s="1" t="n">
-        <v>416000</v>
+        <v>416000.002867666</v>
       </c>
       <c r="M86" s="1"/>
       <c r="N86" s="1"/>
@@ -40850,34 +40940,34 @@
         <v>5169000</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>95000</v>
+        <v>94740.0991873415</v>
       </c>
       <c r="D87" s="1" t="n">
-        <v>31091.4911819777</v>
+        <v>31127.6389334674</v>
       </c>
       <c r="E87" s="1" t="n">
-        <v>199612.671221675</v>
+        <v>199628.057404734</v>
       </c>
       <c r="F87" s="1" t="n">
-        <v>153409.081799108</v>
+        <v>153359.378552956</v>
       </c>
       <c r="G87" s="1" t="n">
-        <v>1447999.90082665</v>
+        <v>1448000.05132252</v>
       </c>
       <c r="H87" s="1" t="n">
-        <v>1866999.95273752</v>
+        <v>1866999.88633344</v>
       </c>
       <c r="I87" s="1" t="n">
-        <v>279027.482402969</v>
+        <v>279432.907609572</v>
       </c>
       <c r="J87" s="1" t="n">
-        <v>288448.178559907</v>
+        <v>288529.252782644</v>
       </c>
       <c r="K87" s="1" t="n">
-        <v>368672.322718342</v>
+        <v>368144.749189031</v>
       </c>
       <c r="L87" s="1" t="n">
-        <v>429000</v>
+        <v>429000.00295728</v>
       </c>
       <c r="M87" s="1"/>
       <c r="N87" s="1"/>
@@ -40891,34 +40981,34 @@
         <v>5235000</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>94000</v>
+        <v>93748.7095781368</v>
       </c>
       <c r="D88" s="1" t="n">
-        <v>31004.8831882865</v>
+        <v>31016.4478686756</v>
       </c>
       <c r="E88" s="1" t="n">
-        <v>200098.028746062</v>
+        <v>199960.231910473</v>
       </c>
       <c r="F88" s="1" t="n">
-        <v>153025.364657645</v>
+        <v>153145.730884837</v>
       </c>
       <c r="G88" s="1" t="n">
-        <v>1479999.89863497</v>
+        <v>1480000.05245672</v>
       </c>
       <c r="H88" s="1" t="n">
-        <v>1906999.95172493</v>
+        <v>1906999.88389817</v>
       </c>
       <c r="I88" s="1" t="n">
-        <v>273095.979484959</v>
+        <v>273478.9194991</v>
       </c>
       <c r="J88" s="1" t="n">
-        <v>284414.657329154</v>
+        <v>284489.409070757</v>
       </c>
       <c r="K88" s="1" t="n">
-        <v>370143.191860719</v>
+        <v>369646.806136024</v>
       </c>
       <c r="L88" s="1" t="n">
-        <v>432000</v>
+        <v>432000.002977961</v>
       </c>
       <c r="M88" s="1"/>
       <c r="N88" s="1"/>
@@ -40932,34 +41022,34 @@
         <v>5243000</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>98000</v>
+        <v>97745.7494184916</v>
       </c>
       <c r="D89" s="1" t="n">
-        <v>29520.9080287944</v>
+        <v>29553.9846808645</v>
       </c>
       <c r="E89" s="1" t="n">
-        <v>193185.912269779</v>
+        <v>193201.442982886</v>
       </c>
       <c r="F89" s="1" t="n">
-        <v>147412.132493776</v>
+        <v>147365.41374309</v>
       </c>
       <c r="G89" s="1" t="n">
-        <v>1469999.89931987</v>
+        <v>1470000.05210229</v>
       </c>
       <c r="H89" s="1" t="n">
-        <v>1944999.95076297</v>
+        <v>1944999.88158465</v>
       </c>
       <c r="I89" s="1" t="n">
-        <v>266873.100471009</v>
+        <v>266909.654892651</v>
       </c>
       <c r="J89" s="1" t="n">
-        <v>277233.464789515</v>
+        <v>277612.352886414</v>
       </c>
       <c r="K89" s="1" t="n">
-        <v>371253.471565173</v>
+        <v>370790.897745542</v>
       </c>
       <c r="L89" s="1" t="n">
-        <v>437000</v>
+        <v>437000.003012428</v>
       </c>
       <c r="M89" s="1"/>
       <c r="N89" s="1"/>
@@ -40973,34 +41063,34 @@
         <v>5364000</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>100000</v>
+        <v>99747.3851648553</v>
       </c>
       <c r="D90" s="1" t="n">
-        <v>29473.3892284411</v>
+        <v>29505.877487545</v>
       </c>
       <c r="E90" s="1" t="n">
-        <v>197901.403345577</v>
+        <v>197918.022940374</v>
       </c>
       <c r="F90" s="1" t="n">
-        <v>150729.268540218</v>
+        <v>150682.329941523</v>
       </c>
       <c r="G90" s="1" t="n">
-        <v>1492999.8977446</v>
+        <v>1493000.05291749</v>
       </c>
       <c r="H90" s="1" t="n">
-        <v>1992999.94954787</v>
+        <v>1992999.87866232</v>
       </c>
       <c r="I90" s="1" t="n">
-        <v>270406.426973149</v>
+        <v>270346.452854093</v>
       </c>
       <c r="J90" s="1" t="n">
-        <v>278309.794239923</v>
+        <v>278579.118220505</v>
       </c>
       <c r="K90" s="1" t="n">
-        <v>380897.650318309</v>
+        <v>380661.333759664</v>
       </c>
       <c r="L90" s="1" t="n">
-        <v>462000</v>
+        <v>462000.003184763</v>
       </c>
       <c r="M90" s="1"/>
       <c r="N90" s="1"/>
@@ -41014,34 +41104,34 @@
         <v>5585000</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>101000</v>
+        <v>100774.504594215</v>
       </c>
       <c r="D91" s="1" t="n">
-        <v>29566.7951500409</v>
+        <v>29675.1629486766</v>
       </c>
       <c r="E91" s="1" t="n">
-        <v>203547.082785386</v>
+        <v>203678.691256338</v>
       </c>
       <c r="F91" s="1" t="n">
-        <v>154970.143892818</v>
+        <v>154741.722960335</v>
       </c>
       <c r="G91" s="1" t="n">
-        <v>1534999.89486803</v>
+        <v>1535000.19317104</v>
       </c>
       <c r="H91" s="1" t="n">
-        <v>2095999.94694046</v>
+        <v>2096000.07126136</v>
       </c>
       <c r="I91" s="1" t="n">
-        <v>280592.358340465</v>
+        <v>280914.907214325</v>
       </c>
       <c r="J91" s="1" t="n">
-        <v>284581.749028383</v>
+        <v>284796.604127981</v>
       </c>
       <c r="K91" s="1" t="n">
-        <v>401648.881666843</v>
+        <v>401061.420459137</v>
       </c>
       <c r="L91" s="1" t="n">
-        <v>489000</v>
+        <v>489000.003370886</v>
       </c>
       <c r="M91" s="1"/>
       <c r="N91" s="1"/>
@@ -41055,34 +41145,34 @@
         <v>5731000</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>101000</v>
+        <v>100755.368477311</v>
       </c>
       <c r="D92" s="1" t="n">
-        <v>29540.2135563316</v>
+        <v>29549.9629406659</v>
       </c>
       <c r="E92" s="1" t="n">
-        <v>205112.01181917</v>
+        <v>205271.103550626</v>
       </c>
       <c r="F92" s="1" t="n">
-        <v>156417.304642358</v>
+        <v>156255.581935557</v>
       </c>
       <c r="G92" s="1" t="n">
-        <v>1575999.89205994</v>
+        <v>1576000.05585932</v>
       </c>
       <c r="H92" s="1" t="n">
-        <v>2160999.94529501</v>
+        <v>2160999.86843416</v>
       </c>
       <c r="I92" s="1" t="n">
-        <v>283515.521132139</v>
+        <v>283975.024779909</v>
       </c>
       <c r="J92" s="1" t="n">
-        <v>284424.723095821</v>
+        <v>284554.196511111</v>
       </c>
       <c r="K92" s="1" t="n">
-        <v>415419.323133861</v>
+        <v>414779.55490061</v>
       </c>
       <c r="L92" s="1" t="n">
-        <v>509000</v>
+        <v>509000.003508754</v>
       </c>
       <c r="M92" s="1"/>
       <c r="N92" s="1"/>
@@ -41096,34 +41186,34 @@
         <v>5706000</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>88000</v>
+        <v>87790.6810050084</v>
       </c>
       <c r="D93" s="1" t="n">
-        <v>28776.1512917345</v>
+        <v>28806.2738947057</v>
       </c>
       <c r="E93" s="1" t="n">
-        <v>200115.591835985</v>
+        <v>200132.031817252</v>
       </c>
       <c r="F93" s="1" t="n">
-        <v>152185.814528429</v>
+        <v>152141.657097342</v>
       </c>
       <c r="G93" s="1" t="n">
-        <v>1581999.891649</v>
+        <v>1582000.05607198</v>
       </c>
       <c r="H93" s="1" t="n">
-        <v>2141999.94577598</v>
+        <v>2141999.86959091</v>
       </c>
       <c r="I93" s="1" t="n">
-        <v>286416.924478425</v>
+        <v>286734.317492052</v>
       </c>
       <c r="J93" s="1" t="n">
-        <v>289376.360141382</v>
+        <v>289369.330620368</v>
       </c>
       <c r="K93" s="1" t="n">
-        <v>428746.482257303</v>
+        <v>428411.986748633</v>
       </c>
       <c r="L93" s="1" t="n">
-        <v>501000</v>
+        <v>501000.003453607</v>
       </c>
       <c r="M93" s="1"/>
       <c r="N93" s="1"/>
@@ -41137,34 +41227,34 @@
         <v>5870000</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>89000</v>
+        <v>88993.8308577969</v>
       </c>
       <c r="D94" s="1" t="n">
-        <v>29734.0601258368</v>
+        <v>29493.8685373091</v>
       </c>
       <c r="E94" s="1" t="n">
-        <v>205808.921953544</v>
+        <v>205973.015586697</v>
       </c>
       <c r="F94" s="1" t="n">
-        <v>157514.829231433</v>
+        <v>157583.851743307</v>
       </c>
       <c r="G94" s="1" t="n">
-        <v>1619999.88904639</v>
+        <v>1620000.05741885</v>
       </c>
       <c r="H94" s="1" t="n">
-        <v>2197999.94435836</v>
+        <v>2197999.86618153</v>
       </c>
       <c r="I94" s="1" t="n">
-        <v>295467.920848562</v>
+        <v>295726.051193476</v>
       </c>
       <c r="J94" s="1" t="n">
-        <v>296182.05265904</v>
+        <v>296430.784175935</v>
       </c>
       <c r="K94" s="1" t="n">
-        <v>449078.351461984</v>
+        <v>448522.378304487</v>
       </c>
       <c r="L94" s="1" t="n">
-        <v>521000</v>
+        <v>521000.003591476</v>
       </c>
       <c r="M94" s="1"/>
       <c r="N94" s="1"/>
@@ -41178,34 +41268,34 @@
         <v>5965000</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>91000</v>
+        <v>90791.033668093</v>
       </c>
       <c r="D95" s="1" t="n">
-        <v>30299.148832734</v>
+        <v>30308.4967237428</v>
       </c>
       <c r="E95" s="1" t="n">
-        <v>209992.245265641</v>
+        <v>209861.933279481</v>
       </c>
       <c r="F95" s="1" t="n">
-        <v>160765.012633937</v>
+        <v>160881.096995238</v>
       </c>
       <c r="G95" s="1" t="n">
-        <v>1638999.88774508</v>
+        <v>1639000.05809228</v>
       </c>
       <c r="H95" s="1" t="n">
-        <v>2248999.94306731</v>
+        <v>2248999.86307655</v>
       </c>
       <c r="I95" s="1" t="n">
-        <v>298895.453890433</v>
+        <v>299010.258474411</v>
       </c>
       <c r="J95" s="1" t="n">
-        <v>299176.190881714</v>
+        <v>299608.276121063</v>
       </c>
       <c r="K95" s="1" t="n">
-        <v>462976.040379611</v>
+        <v>462369.872718857</v>
       </c>
       <c r="L95" s="1" t="n">
-        <v>516000</v>
+        <v>516000.003557009</v>
       </c>
       <c r="M95" s="1"/>
       <c r="N95" s="1"/>
@@ -41219,34 +41309,34 @@
         <v>6055000</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>91000</v>
+        <v>90775.624553388</v>
       </c>
       <c r="D96" s="1" t="n">
-        <v>31583.6433229698</v>
+        <v>31505.3619088098</v>
       </c>
       <c r="E96" s="1" t="n">
-        <v>217673.172991094</v>
+        <v>217765.615792007</v>
       </c>
       <c r="F96" s="1" t="n">
-        <v>166803.25633026</v>
+        <v>166788.317869668</v>
       </c>
       <c r="G96" s="1" t="n">
-        <v>1651999.88685471</v>
+        <v>1652000.05855304</v>
       </c>
       <c r="H96" s="1" t="n">
-        <v>2268999.94256102</v>
+        <v>2268999.97761157</v>
       </c>
       <c r="I96" s="1" t="n">
-        <v>305939.841549063</v>
+        <v>306006.802037592</v>
       </c>
       <c r="J96" s="1" t="n">
-        <v>305529.705774755</v>
+        <v>305746.82998303</v>
       </c>
       <c r="K96" s="1" t="n">
-        <v>480741.395569741</v>
+        <v>480426.524699642</v>
       </c>
       <c r="L96" s="1" t="n">
-        <v>527000</v>
+        <v>527000.003632836</v>
       </c>
       <c r="M96" s="1"/>
       <c r="N96" s="1"/>
@@ -41260,34 +41350,34 @@
         <v>6225000</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>97000</v>
+        <v>96786.4676366294</v>
       </c>
       <c r="D97" s="1" t="n">
-        <v>32031.5217621963</v>
+        <v>32018.7211266668</v>
       </c>
       <c r="E97" s="1" t="n">
-        <v>218983.450995825</v>
+        <v>218993.446381638</v>
       </c>
       <c r="F97" s="1" t="n">
-        <v>168047.559285061</v>
+        <v>168049.850762505</v>
       </c>
       <c r="G97" s="1" t="n">
-        <v>1712999.88267683</v>
+        <v>1713000.06071511</v>
       </c>
       <c r="H97" s="1" t="n">
-        <v>2316999.94134592</v>
+        <v>2316999.85893658</v>
       </c>
       <c r="I97" s="1" t="n">
-        <v>313735.533307015</v>
+        <v>313990.452942759</v>
       </c>
       <c r="J97" s="1" t="n">
-        <v>308941.788136407</v>
+        <v>309174.115536842</v>
       </c>
       <c r="K97" s="1" t="n">
-        <v>498885.889799973</v>
+        <v>498351.706465149</v>
       </c>
       <c r="L97" s="1" t="n">
-        <v>551000</v>
+        <v>551000.003798279</v>
       </c>
       <c r="M97" s="1"/>
       <c r="N97" s="1"/>
@@ -41301,34 +41391,34 @@
         <v>6375000</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>108000</v>
+        <v>107766.114449806</v>
       </c>
       <c r="D98" s="1" t="n">
-        <v>31710.9646772835</v>
+        <v>31698.2921447658</v>
       </c>
       <c r="E98" s="1" t="n">
-        <v>216228.710221802</v>
+        <v>216238.579868904</v>
       </c>
       <c r="F98" s="1" t="n">
-        <v>166119.834602337</v>
+        <v>166122.099793547</v>
       </c>
       <c r="G98" s="1" t="n">
-        <v>1761999.87932082</v>
+        <v>1762000.06245186</v>
       </c>
       <c r="H98" s="1" t="n">
-        <v>2381999.93970046</v>
+        <v>2381999.85497925</v>
       </c>
       <c r="I98" s="1" t="n">
-        <v>316207.521250024</v>
+        <v>316362.653014956</v>
       </c>
       <c r="J98" s="1" t="n">
-        <v>307119.242455918</v>
+        <v>307577.215644678</v>
       </c>
       <c r="K98" s="1" t="n">
-        <v>507674.839023981</v>
+        <v>506996.499828244</v>
       </c>
       <c r="L98" s="1" t="n">
-        <v>571000</v>
+        <v>571000.003936147</v>
       </c>
       <c r="M98" s="1"/>
       <c r="N98" s="1"/>
@@ -41342,34 +41432,34 @@
         <v>6609000</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>112000</v>
+        <v>111760.847666529</v>
       </c>
       <c r="D99" s="1" t="n">
-        <v>32996.8992064128</v>
+        <v>33005.9476303689</v>
       </c>
       <c r="E99" s="1" t="n">
-        <v>224363.365291964</v>
+        <v>224524.860086506</v>
       </c>
       <c r="F99" s="1" t="n">
-        <v>172695.871564636</v>
+        <v>172532.268198206</v>
       </c>
       <c r="G99" s="1" t="n">
-        <v>1826999.87486898</v>
+        <v>1827000.0647557</v>
       </c>
       <c r="H99" s="1" t="n">
-        <v>2472999.93739683</v>
+        <v>2472999.849439</v>
       </c>
       <c r="I99" s="1" t="n">
-        <v>322516.871873684</v>
+        <v>322480.756950765</v>
       </c>
       <c r="J99" s="1" t="n">
-        <v>311969.042443558</v>
+        <v>311911.529850635</v>
       </c>
       <c r="K99" s="1" t="n">
-        <v>520583.977586599</v>
+        <v>520686.759710231</v>
       </c>
       <c r="L99" s="1" t="n">
-        <v>605000</v>
+        <v>605000.004170523</v>
       </c>
       <c r="M99" s="1"/>
       <c r="N99" s="1"/>
@@ -41383,34 +41473,34 @@
         <v>6862000</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>119000</v>
+        <v>118991.751371661</v>
       </c>
       <c r="D100" s="1" t="n">
-        <v>34208.488866308</v>
+        <v>34194.818257673</v>
       </c>
       <c r="E100" s="1" t="n">
-        <v>232910.464761427</v>
+        <v>232921.095838546</v>
       </c>
       <c r="F100" s="1" t="n">
-        <v>179920.676961919</v>
+        <v>179923.130339849</v>
       </c>
       <c r="G100" s="1" t="n">
-        <v>1911999.86904734</v>
+        <v>1912000.06776842</v>
       </c>
       <c r="H100" s="1" t="n">
-        <v>2547999.93549823</v>
+        <v>2547999.84487285</v>
       </c>
       <c r="I100" s="1" t="n">
-        <v>330963.115692216</v>
+        <v>331170.327654499</v>
       </c>
       <c r="J100" s="1" t="n">
-        <v>319827.768094123</v>
+        <v>319674.360024097</v>
       </c>
       <c r="K100" s="1" t="n">
-        <v>538299.507304396</v>
+        <v>538247.145424446</v>
       </c>
       <c r="L100" s="1" t="n">
-        <v>639000</v>
+        <v>639000.0044049</v>
       </c>
       <c r="M100" s="1"/>
       <c r="N100" s="1"/>
@@ -41424,34 +41514,34 @@
         <v>7152000</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>127000</v>
+        <v>126836.956521974</v>
       </c>
       <c r="D101" s="1" t="n">
-        <v>35039.3603040391</v>
+        <v>34904.8127748747</v>
       </c>
       <c r="E101" s="1" t="n">
-        <v>238884.911318132</v>
+        <v>238854.788236621</v>
       </c>
       <c r="F101" s="1" t="n">
-        <v>185099.868630086</v>
+        <v>185255.336567054</v>
       </c>
       <c r="G101" s="1" t="n">
-        <v>2015999.86192439</v>
+        <v>2016000.14418463</v>
       </c>
       <c r="H101" s="1" t="n">
-        <v>2650999.93289082</v>
+        <v>2650999.68219893</v>
       </c>
       <c r="I101" s="1" t="n">
-        <v>335963.527510524</v>
+        <v>336237.176405212</v>
       </c>
       <c r="J101" s="1" t="n">
-        <v>326356.342266169</v>
+        <v>326365.791029585</v>
       </c>
       <c r="K101" s="1" t="n">
-        <v>552838.848741758</v>
+        <v>552533.310107896</v>
       </c>
       <c r="L101" s="1" t="n">
-        <v>678000</v>
+        <v>678000.004673744</v>
       </c>
       <c r="M101" s="1"/>
       <c r="N101" s="1"/>
@@ -41465,34 +41555,34 @@
         <v>7379000</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>131000</v>
+        <v>130728.937738052</v>
       </c>
       <c r="D102" s="1" t="n">
-        <v>35067.5550477175</v>
+        <v>35100.5965215891</v>
       </c>
       <c r="E102" s="1" t="n">
-        <v>240088.227208083</v>
+        <v>240105.563357606</v>
       </c>
       <c r="F102" s="1" t="n">
-        <v>186842.101873203</v>
+        <v>186794.186353643</v>
       </c>
       <c r="G102" s="1" t="n">
-        <v>2079999.85754104</v>
+        <v>2080000.07372296</v>
       </c>
       <c r="H102" s="1" t="n">
-        <v>2744999.93051124</v>
+        <v>2744999.83287911</v>
       </c>
       <c r="I102" s="1" t="n">
-        <v>337622.09758694</v>
+        <v>337776.181872975</v>
       </c>
       <c r="J102" s="1" t="n">
-        <v>328321.615619596</v>
+        <v>328451.717731922</v>
       </c>
       <c r="K102" s="1" t="n">
-        <v>565603.894563838</v>
+        <v>565292.337826562</v>
       </c>
       <c r="L102" s="1" t="n">
-        <v>723000</v>
+        <v>723000.004983948</v>
       </c>
       <c r="M102" s="1"/>
       <c r="N102" s="1"/>
@@ -41506,34 +41596,34 @@
         <v>7537000</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>130000</v>
+        <v>129734.596410387</v>
       </c>
       <c r="D103" s="1" t="n">
-        <v>35399.5602069188</v>
+        <v>35432.4943374197</v>
       </c>
       <c r="E103" s="1" t="n">
-        <v>242620.592787004</v>
+        <v>242638.144462818</v>
       </c>
       <c r="F103" s="1" t="n">
-        <v>187998.094658796</v>
+        <v>187950.075217503</v>
       </c>
       <c r="G103" s="1" t="n">
-        <v>2081999.85740406</v>
+        <v>2082000.07379385</v>
       </c>
       <c r="H103" s="1" t="n">
-        <v>2829999.92835949</v>
+        <v>2829999.82770415</v>
       </c>
       <c r="I103" s="1" t="n">
-        <v>346710.11272696</v>
+        <v>346864.871964861</v>
       </c>
       <c r="J103" s="1" t="n">
-        <v>336161.84267152</v>
+        <v>336289.907620445</v>
       </c>
       <c r="K103" s="1" t="n">
-        <v>591020.82255901</v>
+        <v>590710.783846644</v>
       </c>
       <c r="L103" s="1" t="n">
-        <v>750000</v>
+        <v>750000.005170071</v>
       </c>
       <c r="M103" s="1"/>
       <c r="N103" s="1"/>
@@ -41547,34 +41637,34 @@
         <v>7780000</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>131000</v>
+        <v>130736.568277057</v>
       </c>
       <c r="D104" s="1" t="n">
-        <v>36059.7789339874</v>
+        <v>36093.4176316212</v>
       </c>
       <c r="E104" s="1" t="n">
-        <v>249095.268155676</v>
+        <v>248796.645788379</v>
       </c>
       <c r="F104" s="1" t="n">
-        <v>188961.942613556</v>
+        <v>189216.412410326</v>
       </c>
       <c r="G104" s="1" t="n">
-        <v>2131999.85397956</v>
+        <v>2132000.07556604</v>
       </c>
       <c r="H104" s="1" t="n">
-        <v>2935999.92567614</v>
+        <v>2935999.82125066</v>
       </c>
       <c r="I104" s="1" t="n">
-        <v>356784.409724912</v>
+        <v>357100.952620573</v>
       </c>
       <c r="J104" s="1" t="n">
-        <v>337121.957422171</v>
+        <v>337402.974558871</v>
       </c>
       <c r="K104" s="1" t="n">
-        <v>612585.699859072</v>
+        <v>611930.953307609</v>
       </c>
       <c r="L104" s="1" t="n">
-        <v>795000</v>
+        <v>795000.005480275</v>
       </c>
       <c r="M104" s="1"/>
       <c r="N104" s="1"/>
@@ -41588,34 +41678,34 @@
         <v>7879000</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>133000</v>
+        <v>132734.041985445</v>
       </c>
       <c r="D105" s="1" t="n">
-        <v>35782.0048982841</v>
+        <v>35814.7470078279</v>
       </c>
       <c r="E105" s="1" t="n">
-        <v>250294.575380835</v>
+        <v>250315.105306769</v>
       </c>
       <c r="F105" s="1" t="n">
-        <v>190022.1364813</v>
+        <v>189971.662220191</v>
       </c>
       <c r="G105" s="1" t="n">
-        <v>2143999.85315769</v>
+        <v>2144000.07599136</v>
       </c>
       <c r="H105" s="1" t="n">
-        <v>2995999.92415726</v>
+        <v>2995999.81759775</v>
       </c>
       <c r="I105" s="1" t="n">
-        <v>356392.843057638</v>
+        <v>356503.530414998</v>
       </c>
       <c r="J105" s="1" t="n">
-        <v>333250.102579173</v>
+        <v>333690.351760918</v>
       </c>
       <c r="K105" s="1" t="n">
-        <v>625699.0992105</v>
+        <v>625088.492097053</v>
       </c>
       <c r="L105" s="1" t="n">
-        <v>810000</v>
+        <v>810000.005583676</v>
       </c>
       <c r="M105" s="1"/>
       <c r="N105" s="1"/>
@@ -41629,34 +41719,34 @@
         <v>8079000</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>139000</v>
+        <v>138978.322183016</v>
       </c>
       <c r="D106" s="1" t="n">
-        <v>36133.815682582</v>
+        <v>36117.5157426108</v>
       </c>
       <c r="E106" s="1" t="n">
-        <v>249023.984040809</v>
+        <v>249040.558416747</v>
       </c>
       <c r="F106" s="1" t="n">
-        <v>193831.217673301</v>
+        <v>193830.623718966</v>
       </c>
       <c r="G106" s="1" t="n">
-        <v>2196999.88814422</v>
+        <v>2196999.97553622</v>
       </c>
       <c r="H106" s="1" t="n">
-        <v>3078999.92205614</v>
+        <v>3078999.63401048</v>
       </c>
       <c r="I106" s="1" t="n">
-        <v>358665.232093879</v>
+        <v>358664.06211961</v>
       </c>
       <c r="J106" s="1" t="n">
-        <v>330671.795153036</v>
+        <v>330674.423679154</v>
       </c>
       <c r="K106" s="1" t="n">
-        <v>644964.609599864</v>
+        <v>644962.815739191</v>
       </c>
       <c r="L106" s="1" t="n">
-        <v>847000</v>
+        <v>847000.005838733</v>
       </c>
       <c r="M106" s="1"/>
       <c r="N106" s="1"/>
@@ -41670,34 +41760,34 @@
         <v>8329000</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>145000</v>
+        <v>144996.403906009</v>
       </c>
       <c r="D107" s="1" t="n">
-        <v>36970.105633554</v>
+        <v>36945.0527621458</v>
       </c>
       <c r="E107" s="1" t="n">
-        <v>255438.075286176</v>
+        <v>255454.388687033</v>
       </c>
       <c r="F107" s="1" t="n">
-        <v>197609.681254535</v>
+        <v>197617.618086601</v>
       </c>
       <c r="G107" s="1" t="n">
-        <v>2224999.84761</v>
+        <v>2225000.00094454</v>
       </c>
       <c r="H107" s="1" t="n">
-        <v>3217999.96103098</v>
+        <v>3217999.91753958</v>
       </c>
       <c r="I107" s="1" t="n">
-        <v>368260.32384891</v>
+        <v>368261.505650716</v>
       </c>
       <c r="J107" s="1" t="n">
-        <v>330675.274457719</v>
+        <v>330667.279149194</v>
       </c>
       <c r="K107" s="1" t="n">
-        <v>670206.294814737</v>
+        <v>670213.984859568</v>
       </c>
       <c r="L107" s="1" t="n">
-        <v>879000</v>
+        <v>878999.991182922</v>
       </c>
       <c r="M107" s="1"/>
       <c r="N107" s="1"/>
@@ -41711,34 +41801,34 @@
         <v>8759000</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>157000</v>
+        <v>156977.895626459</v>
       </c>
       <c r="D108" s="1" t="n">
-        <v>39057.8536109725</v>
+        <v>39048.42019612</v>
       </c>
       <c r="E108" s="1" t="n">
-        <v>272089.235249577</v>
+        <v>272092.516206982</v>
       </c>
       <c r="F108" s="1" t="n">
-        <v>207929.358227589</v>
+        <v>207935.12596677</v>
       </c>
       <c r="G108" s="1" t="n">
-        <v>2352999.92011281</v>
+        <v>2353000.02976164</v>
       </c>
       <c r="H108" s="1" t="n">
-        <v>3366000.1325632</v>
+        <v>3366000.00369614</v>
       </c>
       <c r="I108" s="1" t="n">
-        <v>382952.317927482</v>
+        <v>382945.245744183</v>
       </c>
       <c r="J108" s="1" t="n">
-        <v>338584.649188548</v>
+        <v>338588.106521054</v>
       </c>
       <c r="K108" s="1" t="n">
-        <v>702067.504549122</v>
+        <v>702071.100610769</v>
       </c>
       <c r="L108" s="1" t="n">
-        <v>937000</v>
+        <v>937000.000109178</v>
       </c>
       <c r="M108" s="1"/>
       <c r="N108" s="1"/>
@@ -41752,34 +41842,34 @@
         <v>9137000</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>155000</v>
+        <v>154990.384003262</v>
       </c>
       <c r="D109" s="1" t="n">
-        <v>41224.5028681482</v>
+        <v>41195.6532655131</v>
       </c>
       <c r="E109" s="1" t="n">
-        <v>285646.052575206</v>
+        <v>285649.789441214</v>
       </c>
       <c r="F109" s="1" t="n">
-        <v>220167.102720359</v>
+        <v>220190.686736613</v>
       </c>
       <c r="G109" s="1" t="n">
-        <v>2426999.99958566</v>
+        <v>2427000.21618388</v>
       </c>
       <c r="H109" s="1" t="n">
-        <v>3518999.82118518</v>
+        <v>3518999.74089011</v>
       </c>
       <c r="I109" s="1" t="n">
-        <v>400219.809409347</v>
+        <v>400235.682187055</v>
       </c>
       <c r="J109" s="1" t="n">
-        <v>347678.635455977</v>
+        <v>347655.28870529</v>
       </c>
       <c r="K109" s="1" t="n">
-        <v>744483.773867209</v>
+        <v>744492.695222222</v>
       </c>
       <c r="L109" s="1" t="n">
-        <v>996000</v>
+        <v>996000.025104584</v>
       </c>
       <c r="M109" s="1"/>
       <c r="N109" s="1"/>
@@ -41793,34 +41883,34 @@
         <v>9308000</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>158000</v>
+        <v>157987.912449043</v>
       </c>
       <c r="D110" s="1" t="n">
-        <v>41681.8200745902</v>
+        <v>41671.5617364358</v>
       </c>
       <c r="E110" s="1" t="n">
-        <v>289189.230503592</v>
+        <v>289205.022272079</v>
       </c>
       <c r="F110" s="1" t="n">
-        <v>221210.112481904</v>
+        <v>221204.611118135</v>
       </c>
       <c r="G110" s="1" t="n">
-        <v>2461999.70441716</v>
+        <v>2462000.28066595</v>
       </c>
       <c r="H110" s="1" t="n">
-        <v>3581000.09289573</v>
+        <v>3580999.64890978</v>
       </c>
       <c r="I110" s="1" t="n">
-        <v>402953.72392423</v>
+        <v>402957.927172926</v>
       </c>
       <c r="J110" s="1" t="n">
-        <v>354082.331394719</v>
+        <v>354081.476156277</v>
       </c>
       <c r="K110" s="1" t="n">
-        <v>769976.090172775</v>
+        <v>769972.231027737</v>
       </c>
       <c r="L110" s="1" t="n">
-        <v>1027000</v>
+        <v>1027000.00170282</v>
       </c>
       <c r="M110" s="1"/>
       <c r="N110" s="1"/>

--- a/FON Macroeconomic Data.xlsx
+++ b/FON Macroeconomic Data.xlsx
@@ -6629,7 +6629,7 @@
         <v>2019</v>
       </c>
       <c r="B154" s="1" t="n">
-        <v>37540202.5</v>
+        <v>37539862.25</v>
       </c>
       <c r="C154" s="1" t="n">
         <v>523427</v>
@@ -6676,46 +6676,46 @@
         <v>2020</v>
       </c>
       <c r="B155" s="1" t="n">
-        <v>37994718.25</v>
+        <v>37977349.25</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>521364</v>
+        <v>521359</v>
       </c>
       <c r="D155" s="1" t="n">
-        <v>161329</v>
+        <v>161305</v>
       </c>
       <c r="E155" s="1" t="n">
-        <v>981889</v>
+        <v>981691</v>
       </c>
       <c r="F155" s="1" t="n">
-        <v>783204</v>
+        <v>782996</v>
       </c>
       <c r="G155" s="1" t="n">
-        <v>8578300</v>
+        <v>8576595</v>
       </c>
       <c r="H155" s="1" t="n">
-        <v>14745712</v>
+        <v>14726022</v>
       </c>
       <c r="I155" s="1" t="n">
-        <v>1380648</v>
+        <v>1379888</v>
       </c>
       <c r="J155" s="1" t="n">
-        <v>1179300</v>
+        <v>1178467</v>
       </c>
       <c r="K155" s="1" t="n">
-        <v>4420029</v>
+        <v>4416682</v>
       </c>
       <c r="L155" s="1" t="n">
-        <v>5158728</v>
+        <v>5155495</v>
       </c>
       <c r="M155" s="1" t="n">
-        <v>42174</v>
+        <v>42163</v>
       </c>
       <c r="N155" s="1" t="n">
-        <v>45372</v>
+        <v>45346</v>
       </c>
       <c r="O155" s="1" t="n">
-        <v>39155</v>
+        <v>39157</v>
       </c>
     </row>
     <row r="156">
@@ -6723,46 +6723,91 @@
         <v>2021</v>
       </c>
       <c r="B156" s="1" t="n">
-        <v>38226159.5</v>
+        <v>38205198.5</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>520553</v>
+        <v>520452</v>
       </c>
       <c r="D156" s="1" t="n">
-        <v>164318</v>
+        <v>164758</v>
       </c>
       <c r="E156" s="1" t="n">
-        <v>992055</v>
+        <v>991117</v>
       </c>
       <c r="F156" s="1" t="n">
-        <v>789225</v>
+        <v>790398</v>
       </c>
       <c r="G156" s="1" t="n">
-        <v>8604495</v>
+        <v>8602335</v>
       </c>
       <c r="H156" s="1" t="n">
-        <v>14826276</v>
+        <v>14809257</v>
       </c>
       <c r="I156" s="1" t="n">
-        <v>1383765</v>
+        <v>1391979</v>
       </c>
       <c r="J156" s="1" t="n">
-        <v>1179844</v>
+        <v>1181493</v>
       </c>
       <c r="K156" s="1" t="n">
-        <v>4442879</v>
+        <v>4443773</v>
       </c>
       <c r="L156" s="1" t="n">
-        <v>5214805</v>
+        <v>5202378</v>
       </c>
       <c r="M156" s="1" t="n">
-        <v>42986</v>
+        <v>43250</v>
       </c>
       <c r="N156" s="1" t="n">
-        <v>45504</v>
+        <v>45597</v>
       </c>
       <c r="O156" s="1" t="n">
-        <v>39403</v>
+        <v>39711</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B157" s="1"/>
+      <c r="C157" s="1" t="n">
+        <v>525972</v>
+      </c>
+      <c r="D157" s="1" t="n">
+        <v>170688</v>
+      </c>
+      <c r="E157" s="1" t="n">
+        <v>1019725</v>
+      </c>
+      <c r="F157" s="1" t="n">
+        <v>812061</v>
+      </c>
+      <c r="G157" s="1" t="n">
+        <v>8695659</v>
+      </c>
+      <c r="H157" s="1" t="n">
+        <v>15109416</v>
+      </c>
+      <c r="I157" s="1" t="n">
+        <v>1409223</v>
+      </c>
+      <c r="J157" s="1" t="n">
+        <v>1194803</v>
+      </c>
+      <c r="K157" s="1" t="n">
+        <v>4543111</v>
+      </c>
+      <c r="L157" s="1" t="n">
+        <v>5319324</v>
+      </c>
+      <c r="M157" s="1" t="n">
+        <v>43789</v>
+      </c>
+      <c r="N157" s="1" t="n">
+        <v>45605</v>
+      </c>
+      <c r="O157" s="1" t="n">
+        <v>40526</v>
       </c>
     </row>
   </sheetData>
@@ -11974,6 +12019,25 @@
       <c r="N156" s="4"/>
       <c r="O156" s="4"/>
     </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B157" s="4"/>
+      <c r="C157" s="4"/>
+      <c r="D157" s="4"/>
+      <c r="E157" s="4"/>
+      <c r="F157" s="4"/>
+      <c r="G157" s="4"/>
+      <c r="H157" s="4"/>
+      <c r="I157" s="4"/>
+      <c r="J157" s="4"/>
+      <c r="K157" s="4"/>
+      <c r="L157" s="4"/>
+      <c r="M157" s="4"/>
+      <c r="N157" s="4"/>
+      <c r="O157" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -17224,43 +17288,43 @@
         <v>2311294</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>35395.3737880256</v>
+        <v>35796.4345431047</v>
       </c>
       <c r="D154" s="1" t="n">
-        <v>7446.60324104972</v>
+        <v>7435.31290657749</v>
       </c>
       <c r="E154" s="1" t="n">
-        <v>46540.2699068508</v>
+        <v>46804.4952508939</v>
       </c>
       <c r="F154" s="1" t="n">
-        <v>38046.3005194578</v>
+        <v>38033.0246351639</v>
       </c>
       <c r="G154" s="1" t="n">
-        <v>460412.954715155</v>
+        <v>459526.322506833</v>
       </c>
       <c r="H154" s="1" t="n">
-        <v>892538.020331653</v>
+        <v>892661.281675373</v>
       </c>
       <c r="I154" s="1" t="n">
-        <v>73925.843567111</v>
+        <v>74578.9866890124</v>
       </c>
       <c r="J154" s="1" t="n">
-        <v>83353.1392339101</v>
+        <v>84447.7655804711</v>
       </c>
       <c r="K154" s="1" t="n">
-        <v>351511.884238208</v>
+        <v>351889.175113966</v>
       </c>
       <c r="L154" s="1" t="n">
-        <v>311086.752108431</v>
+        <v>308798.338836304</v>
       </c>
       <c r="M154" s="1" t="n">
-        <v>3003.04982934326</v>
+        <v>3074.06216406349</v>
       </c>
       <c r="N154" s="1" t="n">
-        <v>4571.59817458318</v>
+        <v>4667.05796689743</v>
       </c>
       <c r="O154" s="1" t="n">
-        <v>3462.21034622153</v>
+        <v>3581.74213134056</v>
       </c>
     </row>
     <row r="155">
@@ -17271,43 +17335,43 @@
         <v>2206764</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>31591.3093807996</v>
+        <v>32204.7917641291</v>
       </c>
       <c r="D155" s="1" t="n">
-        <v>7510.68875335793</v>
+        <v>7538.46073307436</v>
       </c>
       <c r="E155" s="1" t="n">
-        <v>46865.7774914845</v>
+        <v>46776.2187787889</v>
       </c>
       <c r="F155" s="1" t="n">
-        <v>37568.4491385665</v>
+        <v>37407.5884110747</v>
       </c>
       <c r="G155" s="1" t="n">
-        <v>449211.813450204</v>
+        <v>450567.384430126</v>
       </c>
       <c r="H155" s="1" t="n">
-        <v>867250.467213122</v>
+        <v>866114.792581704</v>
       </c>
       <c r="I155" s="1" t="n">
-        <v>72875.0885713068</v>
+        <v>73561.4307023496</v>
       </c>
       <c r="J155" s="1" t="n">
-        <v>77860.8734336851</v>
+        <v>77974.0176435091</v>
       </c>
       <c r="K155" s="1" t="n">
-        <v>294923.579766579</v>
+        <v>296385.582720642</v>
       </c>
       <c r="L155" s="1" t="n">
-        <v>309437.775707239</v>
+        <v>306640.326879801</v>
       </c>
       <c r="M155" s="1" t="n">
-        <v>3183.13953292287</v>
+        <v>3237.76189184919</v>
       </c>
       <c r="N155" s="1" t="n">
-        <v>4323.54778796124</v>
+        <v>4140.85869846186</v>
       </c>
       <c r="O155" s="1" t="n">
-        <v>4161.48977277157</v>
+        <v>4214.78476448989</v>
       </c>
     </row>
     <row r="156">
@@ -17317,19 +17381,64 @@
       <c r="B156" s="1" t="n">
         <v>2493129</v>
       </c>
-      <c r="C156" s="1"/>
-      <c r="D156" s="1"/>
-      <c r="E156" s="1"/>
-      <c r="F156" s="1"/>
-      <c r="G156" s="1"/>
-      <c r="H156" s="1"/>
-      <c r="I156" s="1"/>
-      <c r="J156" s="1"/>
-      <c r="K156" s="1"/>
-      <c r="L156" s="1"/>
-      <c r="M156" s="1"/>
-      <c r="N156" s="1"/>
-      <c r="O156" s="1"/>
+      <c r="C156" s="1" t="n">
+        <v>37689.5214370159</v>
+      </c>
+      <c r="D156" s="1" t="n">
+        <v>8572.98234601039</v>
+      </c>
+      <c r="E156" s="1" t="n">
+        <v>51599.8734573536</v>
+      </c>
+      <c r="F156" s="1" t="n">
+        <v>42341.211521828</v>
+      </c>
+      <c r="G156" s="1" t="n">
+        <v>501296.372940381</v>
+      </c>
+      <c r="H156" s="1" t="n">
+        <v>950716.613110532</v>
+      </c>
+      <c r="I156" s="1" t="n">
+        <v>79334.1222454379</v>
+      </c>
+      <c r="J156" s="1" t="n">
+        <v>87762.018765261</v>
+      </c>
+      <c r="K156" s="1" t="n">
+        <v>372141.169216187</v>
+      </c>
+      <c r="L156" s="1" t="n">
+        <v>348402.743079465</v>
+      </c>
+      <c r="M156" s="1" t="n">
+        <v>3680.80753560015</v>
+      </c>
+      <c r="N156" s="1" t="n">
+        <v>4934.90556743799</v>
+      </c>
+      <c r="O156" s="1" t="n">
+        <v>4656.65877748982</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B157" s="1"/>
+      <c r="C157" s="1"/>
+      <c r="D157" s="1"/>
+      <c r="E157" s="1"/>
+      <c r="F157" s="1"/>
+      <c r="G157" s="1"/>
+      <c r="H157" s="1"/>
+      <c r="I157" s="1"/>
+      <c r="J157" s="1"/>
+      <c r="K157" s="1"/>
+      <c r="L157" s="1"/>
+      <c r="M157" s="1"/>
+      <c r="N157" s="1"/>
+      <c r="O157" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22581,43 +22690,43 @@
         <v>2328288.80882353</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>35655.6338894081</v>
+        <v>36059.6436206276</v>
       </c>
       <c r="D154" s="1" t="n">
-        <v>7501.35767664567</v>
+        <v>7489.98432500821</v>
       </c>
       <c r="E154" s="1" t="n">
-        <v>46882.4777738129</v>
+        <v>47148.6459512681</v>
       </c>
       <c r="F154" s="1" t="n">
-        <v>38326.0527291597</v>
+        <v>38312.6792280695</v>
       </c>
       <c r="G154" s="1" t="n">
-        <v>463798.344088061</v>
+        <v>462905.192525265</v>
       </c>
       <c r="H154" s="1" t="n">
-        <v>899100.799892915</v>
+        <v>899224.967570045</v>
       </c>
       <c r="I154" s="1" t="n">
-        <v>74469.4159462809</v>
+        <v>75127.3615911374</v>
       </c>
       <c r="J154" s="1" t="n">
-        <v>83966.0299635712</v>
+        <v>85068.7050332686</v>
       </c>
       <c r="K154" s="1" t="n">
-        <v>354096.530445842</v>
+        <v>354476.595519216</v>
       </c>
       <c r="L154" s="1" t="n">
-        <v>313374.154697463</v>
+        <v>311068.914857159</v>
       </c>
       <c r="M154" s="1" t="n">
-        <v>3025.13107808844</v>
+        <v>3096.66556232866</v>
       </c>
       <c r="N154" s="1" t="n">
-        <v>4605.21286704335</v>
+        <v>4701.37456959521</v>
       </c>
       <c r="O154" s="1" t="n">
-        <v>3487.66777523787</v>
+        <v>3608.07847054159</v>
       </c>
     </row>
     <row r="155">
@@ -22628,43 +22737,43 @@
         <v>2206764</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>31591.3093807996</v>
+        <v>32204.7917641291</v>
       </c>
       <c r="D155" s="1" t="n">
-        <v>7510.68875335793</v>
+        <v>7538.46073307436</v>
       </c>
       <c r="E155" s="1" t="n">
-        <v>46865.7774914845</v>
+        <v>46776.2187787889</v>
       </c>
       <c r="F155" s="1" t="n">
-        <v>37568.4491385665</v>
+        <v>37407.5884110747</v>
       </c>
       <c r="G155" s="1" t="n">
-        <v>449211.813450204</v>
+        <v>450567.384430126</v>
       </c>
       <c r="H155" s="1" t="n">
-        <v>867250.467213122</v>
+        <v>866114.792581704</v>
       </c>
       <c r="I155" s="1" t="n">
-        <v>72875.0885713068</v>
+        <v>73561.4307023496</v>
       </c>
       <c r="J155" s="1" t="n">
-        <v>77860.8734336851</v>
+        <v>77974.0176435091</v>
       </c>
       <c r="K155" s="1" t="n">
-        <v>294923.579766579</v>
+        <v>296385.582720642</v>
       </c>
       <c r="L155" s="1" t="n">
-        <v>309437.775707239</v>
+        <v>306640.326879801</v>
       </c>
       <c r="M155" s="1" t="n">
-        <v>3183.13953292287</v>
+        <v>3237.76189184919</v>
       </c>
       <c r="N155" s="1" t="n">
-        <v>4323.54778796124</v>
+        <v>4140.85869846186</v>
       </c>
       <c r="O155" s="1" t="n">
-        <v>4161.48977277157</v>
+        <v>4214.78476448989</v>
       </c>
     </row>
     <row r="156">
@@ -22674,19 +22783,64 @@
       <c r="B156" s="1" t="n">
         <v>2412137.52118644</v>
       </c>
-      <c r="C156" s="1"/>
-      <c r="D156" s="1"/>
-      <c r="E156" s="1"/>
-      <c r="F156" s="1"/>
-      <c r="G156" s="1"/>
-      <c r="H156" s="1"/>
-      <c r="I156" s="1"/>
-      <c r="J156" s="1"/>
-      <c r="K156" s="1"/>
-      <c r="L156" s="1"/>
-      <c r="M156" s="1"/>
-      <c r="N156" s="1"/>
-      <c r="O156" s="1"/>
+      <c r="C156" s="1" t="n">
+        <v>36465.1443281863</v>
+      </c>
+      <c r="D156" s="1" t="n">
+        <v>8294.48150708632</v>
+      </c>
+      <c r="E156" s="1" t="n">
+        <v>49923.6063817616</v>
+      </c>
+      <c r="F156" s="1" t="n">
+        <v>40965.7201870794</v>
+      </c>
+      <c r="G156" s="1" t="n">
+        <v>485011.321277064</v>
+      </c>
+      <c r="H156" s="1" t="n">
+        <v>919831.75138519</v>
+      </c>
+      <c r="I156" s="1" t="n">
+        <v>76756.883810911</v>
+      </c>
+      <c r="J156" s="1" t="n">
+        <v>84910.9927319263</v>
+      </c>
+      <c r="K156" s="1" t="n">
+        <v>360051.837447865</v>
+      </c>
+      <c r="L156" s="1" t="n">
+        <v>337084.574872082</v>
+      </c>
+      <c r="M156" s="1" t="n">
+        <v>3561.23327950014</v>
+      </c>
+      <c r="N156" s="1" t="n">
+        <v>4774.5908385523</v>
+      </c>
+      <c r="O156" s="1" t="n">
+        <v>4505.38313923803</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B157" s="1"/>
+      <c r="C157" s="1"/>
+      <c r="D157" s="1"/>
+      <c r="E157" s="1"/>
+      <c r="F157" s="1"/>
+      <c r="G157" s="1"/>
+      <c r="H157" s="1"/>
+      <c r="I157" s="1"/>
+      <c r="J157" s="1"/>
+      <c r="K157" s="1"/>
+      <c r="L157" s="1"/>
+      <c r="M157" s="1"/>
+      <c r="N157" s="1"/>
+      <c r="O157" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27935,46 +28089,46 @@
         <v>2019</v>
       </c>
       <c r="B154" s="1" t="n">
-        <v>61568.5011288898</v>
+        <v>61569.0591672323</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>67622.3690944975</v>
+        <v>68388.5900863057</v>
       </c>
       <c r="D154" s="1" t="n">
-        <v>47304.3485287654</v>
+        <v>47232.6269800818</v>
       </c>
       <c r="E154" s="1" t="n">
-        <v>47967.6430614297</v>
+        <v>48239.9721006942</v>
       </c>
       <c r="F154" s="1" t="n">
-        <v>48957.5726514266</v>
+        <v>48940.4893854859</v>
       </c>
       <c r="G154" s="1" t="n">
-        <v>54144.043648368</v>
+        <v>54039.7767017154</v>
       </c>
       <c r="H154" s="1" t="n">
-        <v>61365.1679970357</v>
+        <v>61373.6426534566</v>
       </c>
       <c r="I154" s="1" t="n">
-        <v>53962.2816292452</v>
+        <v>54439.0444416472</v>
       </c>
       <c r="J154" s="1" t="n">
-        <v>71091.3707059232</v>
+        <v>72024.9706651216</v>
       </c>
       <c r="K154" s="1" t="n">
-        <v>80574.3863804798</v>
+        <v>80660.8698883334</v>
       </c>
       <c r="L154" s="1" t="n">
-        <v>61059.7072205503</v>
+        <v>60610.5404095284</v>
       </c>
       <c r="M154" s="1" t="n">
-        <v>72604.0769146382</v>
+        <v>74320.9265524755</v>
       </c>
       <c r="N154" s="1" t="n">
-        <v>101433.285435615</v>
+        <v>103551.319434156</v>
       </c>
       <c r="O154" s="1" t="n">
-        <v>89713.1619564037</v>
+        <v>92810.4822590318</v>
       </c>
     </row>
     <row r="155">
@@ -27982,46 +28136,46 @@
         <v>2020</v>
       </c>
       <c r="B155" s="1" t="n">
-        <v>58080.8096925419</v>
+        <v>58107.3730415769</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>60593.5764279843</v>
+        <v>61770.8560974858</v>
       </c>
       <c r="D155" s="1" t="n">
-        <v>46555.1063563149</v>
+        <v>46734.2037325214</v>
       </c>
       <c r="E155" s="1" t="n">
-        <v>47730.2194967909</v>
+        <v>47648.6173131758</v>
       </c>
       <c r="F155" s="1" t="n">
-        <v>47967.6420684349</v>
+        <v>47774.9419040131</v>
       </c>
       <c r="G155" s="1" t="n">
-        <v>52366.06477393</v>
+        <v>52534.5296624273</v>
       </c>
       <c r="H155" s="1" t="n">
-        <v>58813.7396968774</v>
+        <v>58815.2586341175</v>
       </c>
       <c r="I155" s="1" t="n">
-        <v>52783.2500183297</v>
+        <v>53309.711152173</v>
       </c>
       <c r="J155" s="1" t="n">
-        <v>66022.9572065506</v>
+        <v>66165.6352222923</v>
       </c>
       <c r="K155" s="1" t="n">
-        <v>66724.3540181703</v>
+        <v>67105.9367010444</v>
       </c>
       <c r="L155" s="1" t="n">
-        <v>59983.347776281</v>
+        <v>59478.3482245256</v>
       </c>
       <c r="M155" s="1" t="n">
-        <v>75476.3487675552</v>
+        <v>76791.544525987</v>
       </c>
       <c r="N155" s="1" t="n">
-        <v>95291.0999726976</v>
+        <v>91316.9562577044</v>
       </c>
       <c r="O155" s="1" t="n">
-        <v>106282.461314559</v>
+        <v>107638.091899019</v>
       </c>
     </row>
     <row r="156">
@@ -28029,21 +28183,66 @@
         <v>2021</v>
       </c>
       <c r="B156" s="1" t="n">
-        <v>65220.4938348567</v>
-      </c>
-      <c r="C156" s="1"/>
-      <c r="D156" s="1"/>
-      <c r="E156" s="1"/>
-      <c r="F156" s="1"/>
-      <c r="G156" s="1"/>
-      <c r="H156" s="1"/>
-      <c r="I156" s="1"/>
-      <c r="J156" s="1"/>
-      <c r="K156" s="1"/>
-      <c r="L156" s="1"/>
-      <c r="M156" s="1"/>
-      <c r="N156" s="1"/>
-      <c r="O156" s="1"/>
+        <v>65256.276577126</v>
+      </c>
+      <c r="C156" s="1" t="n">
+        <v>72416.9019179787</v>
+      </c>
+      <c r="D156" s="1" t="n">
+        <v>52033.7849816724</v>
+      </c>
+      <c r="E156" s="1" t="n">
+        <v>52062.3432524652</v>
+      </c>
+      <c r="F156" s="1" t="n">
+        <v>53569.4821113262</v>
+      </c>
+      <c r="G156" s="1" t="n">
+        <v>58274.4537315021</v>
+      </c>
+      <c r="H156" s="1" t="n">
+        <v>64197.4552207806</v>
+      </c>
+      <c r="I156" s="1" t="n">
+        <v>56993.763731664</v>
+      </c>
+      <c r="J156" s="1" t="n">
+        <v>74280.6083195254</v>
+      </c>
+      <c r="K156" s="1" t="n">
+        <v>83744.4147611021</v>
+      </c>
+      <c r="L156" s="1" t="n">
+        <v>66969.9016640977</v>
+      </c>
+      <c r="M156" s="1" t="n">
+        <v>85105.3765456681</v>
+      </c>
+      <c r="N156" s="1" t="n">
+        <v>108228.733632432</v>
+      </c>
+      <c r="O156" s="1" t="n">
+        <v>117263.699667342</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B157" s="1"/>
+      <c r="C157" s="1"/>
+      <c r="D157" s="1"/>
+      <c r="E157" s="1"/>
+      <c r="F157" s="1"/>
+      <c r="G157" s="1"/>
+      <c r="H157" s="1"/>
+      <c r="I157" s="1"/>
+      <c r="J157" s="1"/>
+      <c r="K157" s="1"/>
+      <c r="L157" s="1"/>
+      <c r="M157" s="1"/>
+      <c r="N157" s="1"/>
+      <c r="O157" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -33292,46 +33491,46 @@
         <v>2019</v>
       </c>
       <c r="B154" s="1" t="n">
-        <v>62021.2106960139</v>
+        <v>62021.7728375796</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>68119.5923966629</v>
+        <v>68891.447366352</v>
       </c>
       <c r="D154" s="1" t="n">
-        <v>47652.1746208887</v>
+        <v>47579.9257078765</v>
       </c>
       <c r="E154" s="1" t="n">
-        <v>48320.3463192344</v>
+        <v>48594.6777779052</v>
       </c>
       <c r="F154" s="1" t="n">
-        <v>49317.5548032753</v>
+        <v>49300.3459250851</v>
       </c>
       <c r="G154" s="1" t="n">
-        <v>54542.1616163707</v>
+        <v>54437.1280009927</v>
       </c>
       <c r="H154" s="1" t="n">
-        <v>61816.3824676021</v>
+        <v>61824.9194376732</v>
       </c>
       <c r="I154" s="1" t="n">
-        <v>54359.0631118132</v>
+        <v>54839.3315331299</v>
       </c>
       <c r="J154" s="1" t="n">
-        <v>71614.1013728785</v>
+        <v>72554.5660376592</v>
       </c>
       <c r="K154" s="1" t="n">
-        <v>81166.8451038656</v>
+        <v>81253.9645198653</v>
       </c>
       <c r="L154" s="1" t="n">
-        <v>61508.6756559955</v>
+        <v>61056.2061478337</v>
       </c>
       <c r="M154" s="1" t="n">
-        <v>73137.9304213634</v>
+        <v>74867.4039535966</v>
       </c>
       <c r="N154" s="1" t="n">
-        <v>102179.11841676</v>
+        <v>104312.726194702</v>
       </c>
       <c r="O154" s="1" t="n">
-        <v>90372.8175590243</v>
+        <v>93492.9122756423</v>
       </c>
     </row>
     <row r="155">
@@ -33339,46 +33538,46 @@
         <v>2020</v>
       </c>
       <c r="B155" s="1" t="n">
-        <v>58080.8096925419</v>
+        <v>58107.3730415769</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>60593.5764279843</v>
+        <v>61770.8560974858</v>
       </c>
       <c r="D155" s="1" t="n">
-        <v>46555.1063563149</v>
+        <v>46734.2037325214</v>
       </c>
       <c r="E155" s="1" t="n">
-        <v>47730.2194967909</v>
+        <v>47648.6173131758</v>
       </c>
       <c r="F155" s="1" t="n">
-        <v>47967.6420684349</v>
+        <v>47774.9419040131</v>
       </c>
       <c r="G155" s="1" t="n">
-        <v>52366.06477393</v>
+        <v>52534.5296624273</v>
       </c>
       <c r="H155" s="1" t="n">
-        <v>58813.7396968774</v>
+        <v>58815.2586341175</v>
       </c>
       <c r="I155" s="1" t="n">
-        <v>52783.2500183297</v>
+        <v>53309.711152173</v>
       </c>
       <c r="J155" s="1" t="n">
-        <v>66022.9572065506</v>
+        <v>66165.6352222923</v>
       </c>
       <c r="K155" s="1" t="n">
-        <v>66724.3540181703</v>
+        <v>67105.9367010444</v>
       </c>
       <c r="L155" s="1" t="n">
-        <v>59983.347776281</v>
+        <v>59478.3482245256</v>
       </c>
       <c r="M155" s="1" t="n">
-        <v>75476.3487675552</v>
+        <v>76791.544525987</v>
       </c>
       <c r="N155" s="1" t="n">
-        <v>95291.0999726976</v>
+        <v>91316.9562577044</v>
       </c>
       <c r="O155" s="1" t="n">
-        <v>106282.461314559</v>
+        <v>107638.091899019</v>
       </c>
     </row>
     <row r="156">
@@ -33386,21 +33585,66 @@
         <v>2021</v>
       </c>
       <c r="B156" s="1" t="n">
-        <v>63101.7489786396</v>
-      </c>
-      <c r="C156" s="1"/>
-      <c r="D156" s="1"/>
-      <c r="E156" s="1"/>
-      <c r="F156" s="1"/>
-      <c r="G156" s="1"/>
-      <c r="H156" s="1"/>
-      <c r="I156" s="1"/>
-      <c r="J156" s="1"/>
-      <c r="K156" s="1"/>
-      <c r="L156" s="1"/>
-      <c r="M156" s="1"/>
-      <c r="N156" s="1"/>
-      <c r="O156" s="1"/>
+        <v>63136.3692871911</v>
+      </c>
+      <c r="C156" s="1" t="n">
+        <v>70064.3754432421</v>
+      </c>
+      <c r="D156" s="1" t="n">
+        <v>50343.4219102339</v>
+      </c>
+      <c r="E156" s="1" t="n">
+        <v>50371.0524405913</v>
+      </c>
+      <c r="F156" s="1" t="n">
+        <v>51829.2305738114</v>
+      </c>
+      <c r="G156" s="1" t="n">
+        <v>56381.357070733</v>
+      </c>
+      <c r="H156" s="1" t="n">
+        <v>62111.944669823</v>
+      </c>
+      <c r="I156" s="1" t="n">
+        <v>55142.2714070478</v>
+      </c>
+      <c r="J156" s="1" t="n">
+        <v>71867.5377102753</v>
+      </c>
+      <c r="K156" s="1" t="n">
+        <v>81023.9041120833</v>
+      </c>
+      <c r="L156" s="1" t="n">
+        <v>64794.3257625804</v>
+      </c>
+      <c r="M156" s="1" t="n">
+        <v>82340.653861275</v>
+      </c>
+      <c r="N156" s="1" t="n">
+        <v>104712.828443808</v>
+      </c>
+      <c r="O156" s="1" t="n">
+        <v>113454.285695098</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B157" s="1"/>
+      <c r="C157" s="1"/>
+      <c r="D157" s="1"/>
+      <c r="E157" s="1"/>
+      <c r="F157" s="1"/>
+      <c r="G157" s="1"/>
+      <c r="H157" s="1"/>
+      <c r="I157" s="1"/>
+      <c r="J157" s="1"/>
+      <c r="K157" s="1"/>
+      <c r="L157" s="1"/>
+      <c r="M157" s="1"/>
+      <c r="N157" s="1"/>
+      <c r="O157" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -38506,43 +38750,43 @@
         <v>122634.460265861</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>157073.277045851</v>
+        <v>158853.055597478</v>
       </c>
       <c r="D154" s="1" t="n">
-        <v>94714.1120788595</v>
+        <v>94570.509154144</v>
       </c>
       <c r="E154" s="1" t="n">
-        <v>101653.247558137</v>
+        <v>102230.368497979</v>
       </c>
       <c r="F154" s="1" t="n">
-        <v>106136.950233065</v>
+        <v>106099.914782801</v>
       </c>
       <c r="G154" s="1" t="n">
-        <v>107657.283741803</v>
+        <v>107449.964607429</v>
       </c>
       <c r="H154" s="1" t="n">
-        <v>121880.573125963</v>
+        <v>121897.405084798</v>
       </c>
       <c r="I154" s="1" t="n">
-        <v>113624.375871652</v>
+        <v>114628.259980374</v>
       </c>
       <c r="J154" s="1" t="n">
-        <v>147076.598289668</v>
+        <v>149008.066269519</v>
       </c>
       <c r="K154" s="1" t="n">
-        <v>155353.191965008</v>
+        <v>155519.938366698</v>
       </c>
       <c r="L154" s="1" t="n">
-        <v>117527.060717621</v>
+        <v>116662.509322367</v>
       </c>
       <c r="M154" s="1" t="n">
-        <v>130346.760994834</v>
+        <v>133429.036796926</v>
       </c>
       <c r="N154" s="1" t="n">
-        <v>202723.970669553</v>
+        <v>206957.061024</v>
       </c>
       <c r="O154" s="1" t="n">
-        <v>267425.00513006</v>
+        <v>276657.774099036</v>
       </c>
     </row>
     <row r="155">
@@ -38553,43 +38797,43 @@
         <v>122603.44904218</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>147622.941031774</v>
+        <v>150489.68114079</v>
       </c>
       <c r="D155" s="1" t="n">
-        <v>97922.9302914984</v>
+        <v>98285.0160765888</v>
       </c>
       <c r="E155" s="1" t="n">
-        <v>106585.802800738</v>
+        <v>106382.121398201</v>
       </c>
       <c r="F155" s="1" t="n">
-        <v>106849.969108551</v>
+        <v>106392.458507038</v>
       </c>
       <c r="G155" s="1" t="n">
-        <v>109574.547138795</v>
+        <v>109905.206466515</v>
       </c>
       <c r="H155" s="1" t="n">
-        <v>123511.801756455</v>
+        <v>123350.061607284</v>
       </c>
       <c r="I155" s="1" t="n">
-        <v>115509.729864173</v>
+        <v>116597.607707005</v>
       </c>
       <c r="J155" s="1" t="n">
-        <v>143100.300374352</v>
+        <v>143308.247828541</v>
       </c>
       <c r="K155" s="1" t="n">
-        <v>138474.776864766</v>
+        <v>139161.227683652</v>
       </c>
       <c r="L155" s="1" t="n">
-        <v>124217.323956179</v>
+        <v>123094.346625908</v>
       </c>
       <c r="M155" s="1" t="n">
-        <v>145625.903145537</v>
+        <v>148124.829211553</v>
       </c>
       <c r="N155" s="1" t="n">
-        <v>199471.639582987</v>
+        <v>191043.077207006</v>
       </c>
       <c r="O155" s="1" t="n">
-        <v>344399.153608682</v>
+        <v>348809.773612956</v>
       </c>
     </row>
     <row r="156">
@@ -38599,19 +38843,64 @@
       <c r="B156" s="1" t="n">
         <v>127860.396343912</v>
       </c>
-      <c r="C156" s="1"/>
-      <c r="D156" s="1"/>
-      <c r="E156" s="1"/>
-      <c r="F156" s="1"/>
-      <c r="G156" s="1"/>
-      <c r="H156" s="1"/>
-      <c r="I156" s="1"/>
-      <c r="J156" s="1"/>
-      <c r="K156" s="1"/>
-      <c r="L156" s="1"/>
-      <c r="M156" s="1"/>
-      <c r="N156" s="1"/>
-      <c r="O156" s="1"/>
+      <c r="C156" s="1" t="n">
+        <v>165675.349060365</v>
+      </c>
+      <c r="D156" s="1" t="n">
+        <v>104464.50260814</v>
+      </c>
+      <c r="E156" s="1" t="n">
+        <v>107710.046131093</v>
+      </c>
+      <c r="F156" s="1" t="n">
+        <v>113635.839631288</v>
+      </c>
+      <c r="G156" s="1" t="n">
+        <v>113612.396644897</v>
+      </c>
+      <c r="H156" s="1" t="n">
+        <v>124868.558778398</v>
+      </c>
+      <c r="I156" s="1" t="n">
+        <v>117491.020681021</v>
+      </c>
+      <c r="J156" s="1" t="n">
+        <v>152115.716108789</v>
+      </c>
+      <c r="K156" s="1" t="n">
+        <v>160794.854165713</v>
+      </c>
+      <c r="L156" s="1" t="n">
+        <v>126928.70989648</v>
+      </c>
+      <c r="M156" s="1" t="n">
+        <v>160295.571470374</v>
+      </c>
+      <c r="N156" s="1" t="n">
+        <v>203824.582222083</v>
+      </c>
+      <c r="O156" s="1" t="n">
+        <v>356156.76990024</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B157" s="1"/>
+      <c r="C157" s="1"/>
+      <c r="D157" s="1"/>
+      <c r="E157" s="1"/>
+      <c r="F157" s="1"/>
+      <c r="G157" s="1"/>
+      <c r="H157" s="1"/>
+      <c r="I157" s="1"/>
+      <c r="J157" s="1"/>
+      <c r="K157" s="1"/>
+      <c r="L157" s="1"/>
+      <c r="M157" s="1"/>
+      <c r="N157" s="1"/>
+      <c r="O157" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -43940,6 +44229,31 @@
         <v>12650</v>
       </c>
     </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B157" s="1"/>
+      <c r="C157" s="1"/>
+      <c r="D157" s="1"/>
+      <c r="E157" s="1"/>
+      <c r="F157" s="1"/>
+      <c r="G157" s="1"/>
+      <c r="H157" s="1"/>
+      <c r="I157" s="1"/>
+      <c r="J157" s="1"/>
+      <c r="K157" s="1"/>
+      <c r="L157" s="1"/>
+      <c r="M157" s="1" t="n">
+        <v>23220</v>
+      </c>
+      <c r="N157" s="1" t="n">
+        <v>25040</v>
+      </c>
+      <c r="O157" s="1" t="n">
+        <v>14850</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/FON Macroeconomic Data.xlsx
+++ b/FON Macroeconomic Data.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr date1904="false"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
   <fonts count="3">
     <font>
@@ -411,14 +411,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1">
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
     <col min="1" max="1" width="13.71" hidden="0" customWidth="1"/>
     <col min="2" max="2" width="13.71" hidden="0" customWidth="1"/>
@@ -5783,7 +5783,7 @@
         <v>2001</v>
       </c>
       <c r="B136" s="1" t="n">
-        <v>30971364.5</v>
+        <v>30971291.25</v>
       </c>
       <c r="C136" s="1" t="n">
         <v>522046</v>
@@ -5830,7 +5830,7 @@
         <v>2002</v>
       </c>
       <c r="B137" s="1" t="n">
-        <v>31308654.5</v>
+        <v>31307863.5</v>
       </c>
       <c r="C137" s="1" t="n">
         <v>519481</v>
@@ -5877,7 +5877,7 @@
         <v>2003</v>
       </c>
       <c r="B138" s="1" t="n">
-        <v>31603334.25</v>
+        <v>31601840.25</v>
       </c>
       <c r="C138" s="1" t="n">
         <v>518459</v>
@@ -5924,7 +5924,7 @@
         <v>2004</v>
       </c>
       <c r="B139" s="1" t="n">
-        <v>31901246.75</v>
+        <v>31899360.25</v>
       </c>
       <c r="C139" s="1" t="n">
         <v>517423</v>
@@ -5971,7 +5971,7 @@
         <v>2005</v>
       </c>
       <c r="B140" s="1" t="n">
-        <v>32204096</v>
+        <v>32202905.75</v>
       </c>
       <c r="C140" s="1" t="n">
         <v>514332</v>
@@ -6018,7 +6018,7 @@
         <v>2006</v>
       </c>
       <c r="B141" s="1" t="n">
-        <v>32529374.5</v>
+        <v>32529278</v>
       </c>
       <c r="C141" s="1" t="n">
         <v>510592</v>
@@ -6065,7 +6065,7 @@
         <v>2007</v>
       </c>
       <c r="B142" s="1" t="n">
-        <v>32848719.5</v>
+        <v>32848654</v>
       </c>
       <c r="C142" s="1" t="n">
         <v>509055</v>
@@ -6112,7 +6112,7 @@
         <v>2008</v>
       </c>
       <c r="B143" s="1" t="n">
-        <v>33199417.25</v>
+        <v>33199483</v>
       </c>
       <c r="C143" s="1" t="n">
         <v>511581</v>
@@ -6159,7 +6159,7 @@
         <v>2009</v>
       </c>
       <c r="B144" s="1" t="n">
-        <v>33581074.25</v>
+        <v>33582177.25</v>
       </c>
       <c r="C144" s="1" t="n">
         <v>516751</v>
@@ -6206,7 +6206,7 @@
         <v>2010</v>
       </c>
       <c r="B145" s="1" t="n">
-        <v>33958334.25</v>
+        <v>33959477.5</v>
       </c>
       <c r="C145" s="1" t="n">
         <v>522009</v>
@@ -6253,7 +6253,7 @@
         <v>2011</v>
       </c>
       <c r="B146" s="1" t="n">
-        <v>34298450.75</v>
+        <v>34298530.5</v>
       </c>
       <c r="C146" s="1" t="n">
         <v>524999</v>
@@ -6300,7 +6300,7 @@
         <v>2012</v>
       </c>
       <c r="B147" s="1" t="n">
-        <v>34664840.25</v>
+        <v>34664148</v>
       </c>
       <c r="C147" s="1" t="n">
         <v>526345</v>
@@ -6347,7 +6347,7 @@
         <v>2013</v>
       </c>
       <c r="B148" s="1" t="n">
-        <v>35034038.75</v>
+        <v>35032237.5</v>
       </c>
       <c r="C148" s="1" t="n">
         <v>527114</v>
@@ -6394,7 +6394,7 @@
         <v>2014</v>
       </c>
       <c r="B149" s="1" t="n">
-        <v>35392413.5</v>
+        <v>35389233.5</v>
       </c>
       <c r="C149" s="1" t="n">
         <v>528159</v>
@@ -6441,7 +6441,7 @@
         <v>2015</v>
       </c>
       <c r="B150" s="1" t="n">
-        <v>35678065</v>
+        <v>35676466.5</v>
       </c>
       <c r="C150" s="1" t="n">
         <v>528117</v>
@@ -6488,7 +6488,7 @@
         <v>2016</v>
       </c>
       <c r="B151" s="1" t="n">
-        <v>36052413</v>
+        <v>36052528.75</v>
       </c>
       <c r="C151" s="1" t="n">
         <v>529426</v>
@@ -6535,7 +6535,7 @@
         <v>2017</v>
       </c>
       <c r="B152" s="1" t="n">
-        <v>36494642.75</v>
+        <v>36494339.75</v>
       </c>
       <c r="C152" s="1" t="n">
         <v>528249</v>
@@ -6582,7 +6582,7 @@
         <v>2018</v>
       </c>
       <c r="B153" s="1" t="n">
-        <v>37003077</v>
+        <v>37009338.75</v>
       </c>
       <c r="C153" s="1" t="n">
         <v>525560</v>
@@ -6629,7 +6629,7 @@
         <v>2019</v>
       </c>
       <c r="B154" s="1" t="n">
-        <v>37539862.25</v>
+        <v>37555214</v>
       </c>
       <c r="C154" s="1" t="n">
         <v>523427</v>
@@ -6676,7 +6676,7 @@
         <v>2020</v>
       </c>
       <c r="B155" s="1" t="n">
-        <v>37977349.25</v>
+        <v>37997798.25</v>
       </c>
       <c r="C155" s="1" t="n">
         <v>521359</v>
@@ -6723,7 +6723,7 @@
         <v>2021</v>
       </c>
       <c r="B156" s="1" t="n">
-        <v>38205198.5</v>
+        <v>38222631.75</v>
       </c>
       <c r="C156" s="1" t="n">
         <v>520452</v>
@@ -6769,7 +6769,9 @@
       <c r="A157" s="2" t="n">
         <v>2022</v>
       </c>
-      <c r="B157" s="1"/>
+      <c r="B157" s="1" t="n">
+        <v>38866584.75</v>
+      </c>
       <c r="C157" s="1" t="n">
         <v>525972</v>
       </c>
@@ -6817,14 +6819,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0">
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
     <col min="1" max="1" width="13.71" hidden="0" customWidth="1"/>
     <col min="2" max="2" width="13.71" hidden="0" customWidth="1"/>
@@ -12023,17 +12025,39 @@
       <c r="A157" s="2" t="n">
         <v>2022</v>
       </c>
-      <c r="B157" s="4"/>
-      <c r="C157" s="4"/>
-      <c r="D157" s="4"/>
-      <c r="E157" s="4"/>
-      <c r="F157" s="4"/>
-      <c r="G157" s="4"/>
-      <c r="H157" s="4"/>
-      <c r="I157" s="4"/>
-      <c r="J157" s="4"/>
-      <c r="K157" s="4"/>
-      <c r="L157" s="4"/>
+      <c r="B157" s="4" t="n">
+        <v>110.36496350365</v>
+      </c>
+      <c r="C157" s="4" t="n">
+        <v>110.243553008596</v>
+      </c>
+      <c r="D157" s="4" t="n">
+        <v>114.430746918057</v>
+      </c>
+      <c r="E157" s="4" t="n">
+        <v>111.892675852067</v>
+      </c>
+      <c r="F157" s="4" t="n">
+        <v>111.346998535871</v>
+      </c>
+      <c r="G157" s="4" t="n">
+        <v>110.692771084337</v>
+      </c>
+      <c r="H157" s="4" t="n">
+        <v>110.476878612717</v>
+      </c>
+      <c r="I157" s="4" t="n">
+        <v>111.418181818182</v>
+      </c>
+      <c r="J157" s="4" t="n">
+        <v>109.381663113006</v>
+      </c>
+      <c r="K157" s="4" t="n">
+        <v>109.813407049067</v>
+      </c>
+      <c r="L157" s="4" t="n">
+        <v>109.894259818731</v>
+      </c>
       <c r="M157" s="4"/>
       <c r="N157" s="4"/>
       <c r="O157" s="4"/>
@@ -12045,14 +12069,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0">
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
     <col min="1" max="1" width="13.71" hidden="0" customWidth="1"/>
     <col min="2" max="2" width="13.71" hidden="0" customWidth="1"/>
@@ -14874,7 +14898,7 @@
         <v>1964</v>
       </c>
       <c r="B99" s="1" t="n">
-        <v>53976</v>
+        <v>53975</v>
       </c>
       <c r="C99" s="1" t="n">
         <v>715.83447778358</v>
@@ -14915,7 +14939,7 @@
         <v>1965</v>
       </c>
       <c r="B100" s="1" t="n">
-        <v>59552</v>
+        <v>59551</v>
       </c>
       <c r="C100" s="1" t="n">
         <v>781.21577895673</v>
@@ -14956,7 +14980,7 @@
         <v>1966</v>
       </c>
       <c r="B101" s="1" t="n">
-        <v>66704</v>
+        <v>66705</v>
       </c>
       <c r="C101" s="1" t="n">
         <v>888.392595290258</v>
@@ -14997,7 +15021,7 @@
         <v>1967</v>
       </c>
       <c r="B102" s="1" t="n">
-        <v>71813</v>
+        <v>71812</v>
       </c>
       <c r="C102" s="1" t="n">
         <v>937.663362797676</v>
@@ -15120,7 +15144,7 @@
         <v>1970</v>
       </c>
       <c r="B105" s="1" t="n">
-        <v>93154</v>
+        <v>93153</v>
       </c>
       <c r="C105" s="1" t="n">
         <v>1290.24242413937</v>
@@ -15161,7 +15185,7 @@
         <v>1971</v>
       </c>
       <c r="B106" s="1" t="n">
-        <v>101664</v>
+        <v>101665</v>
       </c>
       <c r="C106" s="1" t="n">
         <v>1399.67557498643</v>
@@ -15202,7 +15226,7 @@
         <v>1972</v>
       </c>
       <c r="B107" s="1" t="n">
-        <v>113522</v>
+        <v>113521</v>
       </c>
       <c r="C107" s="1" t="n">
         <v>1466.99778019677</v>
@@ -15489,7 +15513,7 @@
         <v>1979</v>
       </c>
       <c r="B114" s="1" t="n">
-        <v>287609</v>
+        <v>287608</v>
       </c>
       <c r="C114" s="1" t="n">
         <v>4187.03007530915</v>
@@ -15530,7 +15554,7 @@
         <v>1980</v>
       </c>
       <c r="B115" s="1" t="n">
-        <v>322783</v>
+        <v>322782</v>
       </c>
       <c r="C115" s="1" t="n">
         <v>4388.64629725477</v>
@@ -17285,7 +17309,7 @@
         <v>2019</v>
       </c>
       <c r="B154" s="1" t="n">
-        <v>2311294</v>
+        <v>2313563</v>
       </c>
       <c r="C154" s="1" t="n">
         <v>35819</v>
@@ -17332,46 +17356,46 @@
         <v>2020</v>
       </c>
       <c r="B155" s="1" t="n">
-        <v>2206764</v>
+        <v>2209681</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>32237</v>
+        <v>32176</v>
       </c>
       <c r="D155" s="1" t="n">
-        <v>7546</v>
+        <v>7461</v>
       </c>
       <c r="E155" s="1" t="n">
-        <v>46823</v>
+        <v>46165</v>
       </c>
       <c r="F155" s="1" t="n">
-        <v>37445</v>
+        <v>37354</v>
       </c>
       <c r="G155" s="1" t="n">
-        <v>451018</v>
+        <v>451344</v>
       </c>
       <c r="H155" s="1" t="n">
-        <v>866981</v>
+        <v>874354</v>
       </c>
       <c r="I155" s="1" t="n">
-        <v>73635</v>
+        <v>72963</v>
       </c>
       <c r="J155" s="1" t="n">
-        <v>78052</v>
+        <v>77778</v>
       </c>
       <c r="K155" s="1" t="n">
-        <v>296682</v>
+        <v>301305</v>
       </c>
       <c r="L155" s="1" t="n">
-        <v>306947</v>
+        <v>307412</v>
       </c>
       <c r="M155" s="1" t="n">
-        <v>3241</v>
+        <v>3242</v>
       </c>
       <c r="N155" s="1" t="n">
-        <v>4145</v>
+        <v>4193</v>
       </c>
       <c r="O155" s="1" t="n">
-        <v>4219</v>
+        <v>4066</v>
       </c>
     </row>
     <row r="156">
@@ -17379,66 +17403,94 @@
         <v>2021</v>
       </c>
       <c r="B156" s="1" t="n">
-        <v>2493129</v>
+        <v>2509618</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>37927</v>
+        <v>38131</v>
       </c>
       <c r="D156" s="1" t="n">
-        <v>8627</v>
+        <v>8575</v>
       </c>
       <c r="E156" s="1" t="n">
-        <v>51925</v>
+        <v>50788</v>
       </c>
       <c r="F156" s="1" t="n">
-        <v>42608</v>
+        <v>41430</v>
       </c>
       <c r="G156" s="1" t="n">
-        <v>504455</v>
+        <v>503486</v>
       </c>
       <c r="H156" s="1" t="n">
-        <v>956707</v>
+        <v>960226</v>
       </c>
       <c r="I156" s="1" t="n">
-        <v>79834</v>
+        <v>79703</v>
       </c>
       <c r="J156" s="1" t="n">
-        <v>88315</v>
+        <v>88571</v>
       </c>
       <c r="K156" s="1" t="n">
-        <v>374486</v>
+        <v>376388</v>
       </c>
       <c r="L156" s="1" t="n">
-        <v>350598</v>
+        <v>355937</v>
       </c>
       <c r="M156" s="1" t="n">
-        <v>3704</v>
+        <v>3591</v>
       </c>
       <c r="N156" s="1" t="n">
-        <v>4966</v>
+        <v>4851</v>
       </c>
       <c r="O156" s="1" t="n">
-        <v>4686</v>
+        <v>4724</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
         <v>2022</v>
       </c>
-      <c r="B157" s="1"/>
-      <c r="C157" s="1"/>
-      <c r="D157" s="1"/>
-      <c r="E157" s="1"/>
-      <c r="F157" s="1"/>
-      <c r="G157" s="1"/>
-      <c r="H157" s="1"/>
-      <c r="I157" s="1"/>
-      <c r="J157" s="1"/>
-      <c r="K157" s="1"/>
-      <c r="L157" s="1"/>
-      <c r="M157" s="1"/>
-      <c r="N157" s="1"/>
-      <c r="O157" s="1"/>
+      <c r="B157" s="1" t="n">
+        <v>2782645</v>
+      </c>
+      <c r="C157" s="1" t="n">
+        <v>40720</v>
+      </c>
+      <c r="D157" s="1" t="n">
+        <v>9376</v>
+      </c>
+      <c r="E157" s="1" t="n">
+        <v>54383</v>
+      </c>
+      <c r="F157" s="1" t="n">
+        <v>44501</v>
+      </c>
+      <c r="G157" s="1" t="n">
+        <v>545594</v>
+      </c>
+      <c r="H157" s="1" t="n">
+        <v>1048258</v>
+      </c>
+      <c r="I157" s="1" t="n">
+        <v>86531</v>
+      </c>
+      <c r="J157" s="1" t="n">
+        <v>114412</v>
+      </c>
+      <c r="K157" s="1" t="n">
+        <v>459288</v>
+      </c>
+      <c r="L157" s="1" t="n">
+        <v>395215</v>
+      </c>
+      <c r="M157" s="1" t="n">
+        <v>3930</v>
+      </c>
+      <c r="N157" s="1" t="n">
+        <v>5574</v>
+      </c>
+      <c r="O157" s="1" t="n">
+        <v>4753</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17447,14 +17499,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0">
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
     <col min="1" max="1" width="13.71" hidden="0" customWidth="1"/>
     <col min="2" max="2" width="13.71" hidden="0" customWidth="1"/>
@@ -20276,7 +20328,7 @@
         <v>1964</v>
       </c>
       <c r="B99" s="1" t="n">
-        <v>450897.073170732</v>
+        <v>450888.719512195</v>
       </c>
       <c r="C99" s="1" t="n">
         <v>5979.83679611893</v>
@@ -20317,7 +20369,7 @@
         <v>1965</v>
       </c>
       <c r="B100" s="1" t="n">
-        <v>485632.380952381</v>
+        <v>485624.226190476</v>
       </c>
       <c r="C100" s="1" t="n">
         <v>6370.62867363524</v>
@@ -20358,7 +20410,7 @@
         <v>1966</v>
       </c>
       <c r="B101" s="1" t="n">
-        <v>522197.028571429</v>
+        <v>522204.857142857</v>
       </c>
       <c r="C101" s="1" t="n">
         <v>6954.84488884373</v>
@@ -20399,7 +20451,7 @@
         <v>1967</v>
       </c>
       <c r="B102" s="1" t="n">
-        <v>543556.961325967</v>
+        <v>543549.392265193</v>
       </c>
       <c r="C102" s="1" t="n">
         <v>7097.23097808185</v>
@@ -20522,7 +20574,7 @@
         <v>1970</v>
       </c>
       <c r="B105" s="1" t="n">
-        <v>628674.778325123</v>
+        <v>628668.02955665</v>
       </c>
       <c r="C105" s="1" t="n">
         <v>8707.54739443812</v>
@@ -20563,7 +20615,7 @@
         <v>1971</v>
       </c>
       <c r="B106" s="1" t="n">
-        <v>666409.95215311</v>
+        <v>666416.507177034</v>
       </c>
       <c r="C106" s="1" t="n">
         <v>9174.90687909764</v>
@@ -20604,7 +20656,7 @@
         <v>1972</v>
       </c>
       <c r="B107" s="1" t="n">
-        <v>710160.456621005</v>
+        <v>710154.200913242</v>
       </c>
       <c r="C107" s="1" t="n">
         <v>9177.10940123094</v>
@@ -20891,7 +20943,7 @@
         <v>1979</v>
       </c>
       <c r="B114" s="1" t="n">
-        <v>985060.825</v>
+        <v>985057.4</v>
       </c>
       <c r="C114" s="1" t="n">
         <v>14340.5780079338</v>
@@ -20932,7 +20984,7 @@
         <v>1980</v>
       </c>
       <c r="B115" s="1" t="n">
-        <v>1005028.88636364</v>
+        <v>1005025.77272727</v>
       </c>
       <c r="C115" s="1" t="n">
         <v>13664.6486982705</v>
@@ -22687,7 +22739,7 @@
         <v>2019</v>
       </c>
       <c r="B154" s="1" t="n">
-        <v>2328288.80882353</v>
+        <v>2330574.49264706</v>
       </c>
       <c r="C154" s="1" t="n">
         <v>36082.375</v>
@@ -22734,46 +22786,46 @@
         <v>2020</v>
       </c>
       <c r="B155" s="1" t="n">
-        <v>2206764</v>
+        <v>2209681</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>32237</v>
+        <v>32176</v>
       </c>
       <c r="D155" s="1" t="n">
-        <v>7546</v>
+        <v>7461</v>
       </c>
       <c r="E155" s="1" t="n">
-        <v>46823</v>
+        <v>46165</v>
       </c>
       <c r="F155" s="1" t="n">
-        <v>37445</v>
+        <v>37354</v>
       </c>
       <c r="G155" s="1" t="n">
-        <v>451018</v>
+        <v>451344</v>
       </c>
       <c r="H155" s="1" t="n">
-        <v>866981</v>
+        <v>874354</v>
       </c>
       <c r="I155" s="1" t="n">
-        <v>73635</v>
+        <v>72963</v>
       </c>
       <c r="J155" s="1" t="n">
-        <v>78052</v>
+        <v>77778</v>
       </c>
       <c r="K155" s="1" t="n">
-        <v>296682</v>
+        <v>301305</v>
       </c>
       <c r="L155" s="1" t="n">
-        <v>306947</v>
+        <v>307412</v>
       </c>
       <c r="M155" s="1" t="n">
-        <v>3241</v>
+        <v>3242</v>
       </c>
       <c r="N155" s="1" t="n">
-        <v>4145</v>
+        <v>4193</v>
       </c>
       <c r="O155" s="1" t="n">
-        <v>4219</v>
+        <v>4066</v>
       </c>
     </row>
     <row r="156">
@@ -22781,66 +22833,94 @@
         <v>2021</v>
       </c>
       <c r="B156" s="1" t="n">
-        <v>2412137.52118644</v>
+        <v>2428090.86158192</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>36694.9081920904</v>
+        <v>36892.2810734463</v>
       </c>
       <c r="D156" s="1" t="n">
-        <v>8346.74435028249</v>
+        <v>8296.43361581921</v>
       </c>
       <c r="E156" s="1" t="n">
-        <v>50238.1709039548</v>
+        <v>49138.1073446328</v>
       </c>
       <c r="F156" s="1" t="n">
-        <v>41223.8418079096</v>
+        <v>40084.1101694915</v>
       </c>
       <c r="G156" s="1" t="n">
-        <v>488067.337570621</v>
+        <v>487129.816384181</v>
       </c>
       <c r="H156" s="1" t="n">
-        <v>925627.535310735</v>
+        <v>929032.217514124</v>
       </c>
       <c r="I156" s="1" t="n">
-        <v>77240.5225988701</v>
+        <v>77113.7782485876</v>
       </c>
       <c r="J156" s="1" t="n">
-        <v>85446.0098870057</v>
+        <v>85693.6935028249</v>
       </c>
       <c r="K156" s="1" t="n">
-        <v>362320.494350282</v>
+        <v>364160.706214689</v>
       </c>
       <c r="L156" s="1" t="n">
-        <v>339208.516949153</v>
+        <v>344374.074858757</v>
       </c>
       <c r="M156" s="1" t="n">
-        <v>3583.67231638418</v>
+        <v>3474.34322033898</v>
       </c>
       <c r="N156" s="1" t="n">
-        <v>4804.67514124294</v>
+        <v>4693.41101694915</v>
       </c>
       <c r="O156" s="1" t="n">
-        <v>4533.77118644068</v>
+        <v>4570.53672316384</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
         <v>2022</v>
       </c>
-      <c r="B157" s="1"/>
-      <c r="C157" s="1"/>
-      <c r="D157" s="1"/>
-      <c r="E157" s="1"/>
-      <c r="F157" s="1"/>
-      <c r="G157" s="1"/>
-      <c r="H157" s="1"/>
-      <c r="I157" s="1"/>
-      <c r="J157" s="1"/>
-      <c r="K157" s="1"/>
-      <c r="L157" s="1"/>
-      <c r="M157" s="1"/>
-      <c r="N157" s="1"/>
-      <c r="O157" s="1"/>
+      <c r="B157" s="1" t="n">
+        <v>2521311.93783069</v>
+      </c>
+      <c r="C157" s="1" t="n">
+        <v>36895.7671957672</v>
+      </c>
+      <c r="D157" s="1" t="n">
+        <v>8495.44973544974</v>
+      </c>
+      <c r="E157" s="1" t="n">
+        <v>49275.6018518519</v>
+      </c>
+      <c r="F157" s="1" t="n">
+        <v>40321.6732804233</v>
+      </c>
+      <c r="G157" s="1" t="n">
+        <v>494354.351851852</v>
+      </c>
+      <c r="H157" s="1" t="n">
+        <v>949810.48941799</v>
+      </c>
+      <c r="I157" s="1" t="n">
+        <v>78404.4113756614</v>
+      </c>
+      <c r="J157" s="1" t="n">
+        <v>103666.957671958</v>
+      </c>
+      <c r="K157" s="1" t="n">
+        <v>416153.80952381</v>
+      </c>
+      <c r="L157" s="1" t="n">
+        <v>358098.247354497</v>
+      </c>
+      <c r="M157" s="1" t="n">
+        <v>3560.9126984127</v>
+      </c>
+      <c r="N157" s="1" t="n">
+        <v>5050.51587301587</v>
+      </c>
+      <c r="O157" s="1" t="n">
+        <v>4306.62037037037</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22849,14 +22929,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0">
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
     <col min="1" max="1" width="13.71" hidden="0" customWidth="1"/>
     <col min="2" max="2" width="13.71" hidden="0" customWidth="1"/>
@@ -25678,7 +25758,7 @@
         <v>1964</v>
       </c>
       <c r="B99" s="1" t="n">
-        <v>2799.98443761429</v>
+        <v>2799.93256299524</v>
       </c>
       <c r="C99" s="1" t="n">
         <v>1482.05896021445</v>
@@ -25719,7 +25799,7 @@
         <v>1965</v>
       </c>
       <c r="B100" s="1" t="n">
-        <v>3033.1830799399</v>
+        <v>3033.13214658619</v>
       </c>
       <c r="C100" s="1" t="n">
         <v>1600.85200605887</v>
@@ -25760,7 +25840,7 @@
         <v>1966</v>
       </c>
       <c r="B101" s="1" t="n">
-        <v>3335.61695211901</v>
+        <v>3335.6669583698</v>
       </c>
       <c r="C101" s="1" t="n">
         <v>1800.55248336088</v>
@@ -25801,7 +25881,7 @@
         <v>1967</v>
       </c>
       <c r="B102" s="1" t="n">
-        <v>3526.51157080597</v>
+        <v>3526.46246393714</v>
       </c>
       <c r="C102" s="1" t="n">
         <v>1879.08489538612</v>
@@ -25924,7 +26004,7 @@
         <v>1970</v>
       </c>
       <c r="B105" s="1" t="n">
-        <v>4375.99530240752</v>
+        <v>4375.94832648268</v>
       </c>
       <c r="C105" s="1" t="n">
         <v>2495.63331555004</v>
@@ -25965,7 +26045,7 @@
         <v>1971</v>
       </c>
       <c r="B106" s="1" t="n">
-        <v>4674.78318447878</v>
+        <v>4674.82916715882</v>
       </c>
       <c r="C106" s="1" t="n">
         <v>2636.64882432162</v>
@@ -26006,7 +26086,7 @@
         <v>1972</v>
       </c>
       <c r="B107" s="1" t="n">
-        <v>5116.57796025773</v>
+        <v>5116.53288901198</v>
       </c>
       <c r="C107" s="1" t="n">
         <v>2721.07674708744</v>
@@ -26293,7 +26373,7 @@
         <v>1979</v>
       </c>
       <c r="B114" s="1" t="n">
-        <v>11899.3399062234</v>
+        <v>11899.2985329009</v>
       </c>
       <c r="C114" s="1" t="n">
         <v>7344.70039084181</v>
@@ -26334,7 +26414,7 @@
         <v>1980</v>
       </c>
       <c r="B115" s="1" t="n">
-        <v>13190.5829765233</v>
+        <v>13190.5421113508</v>
       </c>
       <c r="C115" s="1" t="n">
         <v>7662.29129049874</v>
@@ -27243,7 +27323,7 @@
         <v>2001</v>
       </c>
       <c r="B136" s="1" t="n">
-        <v>36954.8781100684</v>
+        <v>36954.9655118109</v>
       </c>
       <c r="C136" s="1" t="n">
         <v>27706.3707029649</v>
@@ -27290,7 +27370,7 @@
         <v>2002</v>
       </c>
       <c r="B137" s="1" t="n">
-        <v>38126.6464197623</v>
+        <v>38127.6096978</v>
       </c>
       <c r="C137" s="1" t="n">
         <v>32249.495169217</v>
@@ -27337,7 +27417,7 @@
         <v>2003</v>
       </c>
       <c r="B138" s="1" t="n">
-        <v>39702.994313013</v>
+        <v>39704.871300968</v>
       </c>
       <c r="C138" s="1" t="n">
         <v>35563.0821337849</v>
@@ -27384,7 +27464,7 @@
         <v>2004</v>
       </c>
       <c r="B139" s="1" t="n">
-        <v>41870.8087012305</v>
+        <v>41873.2849038877</v>
       </c>
       <c r="C139" s="1" t="n">
         <v>38055.9039702526</v>
@@ -27431,7 +27511,7 @@
         <v>2005</v>
       </c>
       <c r="B140" s="1" t="n">
-        <v>44143.1425368997</v>
+        <v>44144.7741093985</v>
       </c>
       <c r="C140" s="1" t="n">
         <v>43341.654806623</v>
@@ -27478,7 +27558,7 @@
         <v>2006</v>
       </c>
       <c r="B141" s="1" t="n">
-        <v>46007.7706074551</v>
+        <v>46007.9070921894</v>
       </c>
       <c r="C141" s="1" t="n">
         <v>48183.2852845325</v>
@@ -27525,7 +27605,7 @@
         <v>2007</v>
       </c>
       <c r="B142" s="1" t="n">
-        <v>48028.0821905402</v>
+        <v>48028.1779582201</v>
       </c>
       <c r="C142" s="1" t="n">
         <v>57139.2089263439</v>
@@ -27572,7 +27652,7 @@
         <v>2008</v>
       </c>
       <c r="B143" s="1" t="n">
-        <v>49911.749580484</v>
+        <v>49911.6507326334</v>
       </c>
       <c r="C143" s="1" t="n">
         <v>61759.5258619847</v>
@@ -27619,7 +27699,7 @@
         <v>2009</v>
       </c>
       <c r="B144" s="1" t="n">
-        <v>46792.2493575381</v>
+        <v>46790.7124753205</v>
       </c>
       <c r="C144" s="1" t="n">
         <v>48421.7737362869</v>
@@ -27666,7 +27746,7 @@
         <v>2010</v>
       </c>
       <c r="B145" s="1" t="n">
-        <v>49061.5348719586</v>
+        <v>49059.8832093338</v>
       </c>
       <c r="C145" s="1" t="n">
         <v>55759.5750264842</v>
@@ -27713,7 +27793,7 @@
         <v>2011</v>
       </c>
       <c r="B146" s="1" t="n">
-        <v>51724.2896167839</v>
+        <v>51724.169348888</v>
       </c>
       <c r="C146" s="1" t="n">
         <v>63927.7408147444</v>
@@ -27760,7 +27840,7 @@
         <v>2012</v>
       </c>
       <c r="B147" s="1" t="n">
-        <v>52710.4982115127</v>
+        <v>52711.5508507522</v>
       </c>
       <c r="C147" s="1" t="n">
         <v>60916.3191442875</v>
@@ -27807,7 +27887,7 @@
         <v>2013</v>
       </c>
       <c r="B148" s="1" t="n">
-        <v>54297.1084086045</v>
+        <v>54299.9001990666</v>
       </c>
       <c r="C148" s="1" t="n">
         <v>65433.6633062298</v>
@@ -27854,7 +27934,7 @@
         <v>2014</v>
       </c>
       <c r="B149" s="1" t="n">
-        <v>56365.1303407155</v>
+        <v>56370.1951894494</v>
       </c>
       <c r="C149" s="1" t="n">
         <v>64944.4580135906</v>
@@ -27901,7 +27981,7 @@
         <v>2015</v>
       </c>
       <c r="B150" s="1" t="n">
-        <v>55788.9280150143</v>
+        <v>55791.4276628264</v>
       </c>
       <c r="C150" s="1" t="n">
         <v>59003.9707110356</v>
@@ -27948,7 +28028,7 @@
         <v>2016</v>
       </c>
       <c r="B151" s="1" t="n">
-        <v>56183.0632529368</v>
+        <v>56182.8828719816</v>
       </c>
       <c r="C151" s="1" t="n">
         <v>59534.2880780317</v>
@@ -27995,7 +28075,7 @@
         <v>2017</v>
       </c>
       <c r="B152" s="1" t="n">
-        <v>58656.3078494583</v>
+        <v>58656.7948526867</v>
       </c>
       <c r="C152" s="1" t="n">
         <v>63776.7416502445</v>
@@ -28042,7 +28122,7 @@
         <v>2018</v>
       </c>
       <c r="B153" s="1" t="n">
-        <v>60418.6241052332</v>
+        <v>60408.4016497052</v>
       </c>
       <c r="C153" s="1" t="n">
         <v>65813.6083415785</v>
@@ -28089,7 +28169,7 @@
         <v>2019</v>
       </c>
       <c r="B154" s="1" t="n">
-        <v>61569.0591672323</v>
+        <v>61604.3087918498</v>
       </c>
       <c r="C154" s="1" t="n">
         <v>68431.7010777052</v>
@@ -28136,46 +28216,46 @@
         <v>2020</v>
       </c>
       <c r="B155" s="1" t="n">
-        <v>58107.3730415769</v>
+        <v>58152.8694231645</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>61832.633559601</v>
+        <v>61715.631647291</v>
       </c>
       <c r="D155" s="1" t="n">
-        <v>46780.942934193</v>
+        <v>46253.9908868293</v>
       </c>
       <c r="E155" s="1" t="n">
-        <v>47696.271026219</v>
+        <v>47025.9990159836</v>
       </c>
       <c r="F155" s="1" t="n">
-        <v>47822.7219551569</v>
+        <v>47706.5016934952</v>
       </c>
       <c r="G155" s="1" t="n">
-        <v>52587.0698103385</v>
+        <v>52625.0802328896</v>
       </c>
       <c r="H155" s="1" t="n">
-        <v>58874.0801826861</v>
+        <v>59374.7585057254</v>
       </c>
       <c r="I155" s="1" t="n">
-        <v>53363.0265644748</v>
+        <v>52876.0305184189</v>
       </c>
       <c r="J155" s="1" t="n">
-        <v>66231.8079335272</v>
+        <v>65999.3024836504</v>
       </c>
       <c r="K155" s="1" t="n">
-        <v>67173.0498143176</v>
+        <v>68219.7631615769</v>
       </c>
       <c r="L155" s="1" t="n">
-        <v>59537.832933598</v>
+        <v>59628.027958518</v>
       </c>
       <c r="M155" s="1" t="n">
-        <v>76868.3442829021</v>
+        <v>76892.0617603112</v>
       </c>
       <c r="N155" s="1" t="n">
-        <v>91408.2829797557</v>
+        <v>92466.8107440568</v>
       </c>
       <c r="O155" s="1" t="n">
-        <v>107745.741502158</v>
+        <v>103838.394156856</v>
       </c>
     </row>
     <row r="156">
@@ -28183,66 +28263,94 @@
         <v>2021</v>
       </c>
       <c r="B156" s="1" t="n">
-        <v>65256.276577126</v>
+        <v>65657.9069807248</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>72873.1948383328</v>
+        <v>73265.1618208788</v>
       </c>
       <c r="D156" s="1" t="n">
-        <v>52361.6455650105</v>
+        <v>52046.0311487151</v>
       </c>
       <c r="E156" s="1" t="n">
-        <v>52390.3837791098</v>
+        <v>51243.1932859592</v>
       </c>
       <c r="F156" s="1" t="n">
-        <v>53907.0189954934</v>
+        <v>52416.6306088831</v>
       </c>
       <c r="G156" s="1" t="n">
-        <v>58641.6362534126</v>
+        <v>58528.9924189188</v>
       </c>
       <c r="H156" s="1" t="n">
-        <v>64601.9580860809</v>
+        <v>64839.5797304348</v>
       </c>
       <c r="I156" s="1" t="n">
-        <v>57352.8767316174</v>
+        <v>57258.7661164429</v>
       </c>
       <c r="J156" s="1" t="n">
-        <v>74748.6443000509</v>
+        <v>74965.3193036268</v>
       </c>
       <c r="K156" s="1" t="n">
-        <v>84272.0814046982</v>
+        <v>84700.0960670133</v>
       </c>
       <c r="L156" s="1" t="n">
-        <v>67391.8734855483</v>
+        <v>68418.1349375228</v>
       </c>
       <c r="M156" s="1" t="n">
-        <v>85641.6184971098</v>
+        <v>83028.901734104</v>
       </c>
       <c r="N156" s="1" t="n">
-        <v>108910.673947847</v>
+        <v>106388.578195934</v>
       </c>
       <c r="O156" s="1" t="n">
-        <v>118002.56855783</v>
+        <v>118959.482259324</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
         <v>2022</v>
       </c>
-      <c r="B157" s="1"/>
-      <c r="C157" s="1"/>
-      <c r="D157" s="1"/>
-      <c r="E157" s="1"/>
-      <c r="F157" s="1"/>
-      <c r="G157" s="1"/>
-      <c r="H157" s="1"/>
-      <c r="I157" s="1"/>
-      <c r="J157" s="1"/>
-      <c r="K157" s="1"/>
-      <c r="L157" s="1"/>
-      <c r="M157" s="1"/>
-      <c r="N157" s="1"/>
-      <c r="O157" s="1"/>
+      <c r="B157" s="1" t="n">
+        <v>71594.7906897068</v>
+      </c>
+      <c r="C157" s="1" t="n">
+        <v>77418.5698097998</v>
+      </c>
+      <c r="D157" s="1" t="n">
+        <v>54930.6336707912</v>
+      </c>
+      <c r="E157" s="1" t="n">
+        <v>53331.0451347177</v>
+      </c>
+      <c r="F157" s="1" t="n">
+        <v>54800.0704380582</v>
+      </c>
+      <c r="G157" s="1" t="n">
+        <v>62743.2607465403</v>
+      </c>
+      <c r="H157" s="1" t="n">
+        <v>69377.7972623164</v>
+      </c>
+      <c r="I157" s="1" t="n">
+        <v>61403.3407061906</v>
+      </c>
+      <c r="J157" s="1" t="n">
+        <v>95758.0454685835</v>
+      </c>
+      <c r="K157" s="1" t="n">
+        <v>101095.482809027</v>
+      </c>
+      <c r="L157" s="1" t="n">
+        <v>74297.9747050565</v>
+      </c>
+      <c r="M157" s="1" t="n">
+        <v>89748.5669917102</v>
+      </c>
+      <c r="N157" s="1" t="n">
+        <v>122223.440412236</v>
+      </c>
+      <c r="O157" s="1" t="n">
+        <v>117282.732073237</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28251,14 +28359,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0">
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
     <col min="1" max="1" width="13.71" hidden="0" customWidth="1"/>
     <col min="2" max="2" width="13.71" hidden="0" customWidth="1"/>
@@ -31080,7 +31188,7 @@
         <v>1964</v>
       </c>
       <c r="B99" s="1" t="n">
-        <v>23390.1138995828</v>
+        <v>23389.6805567285</v>
       </c>
       <c r="C99" s="1" t="n">
         <v>12380.6144847183</v>
@@ -31121,7 +31229,7 @@
         <v>1965</v>
       </c>
       <c r="B100" s="1" t="n">
-        <v>24734.8858304623</v>
+        <v>24734.4704810898</v>
       </c>
       <c r="C100" s="1" t="n">
         <v>13054.5669541706</v>
@@ -31162,7 +31270,7 @@
         <v>1966</v>
       </c>
       <c r="B101" s="1" t="n">
-        <v>26113.1155680174</v>
+        <v>26113.5070455235</v>
       </c>
       <c r="C101" s="1" t="n">
         <v>14095.7537268823</v>
@@ -31203,7 +31311,7 @@
         <v>1967</v>
       </c>
       <c r="B102" s="1" t="n">
-        <v>26692.3803978131</v>
+        <v>26692.0087049386</v>
       </c>
       <c r="C102" s="1" t="n">
         <v>14222.9077717071</v>
@@ -31326,7 +31434,7 @@
         <v>1970</v>
       </c>
       <c r="B105" s="1" t="n">
-        <v>29532.5791344744</v>
+        <v>29532.2621048338</v>
       </c>
       <c r="C105" s="1" t="n">
         <v>16842.451439919</v>
@@ -31367,7 +31475,7 @@
         <v>1971</v>
       </c>
       <c r="B106" s="1" t="n">
-        <v>30643.3156111767</v>
+        <v>30643.6170287445</v>
       </c>
       <c r="C106" s="1" t="n">
         <v>17283.2961211513</v>
@@ -31408,7 +31516,7 @@
         <v>1972</v>
       </c>
       <c r="B107" s="1" t="n">
-        <v>32007.8164637127</v>
+        <v>32007.5345111708</v>
       </c>
       <c r="C107" s="1" t="n">
         <v>17022.2609292685</v>
@@ -31695,7 +31803,7 @@
         <v>1979</v>
       </c>
       <c r="B114" s="1" t="n">
-        <v>40755.2391788153</v>
+        <v>40755.0974751858</v>
       </c>
       <c r="C114" s="1" t="n">
         <v>25155.5988386332</v>
@@ -31736,7 +31844,7 @@
         <v>1980</v>
       </c>
       <c r="B115" s="1" t="n">
-        <v>41070.6788132658</v>
+        <v>41070.5515739787</v>
       </c>
       <c r="C115" s="1" t="n">
         <v>23857.5887908711</v>
@@ -32645,7 +32753,7 @@
         <v>2001</v>
       </c>
       <c r="B136" s="1" t="n">
-        <v>51767.0582932451</v>
+        <v>51767.1807271788</v>
       </c>
       <c r="C136" s="1" t="n">
         <v>38811.5826820674</v>
@@ -32692,7 +32800,7 @@
         <v>2002</v>
       </c>
       <c r="B137" s="1" t="n">
-        <v>52233.5055950744</v>
+        <v>52234.8252859861</v>
       </c>
       <c r="C137" s="1" t="n">
         <v>44181.8083818272</v>
@@ -32739,7 +32847,7 @@
         <v>2003</v>
       </c>
       <c r="B138" s="1" t="n">
-        <v>52911.5780241516</v>
+        <v>52914.0794575157</v>
       </c>
       <c r="C138" s="1" t="n">
         <v>47394.3798864644</v>
@@ -32786,7 +32894,7 @@
         <v>2004</v>
       </c>
       <c r="B139" s="1" t="n">
-        <v>54787.9731811707</v>
+        <v>54791.2132935302</v>
       </c>
       <c r="C139" s="1" t="n">
         <v>49796.1685188596</v>
@@ -32833,7 +32941,7 @@
         <v>2005</v>
       </c>
       <c r="B140" s="1" t="n">
-        <v>56519.7245565911</v>
+        <v>56521.8135793233</v>
       </c>
       <c r="C140" s="1" t="n">
         <v>55493.5206402556</v>
@@ -32880,7 +32988,7 @@
         <v>2006</v>
       </c>
       <c r="B141" s="1" t="n">
-        <v>57773.2774814056</v>
+        <v>57773.4488692021</v>
       </c>
       <c r="C141" s="1" t="n">
         <v>60505.1336753524</v>
@@ -32927,7 +33035,7 @@
         <v>2007</v>
       </c>
       <c r="B142" s="1" t="n">
-        <v>59012.0830502601</v>
+        <v>59012.2007199656</v>
       </c>
       <c r="C142" s="1" t="n">
         <v>70206.9203848351</v>
@@ -32974,7 +33082,7 @@
         <v>2008</v>
       </c>
       <c r="B143" s="1" t="n">
-        <v>59929.0945883112</v>
+        <v>59928.9759015844</v>
       </c>
       <c r="C143" s="1" t="n">
         <v>74154.7330682902</v>
@@ -33021,7 +33129,7 @@
         <v>2009</v>
       </c>
       <c r="B144" s="1" t="n">
-        <v>56036.1727446041</v>
+        <v>56034.3322475429</v>
       </c>
       <c r="C144" s="1" t="n">
         <v>57987.6136527212</v>
@@ -33068,7 +33176,7 @@
         <v>2010</v>
       </c>
       <c r="B145" s="1" t="n">
-        <v>57694.6804932045</v>
+        <v>57692.7381946672</v>
       </c>
       <c r="C145" s="1" t="n">
         <v>65571.345739299</v>
@@ -33115,7 +33223,7 @@
         <v>2011</v>
       </c>
       <c r="B146" s="1" t="n">
-        <v>59101.1482693861</v>
+        <v>59101.0108490213</v>
       </c>
       <c r="C146" s="1" t="n">
         <v>73045.0416315261</v>
@@ -33162,7 +33270,7 @@
         <v>2012</v>
       </c>
       <c r="B147" s="1" t="n">
-        <v>59337.2083399938</v>
+        <v>59338.3933159659</v>
       </c>
       <c r="C147" s="1" t="n">
         <v>68574.6567195348</v>
@@ -33209,7 +33317,7 @@
         <v>2013</v>
       </c>
       <c r="B148" s="1" t="n">
-        <v>60575.7642669284</v>
+        <v>60578.8788865809</v>
       </c>
       <c r="C148" s="1" t="n">
         <v>73000.0966852889</v>
@@ -33256,7 +33364,7 @@
         <v>2014</v>
       </c>
       <c r="B149" s="1" t="n">
-        <v>61677.4988552558</v>
+        <v>61683.0410619374</v>
       </c>
       <c r="C149" s="1" t="n">
         <v>71065.4213088012</v>
@@ -33303,7 +33411,7 @@
         <v>2015</v>
       </c>
       <c r="B150" s="1" t="n">
-        <v>60371.9047239886</v>
+        <v>60374.6097141171</v>
       </c>
       <c r="C150" s="1" t="n">
         <v>63851.0583523845</v>
@@ -33350,7 +33458,7 @@
         <v>2016</v>
       </c>
       <c r="B151" s="1" t="n">
-        <v>59946.1033150494</v>
+        <v>59945.9108525038</v>
       </c>
       <c r="C151" s="1" t="n">
         <v>63521.7871237565</v>
@@ -33397,7 +33505,7 @@
         <v>2017</v>
       </c>
       <c r="B152" s="1" t="n">
-        <v>61625.1087068695</v>
+        <v>61625.6203590344</v>
       </c>
       <c r="C152" s="1" t="n">
         <v>67004.705568125</v>
@@ -33444,7 +33552,7 @@
         <v>2018</v>
       </c>
       <c r="B153" s="1" t="n">
-        <v>62049.111712271</v>
+        <v>62038.6133883779</v>
       </c>
       <c r="C153" s="1" t="n">
         <v>67589.6877271084</v>
@@ -33491,7 +33599,7 @@
         <v>2019</v>
       </c>
       <c r="B154" s="1" t="n">
-        <v>62021.7728375796</v>
+        <v>62057.2816506134</v>
       </c>
       <c r="C154" s="1" t="n">
         <v>68934.8753503354</v>
@@ -33538,46 +33646,46 @@
         <v>2020</v>
       </c>
       <c r="B155" s="1" t="n">
-        <v>58107.3730415769</v>
+        <v>58152.8694231645</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>61832.633559601</v>
+        <v>61715.631647291</v>
       </c>
       <c r="D155" s="1" t="n">
-        <v>46780.942934193</v>
+        <v>46253.9908868293</v>
       </c>
       <c r="E155" s="1" t="n">
-        <v>47696.271026219</v>
+        <v>47025.9990159836</v>
       </c>
       <c r="F155" s="1" t="n">
-        <v>47822.7219551569</v>
+        <v>47706.5016934952</v>
       </c>
       <c r="G155" s="1" t="n">
-        <v>52587.0698103385</v>
+        <v>52625.0802328896</v>
       </c>
       <c r="H155" s="1" t="n">
-        <v>58874.0801826861</v>
+        <v>59374.7585057254</v>
       </c>
       <c r="I155" s="1" t="n">
-        <v>53363.0265644748</v>
+        <v>52876.0305184189</v>
       </c>
       <c r="J155" s="1" t="n">
-        <v>66231.8079335272</v>
+        <v>65999.3024836504</v>
       </c>
       <c r="K155" s="1" t="n">
-        <v>67173.0498143176</v>
+        <v>68219.7631615769</v>
       </c>
       <c r="L155" s="1" t="n">
-        <v>59537.832933598</v>
+        <v>59628.027958518</v>
       </c>
       <c r="M155" s="1" t="n">
-        <v>76868.3442829021</v>
+        <v>76892.0617603112</v>
       </c>
       <c r="N155" s="1" t="n">
-        <v>91408.2829797557</v>
+        <v>92466.8107440568</v>
       </c>
       <c r="O155" s="1" t="n">
-        <v>107745.741502158</v>
+        <v>103838.394156856</v>
       </c>
     </row>
     <row r="156">
@@ -33585,66 +33693,94 @@
         <v>2021</v>
       </c>
       <c r="B156" s="1" t="n">
-        <v>63136.3692871911</v>
+        <v>63524.9523754188</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>70505.8452885</v>
+        <v>70885.07888037</v>
       </c>
       <c r="D156" s="1" t="n">
-        <v>50660.6316554127</v>
+        <v>50355.2702498161</v>
       </c>
       <c r="E156" s="1" t="n">
-        <v>50688.4362834608</v>
+        <v>49578.513278082</v>
       </c>
       <c r="F156" s="1" t="n">
-        <v>52155.8022767133</v>
+        <v>50713.8304619844</v>
       </c>
       <c r="G156" s="1" t="n">
-        <v>56736.6113468752</v>
+        <v>56627.6268459878</v>
       </c>
       <c r="H156" s="1" t="n">
-        <v>62503.3069053184</v>
+        <v>62733.2092024687</v>
       </c>
       <c r="I156" s="1" t="n">
-        <v>55489.7183067202</v>
+        <v>55398.6649572929</v>
       </c>
       <c r="J156" s="1" t="n">
-        <v>72320.3691321114</v>
+        <v>72530.0052584525</v>
       </c>
       <c r="K156" s="1" t="n">
-        <v>81534.4290426812</v>
+        <v>81948.5392738759</v>
       </c>
       <c r="L156" s="1" t="n">
-        <v>65202.5894598879</v>
+        <v>66195.5119098914</v>
       </c>
       <c r="M156" s="1" t="n">
-        <v>82859.4755233337</v>
+        <v>80331.6351523464</v>
       </c>
       <c r="N156" s="1" t="n">
-        <v>105372.615330898</v>
+        <v>102932.4520681</v>
       </c>
       <c r="O156" s="1" t="n">
-        <v>114169.151782647</v>
+        <v>115094.979304572</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
         <v>2022</v>
       </c>
-      <c r="B157" s="1"/>
-      <c r="C157" s="1"/>
-      <c r="D157" s="1"/>
-      <c r="E157" s="1"/>
-      <c r="F157" s="1"/>
-      <c r="G157" s="1"/>
-      <c r="H157" s="1"/>
-      <c r="I157" s="1"/>
-      <c r="J157" s="1"/>
-      <c r="K157" s="1"/>
-      <c r="L157" s="1"/>
-      <c r="M157" s="1"/>
-      <c r="N157" s="1"/>
-      <c r="O157" s="1"/>
+      <c r="B157" s="1" t="n">
+        <v>64870.9412995359</v>
+      </c>
+      <c r="C157" s="1" t="n">
+        <v>70147.7782006784</v>
+      </c>
+      <c r="D157" s="1" t="n">
+        <v>49771.804318111</v>
+      </c>
+      <c r="E157" s="1" t="n">
+        <v>48322.441689526</v>
+      </c>
+      <c r="F157" s="1" t="n">
+        <v>49653.5029762829</v>
+      </c>
+      <c r="G157" s="1" t="n">
+        <v>56850.7058351589</v>
+      </c>
+      <c r="H157" s="1" t="n">
+        <v>62862.157572337</v>
+      </c>
+      <c r="I157" s="1" t="n">
+        <v>55636.6248462177</v>
+      </c>
+      <c r="J157" s="1" t="n">
+        <v>86764.8956957404</v>
+      </c>
+      <c r="K157" s="1" t="n">
+        <v>91601.0657727292</v>
+      </c>
+      <c r="L157" s="1" t="n">
+        <v>67320.2548584176</v>
+      </c>
+      <c r="M157" s="1" t="n">
+        <v>81319.7994567745</v>
+      </c>
+      <c r="N157" s="1" t="n">
+        <v>110744.783971404</v>
+      </c>
+      <c r="O157" s="1" t="n">
+        <v>106268.083955248</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -33653,14 +33789,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0">
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
     <col min="1" max="1" width="13.71" hidden="0" customWidth="1"/>
     <col min="2" max="2" width="13.71" hidden="0" customWidth="1"/>
@@ -36372,7 +36508,7 @@
         <v>1964</v>
       </c>
       <c r="B99" s="1" t="n">
-        <v>68224.704671014</v>
+        <v>68223.4406887873</v>
       </c>
       <c r="C99" s="1" t="n">
         <v>53505.6499746811</v>
@@ -36413,7 +36549,7 @@
         <v>1965</v>
       </c>
       <c r="B100" s="1" t="n">
-        <v>70771.2592469223</v>
+        <v>70770.0708525905</v>
       </c>
       <c r="C100" s="1" t="n">
         <v>53538.4058155182</v>
@@ -36454,7 +36590,7 @@
         <v>1966</v>
       </c>
       <c r="B101" s="1" t="n">
-        <v>73014.1259188239</v>
+        <v>73015.2205177373</v>
       </c>
       <c r="C101" s="1" t="n">
         <v>54832.9531041597</v>
@@ -36495,7 +36631,7 @@
         <v>1967</v>
       </c>
       <c r="B102" s="1" t="n">
-        <v>73662.6861805078</v>
+        <v>73661.6604235253</v>
       </c>
       <c r="C102" s="1" t="n">
         <v>54289.6706795164</v>
@@ -36618,7 +36754,7 @@
         <v>1970</v>
       </c>
       <c r="B105" s="1" t="n">
-        <v>79791.189024638</v>
+        <v>79790.332473239</v>
       </c>
       <c r="C105" s="1" t="n">
         <v>65601.4633788743</v>
@@ -36659,7 +36795,7 @@
         <v>1971</v>
       </c>
       <c r="B106" s="1" t="n">
-        <v>82486.6879753819</v>
+        <v>82487.4993411355</v>
       </c>
       <c r="C106" s="1" t="n">
         <v>66016.819997406</v>
@@ -36700,7 +36836,7 @@
         <v>1972</v>
       </c>
       <c r="B107" s="1" t="n">
-        <v>85263.5918622889</v>
+        <v>85262.8407867982</v>
       </c>
       <c r="C107" s="1" t="n">
         <v>63291.979345776</v>
@@ -36987,7 +37123,7 @@
         <v>1979</v>
       </c>
       <c r="B114" s="1" t="n">
-        <v>92332.7170387867</v>
+        <v>92332.3960032244</v>
       </c>
       <c r="C114" s="1" t="n">
         <v>81157.7702769317</v>
@@ -37028,7 +37164,7 @@
         <v>1980</v>
       </c>
       <c r="B115" s="1" t="n">
-        <v>91499.3523637688</v>
+        <v>91499.0688935973</v>
       </c>
       <c r="C115" s="1" t="n">
         <v>74833.7825754136</v>
@@ -38030,7 +38166,7 @@
         <v>101352.345039071</v>
       </c>
       <c r="M138" s="1" t="n">
-        <v>120228.946060876</v>
+        <v>120362.016283411</v>
       </c>
       <c r="N138" s="1" t="n">
         <v>243923.605554463</v>
@@ -38075,10 +38211,10 @@
         <v>106187.042649282</v>
       </c>
       <c r="M139" s="1" t="n">
-        <v>116120.335161108</v>
+        <v>116237.687697905</v>
       </c>
       <c r="N139" s="1" t="n">
-        <v>268049.735016579</v>
+        <v>268151.077071406</v>
       </c>
       <c r="O139" s="1" t="n">
         <v>193468.05740746</v>
@@ -38122,10 +38258,10 @@
         <v>108569.843455596</v>
       </c>
       <c r="M140" s="1" t="n">
-        <v>118009.455315421</v>
+        <v>117836.842752794</v>
       </c>
       <c r="N140" s="1" t="n">
-        <v>252311.185963362</v>
+        <v>252124.978446046</v>
       </c>
       <c r="O140" s="1" t="n">
         <v>194438.489621999</v>
@@ -38136,46 +38272,46 @@
         <v>2006</v>
       </c>
       <c r="B141" s="1" t="n">
-        <v>114768.157513591</v>
+        <v>114497.558703099</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>144159.763012438</v>
+        <v>144092.524317003</v>
       </c>
       <c r="D141" s="1" t="n">
-        <v>82038.4751933411</v>
+        <v>81917.8303768804</v>
       </c>
       <c r="E141" s="1" t="n">
-        <v>93762.4091180082</v>
+        <v>93592.0094649087</v>
       </c>
       <c r="F141" s="1" t="n">
-        <v>96234.2192307773</v>
+        <v>96206.7001517865</v>
       </c>
       <c r="G141" s="1" t="n">
         <v>97981.7938084032</v>
       </c>
       <c r="H141" s="1" t="n">
-        <v>112732.658514049</v>
+        <v>112531.988972541</v>
       </c>
       <c r="I141" s="1" t="n">
-        <v>100637.22300681</v>
+        <v>100481.971891441</v>
       </c>
       <c r="J141" s="1" t="n">
-        <v>118459.892579885</v>
+        <v>118050.246897651</v>
       </c>
       <c r="K141" s="1" t="n">
-        <v>161907.882172216</v>
+        <v>161240.516906036</v>
       </c>
       <c r="L141" s="1" t="n">
-        <v>111880.791900736</v>
+        <v>111075.482959312</v>
       </c>
       <c r="M141" s="1" t="n">
-        <v>124005.486238508</v>
+        <v>124911.959091128</v>
       </c>
       <c r="N141" s="1" t="n">
-        <v>244234.647112741</v>
+        <v>247029.506492768</v>
       </c>
       <c r="O141" s="1" t="n">
-        <v>182056.229425758</v>
+        <v>183844.601031119</v>
       </c>
     </row>
     <row r="142">
@@ -38183,46 +38319,46 @@
         <v>2007</v>
       </c>
       <c r="B142" s="1" t="n">
-        <v>115943.523468889</v>
+        <v>115682.669914823</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>164393.669993111</v>
+        <v>163941.210350928</v>
       </c>
       <c r="D142" s="1" t="n">
         <v>83558.7759557093</v>
       </c>
       <c r="E142" s="1" t="n">
-        <v>94051.9186447793</v>
+        <v>93651.5183637462</v>
       </c>
       <c r="F142" s="1" t="n">
-        <v>97854.1845115131</v>
+        <v>97361.9052154798</v>
       </c>
       <c r="G142" s="1" t="n">
-        <v>98612.7369737361</v>
+        <v>98623.0518438466</v>
       </c>
       <c r="H142" s="1" t="n">
-        <v>113411.425444179</v>
+        <v>113224.06317003</v>
       </c>
       <c r="I142" s="1" t="n">
-        <v>103614.153782108</v>
+        <v>103124.995747055</v>
       </c>
       <c r="J142" s="1" t="n">
-        <v>127716.045595324</v>
+        <v>127211.538206048</v>
       </c>
       <c r="K142" s="1" t="n">
-        <v>161787.345219572</v>
+        <v>160870.680056625</v>
       </c>
       <c r="L142" s="1" t="n">
-        <v>111727.323012563</v>
+        <v>111373.643610814</v>
       </c>
       <c r="M142" s="1" t="n">
-        <v>130478.187387537</v>
+        <v>130861.008475227</v>
       </c>
       <c r="N142" s="1" t="n">
-        <v>247667.628933852</v>
+        <v>250826.65481311</v>
       </c>
       <c r="O142" s="1" t="n">
-        <v>167365.374373857</v>
+        <v>172257.364944572</v>
       </c>
     </row>
     <row r="143">
@@ -38230,46 +38366,46 @@
         <v>2008</v>
       </c>
       <c r="B143" s="1" t="n">
-        <v>117318.195933278</v>
+        <v>117057.976598657</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>171890.133655682</v>
+        <v>171269.311502523</v>
       </c>
       <c r="D143" s="1" t="n">
         <v>83089.2169251778</v>
       </c>
       <c r="E143" s="1" t="n">
-        <v>94821.7254908385</v>
+        <v>94318.0244258141</v>
       </c>
       <c r="F143" s="1" t="n">
-        <v>96356.7675603072</v>
+        <v>95638.2829637515</v>
       </c>
       <c r="G143" s="1" t="n">
-        <v>97850.0069072191</v>
+        <v>97698.5363082915</v>
       </c>
       <c r="H143" s="1" t="n">
-        <v>111021.795498974</v>
+        <v>110803.139395608</v>
       </c>
       <c r="I143" s="1" t="n">
-        <v>104614.493294594</v>
+        <v>104041.501049163</v>
       </c>
       <c r="J143" s="1" t="n">
-        <v>157218.185182817</v>
+        <v>156611.984353116</v>
       </c>
       <c r="K143" s="1" t="n">
-        <v>173622.228745943</v>
+        <v>173478.270403814</v>
       </c>
       <c r="L143" s="1" t="n">
-        <v>110714.760393488</v>
+        <v>110433.583181653</v>
       </c>
       <c r="M143" s="1" t="n">
-        <v>136409.437452581</v>
+        <v>137749.286931769</v>
       </c>
       <c r="N143" s="1" t="n">
-        <v>268156.58778849</v>
+        <v>270056.988820933</v>
       </c>
       <c r="O143" s="1" t="n">
-        <v>175567.528960844</v>
+        <v>174347.368527912</v>
       </c>
     </row>
     <row r="144">
@@ -38277,46 +38413,46 @@
         <v>2009</v>
       </c>
       <c r="B144" s="1" t="n">
-        <v>112779.205505587</v>
+        <v>112307.368228892</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>139828.079060464</v>
+        <v>138984.959845349</v>
       </c>
       <c r="D144" s="1" t="n">
-        <v>87073.8797285189</v>
+        <v>86311.1888111888</v>
       </c>
       <c r="E144" s="1" t="n">
-        <v>93760.5086704841</v>
+        <v>93011.5895863621</v>
       </c>
       <c r="F144" s="1" t="n">
-        <v>96210.145786417</v>
+        <v>95678.4511426678</v>
       </c>
       <c r="G144" s="1" t="n">
-        <v>98341.1058687571</v>
+        <v>98034.9459853935</v>
       </c>
       <c r="H144" s="1" t="n">
-        <v>111723.215409795</v>
+        <v>111217.013741763</v>
       </c>
       <c r="I144" s="1" t="n">
-        <v>101617.110988461</v>
+        <v>101481.64408496</v>
       </c>
       <c r="J144" s="1" t="n">
-        <v>137208.424794188</v>
+        <v>136583.685239064</v>
       </c>
       <c r="K144" s="1" t="n">
-        <v>145251.313021677</v>
+        <v>145015.213458593</v>
       </c>
       <c r="L144" s="1" t="n">
-        <v>108513.440859356</v>
+        <v>107779.176432106</v>
       </c>
       <c r="M144" s="1" t="n">
-        <v>147290.335563717</v>
+        <v>147715.415897234</v>
       </c>
       <c r="N144" s="1" t="n">
-        <v>225719.638763117</v>
+        <v>227412.090671759</v>
       </c>
       <c r="O144" s="1" t="n">
-        <v>172000.217681151</v>
+        <v>169884.919077848</v>
       </c>
     </row>
     <row r="145">
@@ -38324,46 +38460,46 @@
         <v>2010</v>
       </c>
       <c r="B145" s="1" t="n">
-        <v>115879.841526157</v>
+        <v>115395.933881989</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>154183.930711828</v>
+        <v>152466.96043664</v>
       </c>
       <c r="D145" s="1" t="n">
-        <v>88765.8931435756</v>
+        <v>87752.8729650469</v>
       </c>
       <c r="E145" s="1" t="n">
-        <v>96526.9638198761</v>
+        <v>95951.0018258127</v>
       </c>
       <c r="F145" s="1" t="n">
-        <v>99567.2859329512</v>
+        <v>99040.9146383696</v>
       </c>
       <c r="G145" s="1" t="n">
-        <v>98733.2984958232</v>
+        <v>98532.2174673446</v>
       </c>
       <c r="H145" s="1" t="n">
-        <v>114018.089971301</v>
+        <v>113446.902423411</v>
       </c>
       <c r="I145" s="1" t="n">
-        <v>103306.473380524</v>
+        <v>102832.435154589</v>
       </c>
       <c r="J145" s="1" t="n">
-        <v>140491.002651773</v>
+        <v>139335.778559701</v>
       </c>
       <c r="K145" s="1" t="n">
-        <v>157216.095514213</v>
+        <v>156596.249886046</v>
       </c>
       <c r="L145" s="1" t="n">
-        <v>109898.023859863</v>
+        <v>109561.656860607</v>
       </c>
       <c r="M145" s="1" t="n">
-        <v>156090.891932479</v>
+        <v>157293.904587065</v>
       </c>
       <c r="N145" s="1" t="n">
-        <v>260742.306533582</v>
+        <v>261746.320035829</v>
       </c>
       <c r="O145" s="1" t="n">
-        <v>197397.304507849</v>
+        <v>195965.851973346</v>
       </c>
     </row>
     <row r="146">
@@ -38371,46 +38507,46 @@
         <v>2011</v>
       </c>
       <c r="B146" s="1" t="n">
-        <v>118047.591280187</v>
+        <v>117550.600673033</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>166011.142041167</v>
+        <v>164798.340401846</v>
       </c>
       <c r="D146" s="1" t="n">
-        <v>86685.8322344971</v>
+        <v>86084.6822190013</v>
       </c>
       <c r="E146" s="1" t="n">
-        <v>95613.5546532734</v>
+        <v>94772.8111522554</v>
       </c>
       <c r="F146" s="1" t="n">
-        <v>101726.921000222</v>
+        <v>101042.850923449</v>
       </c>
       <c r="G146" s="1" t="n">
-        <v>99678.3956354024</v>
+        <v>99397.5195866147</v>
       </c>
       <c r="H146" s="1" t="n">
-        <v>113679.404384495</v>
+        <v>113341.337065959</v>
       </c>
       <c r="I146" s="1" t="n">
-        <v>105023.848850077</v>
+        <v>104274.165308642</v>
       </c>
       <c r="J146" s="1" t="n">
-        <v>159872.666474398</v>
+        <v>158245.840081042</v>
       </c>
       <c r="K146" s="1" t="n">
-        <v>163474.626557602</v>
+        <v>162813.950290133</v>
       </c>
       <c r="L146" s="1" t="n">
-        <v>112584.726488997</v>
+        <v>111849.240781923</v>
       </c>
       <c r="M146" s="1" t="n">
-        <v>148223.606327052</v>
+        <v>149584.645125857</v>
       </c>
       <c r="N146" s="1" t="n">
-        <v>237678.109030808</v>
+        <v>239519.895115548</v>
       </c>
       <c r="O146" s="1" t="n">
-        <v>196733.359547332</v>
+        <v>193999.052951817</v>
       </c>
     </row>
     <row r="147">
@@ -38418,46 +38554,46 @@
         <v>2012</v>
       </c>
       <c r="B147" s="1" t="n">
-        <v>118466.088498284</v>
+        <v>117702.101672438</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>151210.421830932</v>
+        <v>150454.054568752</v>
       </c>
       <c r="D147" s="1" t="n">
-        <v>86734.7065990423</v>
+        <v>86258.7960004193</v>
       </c>
       <c r="E147" s="1" t="n">
-        <v>94036.3314470531</v>
+        <v>93215.2327223463</v>
       </c>
       <c r="F147" s="1" t="n">
-        <v>101372.094143502</v>
+        <v>100829.539273438</v>
       </c>
       <c r="G147" s="1" t="n">
-        <v>100382.802076633</v>
+        <v>99635.0204776266</v>
       </c>
       <c r="H147" s="1" t="n">
-        <v>114956.327847777</v>
+        <v>114335.489245368</v>
       </c>
       <c r="I147" s="1" t="n">
-        <v>108857.698466532</v>
+        <v>108437.195527019</v>
       </c>
       <c r="J147" s="1" t="n">
-        <v>160652.826271076</v>
+        <v>159775.900363482</v>
       </c>
       <c r="K147" s="1" t="n">
-        <v>163433.866671234</v>
+        <v>162475.863298796</v>
       </c>
       <c r="L147" s="1" t="n">
-        <v>110522.077026131</v>
+        <v>109515.842747578</v>
       </c>
       <c r="M147" s="1" t="n">
-        <v>146980.305588594</v>
+        <v>147230.804618144</v>
       </c>
       <c r="N147" s="1" t="n">
-        <v>213437.290311029</v>
+        <v>213898.776344134</v>
       </c>
       <c r="O147" s="1" t="n">
-        <v>205667.689280749</v>
+        <v>206956.692904375</v>
       </c>
     </row>
     <row r="148">
@@ -38465,46 +38601,46 @@
         <v>2013</v>
       </c>
       <c r="B148" s="1" t="n">
-        <v>120682.491008777</v>
+        <v>119816.492171409</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>159997.392782409</v>
+        <v>159071.405391358</v>
       </c>
       <c r="D148" s="1" t="n">
-        <v>87879.1317349282</v>
+        <v>87164.6672492784</v>
       </c>
       <c r="E148" s="1" t="n">
-        <v>96220.428313371</v>
+        <v>94889.0233092545</v>
       </c>
       <c r="F148" s="1" t="n">
-        <v>100306.516770148</v>
+        <v>99493.0690670339</v>
       </c>
       <c r="G148" s="1" t="n">
-        <v>101356.442431095</v>
+        <v>100683.783535529</v>
       </c>
       <c r="H148" s="1" t="n">
-        <v>114758.394031553</v>
+        <v>114104.259889957</v>
       </c>
       <c r="I148" s="1" t="n">
-        <v>111825.218969545</v>
+        <v>111040.230195668</v>
       </c>
       <c r="J148" s="1" t="n">
-        <v>165592.022158669</v>
+        <v>164739.818317923</v>
       </c>
       <c r="K148" s="1" t="n">
-        <v>173821.35849222</v>
+        <v>172885.862962368</v>
       </c>
       <c r="L148" s="1" t="n">
-        <v>112479.497737216</v>
+        <v>110977.833469406</v>
       </c>
       <c r="M148" s="1" t="n">
-        <v>152231.144754361</v>
+        <v>153083.796577629</v>
       </c>
       <c r="N148" s="1" t="n">
-        <v>213706.293057564</v>
+        <v>214393.206142392</v>
       </c>
       <c r="O148" s="1" t="n">
-        <v>203339.462831742</v>
+        <v>206482.478722286</v>
       </c>
     </row>
     <row r="149">
@@ -38512,43 +38648,43 @@
         <v>2014</v>
       </c>
       <c r="B149" s="1" t="n">
-        <v>123487.630571074</v>
+        <v>122751.560075295</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>157572.803749098</v>
+        <v>156652.094545222</v>
       </c>
       <c r="D149" s="1" t="n">
-        <v>87930.2033070818</v>
+        <v>87450.3659084074</v>
       </c>
       <c r="E149" s="1" t="n">
-        <v>98536.8437624575</v>
+        <v>97305.1332154267</v>
       </c>
       <c r="F149" s="1" t="n">
-        <v>100201.742092764</v>
+        <v>99333.102829656</v>
       </c>
       <c r="G149" s="1" t="n">
-        <v>102970.898996063</v>
+        <v>102248.394733651</v>
       </c>
       <c r="H149" s="1" t="n">
-        <v>116838.514311073</v>
+        <v>116310.691198176</v>
       </c>
       <c r="I149" s="1" t="n">
-        <v>112928.414200255</v>
+        <v>111993.784638197</v>
       </c>
       <c r="J149" s="1" t="n">
-        <v>160962.970248312</v>
+        <v>160025.98347495</v>
       </c>
       <c r="K149" s="1" t="n">
-        <v>184335.103176834</v>
+        <v>183506.501751721</v>
       </c>
       <c r="L149" s="1" t="n">
-        <v>114452.196437664</v>
+        <v>113589.895379074</v>
       </c>
       <c r="M149" s="1" t="n">
-        <v>147127.144547491</v>
+        <v>147428.141160722</v>
       </c>
       <c r="N149" s="1" t="n">
-        <v>230008.777165327</v>
+        <v>229085.721146057</v>
       </c>
       <c r="O149" s="1" t="n">
         <v>216099.103313152</v>
@@ -38559,46 +38695,46 @@
         <v>2015</v>
       </c>
       <c r="B150" s="1" t="n">
-        <v>121049.384113537</v>
+        <v>120292.905741475</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>142522.524868496</v>
+        <v>140738.019131412</v>
       </c>
       <c r="D150" s="1" t="n">
-        <v>91374.758157991</v>
+        <v>90372.017327725</v>
       </c>
       <c r="E150" s="1" t="n">
-        <v>100237.883628472</v>
+        <v>99132.401679835</v>
       </c>
       <c r="F150" s="1" t="n">
-        <v>102523.686615904</v>
+        <v>102032.451364363</v>
       </c>
       <c r="G150" s="1" t="n">
-        <v>103978.898092323</v>
+        <v>103578.406558512</v>
       </c>
       <c r="H150" s="1" t="n">
-        <v>120212.638267572</v>
+        <v>119486.509945817</v>
       </c>
       <c r="I150" s="1" t="n">
-        <v>112786.657947546</v>
+        <v>111955.002327286</v>
       </c>
       <c r="J150" s="1" t="n">
-        <v>153235.45835625</v>
+        <v>152557.665281425</v>
       </c>
       <c r="K150" s="1" t="n">
-        <v>156105.123648074</v>
+        <v>154782.198871395</v>
       </c>
       <c r="L150" s="1" t="n">
-        <v>114460.3666073</v>
+        <v>113602.716407513</v>
       </c>
       <c r="M150" s="1" t="n">
-        <v>140982.377788362</v>
+        <v>140866.342909524</v>
       </c>
       <c r="N150" s="1" t="n">
-        <v>222687.529158195</v>
+        <v>221961.899990048</v>
       </c>
       <c r="O150" s="1" t="n">
-        <v>214891.170191744</v>
+        <v>215924.300817666</v>
       </c>
     </row>
     <row r="151">
@@ -38606,46 +38742,46 @@
         <v>2016</v>
       </c>
       <c r="B151" s="1" t="n">
-        <v>120659.331073429</v>
+        <v>120008.755460129</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>145207.623790077</v>
+        <v>143411.879188836</v>
       </c>
       <c r="D151" s="1" t="n">
-        <v>95682.8826934115</v>
+        <v>93835.2132345042</v>
       </c>
       <c r="E151" s="1" t="n">
-        <v>101036.252803774</v>
+        <v>100147.170254282</v>
       </c>
       <c r="F151" s="1" t="n">
-        <v>103589.822880986</v>
+        <v>102431.100029968</v>
       </c>
       <c r="G151" s="1" t="n">
-        <v>105002.679310493</v>
+        <v>104574.75981609</v>
       </c>
       <c r="H151" s="1" t="n">
-        <v>121899.028990137</v>
+        <v>121285.713767514</v>
       </c>
       <c r="I151" s="1" t="n">
-        <v>113814.38966931</v>
+        <v>112618.410355031</v>
       </c>
       <c r="J151" s="1" t="n">
-        <v>144789.973739736</v>
+        <v>143938.419804001</v>
       </c>
       <c r="K151" s="1" t="n">
-        <v>147868.589654915</v>
+        <v>147271.64215971</v>
       </c>
       <c r="L151" s="1" t="n">
-        <v>114770.062730653</v>
+        <v>114100.388552882</v>
       </c>
       <c r="M151" s="1" t="n">
-        <v>140533.751153972</v>
+        <v>141704.865746922</v>
       </c>
       <c r="N151" s="1" t="n">
-        <v>200551.339366486</v>
+        <v>203706.240665065</v>
       </c>
       <c r="O151" s="1" t="n">
-        <v>211782.526178402</v>
+        <v>213423.19132633</v>
       </c>
     </row>
     <row r="152">
@@ -38653,46 +38789,46 @@
         <v>2017</v>
       </c>
       <c r="B152" s="1" t="n">
-        <v>123022.483695572</v>
+        <v>122260.740782121</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>158651.585439966</v>
+        <v>156823.964163298</v>
       </c>
       <c r="D152" s="1" t="n">
-        <v>96924.8049479861</v>
+        <v>95115.5419222904</v>
       </c>
       <c r="E152" s="1" t="n">
-        <v>102862.280755278</v>
+        <v>101780.972950425</v>
       </c>
       <c r="F152" s="1" t="n">
-        <v>105645.187673584</v>
+        <v>104530.353702022</v>
       </c>
       <c r="G152" s="1" t="n">
-        <v>105772.268363085</v>
+        <v>105288.688803582</v>
       </c>
       <c r="H152" s="1" t="n">
-        <v>122897.422486478</v>
+        <v>121778.493541918</v>
       </c>
       <c r="I152" s="1" t="n">
-        <v>116692.0896367</v>
+        <v>115557.758260815</v>
       </c>
       <c r="J152" s="1" t="n">
-        <v>151217.875579829</v>
+        <v>149900.599863667</v>
       </c>
       <c r="K152" s="1" t="n">
-        <v>157183.284418592</v>
+        <v>157162.053953811</v>
       </c>
       <c r="L152" s="1" t="n">
-        <v>116101.757655262</v>
+        <v>115834.21073882</v>
       </c>
       <c r="M152" s="1" t="n">
-        <v>134968.527812393</v>
+        <v>136437.779804344</v>
       </c>
       <c r="N152" s="1" t="n">
-        <v>214859.166864387</v>
+        <v>215653.47062359</v>
       </c>
       <c r="O152" s="1" t="n">
-        <v>244954.577630958</v>
+        <v>247974.783325305</v>
       </c>
     </row>
     <row r="153">
@@ -38700,46 +38836,46 @@
         <v>2018</v>
       </c>
       <c r="B153" s="1" t="n">
-        <v>123654.031585026</v>
+        <v>122628.385940019</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>158299.626924506</v>
+        <v>156693.587480631</v>
       </c>
       <c r="D153" s="1" t="n">
-        <v>93622.0205823981</v>
+        <v>93135.6724235285</v>
       </c>
       <c r="E153" s="1" t="n">
-        <v>102254.3143782</v>
+        <v>102005.355224114</v>
       </c>
       <c r="F153" s="1" t="n">
-        <v>106475.347705611</v>
+        <v>105591.490364392</v>
       </c>
       <c r="G153" s="1" t="n">
-        <v>106959.414979485</v>
+        <v>106164.757298778</v>
       </c>
       <c r="H153" s="1" t="n">
-        <v>123139.308602568</v>
+        <v>121905.519314205</v>
       </c>
       <c r="I153" s="1" t="n">
-        <v>116104.859742702</v>
+        <v>115217.207909807</v>
       </c>
       <c r="J153" s="1" t="n">
-        <v>153364.295899525</v>
+        <v>151685.816403361</v>
       </c>
       <c r="K153" s="1" t="n">
-        <v>157051.444237238</v>
+        <v>155914.937579673</v>
       </c>
       <c r="L153" s="1" t="n">
-        <v>117926.395310395</v>
+        <v>117179.853903619</v>
       </c>
       <c r="M153" s="1" t="n">
-        <v>135309.051270403</v>
+        <v>137324.078094981</v>
       </c>
       <c r="N153" s="1" t="n">
-        <v>212841.634941883</v>
+        <v>213389.590603742</v>
       </c>
       <c r="O153" s="1" t="n">
-        <v>252045.95894435</v>
+        <v>250268.711797947</v>
       </c>
     </row>
     <row r="154">
@@ -38747,46 +38883,46 @@
         <v>2019</v>
       </c>
       <c r="B154" s="1" t="n">
-        <v>122634.460265861</v>
+        <v>121884.321729131</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>158953.193832599</v>
+        <v>156948.129621575</v>
       </c>
       <c r="D154" s="1" t="n">
-        <v>94630.1247771836</v>
+        <v>94273.0299667037</v>
       </c>
       <c r="E154" s="1" t="n">
-        <v>102294.812764655</v>
+        <v>101546.206730647</v>
       </c>
       <c r="F154" s="1" t="n">
-        <v>106166.798344926</v>
+        <v>105436.828609332</v>
       </c>
       <c r="G154" s="1" t="n">
-        <v>107517.699217753</v>
+        <v>106956.612095042</v>
       </c>
       <c r="H154" s="1" t="n">
-        <v>121974.247113206</v>
+        <v>121115.5741573</v>
       </c>
       <c r="I154" s="1" t="n">
-        <v>114700.519664686</v>
+        <v>113659.994841602</v>
       </c>
       <c r="J154" s="1" t="n">
-        <v>149101.998392631</v>
+        <v>147551.275580435</v>
       </c>
       <c r="K154" s="1" t="n">
-        <v>155617.975462023</v>
+        <v>153696.183148708</v>
       </c>
       <c r="L154" s="1" t="n">
-        <v>116736.051362489</v>
+        <v>116243.420604601</v>
       </c>
       <c r="M154" s="1" t="n">
-        <v>133513.148167705</v>
+        <v>133753.279729158</v>
       </c>
       <c r="N154" s="1" t="n">
-        <v>207087.5231971</v>
+        <v>203284.331377492</v>
       </c>
       <c r="O154" s="1" t="n">
-        <v>276832.174403308</v>
+        <v>269094.62915601</v>
       </c>
     </row>
     <row r="155">
@@ -38794,46 +38930,46 @@
         <v>2020</v>
       </c>
       <c r="B155" s="1" t="n">
-        <v>122603.44904218</v>
+        <v>122462.064531861</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>150640.186915888</v>
+        <v>149308.584686775</v>
       </c>
       <c r="D155" s="1" t="n">
-        <v>98383.3116036506</v>
+        <v>97148.4375</v>
       </c>
       <c r="E155" s="1" t="n">
-        <v>106488.51489652</v>
+        <v>104139.408978119</v>
       </c>
       <c r="F155" s="1" t="n">
-        <v>106498.862343572</v>
+        <v>105998.86492622</v>
       </c>
       <c r="G155" s="1" t="n">
-        <v>110015.123426676</v>
+        <v>110169.888693615</v>
       </c>
       <c r="H155" s="1" t="n">
-        <v>123473.424860431</v>
+        <v>124447.259425839</v>
       </c>
       <c r="I155" s="1" t="n">
-        <v>116714.217784118</v>
+        <v>115338.286436927</v>
       </c>
       <c r="J155" s="1" t="n">
-        <v>143451.571402316</v>
+        <v>142060.273972603</v>
       </c>
       <c r="K155" s="1" t="n">
-        <v>139300.403793783</v>
+        <v>140553.715538555</v>
       </c>
       <c r="L155" s="1" t="n">
-        <v>123217.454136727</v>
+        <v>122513.948668898</v>
       </c>
       <c r="M155" s="1" t="n">
-        <v>148272.969881815</v>
+        <v>147643.263757116</v>
       </c>
       <c r="N155" s="1" t="n">
-        <v>191234.14071511</v>
+        <v>191972.529568867</v>
       </c>
       <c r="O155" s="1" t="n">
-        <v>349158.620689655</v>
+        <v>328787.061994609</v>
       </c>
     </row>
     <row r="156">
@@ -38841,66 +38977,94 @@
         <v>2021</v>
       </c>
       <c r="B156" s="1" t="n">
-        <v>127860.396343912</v>
+        <v>128183.529010834</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>166719.255756885</v>
+        <v>165584.744494822</v>
       </c>
       <c r="D156" s="1" t="n">
-        <v>105122.724814641</v>
+        <v>103835.214215509</v>
       </c>
       <c r="E156" s="1" t="n">
-        <v>108388.718239385</v>
+        <v>104973.525624082</v>
       </c>
       <c r="F156" s="1" t="n">
-        <v>114351.8496752</v>
+        <v>110272.655211806</v>
       </c>
       <c r="G156" s="1" t="n">
-        <v>114328.258976487</v>
+        <v>113991.158418164</v>
       </c>
       <c r="H156" s="1" t="n">
-        <v>125655.345258299</v>
+        <v>125658.666294364</v>
       </c>
       <c r="I156" s="1" t="n">
-        <v>118231.321902449</v>
+        <v>117515.663286479</v>
       </c>
       <c r="J156" s="1" t="n">
-        <v>153074.184677545</v>
+        <v>152561.320104726</v>
       </c>
       <c r="K156" s="1" t="n">
-        <v>161808.009266829</v>
+        <v>161161.580020663</v>
       </c>
       <c r="L156" s="1" t="n">
-        <v>127728.477218493</v>
+        <v>129274.400262306</v>
       </c>
       <c r="M156" s="1" t="n">
-        <v>161305.580632446</v>
+        <v>155104.608050847</v>
       </c>
       <c r="N156" s="1" t="n">
-        <v>205108.864087212</v>
+        <v>201433.949225286</v>
       </c>
       <c r="O156" s="1" t="n">
-        <v>358400.884303611</v>
+        <v>337516.558018253</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
         <v>2022</v>
       </c>
-      <c r="B157" s="1"/>
-      <c r="C157" s="1"/>
-      <c r="D157" s="1"/>
-      <c r="E157" s="1"/>
-      <c r="F157" s="1"/>
-      <c r="G157" s="1"/>
-      <c r="H157" s="1"/>
-      <c r="I157" s="1"/>
-      <c r="J157" s="1"/>
-      <c r="K157" s="1"/>
-      <c r="L157" s="1"/>
-      <c r="M157" s="1"/>
-      <c r="N157" s="1"/>
-      <c r="O157" s="1"/>
+      <c r="B157" s="1" t="n">
+        <v>128030.870757665</v>
+      </c>
+      <c r="C157" s="1" t="n">
+        <v>158691.471809751</v>
+      </c>
+      <c r="D157" s="1" t="n">
+        <v>100896.077618168</v>
+      </c>
+      <c r="E157" s="1" t="n">
+        <v>101620.131680453</v>
+      </c>
+      <c r="F157" s="1" t="n">
+        <v>107956.287230049</v>
+      </c>
+      <c r="G157" s="1" t="n">
+        <v>112274.159535748</v>
+      </c>
+      <c r="H157" s="1" t="n">
+        <v>122847.856771948</v>
+      </c>
+      <c r="I157" s="1" t="n">
+        <v>115726.068451161</v>
+      </c>
+      <c r="J157" s="1" t="n">
+        <v>178275.077681784</v>
+      </c>
+      <c r="K157" s="1" t="n">
+        <v>175141.538455372</v>
+      </c>
+      <c r="L157" s="1" t="n">
+        <v>130317.059337857</v>
+      </c>
+      <c r="M157" s="1" t="n">
+        <v>152719.62966745</v>
+      </c>
+      <c r="N157" s="1" t="n">
+        <v>204405.364169276</v>
+      </c>
+      <c r="O157" s="1" t="n">
+        <v>299244.032683523</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -38909,14 +39073,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0">
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
     <col min="1" max="1" width="13.71" hidden="0" customWidth="1"/>
     <col min="2" max="2" width="13.71" hidden="0" customWidth="1"/>
@@ -43376,7 +43540,7 @@
         <v>1998100</v>
       </c>
       <c r="M138" s="1" t="n">
-        <v>15075</v>
+        <v>15058.3333333333</v>
       </c>
       <c r="N138" s="1" t="n">
         <v>21275</v>
@@ -43421,10 +43585,10 @@
         <v>2028300</v>
       </c>
       <c r="M139" s="1" t="n">
-        <v>16508.3333333333</v>
+        <v>16491.6666666667</v>
       </c>
       <c r="N139" s="1" t="n">
-        <v>22050</v>
+        <v>22041.6666666667</v>
       </c>
       <c r="O139" s="1" t="n">
         <v>7575</v>
@@ -43468,10 +43632,10 @@
         <v>2089700</v>
       </c>
       <c r="M140" s="1" t="n">
-        <v>17066.6666666667</v>
+        <v>17091.6666666667</v>
       </c>
       <c r="N140" s="1" t="n">
-        <v>22566.6666666667</v>
+        <v>22583.3333333333</v>
       </c>
       <c r="O140" s="1" t="n">
         <v>7658.33333333333</v>
@@ -43482,46 +43646,46 @@
         <v>2006</v>
       </c>
       <c r="B141" s="1" t="n">
-        <v>16375000</v>
+        <v>16413700</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>214300</v>
+        <v>214400</v>
       </c>
       <c r="D141" s="1" t="n">
-        <v>67900</v>
+        <v>68000</v>
       </c>
       <c r="E141" s="1" t="n">
-        <v>439400</v>
+        <v>440200</v>
       </c>
       <c r="F141" s="1" t="n">
-        <v>349600</v>
+        <v>349700</v>
       </c>
       <c r="G141" s="1" t="n">
         <v>3736000</v>
       </c>
       <c r="H141" s="1" t="n">
-        <v>6449000</v>
+        <v>6460500</v>
       </c>
       <c r="I141" s="1" t="n">
-        <v>582500</v>
+        <v>583400</v>
       </c>
       <c r="J141" s="1" t="n">
-        <v>489900</v>
+        <v>491600</v>
       </c>
       <c r="K141" s="1" t="n">
-        <v>1908700</v>
+        <v>1916600</v>
       </c>
       <c r="L141" s="1" t="n">
-        <v>2137900</v>
+        <v>2153400</v>
       </c>
       <c r="M141" s="1" t="n">
-        <v>17225</v>
+        <v>17100</v>
       </c>
       <c r="N141" s="1" t="n">
-        <v>22833.3333333333</v>
+        <v>22575</v>
       </c>
       <c r="O141" s="1" t="n">
-        <v>8566.66666666667</v>
+        <v>8483.33333333333</v>
       </c>
     </row>
     <row r="142">
@@ -43529,46 +43693,46 @@
         <v>2007</v>
       </c>
       <c r="B142" s="1" t="n">
-        <v>16719100</v>
+        <v>16756800</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>217400</v>
+        <v>218000</v>
       </c>
       <c r="D142" s="1" t="n">
         <v>68200</v>
       </c>
       <c r="E142" s="1" t="n">
-        <v>444400</v>
+        <v>446300</v>
       </c>
       <c r="F142" s="1" t="n">
-        <v>356000</v>
+        <v>357800</v>
       </c>
       <c r="G142" s="1" t="n">
-        <v>3824500</v>
+        <v>3824100</v>
       </c>
       <c r="H142" s="1" t="n">
-        <v>6526500</v>
+        <v>6537300</v>
       </c>
       <c r="I142" s="1" t="n">
-        <v>590300</v>
+        <v>593100</v>
       </c>
       <c r="J142" s="1" t="n">
-        <v>504300</v>
+        <v>506300</v>
       </c>
       <c r="K142" s="1" t="n">
-        <v>1983100</v>
+        <v>1994400</v>
       </c>
       <c r="L142" s="1" t="n">
-        <v>2204300</v>
+        <v>2211300</v>
       </c>
       <c r="M142" s="1" t="n">
-        <v>17091.6666666667</v>
+        <v>17041.6666666667</v>
       </c>
       <c r="N142" s="1" t="n">
-        <v>23158.3333333333</v>
+        <v>22866.6666666667</v>
       </c>
       <c r="O142" s="1" t="n">
-        <v>9683.33333333333</v>
+        <v>9408.33333333333</v>
       </c>
     </row>
     <row r="143">
@@ -43576,46 +43740,46 @@
         <v>2008</v>
       </c>
       <c r="B143" s="1" t="n">
-        <v>16959100</v>
+        <v>16996800</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>220700</v>
+        <v>221500</v>
       </c>
       <c r="D143" s="1" t="n">
         <v>68800</v>
       </c>
       <c r="E143" s="1" t="n">
-        <v>449400</v>
+        <v>451800</v>
       </c>
       <c r="F143" s="1" t="n">
-        <v>359400</v>
+        <v>362100</v>
       </c>
       <c r="G143" s="1" t="n">
-        <v>3870000</v>
+        <v>3876000</v>
       </c>
       <c r="H143" s="1" t="n">
-        <v>6587700</v>
+        <v>6600700</v>
       </c>
       <c r="I143" s="1" t="n">
-        <v>599200</v>
+        <v>602500</v>
       </c>
       <c r="J143" s="1" t="n">
-        <v>516700</v>
+        <v>518700</v>
       </c>
       <c r="K143" s="1" t="n">
-        <v>2048600</v>
+        <v>2050300</v>
       </c>
       <c r="L143" s="1" t="n">
-        <v>2238700</v>
+        <v>2244400</v>
       </c>
       <c r="M143" s="1" t="n">
-        <v>17991.6666666667</v>
+        <v>17816.6666666667</v>
       </c>
       <c r="N143" s="1" t="n">
-        <v>22500</v>
+        <v>22341.6666666667</v>
       </c>
       <c r="O143" s="1" t="n">
-        <v>10716.6666666667</v>
+        <v>10791.6666666667</v>
       </c>
     </row>
     <row r="144">
@@ -43623,46 +43787,46 @@
         <v>2009</v>
       </c>
       <c r="B144" s="1" t="n">
-        <v>16685300</v>
+        <v>16755400</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>214300</v>
+        <v>215600</v>
       </c>
       <c r="D144" s="1" t="n">
-        <v>67900</v>
+        <v>68500</v>
       </c>
       <c r="E144" s="1" t="n">
-        <v>447100</v>
+        <v>450700</v>
       </c>
       <c r="F144" s="1" t="n">
-        <v>359900</v>
+        <v>361900</v>
       </c>
       <c r="G144" s="1" t="n">
-        <v>3842500</v>
+        <v>3854500</v>
       </c>
       <c r="H144" s="1" t="n">
-        <v>6415500</v>
+        <v>6444700</v>
       </c>
       <c r="I144" s="1" t="n">
-        <v>599300</v>
+        <v>600100</v>
       </c>
       <c r="J144" s="1" t="n">
-        <v>524700</v>
+        <v>527100</v>
       </c>
       <c r="K144" s="1" t="n">
-        <v>2026900</v>
+        <v>2030200</v>
       </c>
       <c r="L144" s="1" t="n">
-        <v>2187100</v>
+        <v>2202000</v>
       </c>
       <c r="M144" s="1" t="n">
-        <v>17375</v>
+        <v>17325</v>
       </c>
       <c r="N144" s="1" t="n">
-        <v>21275</v>
+        <v>21116.6666666667</v>
       </c>
       <c r="O144" s="1" t="n">
-        <v>10708.3333333333</v>
+        <v>10841.6666666667</v>
       </c>
     </row>
     <row r="145">
@@ -43670,46 +43834,46 @@
         <v>2010</v>
       </c>
       <c r="B145" s="1" t="n">
-        <v>16907300</v>
+        <v>16978200</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>222000</v>
+        <v>224500</v>
       </c>
       <c r="D145" s="1" t="n">
-        <v>69300</v>
+        <v>70100</v>
       </c>
       <c r="E145" s="1" t="n">
-        <v>449800</v>
+        <v>452500</v>
       </c>
       <c r="F145" s="1" t="n">
-        <v>357500</v>
+        <v>359400</v>
       </c>
       <c r="G145" s="1" t="n">
-        <v>3920100</v>
+        <v>3928100</v>
       </c>
       <c r="H145" s="1" t="n">
-        <v>6514600</v>
+        <v>6547400</v>
       </c>
       <c r="I145" s="1" t="n">
-        <v>607400</v>
+        <v>610200</v>
       </c>
       <c r="J145" s="1" t="n">
-        <v>530700</v>
+        <v>535100</v>
       </c>
       <c r="K145" s="1" t="n">
-        <v>2021100</v>
+        <v>2029100</v>
       </c>
       <c r="L145" s="1" t="n">
-        <v>2214900</v>
+        <v>2221700</v>
       </c>
       <c r="M145" s="1" t="n">
-        <v>17433.3333333333</v>
+        <v>17300</v>
       </c>
       <c r="N145" s="1" t="n">
-        <v>21725</v>
+        <v>21641.6666666667</v>
       </c>
       <c r="O145" s="1" t="n">
-        <v>11408.3333333333</v>
+        <v>11491.6666666667</v>
       </c>
     </row>
     <row r="146">
@@ -43717,46 +43881,46 @@
         <v>2011</v>
       </c>
       <c r="B146" s="1" t="n">
-        <v>17171700</v>
+        <v>17244300</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>231000</v>
+        <v>232700</v>
       </c>
       <c r="D146" s="1" t="n">
-        <v>71600</v>
+        <v>72100</v>
       </c>
       <c r="E146" s="1" t="n">
-        <v>450900</v>
+        <v>454900</v>
       </c>
       <c r="F146" s="1" t="n">
-        <v>354500</v>
+        <v>356900</v>
       </c>
       <c r="G146" s="1" t="n">
-        <v>3963500</v>
+        <v>3974700</v>
       </c>
       <c r="H146" s="1" t="n">
-        <v>6638200</v>
+        <v>6658000</v>
       </c>
       <c r="I146" s="1" t="n">
-        <v>612000</v>
+        <v>616400</v>
       </c>
       <c r="J146" s="1" t="n">
-        <v>535000</v>
+        <v>540500</v>
       </c>
       <c r="K146" s="1" t="n">
-        <v>2094700</v>
+        <v>2103200</v>
       </c>
       <c r="L146" s="1" t="n">
-        <v>2220300</v>
+        <v>2234900</v>
       </c>
       <c r="M146" s="1" t="n">
-        <v>19233.3333333333</v>
+        <v>19058.3333333333</v>
       </c>
       <c r="N146" s="1" t="n">
-        <v>22758.3333333333</v>
+        <v>22583.3333333333</v>
       </c>
       <c r="O146" s="1" t="n">
-        <v>11825</v>
+        <v>11991.6666666667</v>
       </c>
     </row>
     <row r="147">
@@ -43764,46 +43928,46 @@
         <v>2012</v>
       </c>
       <c r="B147" s="1" t="n">
-        <v>17362900</v>
+        <v>17475600</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>238700</v>
+        <v>239900</v>
       </c>
       <c r="D147" s="1" t="n">
-        <v>72500</v>
+        <v>72900</v>
       </c>
       <c r="E147" s="1" t="n">
-        <v>454100</v>
+        <v>458100</v>
       </c>
       <c r="F147" s="1" t="n">
-        <v>353100</v>
+        <v>355000</v>
       </c>
       <c r="G147" s="1" t="n">
-        <v>3983900</v>
+        <v>4013800</v>
       </c>
       <c r="H147" s="1" t="n">
-        <v>6666700</v>
+        <v>6702900</v>
       </c>
       <c r="I147" s="1" t="n">
-        <v>618900</v>
+        <v>621300</v>
       </c>
       <c r="J147" s="1" t="n">
-        <v>546600</v>
+        <v>549600</v>
       </c>
       <c r="K147" s="1" t="n">
-        <v>2153900</v>
+        <v>2166600</v>
       </c>
       <c r="L147" s="1" t="n">
-        <v>2274700</v>
+        <v>2295600</v>
       </c>
       <c r="M147" s="1" t="n">
-        <v>19591.6666666667</v>
+        <v>19558.3333333333</v>
       </c>
       <c r="N147" s="1" t="n">
-        <v>23175</v>
+        <v>23125</v>
       </c>
       <c r="O147" s="1" t="n">
-        <v>12041.6666666667</v>
+        <v>11966.6666666667</v>
       </c>
     </row>
     <row r="148">
@@ -43811,46 +43975,46 @@
         <v>2013</v>
       </c>
       <c r="B148" s="1" t="n">
-        <v>17585100</v>
+        <v>17712200</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>240500</v>
+        <v>241900</v>
       </c>
       <c r="D148" s="1" t="n">
-        <v>73200</v>
+        <v>73800</v>
       </c>
       <c r="E148" s="1" t="n">
-        <v>449000</v>
+        <v>455300</v>
       </c>
       <c r="F148" s="1" t="n">
-        <v>354700</v>
+        <v>357600</v>
       </c>
       <c r="G148" s="1" t="n">
-        <v>4026400</v>
+        <v>4053300</v>
       </c>
       <c r="H148" s="1" t="n">
-        <v>6768100</v>
+        <v>6806900</v>
       </c>
       <c r="I148" s="1" t="n">
-        <v>622400</v>
+        <v>626800</v>
       </c>
       <c r="J148" s="1" t="n">
-        <v>560600</v>
+        <v>563500</v>
       </c>
       <c r="K148" s="1" t="n">
-        <v>2199200</v>
+        <v>2211100</v>
       </c>
       <c r="L148" s="1" t="n">
-        <v>2291000</v>
+        <v>2322000</v>
       </c>
       <c r="M148" s="1" t="n">
-        <v>19450</v>
+        <v>19341.6666666667</v>
       </c>
       <c r="N148" s="1" t="n">
-        <v>23408.3333333333</v>
+        <v>23333.3333333333</v>
       </c>
       <c r="O148" s="1" t="n">
-        <v>12591.6666666667</v>
+        <v>12400</v>
       </c>
     </row>
     <row r="149">
@@ -43858,43 +44022,43 @@
         <v>2014</v>
       </c>
       <c r="B149" s="1" t="n">
-        <v>17677200</v>
+        <v>17783200</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>238200</v>
+        <v>239600</v>
       </c>
       <c r="D149" s="1" t="n">
-        <v>72900</v>
+        <v>73300</v>
       </c>
       <c r="E149" s="1" t="n">
-        <v>442400</v>
+        <v>448000</v>
       </c>
       <c r="F149" s="1" t="n">
-        <v>354500</v>
+        <v>357600</v>
       </c>
       <c r="G149" s="1" t="n">
-        <v>4005000</v>
+        <v>4033300</v>
       </c>
       <c r="H149" s="1" t="n">
-        <v>6809100</v>
+        <v>6840000</v>
       </c>
       <c r="I149" s="1" t="n">
-        <v>623100</v>
+        <v>628300</v>
       </c>
       <c r="J149" s="1" t="n">
-        <v>563600</v>
+        <v>566900</v>
       </c>
       <c r="K149" s="1" t="n">
-        <v>2236800</v>
+        <v>2246900</v>
       </c>
       <c r="L149" s="1" t="n">
-        <v>2331600</v>
+        <v>2349300</v>
       </c>
       <c r="M149" s="1" t="n">
-        <v>20408.3333333333</v>
+        <v>20366.6666666667</v>
       </c>
       <c r="N149" s="1" t="n">
-        <v>22750</v>
+        <v>22841.6666666667</v>
       </c>
       <c r="O149" s="1" t="n">
         <v>12066.6666666667</v>
@@ -43905,46 +44069,46 @@
         <v>2015</v>
       </c>
       <c r="B150" s="1" t="n">
-        <v>17794000</v>
+        <v>17905900</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>236600</v>
+        <v>239600</v>
       </c>
       <c r="D150" s="1" t="n">
-        <v>72100</v>
+        <v>72900</v>
       </c>
       <c r="E150" s="1" t="n">
-        <v>439400</v>
+        <v>444300</v>
       </c>
       <c r="F150" s="1" t="n">
-        <v>353100</v>
+        <v>354800</v>
       </c>
       <c r="G150" s="1" t="n">
-        <v>4034600</v>
+        <v>4050200</v>
       </c>
       <c r="H150" s="1" t="n">
-        <v>6845400</v>
+        <v>6887000</v>
       </c>
       <c r="I150" s="1" t="n">
-        <v>632700</v>
+        <v>637400</v>
       </c>
       <c r="J150" s="1" t="n">
-        <v>562700</v>
+        <v>565200</v>
       </c>
       <c r="K150" s="1" t="n">
-        <v>2246400</v>
+        <v>2265600</v>
       </c>
       <c r="L150" s="1" t="n">
-        <v>2371000</v>
+        <v>2388900</v>
       </c>
       <c r="M150" s="1" t="n">
-        <v>20233.3333333333</v>
+        <v>20250</v>
       </c>
       <c r="N150" s="1" t="n">
-        <v>22941.6666666667</v>
+        <v>23016.6666666667</v>
       </c>
       <c r="O150" s="1" t="n">
-        <v>12191.6666666667</v>
+        <v>12133.3333333333</v>
       </c>
     </row>
     <row r="151">
@@ -43952,46 +44116,46 @@
         <v>2016</v>
       </c>
       <c r="B151" s="1" t="n">
-        <v>17911600</v>
+        <v>18008700</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>231600</v>
+        <v>234500</v>
       </c>
       <c r="D151" s="1" t="n">
-        <v>71100</v>
+        <v>72500</v>
       </c>
       <c r="E151" s="1" t="n">
-        <v>439300</v>
+        <v>443200</v>
       </c>
       <c r="F151" s="1" t="n">
-        <v>353600</v>
+        <v>357600</v>
       </c>
       <c r="G151" s="1" t="n">
-        <v>4056700</v>
+        <v>4073300</v>
       </c>
       <c r="H151" s="1" t="n">
-        <v>6921400</v>
+        <v>6956400</v>
       </c>
       <c r="I151" s="1" t="n">
-        <v>630900</v>
+        <v>637600</v>
       </c>
       <c r="J151" s="1" t="n">
-        <v>557800</v>
+        <v>561100</v>
       </c>
       <c r="K151" s="1" t="n">
-        <v>2195700</v>
+        <v>2204600</v>
       </c>
       <c r="L151" s="1" t="n">
-        <v>2453500</v>
+        <v>2467900</v>
       </c>
       <c r="M151" s="1" t="n">
-        <v>21175</v>
+        <v>21000</v>
       </c>
       <c r="N151" s="1" t="n">
-        <v>23675</v>
+        <v>23308.3333333333</v>
       </c>
       <c r="O151" s="1" t="n">
-        <v>13008.3333333333</v>
+        <v>12908.3333333333</v>
       </c>
     </row>
     <row r="152">
@@ -43999,46 +44163,46 @@
         <v>2017</v>
       </c>
       <c r="B152" s="1" t="n">
-        <v>18281100</v>
+        <v>18395000</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>223100</v>
+        <v>225700</v>
       </c>
       <c r="D152" s="1" t="n">
-        <v>73600</v>
+        <v>75000</v>
       </c>
       <c r="E152" s="1" t="n">
-        <v>442400</v>
+        <v>447100</v>
       </c>
       <c r="F152" s="1" t="n">
-        <v>356300</v>
+        <v>360100</v>
       </c>
       <c r="G152" s="1" t="n">
-        <v>4158600</v>
+        <v>4177700</v>
       </c>
       <c r="H152" s="1" t="n">
-        <v>7052500</v>
+        <v>7117300</v>
       </c>
       <c r="I152" s="1" t="n">
-        <v>641800</v>
+        <v>648100</v>
       </c>
       <c r="J152" s="1" t="n">
-        <v>557600</v>
+        <v>562500</v>
       </c>
       <c r="K152" s="1" t="n">
-        <v>2220800</v>
+        <v>2221100</v>
       </c>
       <c r="L152" s="1" t="n">
-        <v>2554400</v>
+        <v>2560300</v>
       </c>
       <c r="M152" s="1" t="n">
-        <v>22441.6666666667</v>
+        <v>22200</v>
       </c>
       <c r="N152" s="1" t="n">
-        <v>22625</v>
+        <v>22541.6666666667</v>
       </c>
       <c r="O152" s="1" t="n">
-        <v>13000</v>
+        <v>12841.6666666667</v>
       </c>
     </row>
     <row r="153">
@@ -44046,46 +44210,46 @@
         <v>2018</v>
       </c>
       <c r="B153" s="1" t="n">
-        <v>18568000</v>
+        <v>18723300</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>224400</v>
+        <v>226700</v>
       </c>
       <c r="D153" s="1" t="n">
-        <v>76600</v>
+        <v>77000</v>
       </c>
       <c r="E153" s="1" t="n">
-        <v>450700</v>
+        <v>451800</v>
       </c>
       <c r="F153" s="1" t="n">
-        <v>358400</v>
+        <v>361400</v>
       </c>
       <c r="G153" s="1" t="n">
-        <v>4221700</v>
+        <v>4253300</v>
       </c>
       <c r="H153" s="1" t="n">
-        <v>7173300</v>
+        <v>7245900</v>
       </c>
       <c r="I153" s="1" t="n">
-        <v>649000</v>
+        <v>654000</v>
       </c>
       <c r="J153" s="1" t="n">
-        <v>560300</v>
+        <v>566500</v>
       </c>
       <c r="K153" s="1" t="n">
-        <v>2263600</v>
+        <v>2280100</v>
       </c>
       <c r="L153" s="1" t="n">
-        <v>2589900</v>
+        <v>2606400</v>
       </c>
       <c r="M153" s="1" t="n">
-        <v>22716.6666666667</v>
+        <v>22383.3333333333</v>
       </c>
       <c r="N153" s="1" t="n">
-        <v>22716.6666666667</v>
+        <v>22658.3333333333</v>
       </c>
       <c r="O153" s="1" t="n">
-        <v>12908.3333333333</v>
+        <v>13000</v>
       </c>
     </row>
     <row r="154">
@@ -44093,46 +44257,46 @@
         <v>2019</v>
       </c>
       <c r="B154" s="1" t="n">
-        <v>18985600</v>
+        <v>19121200</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>227000</v>
+        <v>229900</v>
       </c>
       <c r="D154" s="1" t="n">
-        <v>79200</v>
+        <v>79500</v>
       </c>
       <c r="E154" s="1" t="n">
-        <v>461200</v>
+        <v>464600</v>
       </c>
       <c r="F154" s="1" t="n">
-        <v>361100</v>
+        <v>363600</v>
       </c>
       <c r="G154" s="1" t="n">
-        <v>4308100</v>
+        <v>4330700</v>
       </c>
       <c r="H154" s="1" t="n">
-        <v>7376900</v>
+        <v>7429200</v>
       </c>
       <c r="I154" s="1" t="n">
-        <v>655400</v>
+        <v>661400</v>
       </c>
       <c r="J154" s="1" t="n">
-        <v>570900</v>
+        <v>576900</v>
       </c>
       <c r="K154" s="1" t="n">
-        <v>2279300</v>
+        <v>2307800</v>
       </c>
       <c r="L154" s="1" t="n">
-        <v>2666400</v>
+        <v>2677700</v>
       </c>
       <c r="M154" s="1" t="n">
-        <v>23208.3333333333</v>
+        <v>23166.6666666667</v>
       </c>
       <c r="N154" s="1" t="n">
-        <v>22716.6666666667</v>
+        <v>23141.6666666667</v>
       </c>
       <c r="O154" s="1" t="n">
-        <v>13041.6666666667</v>
+        <v>13416.6666666667</v>
       </c>
     </row>
     <row r="155">
@@ -44140,46 +44304,46 @@
         <v>2020</v>
       </c>
       <c r="B155" s="1" t="n">
-        <v>17999200</v>
+        <v>18043800</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>214000</v>
+        <v>215500</v>
       </c>
       <c r="D155" s="1" t="n">
-        <v>76700</v>
+        <v>76800</v>
       </c>
       <c r="E155" s="1" t="n">
-        <v>439700</v>
+        <v>443300</v>
       </c>
       <c r="F155" s="1" t="n">
-        <v>351600</v>
+        <v>352400</v>
       </c>
       <c r="G155" s="1" t="n">
-        <v>4099600</v>
+        <v>4096800</v>
       </c>
       <c r="H155" s="1" t="n">
-        <v>7021600</v>
+        <v>7025900</v>
       </c>
       <c r="I155" s="1" t="n">
-        <v>630900</v>
+        <v>632600</v>
       </c>
       <c r="J155" s="1" t="n">
-        <v>544100</v>
+        <v>547500</v>
       </c>
       <c r="K155" s="1" t="n">
-        <v>2129800</v>
+        <v>2143700</v>
       </c>
       <c r="L155" s="1" t="n">
-        <v>2491100</v>
+        <v>2509200</v>
       </c>
       <c r="M155" s="1" t="n">
-        <v>21858.3333333333</v>
+        <v>21958.3333333333</v>
       </c>
       <c r="N155" s="1" t="n">
-        <v>21675</v>
+        <v>21841.6666666667</v>
       </c>
       <c r="O155" s="1" t="n">
-        <v>12083.3333333333</v>
+        <v>12366.6666666667</v>
       </c>
     </row>
     <row r="156">
@@ -44187,71 +44351,93 @@
         <v>2021</v>
       </c>
       <c r="B156" s="1" t="n">
-        <v>18865400</v>
+        <v>18942300</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>220100</v>
+        <v>222800</v>
       </c>
       <c r="D156" s="1" t="n">
-        <v>79400</v>
+        <v>79900</v>
       </c>
       <c r="E156" s="1" t="n">
-        <v>463500</v>
+        <v>468100</v>
       </c>
       <c r="F156" s="1" t="n">
-        <v>360500</v>
+        <v>363500</v>
       </c>
       <c r="G156" s="1" t="n">
-        <v>4269000</v>
+        <v>4273400</v>
       </c>
       <c r="H156" s="1" t="n">
-        <v>7366400</v>
+        <v>7393300</v>
       </c>
       <c r="I156" s="1" t="n">
-        <v>653300</v>
+        <v>656200</v>
       </c>
       <c r="J156" s="1" t="n">
-        <v>558200</v>
+        <v>561700</v>
       </c>
       <c r="K156" s="1" t="n">
-        <v>2239200</v>
+        <v>2259600</v>
       </c>
       <c r="L156" s="1" t="n">
-        <v>2655700</v>
+        <v>2663900</v>
       </c>
       <c r="M156" s="1" t="n">
-        <v>22216.6666666667</v>
+        <v>22400</v>
       </c>
       <c r="N156" s="1" t="n">
-        <v>23425</v>
+        <v>23300</v>
       </c>
       <c r="O156" s="1" t="n">
-        <v>12650</v>
+        <v>13541.6666666667</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
         <v>2022</v>
       </c>
-      <c r="B157" s="1"/>
-      <c r="C157" s="1"/>
-      <c r="D157" s="1"/>
-      <c r="E157" s="1"/>
-      <c r="F157" s="1"/>
-      <c r="G157" s="1"/>
-      <c r="H157" s="1"/>
-      <c r="I157" s="1"/>
-      <c r="J157" s="1"/>
-      <c r="K157" s="1"/>
-      <c r="L157" s="1"/>
+      <c r="B157" s="1" t="n">
+        <v>19693000</v>
+      </c>
+      <c r="C157" s="1" t="n">
+        <v>232500</v>
+      </c>
+      <c r="D157" s="1" t="n">
+        <v>84200</v>
+      </c>
+      <c r="E157" s="1" t="n">
+        <v>484900</v>
+      </c>
+      <c r="F157" s="1" t="n">
+        <v>373500</v>
+      </c>
+      <c r="G157" s="1" t="n">
+        <v>4403100</v>
+      </c>
+      <c r="H157" s="1" t="n">
+        <v>7731600</v>
+      </c>
+      <c r="I157" s="1" t="n">
+        <v>677500</v>
+      </c>
+      <c r="J157" s="1" t="n">
+        <v>581500</v>
+      </c>
+      <c r="K157" s="1" t="n">
+        <v>2376100</v>
+      </c>
+      <c r="L157" s="1" t="n">
+        <v>2747900</v>
+      </c>
       <c r="M157" s="1" t="n">
-        <v>23220</v>
+        <v>23316.6666666667</v>
       </c>
       <c r="N157" s="1" t="n">
-        <v>25040</v>
+        <v>24708.3333333333</v>
       </c>
       <c r="O157" s="1" t="n">
-        <v>14850</v>
+        <v>14391.6666666667</v>
       </c>
     </row>
   </sheetData>

--- a/FON Macroeconomic Data.xlsx
+++ b/FON Macroeconomic Data.xlsx
@@ -5786,43 +5786,43 @@
         <v>30971291.25</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>522046</v>
+        <v>522043</v>
       </c>
       <c r="D136" s="1" t="n">
-        <v>136665</v>
+        <v>136667</v>
       </c>
       <c r="E136" s="1" t="n">
-        <v>932494</v>
+        <v>932483</v>
       </c>
       <c r="F136" s="1" t="n">
-        <v>749820</v>
+        <v>749823</v>
       </c>
       <c r="G136" s="1" t="n">
-        <v>7396456</v>
+        <v>7396014</v>
       </c>
       <c r="H136" s="1" t="n">
-        <v>11897534</v>
+        <v>11897473</v>
       </c>
       <c r="I136" s="1" t="n">
-        <v>1151454</v>
+        <v>1151451</v>
       </c>
       <c r="J136" s="1" t="n">
-        <v>1000239</v>
+        <v>1000307</v>
       </c>
       <c r="K136" s="1" t="n">
-        <v>3058108</v>
+        <v>3058554</v>
       </c>
       <c r="L136" s="1" t="n">
-        <v>4076950</v>
+        <v>4076896</v>
       </c>
       <c r="M136" s="1" t="n">
-        <v>30158</v>
+        <v>30160</v>
       </c>
       <c r="N136" s="1" t="n">
-        <v>40845</v>
+        <v>40850</v>
       </c>
       <c r="O136" s="1" t="n">
-        <v>28133</v>
+        <v>28134</v>
       </c>
     </row>
     <row r="137">
@@ -5833,43 +5833,43 @@
         <v>31307863.5</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>519481</v>
+        <v>519411</v>
       </c>
       <c r="D137" s="1" t="n">
-        <v>136880</v>
+        <v>136882</v>
       </c>
       <c r="E137" s="1" t="n">
-        <v>935179</v>
+        <v>935172</v>
       </c>
       <c r="F137" s="1" t="n">
-        <v>749372</v>
+        <v>749375</v>
       </c>
       <c r="G137" s="1" t="n">
-        <v>7441656</v>
+        <v>7441305</v>
       </c>
       <c r="H137" s="1" t="n">
-        <v>12094174</v>
+        <v>12093412</v>
       </c>
       <c r="I137" s="1" t="n">
-        <v>1156680</v>
+        <v>1156673</v>
       </c>
       <c r="J137" s="1" t="n">
-        <v>996807</v>
+        <v>996854</v>
       </c>
       <c r="K137" s="1" t="n">
-        <v>3128429</v>
+        <v>3128757</v>
       </c>
       <c r="L137" s="1" t="n">
-        <v>4100564</v>
+        <v>4100504</v>
       </c>
       <c r="M137" s="1" t="n">
-        <v>30336</v>
+        <v>30339</v>
       </c>
       <c r="N137" s="1" t="n">
-        <v>41699</v>
+        <v>41698</v>
       </c>
       <c r="O137" s="1" t="n">
-        <v>28822</v>
+        <v>28817</v>
       </c>
     </row>
     <row r="138">
@@ -5880,43 +5880,43 @@
         <v>31601840.25</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>518459</v>
+        <v>518389</v>
       </c>
       <c r="D138" s="1" t="n">
-        <v>137227</v>
+        <v>137231</v>
       </c>
       <c r="E138" s="1" t="n">
-        <v>937717</v>
+        <v>937681</v>
       </c>
       <c r="F138" s="1" t="n">
-        <v>749441</v>
+        <v>749444</v>
       </c>
       <c r="G138" s="1" t="n">
-        <v>7485753</v>
+        <v>7485488</v>
       </c>
       <c r="H138" s="1" t="n">
-        <v>12245039</v>
+        <v>12243641</v>
       </c>
       <c r="I138" s="1" t="n">
-        <v>1163596</v>
+        <v>1163585</v>
       </c>
       <c r="J138" s="1" t="n">
-        <v>996386</v>
+        <v>996422</v>
       </c>
       <c r="K138" s="1" t="n">
-        <v>3183065</v>
+        <v>3183291</v>
       </c>
       <c r="L138" s="1" t="n">
-        <v>4124482</v>
+        <v>4124447</v>
       </c>
       <c r="M138" s="1" t="n">
-        <v>30941</v>
+        <v>30943</v>
       </c>
       <c r="N138" s="1" t="n">
-        <v>42600</v>
+        <v>42598</v>
       </c>
       <c r="O138" s="1" t="n">
-        <v>29322</v>
+        <v>29301</v>
       </c>
     </row>
     <row r="139">
@@ -5927,34 +5927,34 @@
         <v>31899360.25</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>517423</v>
+        <v>517375</v>
       </c>
       <c r="D139" s="1" t="n">
-        <v>137680</v>
+        <v>137682</v>
       </c>
       <c r="E139" s="1" t="n">
-        <v>939664</v>
+        <v>939625</v>
       </c>
       <c r="F139" s="1" t="n">
-        <v>749419</v>
+        <v>749424</v>
       </c>
       <c r="G139" s="1" t="n">
-        <v>7535590</v>
+        <v>7535483</v>
       </c>
       <c r="H139" s="1" t="n">
-        <v>12391421</v>
+        <v>12389641</v>
       </c>
       <c r="I139" s="1" t="n">
-        <v>1173238</v>
+        <v>1173228</v>
       </c>
       <c r="J139" s="1" t="n">
-        <v>997283</v>
+        <v>997305</v>
       </c>
       <c r="K139" s="1" t="n">
-        <v>3238668</v>
+        <v>3238817</v>
       </c>
       <c r="L139" s="1" t="n">
-        <v>4155651</v>
+        <v>4155630</v>
       </c>
       <c r="M139" s="1" t="n">
         <v>31455</v>
@@ -5963,7 +5963,7 @@
         <v>43306</v>
       </c>
       <c r="O139" s="1" t="n">
-        <v>29857</v>
+        <v>29836</v>
       </c>
     </row>
     <row r="140">
@@ -5974,43 +5974,43 @@
         <v>32202905.75</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>514332</v>
+        <v>514310</v>
       </c>
       <c r="D140" s="1" t="n">
-        <v>138064</v>
+        <v>138067</v>
       </c>
       <c r="E140" s="1" t="n">
-        <v>937926</v>
+        <v>937931</v>
       </c>
       <c r="F140" s="1" t="n">
-        <v>748057</v>
+        <v>748061</v>
       </c>
       <c r="G140" s="1" t="n">
-        <v>7581476</v>
+        <v>7581467</v>
       </c>
       <c r="H140" s="1" t="n">
-        <v>12528663</v>
+        <v>12527581</v>
       </c>
       <c r="I140" s="1" t="n">
-        <v>1178264</v>
+        <v>1178262</v>
       </c>
       <c r="J140" s="1" t="n">
-        <v>993500</v>
+        <v>993510</v>
       </c>
       <c r="K140" s="1" t="n">
-        <v>3321768</v>
+        <v>3321839</v>
       </c>
       <c r="L140" s="1" t="n">
-        <v>4196062</v>
+        <v>4196076</v>
       </c>
       <c r="M140" s="1" t="n">
-        <v>31902</v>
+        <v>31901</v>
       </c>
       <c r="N140" s="1" t="n">
-        <v>43400</v>
+        <v>43399</v>
       </c>
       <c r="O140" s="1" t="n">
-        <v>30339</v>
+        <v>30328</v>
       </c>
     </row>
     <row r="141">
@@ -6021,43 +6021,43 @@
         <v>32529278</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>510592</v>
+        <v>510593</v>
       </c>
       <c r="D141" s="1" t="n">
-        <v>137867</v>
+        <v>137869</v>
       </c>
       <c r="E141" s="1" t="n">
-        <v>937882</v>
+        <v>937880</v>
       </c>
       <c r="F141" s="1" t="n">
         <v>745621</v>
       </c>
       <c r="G141" s="1" t="n">
-        <v>7631966</v>
+        <v>7631901</v>
       </c>
       <c r="H141" s="1" t="n">
-        <v>12661878</v>
+        <v>12661953</v>
       </c>
       <c r="I141" s="1" t="n">
-        <v>1183562</v>
+        <v>1183560</v>
       </c>
       <c r="J141" s="1" t="n">
-        <v>992314</v>
+        <v>992313</v>
       </c>
       <c r="K141" s="1" t="n">
-        <v>3421434</v>
+        <v>3421435</v>
       </c>
       <c r="L141" s="1" t="n">
-        <v>4241794</v>
+        <v>4241793</v>
       </c>
       <c r="M141" s="1" t="n">
         <v>32272</v>
       </c>
       <c r="N141" s="1" t="n">
-        <v>43179</v>
+        <v>43185</v>
       </c>
       <c r="O141" s="1" t="n">
-        <v>30813</v>
+        <v>30818</v>
       </c>
     </row>
     <row r="142">
@@ -6068,43 +6068,43 @@
         <v>32848654</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>509055</v>
+        <v>509047</v>
       </c>
       <c r="D142" s="1" t="n">
-        <v>137711</v>
+        <v>137709</v>
       </c>
       <c r="E142" s="1" t="n">
-        <v>935115</v>
+        <v>935164</v>
       </c>
       <c r="F142" s="1" t="n">
-        <v>745433</v>
+        <v>745430</v>
       </c>
       <c r="G142" s="1" t="n">
-        <v>7692916</v>
+        <v>7692400</v>
       </c>
       <c r="H142" s="1" t="n">
-        <v>12764806</v>
+        <v>12765133</v>
       </c>
       <c r="I142" s="1" t="n">
-        <v>1189451</v>
+        <v>1189446</v>
       </c>
       <c r="J142" s="1" t="n">
-        <v>1002086</v>
+        <v>1002074</v>
       </c>
       <c r="K142" s="1" t="n">
-        <v>3514147</v>
+        <v>3514151</v>
       </c>
       <c r="L142" s="1" t="n">
-        <v>4290984</v>
+        <v>4290987</v>
       </c>
       <c r="M142" s="1" t="n">
-        <v>32554</v>
+        <v>32555</v>
       </c>
       <c r="N142" s="1" t="n">
-        <v>43372</v>
+        <v>43396</v>
       </c>
       <c r="O142" s="1" t="n">
-        <v>31395</v>
+        <v>31394</v>
       </c>
     </row>
     <row r="143">
@@ -6115,43 +6115,43 @@
         <v>33199483</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>511581</v>
+        <v>511569</v>
       </c>
       <c r="D143" s="1" t="n">
-        <v>138749</v>
+        <v>138736</v>
       </c>
       <c r="E143" s="1" t="n">
-        <v>935897</v>
+        <v>935965</v>
       </c>
       <c r="F143" s="1" t="n">
-        <v>746877</v>
+        <v>746875</v>
       </c>
       <c r="G143" s="1" t="n">
-        <v>7761725</v>
+        <v>7761614</v>
       </c>
       <c r="H143" s="1" t="n">
-        <v>12883583</v>
+        <v>12883824</v>
       </c>
       <c r="I143" s="1" t="n">
-        <v>1197775</v>
+        <v>1197767</v>
       </c>
       <c r="J143" s="1" t="n">
-        <v>1017404</v>
+        <v>1017368</v>
       </c>
       <c r="K143" s="1" t="n">
-        <v>3595856</v>
+        <v>3595875</v>
       </c>
       <c r="L143" s="1" t="n">
-        <v>4349336</v>
+        <v>4349338</v>
       </c>
       <c r="M143" s="1" t="n">
-        <v>33083</v>
+        <v>33084</v>
       </c>
       <c r="N143" s="1" t="n">
-        <v>43360</v>
+        <v>43385</v>
       </c>
       <c r="O143" s="1" t="n">
-        <v>31892</v>
+        <v>31898</v>
       </c>
     </row>
     <row r="144">
@@ -6162,43 +6162,43 @@
         <v>33582177.25</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>516751</v>
+        <v>516741</v>
       </c>
       <c r="D144" s="1" t="n">
-        <v>139891</v>
+        <v>139873</v>
       </c>
       <c r="E144" s="1" t="n">
-        <v>938208</v>
+        <v>938266</v>
       </c>
       <c r="F144" s="1" t="n">
         <v>749956</v>
       </c>
       <c r="G144" s="1" t="n">
-        <v>7843383</v>
+        <v>7843915</v>
       </c>
       <c r="H144" s="1" t="n">
-        <v>12998345</v>
+        <v>12998941</v>
       </c>
       <c r="I144" s="1" t="n">
-        <v>1208556</v>
+        <v>1208555</v>
       </c>
       <c r="J144" s="1" t="n">
-        <v>1034819</v>
+        <v>1034791</v>
       </c>
       <c r="K144" s="1" t="n">
-        <v>3678996</v>
+        <v>3679010</v>
       </c>
       <c r="L144" s="1" t="n">
-        <v>4410506</v>
+        <v>4410513</v>
       </c>
       <c r="M144" s="1" t="n">
-        <v>33731</v>
+        <v>33733</v>
       </c>
       <c r="N144" s="1" t="n">
-        <v>43156</v>
+        <v>43171</v>
       </c>
       <c r="O144" s="1" t="n">
-        <v>32597</v>
+        <v>32604</v>
       </c>
     </row>
     <row r="145">
@@ -6209,43 +6209,43 @@
         <v>33959477.5</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>522009</v>
+        <v>522002</v>
       </c>
       <c r="D145" s="1" t="n">
-        <v>141654</v>
+        <v>141644</v>
       </c>
       <c r="E145" s="1" t="n">
-        <v>942107</v>
+        <v>942144</v>
       </c>
       <c r="F145" s="1" t="n">
-        <v>753035</v>
+        <v>753034</v>
       </c>
       <c r="G145" s="1" t="n">
-        <v>7929222</v>
+        <v>7929479</v>
       </c>
       <c r="H145" s="1" t="n">
-        <v>13135778</v>
+        <v>13136481</v>
       </c>
       <c r="I145" s="1" t="n">
-        <v>1220780</v>
+        <v>1220782</v>
       </c>
       <c r="J145" s="1" t="n">
-        <v>1051443</v>
+        <v>1051426</v>
       </c>
       <c r="K145" s="1" t="n">
-        <v>3732082</v>
+        <v>3732104</v>
       </c>
       <c r="L145" s="1" t="n">
-        <v>4465546</v>
+        <v>4465557</v>
       </c>
       <c r="M145" s="1" t="n">
-        <v>34596</v>
+        <v>34598</v>
       </c>
       <c r="N145" s="1" t="n">
-        <v>43285</v>
+        <v>43292</v>
       </c>
       <c r="O145" s="1" t="n">
-        <v>33352</v>
+        <v>33359</v>
       </c>
     </row>
     <row r="146">
@@ -6256,43 +6256,43 @@
         <v>34298530.5</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>524999</v>
+        <v>524955</v>
       </c>
       <c r="D146" s="1" t="n">
-        <v>143963</v>
+        <v>143918</v>
       </c>
       <c r="E146" s="1" t="n">
-        <v>944274</v>
+        <v>944095</v>
       </c>
       <c r="F146" s="1" t="n">
-        <v>755705</v>
+        <v>755590</v>
       </c>
       <c r="G146" s="1" t="n">
-        <v>8005090</v>
+        <v>8004736</v>
       </c>
       <c r="H146" s="1" t="n">
-        <v>13261381</v>
+        <v>13262345</v>
       </c>
       <c r="I146" s="1" t="n">
-        <v>1233649</v>
+        <v>1233353</v>
       </c>
       <c r="J146" s="1" t="n">
-        <v>1066026</v>
+        <v>1065661</v>
       </c>
       <c r="K146" s="1" t="n">
-        <v>3789030</v>
+        <v>3787705</v>
       </c>
       <c r="L146" s="1" t="n">
-        <v>4502104</v>
+        <v>4503819</v>
       </c>
       <c r="M146" s="1" t="n">
-        <v>35411</v>
+        <v>35366</v>
       </c>
       <c r="N146" s="1" t="n">
-        <v>43504</v>
+        <v>43493</v>
       </c>
       <c r="O146" s="1" t="n">
-        <v>34192</v>
+        <v>34185</v>
       </c>
     </row>
     <row r="147">
@@ -6303,43 +6303,43 @@
         <v>34664148</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>526345</v>
+        <v>526235</v>
       </c>
       <c r="D147" s="1" t="n">
-        <v>144530</v>
+        <v>144415</v>
       </c>
       <c r="E147" s="1" t="n">
-        <v>943635</v>
+        <v>943163</v>
       </c>
       <c r="F147" s="1" t="n">
-        <v>758378</v>
+        <v>758121</v>
       </c>
       <c r="G147" s="1" t="n">
-        <v>8061101</v>
+        <v>8059752</v>
       </c>
       <c r="H147" s="1" t="n">
-        <v>13390632</v>
+        <v>13392364</v>
       </c>
       <c r="I147" s="1" t="n">
-        <v>1249975</v>
+        <v>1249094</v>
       </c>
       <c r="J147" s="1" t="n">
-        <v>1083755</v>
+        <v>1083005</v>
       </c>
       <c r="K147" s="1" t="n">
-        <v>3874548</v>
+        <v>3871947</v>
       </c>
       <c r="L147" s="1" t="n">
-        <v>4566769</v>
+        <v>4570866</v>
       </c>
       <c r="M147" s="1" t="n">
-        <v>36234</v>
+        <v>36151</v>
       </c>
       <c r="N147" s="1" t="n">
-        <v>43648</v>
+        <v>43624</v>
       </c>
       <c r="O147" s="1" t="n">
-        <v>34672</v>
+        <v>34658</v>
       </c>
     </row>
     <row r="148">
@@ -6350,43 +6350,43 @@
         <v>35032237.5</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>527114</v>
+        <v>526960</v>
       </c>
       <c r="D148" s="1" t="n">
-        <v>144094</v>
+        <v>143942</v>
       </c>
       <c r="E148" s="1" t="n">
-        <v>940434</v>
+        <v>939808</v>
       </c>
       <c r="F148" s="1" t="n">
-        <v>758544</v>
+        <v>758261</v>
       </c>
       <c r="G148" s="1" t="n">
-        <v>8110880</v>
+        <v>8108825</v>
       </c>
       <c r="H148" s="1" t="n">
-        <v>13510781</v>
+        <v>13511902</v>
       </c>
       <c r="I148" s="1" t="n">
-        <v>1264620</v>
+        <v>1263393</v>
       </c>
       <c r="J148" s="1" t="n">
-        <v>1099736</v>
+        <v>1098868</v>
       </c>
       <c r="K148" s="1" t="n">
-        <v>3981011</v>
+        <v>3978532</v>
       </c>
       <c r="L148" s="1" t="n">
-        <v>4630077</v>
+        <v>4634943</v>
       </c>
       <c r="M148" s="1" t="n">
-        <v>36521</v>
+        <v>36454</v>
       </c>
       <c r="N148" s="1" t="n">
-        <v>43805</v>
+        <v>43774</v>
       </c>
       <c r="O148" s="1" t="n">
-        <v>35337</v>
+        <v>35330</v>
       </c>
     </row>
     <row r="149">
@@ -6397,43 +6397,43 @@
         <v>35389233.5</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>528159</v>
+        <v>527970</v>
       </c>
       <c r="D149" s="1" t="n">
-        <v>144283</v>
+        <v>144095</v>
       </c>
       <c r="E149" s="1" t="n">
-        <v>938545</v>
+        <v>937768</v>
       </c>
       <c r="F149" s="1" t="n">
-        <v>758976</v>
+        <v>758657</v>
       </c>
       <c r="G149" s="1" t="n">
-        <v>8150183</v>
+        <v>8147535</v>
       </c>
       <c r="H149" s="1" t="n">
-        <v>13617553</v>
+        <v>13617763</v>
       </c>
       <c r="I149" s="1" t="n">
-        <v>1279014</v>
+        <v>1277425</v>
       </c>
       <c r="J149" s="1" t="n">
-        <v>1112979</v>
+        <v>1111989</v>
       </c>
       <c r="K149" s="1" t="n">
-        <v>4083648</v>
+        <v>4081271</v>
       </c>
       <c r="L149" s="1" t="n">
-        <v>4707103</v>
+        <v>4712691</v>
       </c>
       <c r="M149" s="1" t="n">
-        <v>37137</v>
+        <v>37085</v>
       </c>
       <c r="N149" s="1" t="n">
-        <v>43884</v>
+        <v>43851</v>
       </c>
       <c r="O149" s="1" t="n">
-        <v>35971</v>
+        <v>35966</v>
       </c>
     </row>
     <row r="150">
@@ -6444,43 +6444,43 @@
         <v>35676466.5</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>528117</v>
+        <v>528348</v>
       </c>
       <c r="D150" s="1" t="n">
-        <v>144546</v>
+        <v>144636</v>
       </c>
       <c r="E150" s="1" t="n">
-        <v>936525</v>
+        <v>937419</v>
       </c>
       <c r="F150" s="1" t="n">
-        <v>758842</v>
+        <v>759226</v>
       </c>
       <c r="G150" s="1" t="n">
-        <v>8175272</v>
+        <v>8175743</v>
       </c>
       <c r="H150" s="1" t="n">
-        <v>13707118</v>
+        <v>13709293</v>
       </c>
       <c r="I150" s="1" t="n">
-        <v>1292227</v>
+        <v>1293598</v>
       </c>
       <c r="J150" s="1" t="n">
-        <v>1120967</v>
+        <v>1122210</v>
       </c>
       <c r="K150" s="1" t="n">
-        <v>4144491</v>
+        <v>4150147</v>
       </c>
       <c r="L150" s="1" t="n">
-        <v>4776388</v>
+        <v>4765472</v>
       </c>
       <c r="M150" s="1" t="n">
-        <v>37690</v>
+        <v>37669</v>
       </c>
       <c r="N150" s="1" t="n">
-        <v>44237</v>
+        <v>44247</v>
       </c>
       <c r="O150" s="1" t="n">
-        <v>36488</v>
+        <v>36490</v>
       </c>
     </row>
     <row r="151">
@@ -6491,43 +6491,43 @@
         <v>36052528.75</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>529426</v>
+        <v>529586</v>
       </c>
       <c r="D151" s="1" t="n">
-        <v>146969</v>
+        <v>146891</v>
       </c>
       <c r="E151" s="1" t="n">
-        <v>942790</v>
+        <v>942984</v>
       </c>
       <c r="F151" s="1" t="n">
-        <v>763350</v>
+        <v>763322</v>
       </c>
       <c r="G151" s="1" t="n">
-        <v>8225950</v>
+        <v>8225036</v>
       </c>
       <c r="H151" s="1" t="n">
-        <v>13875394</v>
+        <v>13876500</v>
       </c>
       <c r="I151" s="1" t="n">
-        <v>1314139</v>
+        <v>1314140</v>
       </c>
       <c r="J151" s="1" t="n">
-        <v>1135987</v>
+        <v>1135496</v>
       </c>
       <c r="K151" s="1" t="n">
-        <v>4196061</v>
+        <v>4195427</v>
       </c>
       <c r="L151" s="1" t="n">
-        <v>4859250</v>
+        <v>4861269</v>
       </c>
       <c r="M151" s="1" t="n">
-        <v>38547</v>
+        <v>38549</v>
       </c>
       <c r="N151" s="1" t="n">
-        <v>44649</v>
+        <v>44624</v>
       </c>
       <c r="O151" s="1" t="n">
-        <v>36975</v>
+        <v>36979</v>
       </c>
     </row>
     <row r="152">
@@ -6538,43 +6538,43 @@
         <v>36494339.75</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>528249</v>
+        <v>529742</v>
       </c>
       <c r="D152" s="1" t="n">
-        <v>150402</v>
+        <v>149740</v>
       </c>
       <c r="E152" s="1" t="n">
-        <v>950108</v>
+        <v>952159</v>
       </c>
       <c r="F152" s="1" t="n">
-        <v>766621</v>
+        <v>766697</v>
       </c>
       <c r="G152" s="1" t="n">
-        <v>8302063</v>
+        <v>8292832</v>
       </c>
       <c r="H152" s="1" t="n">
-        <v>14070141</v>
+        <v>14078499</v>
       </c>
       <c r="I152" s="1" t="n">
-        <v>1334790</v>
+        <v>1334734</v>
       </c>
       <c r="J152" s="1" t="n">
-        <v>1150331</v>
+        <v>1147315</v>
       </c>
       <c r="K152" s="1" t="n">
-        <v>4241100</v>
+        <v>4237310</v>
       </c>
       <c r="L152" s="1" t="n">
-        <v>4929384</v>
+        <v>4934202</v>
       </c>
       <c r="M152" s="1" t="n">
-        <v>39610</v>
+        <v>39533</v>
       </c>
       <c r="N152" s="1" t="n">
-        <v>44891</v>
+        <v>44656</v>
       </c>
       <c r="O152" s="1" t="n">
-        <v>37546</v>
+        <v>37656</v>
       </c>
     </row>
     <row r="153">
@@ -6585,43 +6585,43 @@
         <v>37009338.75</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>525560</v>
+        <v>528402</v>
       </c>
       <c r="D153" s="1" t="n">
-        <v>153396</v>
+        <v>152259</v>
       </c>
       <c r="E153" s="1" t="n">
-        <v>958406</v>
+        <v>962072</v>
       </c>
       <c r="F153" s="1" t="n">
-        <v>770301</v>
+        <v>770497</v>
       </c>
       <c r="G153" s="1" t="n">
-        <v>8401738</v>
+        <v>8386951</v>
       </c>
       <c r="H153" s="1" t="n">
-        <v>14308697</v>
+        <v>14326746</v>
       </c>
       <c r="I153" s="1" t="n">
-        <v>1352825</v>
+        <v>1352687</v>
       </c>
       <c r="J153" s="1" t="n">
-        <v>1161767</v>
+        <v>1156210</v>
       </c>
       <c r="K153" s="1" t="n">
-        <v>4298275</v>
+        <v>4292556</v>
       </c>
       <c r="L153" s="1" t="n">
-        <v>5010476</v>
+        <v>5020979</v>
       </c>
       <c r="M153" s="1" t="n">
-        <v>40519</v>
+        <v>40403</v>
       </c>
       <c r="N153" s="1" t="n">
-        <v>44981</v>
+        <v>44536</v>
       </c>
       <c r="O153" s="1" t="n">
-        <v>38143</v>
+        <v>38322</v>
       </c>
     </row>
     <row r="154">
@@ -6632,43 +6632,43 @@
         <v>37555214</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>523427</v>
+        <v>527643</v>
       </c>
       <c r="D154" s="1" t="n">
-        <v>157419</v>
+        <v>155792</v>
       </c>
       <c r="E154" s="1" t="n">
-        <v>970243</v>
+        <v>975799</v>
       </c>
       <c r="F154" s="1" t="n">
-        <v>777128</v>
+        <v>777387</v>
       </c>
       <c r="G154" s="1" t="n">
-        <v>8503483</v>
+        <v>8483186</v>
       </c>
       <c r="H154" s="1" t="n">
-        <v>14544701</v>
+        <v>14573565</v>
       </c>
       <c r="I154" s="1" t="n">
-        <v>1369954</v>
+        <v>1370033</v>
       </c>
       <c r="J154" s="1" t="n">
-        <v>1172479</v>
+        <v>1164223</v>
       </c>
       <c r="K154" s="1" t="n">
-        <v>4362576</v>
+        <v>4355377</v>
       </c>
       <c r="L154" s="1" t="n">
-        <v>5094796</v>
+        <v>5111022</v>
       </c>
       <c r="M154" s="1" t="n">
-        <v>41362</v>
+        <v>41187</v>
       </c>
       <c r="N154" s="1" t="n">
-        <v>45070</v>
+        <v>44442</v>
       </c>
       <c r="O154" s="1" t="n">
-        <v>38592</v>
+        <v>38839</v>
       </c>
     </row>
     <row r="155">
@@ -6679,43 +6679,43 @@
         <v>37997798.25</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>521359</v>
+        <v>526884</v>
       </c>
       <c r="D155" s="1" t="n">
-        <v>161305</v>
+        <v>159193</v>
       </c>
       <c r="E155" s="1" t="n">
-        <v>981691</v>
+        <v>989168</v>
       </c>
       <c r="F155" s="1" t="n">
-        <v>782996</v>
+        <v>783432</v>
       </c>
       <c r="G155" s="1" t="n">
-        <v>8576595</v>
+        <v>8551095</v>
       </c>
       <c r="H155" s="1" t="n">
-        <v>14726022</v>
+        <v>14761811</v>
       </c>
       <c r="I155" s="1" t="n">
-        <v>1379888</v>
+        <v>1380132</v>
       </c>
       <c r="J155" s="1" t="n">
-        <v>1178467</v>
+        <v>1167386</v>
       </c>
       <c r="K155" s="1" t="n">
-        <v>4416682</v>
+        <v>4407495</v>
       </c>
       <c r="L155" s="1" t="n">
-        <v>5155495</v>
+        <v>5176101</v>
       </c>
       <c r="M155" s="1" t="n">
-        <v>42163</v>
+        <v>41958</v>
       </c>
       <c r="N155" s="1" t="n">
-        <v>45346</v>
+        <v>44504</v>
       </c>
       <c r="O155" s="1" t="n">
-        <v>39157</v>
+        <v>39479</v>
       </c>
     </row>
     <row r="156">
@@ -6723,46 +6723,46 @@
         <v>2021</v>
       </c>
       <c r="B156" s="1" t="n">
-        <v>38222631.75</v>
+        <v>38221486</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>520452</v>
+        <v>527056</v>
       </c>
       <c r="D156" s="1" t="n">
-        <v>164758</v>
+        <v>162133</v>
       </c>
       <c r="E156" s="1" t="n">
-        <v>991117</v>
+        <v>999908</v>
       </c>
       <c r="F156" s="1" t="n">
-        <v>790398</v>
+        <v>790802</v>
       </c>
       <c r="G156" s="1" t="n">
-        <v>8602335</v>
+        <v>8572020</v>
       </c>
       <c r="H156" s="1" t="n">
-        <v>14809257</v>
+        <v>14842488</v>
       </c>
       <c r="I156" s="1" t="n">
-        <v>1391979</v>
+        <v>1391924</v>
       </c>
       <c r="J156" s="1" t="n">
-        <v>1181493</v>
+        <v>1167711</v>
       </c>
       <c r="K156" s="1" t="n">
-        <v>4443773</v>
+        <v>4431531</v>
       </c>
       <c r="L156" s="1" t="n">
-        <v>5202378</v>
+        <v>5226665</v>
       </c>
       <c r="M156" s="1" t="n">
-        <v>43250</v>
+        <v>42961</v>
       </c>
       <c r="N156" s="1" t="n">
-        <v>45597</v>
+        <v>44579</v>
       </c>
       <c r="O156" s="1" t="n">
-        <v>39711</v>
+        <v>40086</v>
       </c>
     </row>
     <row r="157">
@@ -6770,46 +6770,138 @@
         <v>2022</v>
       </c>
       <c r="B157" s="1" t="n">
-        <v>38866584.75</v>
+        <v>38865972.75</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>525972</v>
+        <v>531308</v>
       </c>
       <c r="D157" s="1" t="n">
-        <v>170688</v>
+        <v>167213</v>
       </c>
       <c r="E157" s="1" t="n">
-        <v>1019725</v>
+        <v>1025263</v>
       </c>
       <c r="F157" s="1" t="n">
-        <v>812061</v>
+        <v>809264</v>
       </c>
       <c r="G157" s="1" t="n">
-        <v>8695659</v>
+        <v>8673184</v>
       </c>
       <c r="H157" s="1" t="n">
-        <v>15109416</v>
+        <v>15141455</v>
       </c>
       <c r="I157" s="1" t="n">
-        <v>1409223</v>
+        <v>1412568</v>
       </c>
       <c r="J157" s="1" t="n">
-        <v>1194803</v>
+        <v>1178455</v>
       </c>
       <c r="K157" s="1" t="n">
-        <v>4543111</v>
+        <v>4510747</v>
       </c>
       <c r="L157" s="1" t="n">
-        <v>5319324</v>
+        <v>5357486</v>
       </c>
       <c r="M157" s="1" t="n">
-        <v>43789</v>
+        <v>43900</v>
       </c>
       <c r="N157" s="1" t="n">
-        <v>45605</v>
+        <v>44634</v>
       </c>
       <c r="O157" s="1" t="n">
-        <v>40526</v>
+        <v>40457</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B158" s="1" t="n">
+        <v>39968532.25</v>
+      </c>
+      <c r="C158" s="1" t="n">
+        <v>538907</v>
+      </c>
+      <c r="D158" s="1" t="n">
+        <v>173713</v>
+      </c>
+      <c r="E158" s="1" t="n">
+        <v>1056486</v>
+      </c>
+      <c r="F158" s="1" t="n">
+        <v>832190</v>
+      </c>
+      <c r="G158" s="1" t="n">
+        <v>8848020</v>
+      </c>
+      <c r="H158" s="1" t="n">
+        <v>15623207</v>
+      </c>
+      <c r="I158" s="1" t="n">
+        <v>1454743</v>
+      </c>
+      <c r="J158" s="1" t="n">
+        <v>1209307</v>
+      </c>
+      <c r="K158" s="1" t="n">
+        <v>4684514</v>
+      </c>
+      <c r="L158" s="1" t="n">
+        <v>5531553</v>
+      </c>
+      <c r="M158" s="1" t="n">
+        <v>45463</v>
+      </c>
+      <c r="N158" s="1" t="n">
+        <v>44681</v>
+      </c>
+      <c r="O158" s="1" t="n">
+        <v>40700</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B159" s="1"/>
+      <c r="C159" s="1" t="n">
+        <v>545247</v>
+      </c>
+      <c r="D159" s="1" t="n">
+        <v>178550</v>
+      </c>
+      <c r="E159" s="1" t="n">
+        <v>1076374</v>
+      </c>
+      <c r="F159" s="1" t="n">
+        <v>854355</v>
+      </c>
+      <c r="G159" s="1" t="n">
+        <v>9056044</v>
+      </c>
+      <c r="H159" s="1" t="n">
+        <v>16124116</v>
+      </c>
+      <c r="I159" s="1" t="n">
+        <v>1494301</v>
+      </c>
+      <c r="J159" s="1" t="n">
+        <v>1239865</v>
+      </c>
+      <c r="K159" s="1" t="n">
+        <v>4888723</v>
+      </c>
+      <c r="L159" s="1" t="n">
+        <v>5698430</v>
+      </c>
+      <c r="M159" s="1" t="n">
+        <v>46704</v>
+      </c>
+      <c r="N159" s="1" t="n">
+        <v>44731</v>
+      </c>
+      <c r="O159" s="1" t="n">
+        <v>41159</v>
       </c>
     </row>
   </sheetData>
@@ -12062,6 +12154,66 @@
       <c r="N157" s="4"/>
       <c r="O157" s="4"/>
     </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B158" s="4" t="n">
+        <v>114.671532846715</v>
+      </c>
+      <c r="C158" s="4" t="n">
+        <v>113.896848137536</v>
+      </c>
+      <c r="D158" s="4" t="n">
+        <v>117.693981145758</v>
+      </c>
+      <c r="E158" s="4" t="n">
+        <v>116.388687454677</v>
+      </c>
+      <c r="F158" s="4" t="n">
+        <v>115.300146412884</v>
+      </c>
+      <c r="G158" s="4" t="n">
+        <v>115.66265060241</v>
+      </c>
+      <c r="H158" s="4" t="n">
+        <v>114.667630057803</v>
+      </c>
+      <c r="I158" s="4" t="n">
+        <v>115.345454545455</v>
+      </c>
+      <c r="J158" s="4" t="n">
+        <v>113.717128642502</v>
+      </c>
+      <c r="K158" s="4" t="n">
+        <v>113.407049067035</v>
+      </c>
+      <c r="L158" s="4" t="n">
+        <v>114.199395770393</v>
+      </c>
+      <c r="M158" s="4"/>
+      <c r="N158" s="4"/>
+      <c r="O158" s="4"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B159" s="4"/>
+      <c r="C159" s="4"/>
+      <c r="D159" s="4"/>
+      <c r="E159" s="4"/>
+      <c r="F159" s="4"/>
+      <c r="G159" s="4"/>
+      <c r="H159" s="4"/>
+      <c r="I159" s="4"/>
+      <c r="J159" s="4"/>
+      <c r="K159" s="4"/>
+      <c r="L159" s="4"/>
+      <c r="M159" s="4"/>
+      <c r="N159" s="4"/>
+      <c r="O159" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -17356,7 +17508,7 @@
         <v>2020</v>
       </c>
       <c r="B155" s="1" t="n">
-        <v>2209681</v>
+        <v>2220527</v>
       </c>
       <c r="C155" s="1" t="n">
         <v>32176</v>
@@ -17403,46 +17555,46 @@
         <v>2021</v>
       </c>
       <c r="B156" s="1" t="n">
-        <v>2509618</v>
+        <v>2517123</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>38131</v>
+        <v>38678</v>
       </c>
       <c r="D156" s="1" t="n">
-        <v>8575</v>
+        <v>8567</v>
       </c>
       <c r="E156" s="1" t="n">
-        <v>50788</v>
+        <v>51385</v>
       </c>
       <c r="F156" s="1" t="n">
-        <v>41430</v>
+        <v>41290</v>
       </c>
       <c r="G156" s="1" t="n">
-        <v>503486</v>
+        <v>507464</v>
       </c>
       <c r="H156" s="1" t="n">
-        <v>960226</v>
+        <v>970146</v>
       </c>
       <c r="I156" s="1" t="n">
-        <v>79703</v>
+        <v>79281</v>
       </c>
       <c r="J156" s="1" t="n">
-        <v>88571</v>
+        <v>88352</v>
       </c>
       <c r="K156" s="1" t="n">
-        <v>376388</v>
+        <v>380053</v>
       </c>
       <c r="L156" s="1" t="n">
-        <v>355937</v>
+        <v>357002</v>
       </c>
       <c r="M156" s="1" t="n">
-        <v>3591</v>
+        <v>3637</v>
       </c>
       <c r="N156" s="1" t="n">
-        <v>4851</v>
+        <v>4781</v>
       </c>
       <c r="O156" s="1" t="n">
-        <v>4724</v>
+        <v>4418</v>
       </c>
     </row>
     <row r="157">
@@ -17450,47 +17602,113 @@
         <v>2022</v>
       </c>
       <c r="B157" s="1" t="n">
-        <v>2782645</v>
+        <v>2813289</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>40720</v>
+        <v>41209</v>
       </c>
       <c r="D157" s="1" t="n">
-        <v>9376</v>
+        <v>9461</v>
       </c>
       <c r="E157" s="1" t="n">
-        <v>54383</v>
+        <v>55173</v>
       </c>
       <c r="F157" s="1" t="n">
-        <v>44501</v>
+        <v>45571</v>
       </c>
       <c r="G157" s="1" t="n">
-        <v>545594</v>
+        <v>551681</v>
       </c>
       <c r="H157" s="1" t="n">
-        <v>1048258</v>
+        <v>1061714</v>
       </c>
       <c r="I157" s="1" t="n">
-        <v>86531</v>
+        <v>87881</v>
       </c>
       <c r="J157" s="1" t="n">
-        <v>114412</v>
+        <v>115195</v>
       </c>
       <c r="K157" s="1" t="n">
-        <v>459288</v>
+        <v>472776</v>
       </c>
       <c r="L157" s="1" t="n">
-        <v>395215</v>
+        <v>395629</v>
       </c>
       <c r="M157" s="1" t="n">
-        <v>3930</v>
+        <v>4072</v>
       </c>
       <c r="N157" s="1" t="n">
-        <v>5574</v>
+        <v>5505</v>
       </c>
       <c r="O157" s="1" t="n">
-        <v>4753</v>
-      </c>
+        <v>4320</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B158" s="1" t="n">
+        <v>2892140</v>
+      </c>
+      <c r="C158" s="1" t="n">
+        <v>38959</v>
+      </c>
+      <c r="D158" s="1" t="n">
+        <v>9924</v>
+      </c>
+      <c r="E158" s="1" t="n">
+        <v>59574</v>
+      </c>
+      <c r="F158" s="1" t="n">
+        <v>47035</v>
+      </c>
+      <c r="G158" s="1" t="n">
+        <v>579460</v>
+      </c>
+      <c r="H158" s="1" t="n">
+        <v>1119545</v>
+      </c>
+      <c r="I158" s="1" t="n">
+        <v>91872</v>
+      </c>
+      <c r="J158" s="1" t="n">
+        <v>109702</v>
+      </c>
+      <c r="K158" s="1" t="n">
+        <v>452410</v>
+      </c>
+      <c r="L158" s="1" t="n">
+        <v>409881</v>
+      </c>
+      <c r="M158" s="1" t="n">
+        <v>4330</v>
+      </c>
+      <c r="N158" s="1" t="n">
+        <v>5478</v>
+      </c>
+      <c r="O158" s="1" t="n">
+        <v>4825</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B159" s="1"/>
+      <c r="C159" s="1"/>
+      <c r="D159" s="1"/>
+      <c r="E159" s="1"/>
+      <c r="F159" s="1"/>
+      <c r="G159" s="1"/>
+      <c r="H159" s="1"/>
+      <c r="I159" s="1"/>
+      <c r="J159" s="1"/>
+      <c r="K159" s="1"/>
+      <c r="L159" s="1"/>
+      <c r="M159" s="1"/>
+      <c r="N159" s="1"/>
+      <c r="O159" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22786,7 +23004,7 @@
         <v>2020</v>
       </c>
       <c r="B155" s="1" t="n">
-        <v>2209681</v>
+        <v>2220527</v>
       </c>
       <c r="C155" s="1" t="n">
         <v>32176</v>
@@ -22833,46 +23051,46 @@
         <v>2021</v>
       </c>
       <c r="B156" s="1" t="n">
-        <v>2428090.86158192</v>
+        <v>2435352.05508475</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>36892.2810734463</v>
+        <v>37421.511299435</v>
       </c>
       <c r="D156" s="1" t="n">
-        <v>8296.43361581921</v>
+        <v>8288.69350282486</v>
       </c>
       <c r="E156" s="1" t="n">
-        <v>49138.1073446328</v>
+        <v>49715.7132768362</v>
       </c>
       <c r="F156" s="1" t="n">
-        <v>40084.1101694915</v>
+        <v>39948.6581920904</v>
       </c>
       <c r="G156" s="1" t="n">
-        <v>487129.816384181</v>
+        <v>490978.587570621</v>
       </c>
       <c r="H156" s="1" t="n">
-        <v>929032.217514124</v>
+        <v>938629.957627119</v>
       </c>
       <c r="I156" s="1" t="n">
-        <v>77113.7782485876</v>
+        <v>76705.4872881356</v>
       </c>
       <c r="J156" s="1" t="n">
-        <v>85693.6935028249</v>
+        <v>85481.8079096045</v>
       </c>
       <c r="K156" s="1" t="n">
-        <v>364160.706214689</v>
+        <v>367706.645480226</v>
       </c>
       <c r="L156" s="1" t="n">
-        <v>344374.074858757</v>
+        <v>345404.47740113</v>
       </c>
       <c r="M156" s="1" t="n">
-        <v>3474.34322033898</v>
+        <v>3518.8488700565</v>
       </c>
       <c r="N156" s="1" t="n">
-        <v>4693.41101694915</v>
+        <v>4625.68502824859</v>
       </c>
       <c r="O156" s="1" t="n">
-        <v>4570.53672316384</v>
+        <v>4274.47740112994</v>
       </c>
     </row>
     <row r="157">
@@ -22880,47 +23098,113 @@
         <v>2022</v>
       </c>
       <c r="B157" s="1" t="n">
-        <v>2521311.93783069</v>
+        <v>2549077.99603175</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>36895.7671957672</v>
+        <v>37338.8425925926</v>
       </c>
       <c r="D157" s="1" t="n">
-        <v>8495.44973544974</v>
+        <v>8572.46693121693</v>
       </c>
       <c r="E157" s="1" t="n">
-        <v>49275.6018518519</v>
+        <v>49991.4087301587</v>
       </c>
       <c r="F157" s="1" t="n">
-        <v>40321.6732804233</v>
+        <v>41291.1838624339</v>
       </c>
       <c r="G157" s="1" t="n">
-        <v>494354.351851852</v>
+        <v>499869.689153439</v>
       </c>
       <c r="H157" s="1" t="n">
-        <v>949810.48941799</v>
+        <v>962002.764550265</v>
       </c>
       <c r="I157" s="1" t="n">
-        <v>78404.4113756614</v>
+        <v>79627.6256613757</v>
       </c>
       <c r="J157" s="1" t="n">
-        <v>103666.957671958</v>
+        <v>104376.421957672</v>
       </c>
       <c r="K157" s="1" t="n">
-        <v>416153.80952381</v>
+        <v>428375.079365079</v>
       </c>
       <c r="L157" s="1" t="n">
-        <v>358098.247354497</v>
+        <v>358473.366402116</v>
       </c>
       <c r="M157" s="1" t="n">
-        <v>3560.9126984127</v>
+        <v>3689.57671957672</v>
       </c>
       <c r="N157" s="1" t="n">
-        <v>5050.51587301587</v>
+        <v>4987.99603174603</v>
       </c>
       <c r="O157" s="1" t="n">
-        <v>4306.62037037037</v>
-      </c>
+        <v>3914.28571428572</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B158" s="1" t="n">
+        <v>2522108.08402292</v>
+      </c>
+      <c r="C158" s="1" t="n">
+        <v>33974.4302991725</v>
+      </c>
+      <c r="D158" s="1" t="n">
+        <v>8654.28389560789</v>
+      </c>
+      <c r="E158" s="1" t="n">
+        <v>51951.8650541057</v>
+      </c>
+      <c r="F158" s="1" t="n">
+        <v>41017.1546785487</v>
+      </c>
+      <c r="G158" s="1" t="n">
+        <v>505321.578612349</v>
+      </c>
+      <c r="H158" s="1" t="n">
+        <v>976305.95162317</v>
+      </c>
+      <c r="I158" s="1" t="n">
+        <v>80117.5302355188</v>
+      </c>
+      <c r="J158" s="1" t="n">
+        <v>95666.2889879058</v>
+      </c>
+      <c r="K158" s="1" t="n">
+        <v>394526.86187142</v>
+      </c>
+      <c r="L158" s="1" t="n">
+        <v>357439.191597709</v>
+      </c>
+      <c r="M158" s="1" t="n">
+        <v>3776.00254614895</v>
+      </c>
+      <c r="N158" s="1" t="n">
+        <v>4777.12285168682</v>
+      </c>
+      <c r="O158" s="1" t="n">
+        <v>4207.67027371101</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B159" s="1"/>
+      <c r="C159" s="1"/>
+      <c r="D159" s="1"/>
+      <c r="E159" s="1"/>
+      <c r="F159" s="1"/>
+      <c r="G159" s="1"/>
+      <c r="H159" s="1"/>
+      <c r="I159" s="1"/>
+      <c r="J159" s="1"/>
+      <c r="K159" s="1"/>
+      <c r="L159" s="1"/>
+      <c r="M159" s="1"/>
+      <c r="N159" s="1"/>
+      <c r="O159" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27326,43 +27610,43 @@
         <v>36954.9655118109</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>27706.3707029649</v>
+        <v>27706.5299218647</v>
       </c>
       <c r="D136" s="1" t="n">
-        <v>25302.7475944829</v>
+        <v>25302.3773112748</v>
       </c>
       <c r="E136" s="1" t="n">
-        <v>28747.6380545076</v>
+        <v>28747.977174919</v>
       </c>
       <c r="F136" s="1" t="n">
-        <v>28681.550238724</v>
+        <v>28681.4354854412</v>
       </c>
       <c r="G136" s="1" t="n">
-        <v>32365.9060501408</v>
+        <v>32367.8402988421</v>
       </c>
       <c r="H136" s="1" t="n">
-        <v>39490.3683401955</v>
+        <v>39490.5708128104</v>
       </c>
       <c r="I136" s="1" t="n">
-        <v>31384.6666909837</v>
+        <v>31384.748460855</v>
       </c>
       <c r="J136" s="1" t="n">
-        <v>33730.9383057449</v>
+        <v>33728.6453058911</v>
       </c>
       <c r="K136" s="1" t="n">
-        <v>50490.6955542447</v>
+        <v>50483.3329736863</v>
       </c>
       <c r="L136" s="1" t="n">
-        <v>34048.7374139982</v>
+        <v>34049.1884021569</v>
       </c>
       <c r="M136" s="1" t="n">
-        <v>44366.3372902712</v>
+        <v>44363.3952254642</v>
       </c>
       <c r="N136" s="1" t="n">
-        <v>77218.7538254376</v>
+        <v>77209.3023255814</v>
       </c>
       <c r="O136" s="1" t="n">
-        <v>33199.4454910603</v>
+        <v>33198.2654439468</v>
       </c>
     </row>
     <row r="137">
@@ -27373,43 +27657,43 @@
         <v>38127.6096978</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>32249.495169217</v>
+        <v>32253.8413703214</v>
       </c>
       <c r="D137" s="1" t="n">
-        <v>27140.5610753945</v>
+        <v>27140.1645212665</v>
       </c>
       <c r="E137" s="1" t="n">
-        <v>30037.0303439235</v>
+        <v>30037.2551787265</v>
       </c>
       <c r="F137" s="1" t="n">
-        <v>29484.6885125145</v>
+        <v>29484.5704753962</v>
       </c>
       <c r="G137" s="1" t="n">
-        <v>33670.1938385757</v>
+        <v>33671.7820328558</v>
       </c>
       <c r="H137" s="1" t="n">
-        <v>40981.7156591265</v>
+        <v>40984.2978970699</v>
       </c>
       <c r="I137" s="1" t="n">
-        <v>32546.5988864682</v>
+        <v>32546.7958532792</v>
       </c>
       <c r="J137" s="1" t="n">
-        <v>35207.4172833859</v>
+        <v>35205.7573125051</v>
       </c>
       <c r="K137" s="1" t="n">
-        <v>49218.633377967</v>
+        <v>49213.4735935069</v>
       </c>
       <c r="L137" s="1" t="n">
-        <v>35115.4133919139</v>
+        <v>35115.9272128499</v>
       </c>
       <c r="M137" s="1" t="n">
-        <v>43446.7299578059</v>
+        <v>43442.4338310426</v>
       </c>
       <c r="N137" s="1" t="n">
-        <v>76860.3563634619</v>
+        <v>76862.1996258813</v>
       </c>
       <c r="O137" s="1" t="n">
-        <v>35424.3286378461</v>
+        <v>35430.4750668008</v>
       </c>
     </row>
     <row r="138">
@@ -27420,43 +27704,43 @@
         <v>39704.871300968</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>35563.0821337849</v>
+        <v>35567.8843493978</v>
       </c>
       <c r="D138" s="1" t="n">
-        <v>27764.2154969503</v>
+        <v>27763.4062274559</v>
       </c>
       <c r="E138" s="1" t="n">
-        <v>31858.225882649</v>
+        <v>31859.4490023793</v>
       </c>
       <c r="F138" s="1" t="n">
-        <v>30928.385289836</v>
+        <v>30928.2614845139</v>
       </c>
       <c r="G138" s="1" t="n">
-        <v>34740.3928502584</v>
+        <v>34741.6227238625</v>
       </c>
       <c r="H138" s="1" t="n">
-        <v>41671.9783415961</v>
+        <v>41676.7365197983</v>
       </c>
       <c r="I138" s="1" t="n">
-        <v>33155.8375931165</v>
+        <v>33156.1510332292</v>
       </c>
       <c r="J138" s="1" t="n">
-        <v>37695.2305632556</v>
+        <v>37693.8686620729</v>
       </c>
       <c r="K138" s="1" t="n">
-        <v>54706.0773185593</v>
+        <v>54702.1934218392</v>
       </c>
       <c r="L138" s="1" t="n">
-        <v>36842.9296091</v>
+        <v>36843.2422576893</v>
       </c>
       <c r="M138" s="1" t="n">
-        <v>43954.6233153421</v>
+        <v>43951.7823094076</v>
       </c>
       <c r="N138" s="1" t="n">
-        <v>91408.4507042254</v>
+        <v>91412.7423822715</v>
       </c>
       <c r="O138" s="1" t="n">
-        <v>35059.0000682082</v>
+        <v>35084.1268216102</v>
       </c>
     </row>
     <row r="139">
@@ -27467,34 +27751,34 @@
         <v>41873.2849038877</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>38055.9039702526</v>
+        <v>38059.4346460498</v>
       </c>
       <c r="D139" s="1" t="n">
-        <v>29336.141778036</v>
+        <v>29335.7156345782</v>
       </c>
       <c r="E139" s="1" t="n">
-        <v>32942.6263004648</v>
+        <v>32943.9936144739</v>
       </c>
       <c r="F139" s="1" t="n">
-        <v>32694.6607972309</v>
+        <v>32694.4426653003</v>
       </c>
       <c r="G139" s="1" t="n">
-        <v>36204.4644148633</v>
+        <v>36204.9784997193</v>
       </c>
       <c r="H139" s="1" t="n">
-        <v>43103.2082599728</v>
+        <v>43109.4008292896</v>
       </c>
       <c r="I139" s="1" t="n">
-        <v>35012.5038568475</v>
+        <v>35012.8022856597</v>
       </c>
       <c r="J139" s="1" t="n">
-        <v>41677.2370530732</v>
+        <v>41676.3176761372</v>
       </c>
       <c r="K139" s="1" t="n">
-        <v>60107.4268804336</v>
+        <v>60104.6616712213</v>
       </c>
       <c r="L139" s="1" t="n">
-        <v>39608.7159388505</v>
+        <v>39608.9160969576</v>
       </c>
       <c r="M139" s="1" t="n">
         <v>46574.4714671753</v>
@@ -27503,7 +27787,7 @@
         <v>104304.253452178</v>
       </c>
       <c r="O139" s="1" t="n">
-        <v>37512.1412064173</v>
+        <v>37538.5440407561</v>
       </c>
     </row>
     <row r="140">
@@ -27514,43 +27798,43 @@
         <v>44144.7741093985</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>43341.654806623</v>
+        <v>43343.5087787521</v>
       </c>
       <c r="D140" s="1" t="n">
-        <v>30927.6857109746</v>
+        <v>30927.0136962489</v>
       </c>
       <c r="E140" s="1" t="n">
-        <v>34344.9269985052</v>
+        <v>34344.7439097332</v>
       </c>
       <c r="F140" s="1" t="n">
-        <v>34279.47335564</v>
+        <v>34279.2900578963</v>
       </c>
       <c r="G140" s="1" t="n">
-        <v>37079.3233402045</v>
+        <v>37079.3673572674</v>
       </c>
       <c r="H140" s="1" t="n">
-        <v>44486.4707431272</v>
+        <v>44490.3130141406</v>
       </c>
       <c r="I140" s="1" t="n">
-        <v>36613.1868579537</v>
+        <v>36613.249005739</v>
       </c>
       <c r="J140" s="1" t="n">
-        <v>45220.9360845496</v>
+        <v>45220.4809211784</v>
       </c>
       <c r="K140" s="1" t="n">
-        <v>67928.5850185805</v>
+        <v>67927.1331331832</v>
       </c>
       <c r="L140" s="1" t="n">
-        <v>42229.3569542109</v>
+        <v>42229.2160580504</v>
       </c>
       <c r="M140" s="1" t="n">
-        <v>49307.2534637327</v>
+        <v>49308.799097207</v>
       </c>
       <c r="N140" s="1" t="n">
-        <v>102465.437788018</v>
+        <v>102467.798797207</v>
       </c>
       <c r="O140" s="1" t="n">
-        <v>38333.4981377105</v>
+        <v>38347.4017409654</v>
       </c>
     </row>
     <row r="141">
@@ -27561,43 +27845,43 @@
         <v>46007.9070921894</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>48183.2852845325</v>
+        <v>48183.1909172276</v>
       </c>
       <c r="D141" s="1" t="n">
-        <v>32175.9376790675</v>
+        <v>32175.4709180454</v>
       </c>
       <c r="E141" s="1" t="n">
-        <v>34982.0126625738</v>
+        <v>34982.0872606304</v>
       </c>
       <c r="F141" s="1" t="n">
         <v>35932.4643485095</v>
       </c>
       <c r="G141" s="1" t="n">
-        <v>38196.1869326986</v>
+        <v>38196.5122451143</v>
       </c>
       <c r="H141" s="1" t="n">
-        <v>45724.4178154299</v>
+        <v>45724.1469779583</v>
       </c>
       <c r="I141" s="1" t="n">
-        <v>39442.8006306387</v>
+        <v>39442.8672817601</v>
       </c>
       <c r="J141" s="1" t="n">
-        <v>46572.9597687829</v>
+        <v>46573.0067025223</v>
       </c>
       <c r="K141" s="1" t="n">
-        <v>71928.6123888405</v>
+        <v>71928.5913659035</v>
       </c>
       <c r="L141" s="1" t="n">
-        <v>44905.2924305141</v>
+        <v>44905.3030169082</v>
       </c>
       <c r="M141" s="1" t="n">
         <v>52708.2300446207</v>
       </c>
       <c r="N141" s="1" t="n">
-        <v>102850.922902337</v>
+        <v>102836.633090193</v>
       </c>
       <c r="O141" s="1" t="n">
-        <v>40307.6623503067</v>
+        <v>40301.122720488</v>
       </c>
     </row>
     <row r="142">
@@ -27608,43 +27892,43 @@
         <v>48028.1779582201</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>57139.2089263439</v>
+        <v>57140.1069056492</v>
       </c>
       <c r="D142" s="1" t="n">
-        <v>33679.2267865312</v>
+        <v>33679.7159227066</v>
       </c>
       <c r="E142" s="1" t="n">
-        <v>36377.343963042</v>
+        <v>36375.4378911079</v>
       </c>
       <c r="F142" s="1" t="n">
-        <v>38034.2700148773</v>
+        <v>38034.4230846625</v>
       </c>
       <c r="G142" s="1" t="n">
-        <v>39899.824721861</v>
+        <v>39902.501169986</v>
       </c>
       <c r="H142" s="1" t="n">
-        <v>47192.9616478308</v>
+        <v>47191.7527220437</v>
       </c>
       <c r="I142" s="1" t="n">
-        <v>41850.3998903696</v>
+        <v>41850.5758142867</v>
       </c>
       <c r="J142" s="1" t="n">
-        <v>52309.8815870095</v>
+        <v>52310.5080063947</v>
       </c>
       <c r="K142" s="1" t="n">
-        <v>74305.9411003581</v>
+        <v>74305.8565212479</v>
       </c>
       <c r="L142" s="1" t="n">
-        <v>46711.8963855377</v>
+        <v>46711.8637273895</v>
       </c>
       <c r="M142" s="1" t="n">
-        <v>55753.5172329053</v>
+        <v>55751.8046383044</v>
       </c>
       <c r="N142" s="1" t="n">
-        <v>107627.04048695</v>
+        <v>107567.517743571</v>
       </c>
       <c r="O142" s="1" t="n">
-        <v>42013.0594043638</v>
+        <v>42014.397655603</v>
       </c>
     </row>
     <row r="143">
@@ -27655,43 +27939,43 @@
         <v>49911.6507326334</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>61759.5258619847</v>
+        <v>61760.9745703903</v>
       </c>
       <c r="D143" s="1" t="n">
-        <v>34313.7608198978</v>
+        <v>34316.976127321</v>
       </c>
       <c r="E143" s="1" t="n">
-        <v>37920.8395795691</v>
+        <v>37918.0845437597</v>
       </c>
       <c r="F143" s="1" t="n">
-        <v>38616.8003566852</v>
+        <v>38616.9037656904</v>
       </c>
       <c r="G143" s="1" t="n">
-        <v>40632.9778496404</v>
+        <v>40633.5589479199</v>
       </c>
       <c r="H143" s="1" t="n">
-        <v>47279.2390129361</v>
+        <v>47278.3546251486</v>
       </c>
       <c r="I143" s="1" t="n">
-        <v>43586.6502473336</v>
+        <v>43586.9413667266</v>
       </c>
       <c r="J143" s="1" t="n">
-        <v>66498.6573671816</v>
+        <v>66501.0104504958</v>
       </c>
       <c r="K143" s="1" t="n">
-        <v>82380.6626294268</v>
+        <v>82380.2273438315</v>
       </c>
       <c r="L143" s="1" t="n">
-        <v>47461.7274912768</v>
+        <v>47461.7056664715</v>
       </c>
       <c r="M143" s="1" t="n">
-        <v>61783.9978236557</v>
+        <v>61782.1303349051</v>
       </c>
       <c r="N143" s="1" t="n">
-        <v>115890.221402214</v>
+        <v>115823.441281549</v>
       </c>
       <c r="O143" s="1" t="n">
-        <v>49134.5792048163</v>
+        <v>49125.3370117249</v>
       </c>
     </row>
     <row r="144">
@@ -27702,43 +27986,43 @@
         <v>46790.7124753205</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>48421.7737362869</v>
+        <v>48422.7107970918</v>
       </c>
       <c r="D144" s="1" t="n">
-        <v>35291.7628725222</v>
+        <v>35296.3045048008</v>
       </c>
       <c r="E144" s="1" t="n">
-        <v>37310.4897847812</v>
+        <v>37308.1833936219</v>
       </c>
       <c r="F144" s="1" t="n">
         <v>38554.2618500285</v>
       </c>
       <c r="G144" s="1" t="n">
-        <v>40230.089490721</v>
+        <v>40227.3609543194</v>
       </c>
       <c r="H144" s="1" t="n">
-        <v>46045.9389253016</v>
+        <v>46043.82772412</v>
       </c>
       <c r="I144" s="1" t="n">
-        <v>42077.487514025</v>
+        <v>42077.5223303863</v>
       </c>
       <c r="J144" s="1" t="n">
-        <v>58094.2174428572</v>
+        <v>58095.7893912877</v>
       </c>
       <c r="K144" s="1" t="n">
-        <v>66823.3942086374</v>
+        <v>66823.1399207939</v>
       </c>
       <c r="L144" s="1" t="n">
-        <v>44933.3931299493</v>
+        <v>44933.3218153988</v>
       </c>
       <c r="M144" s="1" t="n">
-        <v>63354.1845779846</v>
+        <v>63350.4283639166</v>
       </c>
       <c r="N144" s="1" t="n">
-        <v>92918.7135044953</v>
+        <v>92886.4283894281</v>
       </c>
       <c r="O144" s="1" t="n">
-        <v>47182.2560358315</v>
+        <v>47172.1261194945</v>
       </c>
     </row>
     <row r="145">
@@ -27749,43 +28033,43 @@
         <v>49059.8832093338</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>55759.5750264842</v>
+        <v>55760.3227573841</v>
       </c>
       <c r="D145" s="1" t="n">
-        <v>36928.0076806867</v>
+        <v>36930.6147807179</v>
       </c>
       <c r="E145" s="1" t="n">
-        <v>39189.8160187749</v>
+        <v>39188.2769512941</v>
       </c>
       <c r="F145" s="1" t="n">
-        <v>40196.0068257119</v>
+        <v>40196.0602044529</v>
       </c>
       <c r="G145" s="1" t="n">
-        <v>41508.359836564</v>
+        <v>41507.0145213828</v>
       </c>
       <c r="H145" s="1" t="n">
-        <v>48085.1610007416</v>
+        <v>48082.5877188876</v>
       </c>
       <c r="I145" s="1" t="n">
-        <v>43708.9401857829</v>
+        <v>43708.8685776822</v>
       </c>
       <c r="J145" s="1" t="n">
-        <v>60299.9877311466</v>
+        <v>60300.9626925718</v>
       </c>
       <c r="K145" s="1" t="n">
-        <v>72400.070523638</v>
+        <v>72399.6437398315</v>
       </c>
       <c r="L145" s="1" t="n">
-        <v>46352.6744545908</v>
+        <v>46352.5602741159</v>
       </c>
       <c r="M145" s="1" t="n">
-        <v>66886.3452422245</v>
+        <v>66882.4787559975</v>
       </c>
       <c r="N145" s="1" t="n">
-        <v>111285.664779947</v>
+        <v>111267.670701284</v>
       </c>
       <c r="O145" s="1" t="n">
-        <v>57417.8460062365</v>
+        <v>57405.7975358974</v>
       </c>
     </row>
     <row r="146">
@@ -27796,43 +28080,43 @@
         <v>51724.169348888</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>63927.7408147444</v>
+        <v>63933.0990275357</v>
       </c>
       <c r="D146" s="1" t="n">
-        <v>37731.9172287324</v>
+        <v>37743.7151711391</v>
       </c>
       <c r="E146" s="1" t="n">
-        <v>39957.6817745697</v>
+        <v>39965.2577335967</v>
       </c>
       <c r="F146" s="1" t="n">
-        <v>41763.6511601749</v>
+        <v>41770.0075437737</v>
       </c>
       <c r="G146" s="1" t="n">
-        <v>43192.8935214969</v>
+        <v>43194.8036762237</v>
       </c>
       <c r="H146" s="1" t="n">
-        <v>49801.4497886759</v>
+        <v>49797.8298709617</v>
       </c>
       <c r="I146" s="1" t="n">
-        <v>45598.0590913623</v>
+        <v>45609.002451042</v>
       </c>
       <c r="J146" s="1" t="n">
-        <v>70219.6756927129</v>
+        <v>70243.726663545</v>
       </c>
       <c r="K146" s="1" t="n">
-        <v>79093.857794739</v>
+        <v>79121.5260956173</v>
       </c>
       <c r="L146" s="1" t="n">
-        <v>48593.0578236309</v>
+        <v>48574.5541728031</v>
       </c>
       <c r="M146" s="1" t="n">
-        <v>70458.3321566745</v>
+        <v>70547.9839393768</v>
       </c>
       <c r="N146" s="1" t="n">
-        <v>108817.579992644</v>
+        <v>108845.101510588</v>
       </c>
       <c r="O146" s="1" t="n">
-        <v>59546.0926532522</v>
+        <v>59558.2857978646</v>
       </c>
     </row>
     <row r="147">
@@ -27843,43 +28127,43 @@
         <v>52711.5508507522</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>60916.3191442875</v>
+        <v>60929.0526095756</v>
       </c>
       <c r="D147" s="1" t="n">
-        <v>38649.4153462949</v>
+        <v>38680.192500779</v>
       </c>
       <c r="E147" s="1" t="n">
-        <v>40198.8056822818</v>
+        <v>40218.9229221248</v>
       </c>
       <c r="F147" s="1" t="n">
-        <v>41927.6403060215</v>
+        <v>41941.8536091204</v>
       </c>
       <c r="G147" s="1" t="n">
-        <v>44070.0346019731</v>
+        <v>44077.4108185959</v>
       </c>
       <c r="H147" s="1" t="n">
-        <v>50840.841567448</v>
+        <v>50834.2664521365</v>
       </c>
       <c r="I147" s="1" t="n">
-        <v>47879.3575871517</v>
+        <v>47913.1274347647</v>
       </c>
       <c r="J147" s="1" t="n">
-        <v>71977.5225950515</v>
+        <v>72027.3682946986</v>
       </c>
       <c r="K147" s="1" t="n">
-        <v>80707.9948422371</v>
+        <v>80762.2108463778</v>
       </c>
       <c r="L147" s="1" t="n">
-        <v>48902.8457537484</v>
+        <v>48859.0127122519</v>
       </c>
       <c r="M147" s="1" t="n">
-        <v>70596.6771540542</v>
+        <v>70758.7618599762</v>
       </c>
       <c r="N147" s="1" t="n">
-        <v>100668.988269795</v>
+        <v>100724.371905373</v>
       </c>
       <c r="O147" s="1" t="n">
-        <v>63451.7766497462</v>
+        <v>63477.4078134918</v>
       </c>
     </row>
     <row r="148">
@@ -27890,43 +28174,43 @@
         <v>54299.9001990666</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>65433.6633062298</v>
+        <v>65452.7857901928</v>
       </c>
       <c r="D148" s="1" t="n">
-        <v>40015.5454078588</v>
+        <v>40057.8010587598</v>
       </c>
       <c r="E148" s="1" t="n">
-        <v>41177.7966343199</v>
+        <v>41205.2248970002</v>
       </c>
       <c r="F148" s="1" t="n">
-        <v>42042.3864667046</v>
+        <v>42058.0776276243</v>
       </c>
       <c r="G148" s="1" t="n">
-        <v>45100.1617580337</v>
+        <v>45111.5913834618</v>
       </c>
       <c r="H148" s="1" t="n">
-        <v>51528.6273976316</v>
+        <v>51524.3523820703</v>
       </c>
       <c r="I148" s="1" t="n">
-        <v>49331.8150906992</v>
+        <v>49379.72586519</v>
       </c>
       <c r="J148" s="1" t="n">
-        <v>75662.7045036263</v>
+        <v>75722.4707608193</v>
       </c>
       <c r="K148" s="1" t="n">
-        <v>86070.0962644916</v>
+        <v>86123.726037644</v>
       </c>
       <c r="L148" s="1" t="n">
-        <v>49887.0753121384</v>
+        <v>49834.7013113214</v>
       </c>
       <c r="M148" s="1" t="n">
-        <v>72670.5183319186</v>
+        <v>72804.0818565864</v>
       </c>
       <c r="N148" s="1" t="n">
-        <v>102362.743978998</v>
+        <v>102435.235527939</v>
       </c>
       <c r="O148" s="1" t="n">
-        <v>64946.0905000424</v>
+        <v>64958.9583923012</v>
       </c>
     </row>
     <row r="149">
@@ -27937,43 +28221,43 @@
         <v>56370.1951894494</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>64944.4580135906</v>
+        <v>64967.7064984753</v>
       </c>
       <c r="D149" s="1" t="n">
-        <v>40600.7637767443</v>
+        <v>40653.7353829071</v>
       </c>
       <c r="E149" s="1" t="n">
-        <v>42446.5529090241</v>
+        <v>42481.7225582447</v>
       </c>
       <c r="F149" s="1" t="n">
-        <v>42770.7859010035</v>
+        <v>42788.770155683</v>
       </c>
       <c r="G149" s="1" t="n">
-        <v>46241.6610768126</v>
+        <v>46256.6899068246</v>
       </c>
       <c r="H149" s="1" t="n">
-        <v>53390.0620764979</v>
+        <v>53389.2387464813</v>
       </c>
       <c r="I149" s="1" t="n">
-        <v>50277.0102594655</v>
+        <v>50339.550267139</v>
       </c>
       <c r="J149" s="1" t="n">
-        <v>74489.2760779853</v>
+        <v>74555.5936254765</v>
       </c>
       <c r="K149" s="1" t="n">
-        <v>92272.1547008949</v>
+        <v>92325.895535974</v>
       </c>
       <c r="L149" s="1" t="n">
-        <v>51809.361299296</v>
+        <v>51747.9291555504</v>
       </c>
       <c r="M149" s="1" t="n">
-        <v>73888.5747367854</v>
+        <v>73992.1801267359</v>
       </c>
       <c r="N149" s="1" t="n">
-        <v>108969.100355483</v>
+        <v>109051.104877882</v>
       </c>
       <c r="O149" s="1" t="n">
-        <v>66247.8107364266</v>
+        <v>66257.0205193794</v>
       </c>
     </row>
     <row r="150">
@@ -27984,43 +28268,43 @@
         <v>55791.4276628264</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>59003.9707110356</v>
+        <v>58978.1734765723</v>
       </c>
       <c r="D150" s="1" t="n">
-        <v>42118.0800575595</v>
+        <v>42091.8720097348</v>
       </c>
       <c r="E150" s="1" t="n">
-        <v>43459.5979819012</v>
+        <v>43418.1513282748</v>
       </c>
       <c r="F150" s="1" t="n">
-        <v>44084.2757780935</v>
+        <v>44061.9789101006</v>
       </c>
       <c r="G150" s="1" t="n">
-        <v>47419.462006891</v>
+        <v>47416.7301980994</v>
       </c>
       <c r="H150" s="1" t="n">
-        <v>55477.380438397</v>
+        <v>55468.5788683632</v>
       </c>
       <c r="I150" s="1" t="n">
-        <v>51030.5077977786</v>
+        <v>50976.4238967593</v>
       </c>
       <c r="J150" s="1" t="n">
-        <v>71081.4858956597</v>
+        <v>71002.7534953351</v>
       </c>
       <c r="K150" s="1" t="n">
-        <v>78189.0948731702</v>
+        <v>78082.5353897103</v>
       </c>
       <c r="L150" s="1" t="n">
-        <v>52504.9472530289</v>
+        <v>52625.2173971435</v>
       </c>
       <c r="M150" s="1" t="n">
-        <v>69938.9758556646</v>
+        <v>69977.96596671</v>
       </c>
       <c r="N150" s="1" t="n">
-        <v>106720.618486787</v>
+        <v>106696.499197686</v>
       </c>
       <c r="O150" s="1" t="n">
-        <v>66350.5810129358</v>
+        <v>66346.9443683201</v>
       </c>
     </row>
     <row r="151">
@@ -28031,43 +28315,43 @@
         <v>56182.8828719816</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>59534.2880780317</v>
+        <v>59516.3014128017</v>
       </c>
       <c r="D151" s="1" t="n">
-        <v>43383.2985187352</v>
+        <v>43406.3353098556</v>
       </c>
       <c r="E151" s="1" t="n">
-        <v>44123.2936284857</v>
+        <v>44114.216147888</v>
       </c>
       <c r="F151" s="1" t="n">
-        <v>44972.8171873977</v>
+        <v>44974.4668698138</v>
       </c>
       <c r="G151" s="1" t="n">
-        <v>48532.3883563601</v>
+        <v>48537.7814759717</v>
       </c>
       <c r="H151" s="1" t="n">
-        <v>56989.3006281479</v>
+        <v>56984.7584044968</v>
       </c>
       <c r="I151" s="1" t="n">
-        <v>51210.7166745679</v>
+        <v>51210.6777055717</v>
       </c>
       <c r="J151" s="1" t="n">
-        <v>66632.8047768152</v>
+        <v>66661.6174781769</v>
       </c>
       <c r="K151" s="1" t="n">
-        <v>72518.9648100921</v>
+        <v>72529.9236525865</v>
       </c>
       <c r="L151" s="1" t="n">
-        <v>54311.2620260328</v>
+        <v>54288.7052742813</v>
       </c>
       <c r="M151" s="1" t="n">
-        <v>72353.2311204504</v>
+        <v>72349.4772886456</v>
       </c>
       <c r="N151" s="1" t="n">
-        <v>99666.2859190575</v>
+        <v>99722.1226245966</v>
       </c>
       <c r="O151" s="1" t="n">
-        <v>69830.9668695064</v>
+        <v>69823.4132886233</v>
       </c>
     </row>
     <row r="152">
@@ -28078,43 +28362,43 @@
         <v>58656.7948526867</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>63776.7416502445</v>
+        <v>63596.9962736577</v>
       </c>
       <c r="D152" s="1" t="n">
-        <v>45145.6762543051</v>
+        <v>45345.2651262188</v>
       </c>
       <c r="E152" s="1" t="n">
-        <v>45588.5015177222</v>
+        <v>45490.301514768</v>
       </c>
       <c r="F152" s="1" t="n">
-        <v>46734.9576909581</v>
+        <v>46730.3250175754</v>
       </c>
       <c r="G152" s="1" t="n">
-        <v>50430.1159844246</v>
+        <v>50486.2512589185</v>
       </c>
       <c r="H152" s="1" t="n">
-        <v>58633.3143356559</v>
+        <v>58598.5054230568</v>
       </c>
       <c r="I152" s="1" t="n">
-        <v>53405.4045954794</v>
+        <v>53407.6452686453</v>
       </c>
       <c r="J152" s="1" t="n">
-        <v>69768.6144248916</v>
+        <v>69952.0184081965</v>
       </c>
       <c r="K152" s="1" t="n">
-        <v>78341.9395911438</v>
+        <v>78412.0113940212</v>
       </c>
       <c r="L152" s="1" t="n">
-        <v>57265.3702775032</v>
+        <v>57209.4535246024</v>
       </c>
       <c r="M152" s="1" t="n">
-        <v>72784.650340823</v>
+        <v>72926.415905699</v>
       </c>
       <c r="N152" s="1" t="n">
-        <v>103071.88523312</v>
+        <v>103614.295951272</v>
       </c>
       <c r="O152" s="1" t="n">
-        <v>80727.6407606669</v>
+        <v>80491.8206925855</v>
       </c>
     </row>
     <row r="153">
@@ -28125,43 +28409,43 @@
         <v>60408.4016497052</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>65813.6083415785</v>
+        <v>65459.6311141896</v>
       </c>
       <c r="D153" s="1" t="n">
-        <v>45522.6994184985</v>
+        <v>45862.6419456321</v>
       </c>
       <c r="E153" s="1" t="n">
-        <v>46822.536586791</v>
+        <v>46644.1181117422</v>
       </c>
       <c r="F153" s="1" t="n">
-        <v>48238.2860725872</v>
+        <v>48226.015156451</v>
       </c>
       <c r="G153" s="1" t="n">
-        <v>52332.6245117379</v>
+        <v>52424.8919541798</v>
       </c>
       <c r="H153" s="1" t="n">
-        <v>60110.5747085147</v>
+        <v>60034.8467125752</v>
       </c>
       <c r="I153" s="1" t="n">
-        <v>54236.1354942435</v>
+        <v>54241.6686195698</v>
       </c>
       <c r="J153" s="1" t="n">
-        <v>72021.3261351028</v>
+        <v>72367.4764964842</v>
       </c>
       <c r="K153" s="1" t="n">
-        <v>80534.6330795494</v>
+        <v>80641.9298897906</v>
       </c>
       <c r="L153" s="1" t="n">
-        <v>59354.0414124327</v>
+        <v>59229.8832558352</v>
       </c>
       <c r="M153" s="1" t="n">
-        <v>73866.5811100965</v>
+        <v>74078.6575254313</v>
       </c>
       <c r="N153" s="1" t="n">
-        <v>104666.414708432</v>
+        <v>105712.232800431</v>
       </c>
       <c r="O153" s="1" t="n">
-        <v>83055.8687046116</v>
+        <v>82667.9192108971</v>
       </c>
     </row>
     <row r="154">
@@ -28172,43 +28456,43 @@
         <v>61604.3087918498</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>68431.7010777052</v>
+        <v>67884.9146108259</v>
       </c>
       <c r="D154" s="1" t="n">
-        <v>47262.4016160692</v>
+        <v>47755.9823354216</v>
       </c>
       <c r="E154" s="1" t="n">
-        <v>48270.3817497266</v>
+        <v>47995.5400651159</v>
       </c>
       <c r="F154" s="1" t="n">
-        <v>48971.3406285708</v>
+        <v>48955.0249746909</v>
       </c>
       <c r="G154" s="1" t="n">
-        <v>54073.8424478534</v>
+        <v>54203.2203466952</v>
       </c>
       <c r="H154" s="1" t="n">
-        <v>61412.331542601</v>
+        <v>61290.6999762927</v>
       </c>
       <c r="I154" s="1" t="n">
-        <v>54473.361879304</v>
+        <v>54470.2207903021</v>
       </c>
       <c r="J154" s="1" t="n">
-        <v>72070.3739683184</v>
+        <v>72581.455614603</v>
       </c>
       <c r="K154" s="1" t="n">
-        <v>80711.7171139253</v>
+        <v>80845.1254621586</v>
       </c>
       <c r="L154" s="1" t="n">
-        <v>60648.7482521381</v>
+        <v>60456.2062147257</v>
       </c>
       <c r="M154" s="1" t="n">
-        <v>74367.7771867898</v>
+        <v>74683.7594386578</v>
       </c>
       <c r="N154" s="1" t="n">
-        <v>103616.596405591</v>
+        <v>105080.779442869</v>
       </c>
       <c r="O154" s="1" t="n">
-        <v>92868.9883913764</v>
+        <v>92278.3799788872</v>
       </c>
     </row>
     <row r="155">
@@ -28216,46 +28500,46 @@
         <v>2020</v>
       </c>
       <c r="B155" s="1" t="n">
-        <v>58152.8694231645</v>
+        <v>58438.3070142755</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>61715.631647291</v>
+        <v>61068.4704792706</v>
       </c>
       <c r="D155" s="1" t="n">
-        <v>46253.9908868293</v>
+        <v>46867.6386524533</v>
       </c>
       <c r="E155" s="1" t="n">
-        <v>47025.9990159836</v>
+        <v>46670.5352376947</v>
       </c>
       <c r="F155" s="1" t="n">
-        <v>47706.5016934952</v>
+        <v>47679.9518018156</v>
       </c>
       <c r="G155" s="1" t="n">
-        <v>52625.0802328896</v>
+        <v>52782.0121282713</v>
       </c>
       <c r="H155" s="1" t="n">
-        <v>59374.7585057254</v>
+        <v>59230.8084692319</v>
       </c>
       <c r="I155" s="1" t="n">
-        <v>52876.0305184189</v>
+        <v>52866.6823173436</v>
       </c>
       <c r="J155" s="1" t="n">
-        <v>65999.3024836504</v>
+        <v>66625.7775919876</v>
       </c>
       <c r="K155" s="1" t="n">
-        <v>68219.7631615769</v>
+        <v>68361.9607055708</v>
       </c>
       <c r="L155" s="1" t="n">
-        <v>59628.027958518</v>
+        <v>59390.649448301</v>
       </c>
       <c r="M155" s="1" t="n">
-        <v>76892.0617603112</v>
+        <v>77267.7439344106</v>
       </c>
       <c r="N155" s="1" t="n">
-        <v>92466.8107440568</v>
+        <v>94216.2502246989</v>
       </c>
       <c r="O155" s="1" t="n">
-        <v>103838.394156856</v>
+        <v>102991.463816206</v>
       </c>
     </row>
     <row r="156">
@@ -28263,46 +28547,46 @@
         <v>2021</v>
       </c>
       <c r="B156" s="1" t="n">
-        <v>65657.9069807248</v>
+        <v>65856.2307075136</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>73265.1618208788</v>
+        <v>73384.9913481679</v>
       </c>
       <c r="D156" s="1" t="n">
-        <v>52046.0311487151</v>
+        <v>52839.3356071867</v>
       </c>
       <c r="E156" s="1" t="n">
-        <v>51243.1932859592</v>
+        <v>51389.7278549627</v>
       </c>
       <c r="F156" s="1" t="n">
-        <v>52416.6306088831</v>
+        <v>52212.8168618693</v>
       </c>
       <c r="G156" s="1" t="n">
-        <v>58528.9924189188</v>
+        <v>59200.0485299848</v>
       </c>
       <c r="H156" s="1" t="n">
-        <v>64839.5797304348</v>
+        <v>65362.7612836877</v>
       </c>
       <c r="I156" s="1" t="n">
-        <v>57258.7661164429</v>
+        <v>56957.8511470454</v>
       </c>
       <c r="J156" s="1" t="n">
-        <v>74965.3193036268</v>
+        <v>75662.5569169084</v>
       </c>
       <c r="K156" s="1" t="n">
-        <v>84700.0960670133</v>
+        <v>85761.10603762</v>
       </c>
       <c r="L156" s="1" t="n">
-        <v>68418.1349375228</v>
+        <v>68303.9758622372</v>
       </c>
       <c r="M156" s="1" t="n">
-        <v>83028.901734104</v>
+        <v>84658.1783478038</v>
       </c>
       <c r="N156" s="1" t="n">
-        <v>106388.578195934</v>
+        <v>107247.80726351</v>
       </c>
       <c r="O156" s="1" t="n">
-        <v>118959.482259324</v>
+        <v>110213.041959786</v>
       </c>
     </row>
     <row r="157">
@@ -28310,47 +28594,113 @@
         <v>2022</v>
       </c>
       <c r="B157" s="1" t="n">
-        <v>71594.7906897068</v>
+        <v>72384.371236405</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>77418.5698097998</v>
+        <v>77561.4144714554</v>
       </c>
       <c r="D157" s="1" t="n">
-        <v>54930.6336707912</v>
+        <v>56580.5290258533</v>
       </c>
       <c r="E157" s="1" t="n">
-        <v>53331.0451347177</v>
+        <v>53813.5093141955</v>
       </c>
       <c r="F157" s="1" t="n">
-        <v>54800.0704380582</v>
+        <v>56311.6609660136</v>
       </c>
       <c r="G157" s="1" t="n">
-        <v>62743.2607465403</v>
+        <v>63607.6670343901</v>
       </c>
       <c r="H157" s="1" t="n">
-        <v>69377.7972623164</v>
+        <v>70119.6813648358</v>
       </c>
       <c r="I157" s="1" t="n">
-        <v>61403.3407061906</v>
+        <v>62213.6421043093</v>
       </c>
       <c r="J157" s="1" t="n">
-        <v>95758.0454685835</v>
+        <v>97750.8687221829</v>
       </c>
       <c r="K157" s="1" t="n">
-        <v>101095.482809027</v>
+        <v>104811.021323076</v>
       </c>
       <c r="L157" s="1" t="n">
-        <v>74297.9747050565</v>
+        <v>73846.0165831511</v>
       </c>
       <c r="M157" s="1" t="n">
-        <v>89748.5669917102</v>
+        <v>92756.264236902</v>
       </c>
       <c r="N157" s="1" t="n">
-        <v>122223.440412236</v>
+        <v>123336.469955639</v>
       </c>
       <c r="O157" s="1" t="n">
-        <v>117282.732073237</v>
-      </c>
+        <v>106780.038065106</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B158" s="1" t="n">
+        <v>72360.4254944838</v>
+      </c>
+      <c r="C158" s="1" t="n">
+        <v>72292.6219180675</v>
+      </c>
+      <c r="D158" s="1" t="n">
+        <v>57128.7123013246</v>
+      </c>
+      <c r="E158" s="1" t="n">
+        <v>56388.8210539468</v>
+      </c>
+      <c r="F158" s="1" t="n">
+        <v>56519.5448154868</v>
+      </c>
+      <c r="G158" s="1" t="n">
+        <v>65490.3582948501</v>
+      </c>
+      <c r="H158" s="1" t="n">
+        <v>71659.1030253904</v>
+      </c>
+      <c r="I158" s="1" t="n">
+        <v>63153.4229757421</v>
+      </c>
+      <c r="J158" s="1" t="n">
+        <v>90714.7647371594</v>
+      </c>
+      <c r="K158" s="1" t="n">
+        <v>96575.6533121686</v>
+      </c>
+      <c r="L158" s="1" t="n">
+        <v>74098.720558223</v>
+      </c>
+      <c r="M158" s="1" t="n">
+        <v>95242.2849350021</v>
+      </c>
+      <c r="N158" s="1" t="n">
+        <v>122602.448468029</v>
+      </c>
+      <c r="O158" s="1" t="n">
+        <v>118550.368550369</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B159" s="1"/>
+      <c r="C159" s="1"/>
+      <c r="D159" s="1"/>
+      <c r="E159" s="1"/>
+      <c r="F159" s="1"/>
+      <c r="G159" s="1"/>
+      <c r="H159" s="1"/>
+      <c r="I159" s="1"/>
+      <c r="J159" s="1"/>
+      <c r="K159" s="1"/>
+      <c r="L159" s="1"/>
+      <c r="M159" s="1"/>
+      <c r="N159" s="1"/>
+      <c r="O159" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -32756,43 +33106,43 @@
         <v>51767.1807271788</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>38811.5826820674</v>
+        <v>38811.8057187675</v>
       </c>
       <c r="D136" s="1" t="n">
-        <v>35444.5441763206</v>
+        <v>35444.0254769392</v>
       </c>
       <c r="E136" s="1" t="n">
-        <v>40270.208726662</v>
+        <v>40270.6837726371</v>
       </c>
       <c r="F136" s="1" t="n">
-        <v>40177.6317250019</v>
+        <v>40177.4709765383</v>
       </c>
       <c r="G136" s="1" t="n">
-        <v>45338.7436489702</v>
+        <v>45341.4531793595</v>
       </c>
       <c r="H136" s="1" t="n">
-        <v>55318.8186360612</v>
+        <v>55319.1022633438</v>
       </c>
       <c r="I136" s="1" t="n">
-        <v>43964.2058963678</v>
+        <v>43964.3204410751</v>
       </c>
       <c r="J136" s="1" t="n">
-        <v>47250.9053976182</v>
+        <v>47247.6933221583</v>
       </c>
       <c r="K136" s="1" t="n">
-        <v>70728.2749584</v>
+        <v>70717.9613230574</v>
       </c>
       <c r="L136" s="1" t="n">
-        <v>47696.0841075435</v>
+        <v>47696.7158598722</v>
       </c>
       <c r="M136" s="1" t="n">
-        <v>62149.1636888258</v>
+        <v>62145.0423914989</v>
       </c>
       <c r="N136" s="1" t="n">
-        <v>108169.419980419</v>
+        <v>108156.180149332</v>
       </c>
       <c r="O136" s="1" t="n">
-        <v>46506.3806981111</v>
+        <v>46504.7276668785</v>
       </c>
     </row>
     <row r="137">
@@ -32803,43 +33153,43 @@
         <v>52234.8252859861</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>44181.8083818272</v>
+        <v>44187.7626773403</v>
       </c>
       <c r="D137" s="1" t="n">
-        <v>37182.5686732905</v>
+        <v>37182.0253941351</v>
       </c>
       <c r="E137" s="1" t="n">
-        <v>41150.7315711751</v>
+        <v>41151.0395948553</v>
       </c>
       <c r="F137" s="1" t="n">
-        <v>40394.0232621448</v>
+        <v>40393.8615512927</v>
       </c>
       <c r="G137" s="1" t="n">
-        <v>46128.1655588487</v>
+        <v>46130.3413850124</v>
       </c>
       <c r="H137" s="1" t="n">
-        <v>56144.9504530032</v>
+        <v>56148.4881189858</v>
       </c>
       <c r="I137" s="1" t="n">
-        <v>44588.8404744614</v>
+        <v>44589.1103189925</v>
       </c>
       <c r="J137" s="1" t="n">
-        <v>48234.1616782386</v>
+        <v>48231.887518132</v>
       </c>
       <c r="K137" s="1" t="n">
-        <v>67429.5277278148</v>
+        <v>67422.4588231045</v>
       </c>
       <c r="L137" s="1" t="n">
-        <v>48108.116346922</v>
+        <v>48108.8202816044</v>
       </c>
       <c r="M137" s="1" t="n">
-        <v>59522.0200421941</v>
+        <v>59516.1343485283</v>
       </c>
       <c r="N137" s="1" t="n">
-        <v>105298.688217943</v>
+        <v>105301.213487457</v>
       </c>
       <c r="O137" s="1" t="n">
-        <v>48531.3302338491</v>
+        <v>48539.7508415172</v>
       </c>
     </row>
     <row r="138">
@@ -32850,43 +33200,43 @@
         <v>52914.0794575157</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>47394.3798864644</v>
+        <v>47400.7797263376</v>
       </c>
       <c r="D138" s="1" t="n">
-        <v>37000.9486681147</v>
+        <v>36999.8701669403</v>
       </c>
       <c r="E138" s="1" t="n">
-        <v>42456.9741821295</v>
+        <v>42458.6042152331</v>
       </c>
       <c r="F138" s="1" t="n">
-        <v>41217.7897345091</v>
+        <v>41217.624741035</v>
       </c>
       <c r="G138" s="1" t="n">
-        <v>46297.9943626984</v>
+        <v>46299.6333965872</v>
       </c>
       <c r="H138" s="1" t="n">
-        <v>55535.6131595201</v>
+        <v>55541.9543114044</v>
       </c>
       <c r="I138" s="1" t="n">
-        <v>44186.2816172856</v>
+        <v>44186.6993341673</v>
       </c>
       <c r="J138" s="1" t="n">
-        <v>50235.8617428601</v>
+        <v>50234.0467578209</v>
       </c>
       <c r="K138" s="1" t="n">
-        <v>72905.9590723991</v>
+        <v>72900.7830621787</v>
       </c>
       <c r="L138" s="1" t="n">
-        <v>49100.0131950068</v>
+        <v>49100.4298570374</v>
       </c>
       <c r="M138" s="1" t="n">
-        <v>58577.6594766719</v>
+        <v>58573.8733111755</v>
       </c>
       <c r="N138" s="1" t="n">
-        <v>121818.65512139</v>
+        <v>121824.374575595</v>
       </c>
       <c r="O138" s="1" t="n">
-        <v>46722.5973671646</v>
+        <v>46756.0834101225</v>
       </c>
     </row>
     <row r="139">
@@ -32897,34 +33247,34 @@
         <v>54791.2132935302</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>49796.1685188596</v>
+        <v>49800.7884098263</v>
       </c>
       <c r="D139" s="1" t="n">
-        <v>38386.3555261789</v>
+        <v>38385.7979172609</v>
       </c>
       <c r="E139" s="1" t="n">
-        <v>43105.4422460715</v>
+        <v>43107.2313771052</v>
       </c>
       <c r="F139" s="1" t="n">
-        <v>42780.9792666727</v>
+        <v>42780.6938409373</v>
       </c>
       <c r="G139" s="1" t="n">
-        <v>47373.5589764687</v>
+        <v>47374.2316567482</v>
       </c>
       <c r="H139" s="1" t="n">
-        <v>56400.5685923235</v>
+        <v>56408.6715722318</v>
       </c>
       <c r="I139" s="1" t="n">
-        <v>45813.8780170783</v>
+        <v>45814.2685113217</v>
       </c>
       <c r="J139" s="1" t="n">
-        <v>54534.6845871158</v>
+        <v>54533.481581956</v>
       </c>
       <c r="K139" s="1" t="n">
-        <v>78650.5967776447</v>
+        <v>78646.9785000699</v>
       </c>
       <c r="L139" s="1" t="n">
-        <v>51828.023721323</v>
+        <v>51828.2856283018</v>
       </c>
       <c r="M139" s="1" t="n">
         <v>60942.7181566669</v>
@@ -32933,7 +33283,7 @@
         <v>136482.165453184</v>
       </c>
       <c r="O139" s="1" t="n">
-        <v>49084.6546827045</v>
+        <v>49119.2028040457</v>
       </c>
     </row>
     <row r="140">
@@ -32944,43 +33294,43 @@
         <v>56521.8135793233</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>55493.5206402556</v>
+        <v>55495.8944176546</v>
       </c>
       <c r="D140" s="1" t="n">
-        <v>39598.9994617152</v>
+        <v>39598.1390316458</v>
       </c>
       <c r="E140" s="1" t="n">
-        <v>43974.3457831328</v>
+        <v>43974.1113610603</v>
       </c>
       <c r="F140" s="1" t="n">
-        <v>43890.5406516138</v>
+        <v>43890.3059619794</v>
       </c>
       <c r="G140" s="1" t="n">
-        <v>47475.3953047478</v>
+        <v>47475.4516630433</v>
       </c>
       <c r="H140" s="1" t="n">
-        <v>56959.3130075554</v>
+        <v>56964.2325508155</v>
       </c>
       <c r="I140" s="1" t="n">
-        <v>46878.566350838</v>
+        <v>46878.6459232359</v>
       </c>
       <c r="J140" s="1" t="n">
-        <v>57899.7032110588</v>
+        <v>57899.1204317892</v>
       </c>
       <c r="K140" s="1" t="n">
-        <v>86973.9826873414</v>
+        <v>86972.1237312719</v>
       </c>
       <c r="L140" s="1" t="n">
-        <v>54069.3635768868</v>
+        <v>54069.18317713</v>
       </c>
       <c r="M140" s="1" t="n">
-        <v>63131.7170516951</v>
+        <v>63133.6960403491</v>
       </c>
       <c r="N140" s="1" t="n">
-        <v>131194.06520522</v>
+        <v>131197.088179602</v>
       </c>
       <c r="O140" s="1" t="n">
-        <v>49081.2078959471</v>
+        <v>49099.0097057221</v>
       </c>
     </row>
     <row r="141">
@@ -32991,43 +33341,43 @@
         <v>57773.4488692021</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>60505.1336753524</v>
+        <v>60505.0151756204</v>
       </c>
       <c r="D141" s="1" t="n">
-        <v>40404.2480479583</v>
+        <v>40403.6619227518</v>
       </c>
       <c r="E141" s="1" t="n">
-        <v>43927.9169090065</v>
+        <v>43928.0105839263</v>
       </c>
       <c r="F141" s="1" t="n">
         <v>45121.4263588066</v>
       </c>
       <c r="G141" s="1" t="n">
-        <v>47964.0477523346</v>
+        <v>47964.456256468</v>
       </c>
       <c r="H141" s="1" t="n">
-        <v>57417.4632512731</v>
+        <v>57417.1231528899</v>
       </c>
       <c r="I141" s="1" t="n">
-        <v>49529.4563372823</v>
+        <v>49529.5400330077</v>
       </c>
       <c r="J141" s="1" t="n">
-        <v>58483.0017261526</v>
+        <v>58483.0606621957</v>
       </c>
       <c r="K141" s="1" t="n">
-        <v>90322.8221564725</v>
+        <v>90322.7957573673</v>
       </c>
       <c r="L141" s="1" t="n">
-        <v>56388.8640053201</v>
+        <v>56388.8772989589</v>
       </c>
       <c r="M141" s="1" t="n">
         <v>66187.2366279839</v>
       </c>
       <c r="N141" s="1" t="n">
-        <v>129152.854606967</v>
+        <v>129134.910479895</v>
       </c>
       <c r="O141" s="1" t="n">
-        <v>50615.4880109259</v>
+        <v>50607.2760101454</v>
       </c>
     </row>
     <row r="142">
@@ -33038,43 +33388,43 @@
         <v>59012.2007199656</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>70206.9203848351</v>
+        <v>70208.0237316048</v>
       </c>
       <c r="D142" s="1" t="n">
-        <v>41381.6508498186</v>
+        <v>41382.251851218</v>
       </c>
       <c r="E142" s="1" t="n">
-        <v>44696.8262146794</v>
+        <v>44694.4842249487</v>
       </c>
       <c r="F142" s="1" t="n">
-        <v>46732.6905115532</v>
+        <v>46732.8785883298</v>
       </c>
       <c r="G142" s="1" t="n">
-        <v>49024.8967434525</v>
+        <v>49028.1852940635</v>
       </c>
       <c r="H142" s="1" t="n">
-        <v>57985.9708139266</v>
+        <v>57984.4854073542</v>
       </c>
       <c r="I142" s="1" t="n">
-        <v>51421.5675783016</v>
+        <v>51421.7837359397</v>
       </c>
       <c r="J142" s="1" t="n">
-        <v>64273.1280486126</v>
+        <v>64273.8977298303</v>
       </c>
       <c r="K142" s="1" t="n">
-        <v>91299.6765089601</v>
+        <v>91299.5725866455</v>
       </c>
       <c r="L142" s="1" t="n">
-        <v>57394.8861418714</v>
+        <v>57394.8460148194</v>
       </c>
       <c r="M142" s="1" t="n">
-        <v>68504.3216224935</v>
+        <v>68502.2173582754</v>
       </c>
       <c r="N142" s="1" t="n">
-        <v>132241.296383069</v>
+        <v>132168.16081497</v>
       </c>
       <c r="O142" s="1" t="n">
-        <v>51621.4272502048</v>
+        <v>51623.0715589023</v>
       </c>
     </row>
     <row r="143">
@@ -33085,43 +33435,43 @@
         <v>59928.9759015844</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>74154.7330682902</v>
+        <v>74156.4725341233</v>
       </c>
       <c r="D143" s="1" t="n">
-        <v>41200.5717118843</v>
+        <v>41204.4323351706</v>
       </c>
       <c r="E143" s="1" t="n">
-        <v>45531.5952883521</v>
+        <v>45528.2873137167</v>
       </c>
       <c r="F143" s="1" t="n">
-        <v>46367.2361863793</v>
+        <v>46367.3603496896</v>
       </c>
       <c r="G143" s="1" t="n">
-        <v>48788.0627993053</v>
+        <v>48788.7605246715</v>
       </c>
       <c r="H143" s="1" t="n">
-        <v>56768.2361505017</v>
+        <v>56767.1742650776</v>
       </c>
       <c r="I143" s="1" t="n">
-        <v>52334.5406124864</v>
+        <v>52334.8901598733</v>
       </c>
       <c r="J143" s="1" t="n">
-        <v>79845.0136661164</v>
+        <v>79847.8390159327</v>
       </c>
       <c r="K143" s="1" t="n">
-        <v>98914.5554796798</v>
+        <v>98914.0328317696</v>
       </c>
       <c r="L143" s="1" t="n">
-        <v>56987.3502743639</v>
+        <v>56987.3240692954</v>
       </c>
       <c r="M143" s="1" t="n">
-        <v>74184.1165805506</v>
+        <v>74181.8742846801</v>
       </c>
       <c r="N143" s="1" t="n">
-        <v>139149.52087733</v>
+        <v>139069.337910361</v>
       </c>
       <c r="O143" s="1" t="n">
-        <v>58995.9452327768</v>
+        <v>58984.8481210018</v>
       </c>
     </row>
     <row r="144">
@@ -33132,43 +33482,43 @@
         <v>56034.3322475429</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>57987.6136527212</v>
+        <v>57988.7358321816</v>
       </c>
       <c r="D144" s="1" t="n">
-        <v>42263.7370064295</v>
+        <v>42269.1758492807</v>
       </c>
       <c r="E144" s="1" t="n">
-        <v>44681.2683611453</v>
+        <v>44678.5063367674</v>
       </c>
       <c r="F144" s="1" t="n">
         <v>46170.7506420796</v>
       </c>
       <c r="G144" s="1" t="n">
-        <v>48177.642134867</v>
+        <v>48174.3745694209</v>
       </c>
       <c r="H144" s="1" t="n">
-        <v>55142.4268598455</v>
+        <v>55139.8985857031</v>
       </c>
       <c r="I144" s="1" t="n">
-        <v>50389.9981592782</v>
+        <v>50390.0398536969</v>
       </c>
       <c r="J144" s="1" t="n">
-        <v>69570.8722873377</v>
+        <v>69572.7547780281</v>
       </c>
       <c r="K144" s="1" t="n">
-        <v>80024.5192883157</v>
+        <v>80024.2147652864</v>
       </c>
       <c r="L144" s="1" t="n">
-        <v>53810.0949196071</v>
+        <v>53810.0095166926</v>
       </c>
       <c r="M144" s="1" t="n">
-        <v>75869.958804055</v>
+        <v>75865.4605407044</v>
       </c>
       <c r="N144" s="1" t="n">
-        <v>111275.032780733</v>
+        <v>111236.369662165</v>
       </c>
       <c r="O144" s="1" t="n">
-        <v>56503.2261967563</v>
+        <v>56491.0950906534</v>
       </c>
     </row>
     <row r="145">
@@ -33179,43 +33529,43 @@
         <v>57692.7381946672</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>65571.345739299</v>
+        <v>65572.2250451641</v>
       </c>
       <c r="D145" s="1" t="n">
-        <v>43426.0691180608</v>
+        <v>43429.1349781832</v>
       </c>
       <c r="E145" s="1" t="n">
-        <v>46085.8780649971</v>
+        <v>46084.0681744832</v>
       </c>
       <c r="F145" s="1" t="n">
-        <v>47269.1239066312</v>
+        <v>47269.1866781979</v>
       </c>
       <c r="G145" s="1" t="n">
-        <v>48812.4059880624</v>
+        <v>48810.8239436004</v>
       </c>
       <c r="H145" s="1" t="n">
-        <v>56546.4983442198</v>
+        <v>56543.4722531124</v>
       </c>
       <c r="I145" s="1" t="n">
-        <v>51400.2129223369</v>
+        <v>51400.1287136692</v>
       </c>
       <c r="J145" s="1" t="n">
-        <v>70910.7151859836</v>
+        <v>70911.8617071445</v>
       </c>
       <c r="K145" s="1" t="n">
-        <v>85139.997096467</v>
+        <v>85139.495213364</v>
       </c>
       <c r="L145" s="1" t="n">
-        <v>54509.153650463</v>
+        <v>54509.0193781448</v>
       </c>
       <c r="M145" s="1" t="n">
-        <v>78656.0454779808</v>
+        <v>78651.4986229326</v>
       </c>
       <c r="N145" s="1" t="n">
-        <v>130868.120814186</v>
+        <v>130846.960395502</v>
       </c>
       <c r="O145" s="1" t="n">
-        <v>67521.4154751451</v>
+        <v>67507.2468877076</v>
       </c>
     </row>
     <row r="146">
@@ -33226,43 +33576,43 @@
         <v>59101.0108490213</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>73045.0416315261</v>
+        <v>73051.1640264586</v>
       </c>
       <c r="D146" s="1" t="n">
-        <v>43113.1998359995</v>
+        <v>43126.6803873733</v>
       </c>
       <c r="E146" s="1" t="n">
-        <v>45656.4003596</v>
+        <v>45665.0567931839</v>
       </c>
       <c r="F146" s="1" t="n">
-        <v>47719.9350203834</v>
+        <v>47727.1979440951</v>
       </c>
       <c r="G146" s="1" t="n">
-        <v>49353.0142822776</v>
+        <v>49355.1968610729</v>
       </c>
       <c r="H146" s="1" t="n">
-        <v>56904.0752381033</v>
+        <v>56899.9390518912</v>
       </c>
       <c r="I146" s="1" t="n">
-        <v>52101.2017974698</v>
+        <v>52113.7058865117</v>
       </c>
       <c r="J146" s="1" t="n">
-        <v>80234.3250200306</v>
+        <v>80261.806112641</v>
       </c>
       <c r="K146" s="1" t="n">
-        <v>90374.1327596267</v>
+        <v>90405.7470817312</v>
       </c>
       <c r="L146" s="1" t="n">
-        <v>55523.3438018135</v>
+        <v>55502.2011816016</v>
       </c>
       <c r="M146" s="1" t="n">
-        <v>80507.0183941985</v>
+        <v>80609.4562109643</v>
       </c>
       <c r="N146" s="1" t="n">
-        <v>124337.018006608</v>
+        <v>124368.464611764</v>
       </c>
       <c r="O146" s="1" t="n">
-        <v>68038.4878523399</v>
+        <v>68052.419969203</v>
       </c>
     </row>
     <row r="147">
@@ -33273,43 +33623,43 @@
         <v>59338.3933159659</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>68574.6567195348</v>
+        <v>68588.9910231048</v>
       </c>
       <c r="D147" s="1" t="n">
-        <v>43508.3804637831</v>
+        <v>43543.0268907701</v>
       </c>
       <c r="E147" s="1" t="n">
-        <v>45252.5585741381</v>
+        <v>45275.2049328767</v>
       </c>
       <c r="F147" s="1" t="n">
-        <v>47198.7405252666</v>
+        <v>47214.7407103492</v>
       </c>
       <c r="G147" s="1" t="n">
-        <v>49610.474449222</v>
+        <v>49618.777996283</v>
       </c>
       <c r="H147" s="1" t="n">
-        <v>57232.5003676285</v>
+        <v>57225.0986355193</v>
       </c>
       <c r="I147" s="1" t="n">
-        <v>53898.7016387822</v>
+        <v>53936.716997229</v>
       </c>
       <c r="J147" s="1" t="n">
-        <v>81026.4633978804</v>
+        <v>81082.5756480994</v>
       </c>
       <c r="K147" s="1" t="n">
-        <v>90854.5217205134</v>
+        <v>90915.553705454</v>
       </c>
       <c r="L147" s="1" t="n">
-        <v>55050.8616948524</v>
+        <v>55001.5180080404</v>
       </c>
       <c r="M147" s="1" t="n">
-        <v>79472.019474983</v>
+        <v>79654.4813049855</v>
       </c>
       <c r="N147" s="1" t="n">
-        <v>113324.990903549</v>
+        <v>113387.337313362</v>
       </c>
       <c r="O147" s="1" t="n">
-        <v>71428.8693592048</v>
+        <v>71457.722846741</v>
       </c>
     </row>
     <row r="148">
@@ -33320,43 +33670,43 @@
         <v>60578.8788865809</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>73000.0966852889</v>
+        <v>73021.4304011109</v>
       </c>
       <c r="D148" s="1" t="n">
-        <v>44642.7501700053</v>
+        <v>44689.8920606685</v>
       </c>
       <c r="E148" s="1" t="n">
-        <v>45939.3985252592</v>
+        <v>45969.9984600084</v>
       </c>
       <c r="F148" s="1" t="n">
-        <v>46903.9653578057</v>
+        <v>46921.4709689293</v>
       </c>
       <c r="G148" s="1" t="n">
-        <v>50315.3270427574</v>
+        <v>50328.0783349697</v>
       </c>
       <c r="H148" s="1" t="n">
-        <v>57487.1494582697</v>
+        <v>57482.3801005181</v>
       </c>
       <c r="I148" s="1" t="n">
-        <v>55036.3083666595</v>
+        <v>55089.7593121419</v>
       </c>
       <c r="J148" s="1" t="n">
-        <v>84411.9748941108</v>
+        <v>84478.6522331616</v>
       </c>
       <c r="K148" s="1" t="n">
-        <v>96022.8272657602</v>
+        <v>96082.658527339</v>
       </c>
       <c r="L148" s="1" t="n">
-        <v>55655.7762032815</v>
+        <v>55597.345925497</v>
       </c>
       <c r="M148" s="1" t="n">
-        <v>81073.7867383783</v>
+        <v>81222.7949051493</v>
       </c>
       <c r="N148" s="1" t="n">
-        <v>114199.478217612</v>
+        <v>114280.352339802</v>
       </c>
       <c r="O148" s="1" t="n">
-        <v>72456.1433103079</v>
+        <v>72470.4991835933</v>
       </c>
     </row>
     <row r="149">
@@ -33367,43 +33717,43 @@
         <v>61683.0410619374</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>71065.4213088012</v>
+        <v>71090.8609448172</v>
       </c>
       <c r="D149" s="1" t="n">
-        <v>44427.3533339774</v>
+        <v>44485.3174717115</v>
       </c>
       <c r="E149" s="1" t="n">
-        <v>46447.1066177021</v>
+        <v>46485.5909782709</v>
       </c>
       <c r="F149" s="1" t="n">
-        <v>46801.8983102035</v>
+        <v>46821.5775665221</v>
       </c>
       <c r="G149" s="1" t="n">
-        <v>50599.9006990681</v>
+        <v>50616.3459843048</v>
       </c>
       <c r="H149" s="1" t="n">
-        <v>58422.0327833883</v>
+        <v>58421.1318551753</v>
       </c>
       <c r="I149" s="1" t="n">
-        <v>55015.5783190637</v>
+        <v>55084.0126725083</v>
       </c>
       <c r="J149" s="1" t="n">
-        <v>81509.8308521085</v>
+        <v>81582.3987754815</v>
       </c>
       <c r="K149" s="1" t="n">
-        <v>100968.73158165</v>
+        <v>101027.537447511</v>
       </c>
       <c r="L149" s="1" t="n">
-        <v>56692.3522204756</v>
+        <v>56625.1301462492</v>
       </c>
       <c r="M149" s="1" t="n">
-        <v>80852.5138892939</v>
+        <v>80965.8840044953</v>
       </c>
       <c r="N149" s="1" t="n">
-        <v>119239.351027964</v>
+        <v>119329.084411101</v>
       </c>
       <c r="O149" s="1" t="n">
-        <v>72491.6139847479</v>
+        <v>72501.691782388</v>
       </c>
     </row>
     <row r="150">
@@ -33414,43 +33764,43 @@
         <v>60374.6097141171</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>63851.0583523845</v>
+        <v>63823.1419138262</v>
       </c>
       <c r="D150" s="1" t="n">
-        <v>45578.0171238993</v>
+        <v>45549.6561242786</v>
       </c>
       <c r="E150" s="1" t="n">
-        <v>47029.7387323891</v>
+        <v>46984.88729837</v>
       </c>
       <c r="F150" s="1" t="n">
-        <v>47705.7328720285</v>
+        <v>47681.6043497929</v>
       </c>
       <c r="G150" s="1" t="n">
-        <v>51314.899644108</v>
+        <v>51311.943421324</v>
       </c>
       <c r="H150" s="1" t="n">
-        <v>60034.7639815197</v>
+        <v>60025.2393757169</v>
       </c>
       <c r="I150" s="1" t="n">
-        <v>55222.5874272959</v>
+        <v>55164.0606149765</v>
       </c>
       <c r="J150" s="1" t="n">
-        <v>76920.7232836128</v>
+        <v>76835.5231347623</v>
       </c>
       <c r="K150" s="1" t="n">
-        <v>84612.2116715981</v>
+        <v>84496.8984864953</v>
       </c>
       <c r="L150" s="1" t="n">
-        <v>56818.1498709712</v>
+        <v>56948.3000269246</v>
       </c>
       <c r="M150" s="1" t="n">
-        <v>75684.3577584996</v>
+        <v>75726.5508486514</v>
       </c>
       <c r="N150" s="1" t="n">
-        <v>115487.557130251</v>
+        <v>115461.456477748</v>
       </c>
       <c r="O150" s="1" t="n">
-        <v>71801.1816648673</v>
+        <v>71797.2462753543</v>
       </c>
     </row>
     <row r="151">
@@ -33461,43 +33811,43 @@
         <v>59945.9108525038</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>63521.7871237565</v>
+        <v>63502.5957441887</v>
       </c>
       <c r="D151" s="1" t="n">
-        <v>46289.0334662518</v>
+        <v>46313.6132200173</v>
       </c>
       <c r="E151" s="1" t="n">
-        <v>47078.5921113905</v>
+        <v>47068.906637544</v>
       </c>
       <c r="F151" s="1" t="n">
-        <v>47985.0152233137</v>
+        <v>47986.7753984773</v>
       </c>
       <c r="G151" s="1" t="n">
-        <v>51783.0000375493</v>
+        <v>51788.7543785679</v>
       </c>
       <c r="H151" s="1" t="n">
-        <v>60806.3410128993</v>
+        <v>60801.4945593151</v>
       </c>
       <c r="I151" s="1" t="n">
-        <v>54640.7179471636</v>
+        <v>54640.6763680944</v>
       </c>
       <c r="J151" s="1" t="n">
-        <v>71095.7496450443</v>
+        <v>71126.4921690829</v>
       </c>
       <c r="K151" s="1" t="n">
-        <v>77376.1540419207</v>
+        <v>77387.8468878843</v>
       </c>
       <c r="L151" s="1" t="n">
-        <v>57948.9322240381</v>
+        <v>57924.864661811</v>
       </c>
       <c r="M151" s="1" t="n">
-        <v>77199.3198092033</v>
+        <v>77195.3145525269</v>
       </c>
       <c r="N151" s="1" t="n">
-        <v>106341.75366753</v>
+        <v>106401.330214718</v>
       </c>
       <c r="O151" s="1" t="n">
-        <v>74508.1188560933</v>
+        <v>74500.0593500108</v>
       </c>
     </row>
     <row r="152">
@@ -33508,43 +33858,43 @@
         <v>61625.6203590344</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>67004.705568125</v>
+        <v>66815.8626494717</v>
       </c>
       <c r="D152" s="1" t="n">
-        <v>47430.6568009187</v>
+        <v>47640.3475635887</v>
       </c>
       <c r="E152" s="1" t="n">
-        <v>47895.8949994474</v>
+        <v>47792.7247509449</v>
       </c>
       <c r="F152" s="1" t="n">
-        <v>49100.3773286907</v>
+        <v>49095.5101795079</v>
       </c>
       <c r="G152" s="1" t="n">
-        <v>52982.5605051087</v>
+        <v>53041.536982146</v>
       </c>
       <c r="H152" s="1" t="n">
-        <v>61600.9514109268</v>
+        <v>61564.3806975367</v>
       </c>
       <c r="I152" s="1" t="n">
-        <v>56108.4388771525</v>
+        <v>56110.7929586227</v>
       </c>
       <c r="J152" s="1" t="n">
-        <v>73299.8479770717</v>
+        <v>73492.534677323</v>
       </c>
       <c r="K152" s="1" t="n">
-        <v>82307.0991103275</v>
+        <v>82380.7174921848</v>
       </c>
       <c r="L152" s="1" t="n">
-        <v>60163.770920383</v>
+        <v>60105.0240250807</v>
       </c>
       <c r="M152" s="1" t="n">
-        <v>76468.5360175825</v>
+        <v>76617.4768334415</v>
       </c>
       <c r="N152" s="1" t="n">
-        <v>108288.713780195</v>
+        <v>108858.577801566</v>
       </c>
       <c r="O152" s="1" t="n">
-        <v>84813.5489586761</v>
+        <v>84565.7932123022</v>
       </c>
     </row>
     <row r="153">
@@ -33555,43 +33905,43 @@
         <v>62038.6133883779</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>67589.6877271084</v>
+        <v>67226.1578908844</v>
       </c>
       <c r="D153" s="1" t="n">
-        <v>46751.1980534805</v>
+        <v>47100.314441916</v>
       </c>
       <c r="E153" s="1" t="n">
-        <v>48086.1132862846</v>
+        <v>47902.8799198551</v>
       </c>
       <c r="F153" s="1" t="n">
-        <v>49540.0689051308</v>
+        <v>49527.4668398334</v>
       </c>
       <c r="G153" s="1" t="n">
-        <v>53744.8992361926</v>
+        <v>53839.6566545924</v>
       </c>
       <c r="H153" s="1" t="n">
-        <v>61732.7491384296</v>
+        <v>61654.9775084168</v>
       </c>
       <c r="I153" s="1" t="n">
-        <v>55699.7793306699</v>
+        <v>55705.4617757201</v>
       </c>
       <c r="J153" s="1" t="n">
-        <v>73964.9301387488</v>
+        <v>74320.4218891929</v>
       </c>
       <c r="K153" s="1" t="n">
-        <v>82707.9814984877</v>
+        <v>82818.1738748224</v>
       </c>
       <c r="L153" s="1" t="n">
-        <v>60955.7996514488</v>
+        <v>60828.2908999207</v>
       </c>
       <c r="M153" s="1" t="n">
-        <v>75859.9820995744</v>
+        <v>76077.7817165224</v>
       </c>
       <c r="N153" s="1" t="n">
-        <v>107490.995615107</v>
+        <v>108565.036684101</v>
       </c>
       <c r="O153" s="1" t="n">
-        <v>85297.2564657555</v>
+        <v>84898.8375704116</v>
       </c>
     </row>
     <row r="154">
@@ -33602,43 +33952,43 @@
         <v>62057.2816506134</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>68934.8753503354</v>
+        <v>68384.068394729</v>
       </c>
       <c r="D154" s="1" t="n">
-        <v>47609.9192750109</v>
+        <v>48107.1292643585</v>
       </c>
       <c r="E154" s="1" t="n">
-        <v>48625.3110272981</v>
+        <v>48348.4484479476</v>
       </c>
       <c r="F154" s="1" t="n">
-        <v>49331.4240155456</v>
+        <v>49314.9883936224</v>
       </c>
       <c r="G154" s="1" t="n">
-        <v>54471.4442305582</v>
+        <v>54601.7734374797</v>
       </c>
       <c r="H154" s="1" t="n">
-        <v>61863.8928039436</v>
+        <v>61741.3668878831</v>
       </c>
       <c r="I154" s="1" t="n">
-        <v>54873.9013048871</v>
+        <v>54870.7371196426</v>
       </c>
       <c r="J154" s="1" t="n">
-        <v>72600.3031886737</v>
+        <v>73115.1427882398</v>
       </c>
       <c r="K154" s="1" t="n">
-        <v>81305.185622116</v>
+        <v>81439.5749140862</v>
       </c>
       <c r="L154" s="1" t="n">
-        <v>61094.6949304626</v>
+        <v>60900.7371427752</v>
       </c>
       <c r="M154" s="1" t="n">
-        <v>74914.5990778691</v>
+        <v>75232.904728648</v>
       </c>
       <c r="N154" s="1" t="n">
-        <v>104378.483143868</v>
+        <v>105853.43223289</v>
       </c>
       <c r="O154" s="1" t="n">
-        <v>93551.8486001366</v>
+        <v>92956.897478732</v>
       </c>
     </row>
     <row r="155">
@@ -33646,46 +33996,46 @@
         <v>2020</v>
       </c>
       <c r="B155" s="1" t="n">
-        <v>58152.8694231645</v>
+        <v>58438.3070142755</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>61715.631647291</v>
+        <v>61068.4704792706</v>
       </c>
       <c r="D155" s="1" t="n">
-        <v>46253.9908868293</v>
+        <v>46867.6386524533</v>
       </c>
       <c r="E155" s="1" t="n">
-        <v>47025.9990159836</v>
+        <v>46670.5352376947</v>
       </c>
       <c r="F155" s="1" t="n">
-        <v>47706.5016934952</v>
+        <v>47679.9518018156</v>
       </c>
       <c r="G155" s="1" t="n">
-        <v>52625.0802328896</v>
+        <v>52782.0121282713</v>
       </c>
       <c r="H155" s="1" t="n">
-        <v>59374.7585057254</v>
+        <v>59230.8084692319</v>
       </c>
       <c r="I155" s="1" t="n">
-        <v>52876.0305184189</v>
+        <v>52866.6823173436</v>
       </c>
       <c r="J155" s="1" t="n">
-        <v>65999.3024836504</v>
+        <v>66625.7775919876</v>
       </c>
       <c r="K155" s="1" t="n">
-        <v>68219.7631615769</v>
+        <v>68361.9607055708</v>
       </c>
       <c r="L155" s="1" t="n">
-        <v>59628.027958518</v>
+        <v>59390.649448301</v>
       </c>
       <c r="M155" s="1" t="n">
-        <v>76892.0617603112</v>
+        <v>77267.7439344106</v>
       </c>
       <c r="N155" s="1" t="n">
-        <v>92466.8107440568</v>
+        <v>94216.2502246989</v>
       </c>
       <c r="O155" s="1" t="n">
-        <v>103838.394156856</v>
+        <v>102991.463816206</v>
       </c>
     </row>
     <row r="156">
@@ -33693,46 +34043,46 @@
         <v>2021</v>
       </c>
       <c r="B156" s="1" t="n">
-        <v>63524.9523754188</v>
+        <v>63716.8333822695</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>70885.07888037</v>
+        <v>71001.0156405297</v>
       </c>
       <c r="D156" s="1" t="n">
-        <v>50355.2702498161</v>
+        <v>51122.8035182527</v>
       </c>
       <c r="E156" s="1" t="n">
-        <v>49578.513278082</v>
+        <v>49720.2875432901</v>
       </c>
       <c r="F156" s="1" t="n">
-        <v>50713.8304619844</v>
+        <v>50516.6377830233</v>
       </c>
       <c r="G156" s="1" t="n">
-        <v>56627.6268459878</v>
+        <v>57276.8831116378</v>
       </c>
       <c r="H156" s="1" t="n">
-        <v>62733.2092024687</v>
+        <v>63239.3947448109</v>
       </c>
       <c r="I156" s="1" t="n">
-        <v>55398.6649572929</v>
+        <v>55107.5254741894</v>
       </c>
       <c r="J156" s="1" t="n">
-        <v>72530.0052584525</v>
+        <v>73204.5924972913</v>
       </c>
       <c r="K156" s="1" t="n">
-        <v>81948.5392738759</v>
+        <v>82975.0814064543</v>
       </c>
       <c r="L156" s="1" t="n">
-        <v>66195.5119098914</v>
+        <v>66085.0613921363</v>
       </c>
       <c r="M156" s="1" t="n">
-        <v>80331.6351523464</v>
+        <v>81907.9832884825</v>
       </c>
       <c r="N156" s="1" t="n">
-        <v>102932.4520681</v>
+        <v>103763.768326983</v>
       </c>
       <c r="O156" s="1" t="n">
-        <v>115094.979304572</v>
+        <v>106632.674777477</v>
       </c>
     </row>
     <row r="157">
@@ -33740,47 +34090,113 @@
         <v>2022</v>
       </c>
       <c r="B157" s="1" t="n">
-        <v>64870.9412995359</v>
+        <v>65586.3681176421</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>70147.7782006784</v>
+        <v>70277.2075568081</v>
       </c>
       <c r="D157" s="1" t="n">
-        <v>49771.804318111</v>
+        <v>51266.7491834782</v>
       </c>
       <c r="E157" s="1" t="n">
-        <v>48322.441689526</v>
+        <v>48759.5950796613</v>
       </c>
       <c r="F157" s="1" t="n">
-        <v>49653.5029762829</v>
+        <v>51023.1319599462</v>
       </c>
       <c r="G157" s="1" t="n">
-        <v>56850.7058351589</v>
+        <v>57633.9311092027</v>
       </c>
       <c r="H157" s="1" t="n">
-        <v>62862.157572337</v>
+        <v>63534.3673742229</v>
       </c>
       <c r="I157" s="1" t="n">
-        <v>55636.6248462177</v>
+        <v>56370.826509857</v>
       </c>
       <c r="J157" s="1" t="n">
-        <v>86764.8956957404</v>
+        <v>88570.5622681154</v>
       </c>
       <c r="K157" s="1" t="n">
-        <v>91601.0657727292</v>
+        <v>94967.6582094007</v>
       </c>
       <c r="L157" s="1" t="n">
-        <v>67320.2548584176</v>
+        <v>66910.7425389663</v>
       </c>
       <c r="M157" s="1" t="n">
-        <v>81319.7994567745</v>
+        <v>84045.0277807909</v>
       </c>
       <c r="N157" s="1" t="n">
-        <v>110744.783971404</v>
+        <v>111753.282962451</v>
       </c>
       <c r="O157" s="1" t="n">
-        <v>106268.083955248</v>
-      </c>
+        <v>96751.7540669282</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B158" s="1" t="n">
+        <v>63102.3443204601</v>
+      </c>
+      <c r="C158" s="1" t="n">
+        <v>63043.215803789</v>
+      </c>
+      <c r="D158" s="1" t="n">
+        <v>49819.4372073932</v>
+      </c>
+      <c r="E158" s="1" t="n">
+        <v>49174.2105944666</v>
+      </c>
+      <c r="F158" s="1" t="n">
+        <v>49288.2090370573</v>
+      </c>
+      <c r="G158" s="1" t="n">
+        <v>57111.2608936631</v>
+      </c>
+      <c r="H158" s="1" t="n">
+        <v>62490.7518426383</v>
+      </c>
+      <c r="I158" s="1" t="n">
+        <v>55073.3223913219</v>
+      </c>
+      <c r="J158" s="1" t="n">
+        <v>79108.3562634681</v>
+      </c>
+      <c r="K158" s="1" t="n">
+        <v>84219.3794001725</v>
+      </c>
+      <c r="L158" s="1" t="n">
+        <v>64618.23498712</v>
+      </c>
+      <c r="M158" s="1" t="n">
+        <v>83056.6074862845</v>
+      </c>
+      <c r="N158" s="1" t="n">
+        <v>106916.20267422</v>
+      </c>
+      <c r="O158" s="1" t="n">
+        <v>103382.562007642</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B159" s="1"/>
+      <c r="C159" s="1"/>
+      <c r="D159" s="1"/>
+      <c r="E159" s="1"/>
+      <c r="F159" s="1"/>
+      <c r="G159" s="1"/>
+      <c r="H159" s="1"/>
+      <c r="I159" s="1"/>
+      <c r="J159" s="1"/>
+      <c r="K159" s="1"/>
+      <c r="L159" s="1"/>
+      <c r="M159" s="1"/>
+      <c r="N159" s="1"/>
+      <c r="O159" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -38930,7 +39346,7 @@
         <v>2020</v>
       </c>
       <c r="B155" s="1" t="n">
-        <v>122462.064531861</v>
+        <v>123063.157428036</v>
       </c>
       <c r="C155" s="1" t="n">
         <v>149308.584686775</v>
@@ -38977,46 +39393,46 @@
         <v>2021</v>
       </c>
       <c r="B156" s="1" t="n">
-        <v>128183.529010834</v>
+        <v>128566.861209291</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>165584.744494822</v>
+        <v>167960.104575561</v>
       </c>
       <c r="D156" s="1" t="n">
-        <v>103835.214215509</v>
+        <v>103738.341712451</v>
       </c>
       <c r="E156" s="1" t="n">
-        <v>104973.525624082</v>
+        <v>106207.462672156</v>
       </c>
       <c r="F156" s="1" t="n">
-        <v>110272.655211806</v>
+        <v>109900.0225367</v>
       </c>
       <c r="G156" s="1" t="n">
-        <v>113991.158418164</v>
+        <v>114891.792851271</v>
       </c>
       <c r="H156" s="1" t="n">
-        <v>125658.666294364</v>
+        <v>126956.833569194</v>
       </c>
       <c r="I156" s="1" t="n">
-        <v>117515.663286479</v>
+        <v>116893.458226357</v>
       </c>
       <c r="J156" s="1" t="n">
-        <v>152561.320104726</v>
+        <v>152184.098112168</v>
       </c>
       <c r="K156" s="1" t="n">
-        <v>161161.580020663</v>
+        <v>162730.857443895</v>
       </c>
       <c r="L156" s="1" t="n">
-        <v>129274.400262306</v>
+        <v>129661.202523041</v>
       </c>
       <c r="M156" s="1" t="n">
-        <v>155104.608050847</v>
+        <v>156974.670783189</v>
       </c>
       <c r="N156" s="1" t="n">
-        <v>201433.949225286</v>
+        <v>198172.868043495</v>
       </c>
       <c r="O156" s="1" t="n">
-        <v>337516.558018253</v>
+        <v>315653.71577575</v>
       </c>
     </row>
     <row r="157">
@@ -39024,47 +39440,113 @@
         <v>2022</v>
       </c>
       <c r="B157" s="1" t="n">
-        <v>128030.870757665</v>
+        <v>129440.816332288</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>158691.471809751</v>
+        <v>160597.172441258</v>
       </c>
       <c r="D157" s="1" t="n">
-        <v>100896.077618168</v>
+        <v>101810.771154595</v>
       </c>
       <c r="E157" s="1" t="n">
-        <v>101620.131680453</v>
+        <v>103096.32652126</v>
       </c>
       <c r="F157" s="1" t="n">
-        <v>107956.287230049</v>
+        <v>110552.031760198</v>
       </c>
       <c r="G157" s="1" t="n">
-        <v>112274.159535748</v>
+        <v>113526.762770194</v>
       </c>
       <c r="H157" s="1" t="n">
-        <v>122847.856771948</v>
+        <v>124424.797525773</v>
       </c>
       <c r="I157" s="1" t="n">
-        <v>115726.068451161</v>
+        <v>117531.550791698</v>
       </c>
       <c r="J157" s="1" t="n">
-        <v>178275.077681784</v>
+        <v>179495.1366426</v>
       </c>
       <c r="K157" s="1" t="n">
-        <v>175141.538455372</v>
+        <v>180284.954069727</v>
       </c>
       <c r="L157" s="1" t="n">
-        <v>130317.059337857</v>
+        <v>130453.570509158</v>
       </c>
       <c r="M157" s="1" t="n">
-        <v>152719.62966745</v>
+        <v>158464.282873732</v>
       </c>
       <c r="N157" s="1" t="n">
-        <v>204405.364169276</v>
+        <v>201670.998588114</v>
       </c>
       <c r="O157" s="1" t="n">
-        <v>299244.032683523</v>
-      </c>
+        <v>271982.794275788</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B158" s="1" t="n">
+        <v>125036.963349326</v>
+      </c>
+      <c r="C158" s="1" t="n">
+        <v>143533.714825401</v>
+      </c>
+      <c r="D158" s="1" t="n">
+        <v>97239.1448944707</v>
+      </c>
+      <c r="E158" s="1" t="n">
+        <v>104362.926986954</v>
+      </c>
+      <c r="F158" s="1" t="n">
+        <v>106124.591665068</v>
+      </c>
+      <c r="G158" s="1" t="n">
+        <v>112134.204378739</v>
+      </c>
+      <c r="H158" s="1" t="n">
+        <v>123351.942136652</v>
+      </c>
+      <c r="I158" s="1" t="n">
+        <v>115343.406616065</v>
+      </c>
+      <c r="J158" s="1" t="n">
+        <v>161543.885491229</v>
+      </c>
+      <c r="K158" s="1" t="n">
+        <v>160305.091979773</v>
+      </c>
+      <c r="L158" s="1" t="n">
+        <v>128031.80442643</v>
+      </c>
+      <c r="M158" s="1" t="n">
+        <v>158378.296238334</v>
+      </c>
+      <c r="N158" s="1" t="n">
+        <v>200860.105887323</v>
+      </c>
+      <c r="O158" s="1" t="n">
+        <v>296314.808007818</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B159" s="1"/>
+      <c r="C159" s="1"/>
+      <c r="D159" s="1"/>
+      <c r="E159" s="1"/>
+      <c r="F159" s="1"/>
+      <c r="G159" s="1"/>
+      <c r="H159" s="1"/>
+      <c r="I159" s="1"/>
+      <c r="J159" s="1"/>
+      <c r="K159" s="1"/>
+      <c r="L159" s="1"/>
+      <c r="M159" s="1"/>
+      <c r="N159" s="1"/>
+      <c r="O159" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -44384,10 +44866,10 @@
         <v>2663900</v>
       </c>
       <c r="M156" s="1" t="n">
-        <v>22400</v>
+        <v>22416.6666666667</v>
       </c>
       <c r="N156" s="1" t="n">
-        <v>23300</v>
+        <v>23341.6666666667</v>
       </c>
       <c r="O156" s="1" t="n">
         <v>13541.6666666667</v>
@@ -44431,13 +44913,85 @@
         <v>2747900</v>
       </c>
       <c r="M157" s="1" t="n">
-        <v>23316.6666666667</v>
+        <v>23283.3333333333</v>
       </c>
       <c r="N157" s="1" t="n">
-        <v>24708.3333333333</v>
+        <v>24733.3333333333</v>
       </c>
       <c r="O157" s="1" t="n">
         <v>14391.6666666667</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B158" s="1" t="n">
+        <v>20170900</v>
+      </c>
+      <c r="C158" s="1" t="n">
+        <v>236700</v>
+      </c>
+      <c r="D158" s="1" t="n">
+        <v>89000</v>
+      </c>
+      <c r="E158" s="1" t="n">
+        <v>497800</v>
+      </c>
+      <c r="F158" s="1" t="n">
+        <v>386500</v>
+      </c>
+      <c r="G158" s="1" t="n">
+        <v>4506400</v>
+      </c>
+      <c r="H158" s="1" t="n">
+        <v>7914800</v>
+      </c>
+      <c r="I158" s="1" t="n">
+        <v>694600</v>
+      </c>
+      <c r="J158" s="1" t="n">
+        <v>592200</v>
+      </c>
+      <c r="K158" s="1" t="n">
+        <v>2461100</v>
+      </c>
+      <c r="L158" s="1" t="n">
+        <v>2791800</v>
+      </c>
+      <c r="M158" s="1" t="n">
+        <v>23841.6666666667</v>
+      </c>
+      <c r="N158" s="1" t="n">
+        <v>23783.3333333333</v>
+      </c>
+      <c r="O158" s="1" t="n">
+        <v>14200</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B159" s="1"/>
+      <c r="C159" s="1"/>
+      <c r="D159" s="1"/>
+      <c r="E159" s="1"/>
+      <c r="F159" s="1"/>
+      <c r="G159" s="1"/>
+      <c r="H159" s="1"/>
+      <c r="I159" s="1"/>
+      <c r="J159" s="1"/>
+      <c r="K159" s="1"/>
+      <c r="L159" s="1"/>
+      <c r="M159" s="1" t="n">
+        <v>25000</v>
+      </c>
+      <c r="N159" s="1" t="n">
+        <v>22930</v>
+      </c>
+      <c r="O159" s="1" t="n">
+        <v>14410</v>
       </c>
     </row>
   </sheetData>
